--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -13240,7 +13240,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K240" s="19" t="n"/>
+      <c r="K240" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L240" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -22302,11 +22302,15 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
-      <c r="F413" s="18" t="n"/>
+      <c r="F413" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="G413" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -22349,11 +22353,15 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
-      <c r="F414" s="18" t="n"/>
+      <c r="F414" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="G414" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -22400,7 +22408,11 @@
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
-      <c r="F415" s="18" t="n"/>
+      <c r="F415" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="G415" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -22443,11 +22455,15 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
-      <c r="F416" s="18" t="n"/>
+      <c r="F416" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="G416" t="inlineStr">
         <is>
           <t>未確認</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -22491,7 +22491,7 @@
     <row r="417">
       <c r="A417" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B417" s="18" t="inlineStr">
@@ -22546,7 +22546,7 @@
     <row r="418">
       <c r="A418" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B418" s="18" t="inlineStr">
@@ -22601,7 +22601,7 @@
     <row r="419">
       <c r="A419" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B419" s="18" t="inlineStr">
@@ -22652,7 +22652,7 @@
     <row r="420">
       <c r="A420" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B420" s="18" t="inlineStr">
@@ -22699,7 +22699,7 @@
     <row r="421">
       <c r="A421" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B421" s="18" t="inlineStr">
@@ -22754,7 +22754,7 @@
     <row r="422">
       <c r="A422" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B422" s="18" t="inlineStr">
@@ -22809,7 +22809,7 @@
     <row r="423">
       <c r="A423" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B423" s="18" t="inlineStr">
@@ -22864,7 +22864,7 @@
     <row r="424">
       <c r="A424" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B424" s="18" t="inlineStr">
@@ -22915,7 +22915,7 @@
     <row r="425">
       <c r="A425" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B425" s="18" t="inlineStr">
@@ -22966,7 +22966,7 @@
     <row r="426">
       <c r="A426" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B426" s="18" t="inlineStr">
@@ -23021,7 +23021,7 @@
     <row r="427">
       <c r="A427" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B427" s="18" t="inlineStr">
@@ -23076,7 +23076,7 @@
     <row r="428">
       <c r="A428" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B428" s="18" t="inlineStr">
@@ -23131,7 +23131,7 @@
     <row r="429">
       <c r="A429" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B429" s="18" t="inlineStr">
@@ -23182,7 +23182,7 @@
     <row r="430">
       <c r="A430" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B430" s="18" t="inlineStr">
@@ -23237,7 +23237,7 @@
     <row r="431">
       <c r="A431" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B431" s="18" t="inlineStr">
@@ -23292,7 +23292,7 @@
     <row r="432">
       <c r="A432" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B432" s="18" t="inlineStr">
@@ -23347,7 +23347,7 @@
     <row r="433">
       <c r="A433" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B433" s="18" t="inlineStr">
@@ -23402,7 +23402,7 @@
     <row r="434">
       <c r="A434" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B434" s="18" t="inlineStr">
@@ -23457,7 +23457,7 @@
     <row r="435">
       <c r="A435" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B435" s="18" t="inlineStr">
@@ -23512,7 +23512,7 @@
     <row r="436">
       <c r="A436" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B436" s="18" t="inlineStr">
@@ -23567,7 +23567,7 @@
     <row r="437">
       <c r="A437" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B437" s="18" t="inlineStr">
@@ -23622,7 +23622,7 @@
     <row r="438">
       <c r="A438" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B438" s="18" t="inlineStr">
@@ -23673,7 +23673,7 @@
     <row r="439">
       <c r="A439" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B439" s="18" t="inlineStr">
@@ -23728,7 +23728,7 @@
     <row r="440">
       <c r="A440" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B440" s="18" t="inlineStr">
@@ -23783,7 +23783,7 @@
     <row r="441">
       <c r="A441" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B441" s="18" t="inlineStr">
@@ -23838,7 +23838,7 @@
     <row r="442">
       <c r="A442" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B442" s="18" t="inlineStr">
@@ -23889,7 +23889,7 @@
     <row r="443">
       <c r="A443" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B443" s="18" t="inlineStr">
@@ -23940,7 +23940,7 @@
     <row r="444">
       <c r="A444" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B444" s="18" t="inlineStr">
@@ -23995,7 +23995,7 @@
     <row r="445">
       <c r="A445" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B445" s="18" t="inlineStr">
@@ -24050,7 +24050,7 @@
     <row r="446">
       <c r="A446" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B446" s="18" t="inlineStr">
@@ -24101,7 +24101,7 @@
     <row r="447">
       <c r="A447" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B447" s="18" t="inlineStr">
@@ -24156,7 +24156,7 @@
     <row r="448">
       <c r="A448" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B448" s="18" t="inlineStr">
@@ -24211,7 +24211,7 @@
     <row r="449">
       <c r="A449" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B449" s="18" t="inlineStr">
@@ -24266,7 +24266,7 @@
     <row r="450">
       <c r="A450" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B450" s="18" t="inlineStr">
@@ -24321,7 +24321,7 @@
     <row r="451">
       <c r="A451" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B451" s="18" t="inlineStr">
@@ -24372,7 +24372,7 @@
     <row r="452">
       <c r="A452" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B452" s="18" t="inlineStr">
@@ -24423,7 +24423,7 @@
     <row r="453">
       <c r="A453" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B453" s="18" t="inlineStr">
@@ -24474,7 +24474,7 @@
     <row r="454">
       <c r="A454" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B454" s="18" t="inlineStr">
@@ -24525,7 +24525,7 @@
     <row r="455">
       <c r="A455" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B455" s="18" t="inlineStr">
@@ -24580,7 +24580,7 @@
     <row r="456">
       <c r="A456" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B456" s="18" t="inlineStr">
@@ -24635,7 +24635,7 @@
     <row r="457">
       <c r="A457" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B457" s="18" t="inlineStr">
@@ -24686,7 +24686,7 @@
     <row r="458">
       <c r="A458" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B458" s="18" t="inlineStr">
@@ -24741,7 +24741,7 @@
     <row r="459">
       <c r="A459" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B459" s="18" t="inlineStr">
@@ -24792,7 +24792,7 @@
     <row r="460">
       <c r="A460" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B460" s="18" t="inlineStr">
@@ -24847,7 +24847,7 @@
     <row r="461">
       <c r="A461" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B461" s="18" t="inlineStr">
@@ -24898,7 +24898,7 @@
     <row r="462">
       <c r="A462" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B462" s="18" t="inlineStr">
@@ -24949,7 +24949,7 @@
     <row r="463">
       <c r="A463" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B463" s="18" t="inlineStr">
@@ -25000,7 +25000,7 @@
     <row r="464">
       <c r="A464" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B464" s="18" t="inlineStr">
@@ -25051,7 +25051,7 @@
     <row r="465">
       <c r="A465" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B465" s="18" t="inlineStr">
@@ -25102,7 +25102,7 @@
     <row r="466">
       <c r="A466" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B466" s="18" t="inlineStr">
@@ -25153,7 +25153,7 @@
     <row r="467">
       <c r="A467" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B467" s="18" t="inlineStr">
@@ -25204,7 +25204,7 @@
     <row r="468">
       <c r="A468" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B468" s="18" t="inlineStr">
@@ -25255,7 +25255,7 @@
     <row r="469">
       <c r="A469" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B469" s="18" t="inlineStr">
@@ -25306,7 +25306,7 @@
     <row r="470">
       <c r="A470" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B470" s="18" t="inlineStr">
@@ -25361,7 +25361,7 @@
     <row r="471">
       <c r="A471" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B471" s="18" t="inlineStr">
@@ -25416,7 +25416,7 @@
     <row r="472">
       <c r="A472" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B472" s="18" t="inlineStr">
@@ -25471,7 +25471,7 @@
     <row r="473">
       <c r="A473" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B473" s="18" t="inlineStr">
@@ -25526,7 +25526,7 @@
     <row r="474">
       <c r="A474" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B474" s="18" t="inlineStr">
@@ -25577,7 +25577,7 @@
     <row r="475">
       <c r="A475" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B475" s="18" t="inlineStr">
@@ -25628,7 +25628,7 @@
     <row r="476">
       <c r="A476" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B476" s="18" t="inlineStr">
@@ -25683,7 +25683,7 @@
     <row r="477">
       <c r="A477" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B477" s="18" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="478">
       <c r="A478" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B478" s="18" t="inlineStr">
@@ -25793,7 +25793,7 @@
     <row r="479">
       <c r="A479" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B479" s="18" t="inlineStr">
@@ -25844,7 +25844,7 @@
     <row r="480">
       <c r="A480" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B480" s="18" t="inlineStr">
@@ -25895,7 +25895,7 @@
     <row r="481">
       <c r="A481" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B481" s="18" t="inlineStr">
@@ -25950,7 +25950,7 @@
     <row r="482">
       <c r="A482" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B482" s="18" t="inlineStr">
@@ -26001,7 +26001,7 @@
     <row r="483">
       <c r="A483" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B483" s="18" t="inlineStr">
@@ -26052,7 +26052,7 @@
     <row r="484">
       <c r="A484" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B484" s="18" t="inlineStr">
@@ -26107,7 +26107,7 @@
     <row r="485">
       <c r="A485" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B485" s="18" t="inlineStr">
@@ -26162,7 +26162,7 @@
     <row r="486">
       <c r="A486" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B486" s="18" t="inlineStr">
@@ -26217,7 +26217,7 @@
     <row r="487">
       <c r="A487" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B487" s="18" t="inlineStr">
@@ -26272,7 +26272,7 @@
     <row r="488">
       <c r="A488" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B488" s="18" t="inlineStr">
@@ -26327,7 +26327,7 @@
     <row r="489">
       <c r="A489" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B489" s="18" t="inlineStr">
@@ -26382,7 +26382,7 @@
     <row r="490">
       <c r="A490" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B490" s="18" t="inlineStr">
@@ -26433,7 +26433,7 @@
     <row r="491">
       <c r="A491" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B491" s="18" t="inlineStr">
@@ -26488,7 +26488,7 @@
     <row r="492">
       <c r="A492" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B492" s="18" t="inlineStr">
@@ -26543,7 +26543,7 @@
     <row r="493">
       <c r="A493" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B493" s="18" t="inlineStr">
@@ -26598,7 +26598,7 @@
     <row r="494">
       <c r="A494" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B494" s="18" t="inlineStr">
@@ -26653,7 +26653,7 @@
     <row r="495">
       <c r="A495" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B495" s="18" t="inlineStr">
@@ -26704,7 +26704,7 @@
     <row r="496">
       <c r="A496" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B496" s="18" t="inlineStr">
@@ -26759,7 +26759,7 @@
     <row r="497">
       <c r="A497" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B497" s="18" t="inlineStr">
@@ -26810,7 +26810,7 @@
     <row r="498">
       <c r="A498" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B498" s="18" t="inlineStr">
@@ -26861,7 +26861,7 @@
     <row r="499">
       <c r="A499" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B499" s="18" t="inlineStr">
@@ -26916,7 +26916,7 @@
     <row r="500">
       <c r="A500" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B500" s="18" t="inlineStr">
@@ -26971,7 +26971,7 @@
     <row r="501">
       <c r="A501" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B501" s="18" t="inlineStr">
@@ -27026,7 +27026,7 @@
     <row r="502">
       <c r="A502" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B502" s="18" t="inlineStr">
@@ -27081,7 +27081,7 @@
     <row r="503">
       <c r="A503" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B503" s="18" t="inlineStr">
@@ -27136,7 +27136,7 @@
     <row r="504">
       <c r="A504" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B504" s="18" t="inlineStr">
@@ -27191,7 +27191,7 @@
     <row r="505">
       <c r="A505" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B505" s="18" t="inlineStr">
@@ -27246,7 +27246,7 @@
     <row r="506">
       <c r="A506" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B506" s="18" t="inlineStr">
@@ -27301,7 +27301,7 @@
     <row r="507">
       <c r="A507" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B507" s="18" t="inlineStr">
@@ -27356,7 +27356,7 @@
     <row r="508">
       <c r="A508" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B508" s="18" t="inlineStr">
@@ -27411,7 +27411,7 @@
     <row r="509">
       <c r="A509" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B509" s="18" t="inlineStr">
@@ -27466,7 +27466,7 @@
     <row r="510">
       <c r="A510" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B510" s="18" t="inlineStr">
@@ -27521,7 +27521,7 @@
     <row r="511">
       <c r="A511" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B511" s="18" t="inlineStr">
@@ -27576,7 +27576,7 @@
     <row r="512">
       <c r="A512" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B512" s="18" t="inlineStr">
@@ -27631,7 +27631,7 @@
     <row r="513">
       <c r="A513" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B513" s="18" t="inlineStr">
@@ -27686,7 +27686,7 @@
     <row r="514">
       <c r="A514" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B514" s="18" t="inlineStr">
@@ -27741,7 +27741,7 @@
     <row r="515">
       <c r="A515" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B515" s="18" t="inlineStr">
@@ -27796,7 +27796,7 @@
     <row r="516">
       <c r="A516" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B516" s="18" t="inlineStr">
@@ -27851,7 +27851,7 @@
     <row r="517">
       <c r="A517" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B517" s="18" t="inlineStr">
@@ -27906,7 +27906,7 @@
     <row r="518">
       <c r="A518" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B518" s="18" t="inlineStr">
@@ -27961,7 +27961,7 @@
     <row r="519">
       <c r="A519" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B519" s="18" t="inlineStr">
@@ -28016,7 +28016,7 @@
     <row r="520">
       <c r="A520" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B520" s="18" t="inlineStr">
@@ -28071,7 +28071,7 @@
     <row r="521">
       <c r="A521" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B521" s="18" t="inlineStr">
@@ -28126,7 +28126,7 @@
     <row r="522">
       <c r="A522" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B522" s="18" t="inlineStr">
@@ -28181,7 +28181,7 @@
     <row r="523">
       <c r="A523" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B523" s="18" t="inlineStr">
@@ -28236,7 +28236,7 @@
     <row r="524">
       <c r="A524" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B524" s="18" t="inlineStr">
@@ -28291,7 +28291,7 @@
     <row r="525">
       <c r="A525" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B525" s="18" t="inlineStr">
@@ -28346,7 +28346,7 @@
     <row r="526">
       <c r="A526" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B526" s="18" t="inlineStr">
@@ -28401,7 +28401,7 @@
     <row r="527">
       <c r="A527" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B527" s="18" t="inlineStr">
@@ -28456,7 +28456,7 @@
     <row r="528">
       <c r="A528" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B528" s="18" t="inlineStr">
@@ -28511,7 +28511,7 @@
     <row r="529">
       <c r="A529" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B529" s="18" t="inlineStr">
@@ -28562,7 +28562,7 @@
     <row r="530">
       <c r="A530" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B530" s="18" t="inlineStr">
@@ -28613,7 +28613,7 @@
     <row r="531">
       <c r="A531" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B531" s="18" t="inlineStr">
@@ -28664,7 +28664,7 @@
     <row r="532">
       <c r="A532" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B532" s="18" t="inlineStr">
@@ -28715,7 +28715,7 @@
     <row r="533">
       <c r="A533" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B533" s="18" t="inlineStr">
@@ -28766,7 +28766,7 @@
     <row r="534">
       <c r="A534" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B534" s="18" t="inlineStr">
@@ -28817,7 +28817,7 @@
     <row r="535">
       <c r="A535" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B535" s="18" t="inlineStr">
@@ -28868,7 +28868,7 @@
     <row r="536">
       <c r="A536" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B536" s="18" t="inlineStr">
@@ -28915,7 +28915,7 @@
     <row r="537">
       <c r="A537" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B537" s="18" t="inlineStr">
@@ -28966,7 +28966,7 @@
     <row r="538">
       <c r="A538" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B538" s="18" t="inlineStr">
@@ -29021,7 +29021,7 @@
     <row r="539">
       <c r="A539" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B539" s="18" t="inlineStr">
@@ -29076,7 +29076,7 @@
     <row r="540">
       <c r="A540" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B540" s="18" t="inlineStr">
@@ -29123,7 +29123,7 @@
     <row r="541">
       <c r="A541" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B541" s="18" t="inlineStr">
@@ -29178,7 +29178,7 @@
     <row r="542">
       <c r="A542" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B542" s="18" t="inlineStr">
@@ -29229,7 +29229,7 @@
     <row r="543">
       <c r="A543" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B543" s="18" t="inlineStr">
@@ -29280,7 +29280,7 @@
     <row r="544">
       <c r="A544" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B544" s="18" t="inlineStr">
@@ -29335,7 +29335,7 @@
     <row r="545">
       <c r="A545" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B545" s="18" t="inlineStr">
@@ -29390,7 +29390,7 @@
     <row r="546">
       <c r="A546" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B546" s="18" t="inlineStr">
@@ -29441,7 +29441,7 @@
     <row r="547">
       <c r="A547" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B547" s="18" t="inlineStr">
@@ -29496,7 +29496,7 @@
     <row r="548">
       <c r="A548" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B548" s="18" t="inlineStr">
@@ -29551,7 +29551,7 @@
     <row r="549">
       <c r="A549" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B549" s="18" t="inlineStr">
@@ -29606,7 +29606,7 @@
     <row r="550">
       <c r="A550" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B550" s="18" t="inlineStr">
@@ -29661,7 +29661,7 @@
     <row r="551">
       <c r="A551" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B551" s="18" t="inlineStr">
@@ -29716,7 +29716,7 @@
     <row r="552">
       <c r="A552" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B552" s="18" t="inlineStr">
@@ -29771,7 +29771,7 @@
     <row r="553">
       <c r="A553" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B553" s="18" t="inlineStr">
@@ -29826,7 +29826,7 @@
     <row r="554">
       <c r="A554" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B554" s="18" t="inlineStr">
@@ -29881,7 +29881,7 @@
     <row r="555">
       <c r="A555" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B555" s="18" t="inlineStr">
@@ -29936,7 +29936,7 @@
     <row r="556">
       <c r="A556" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B556" s="18" t="inlineStr">
@@ -29991,7 +29991,7 @@
     <row r="557">
       <c r="A557" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B557" s="18" t="inlineStr">
@@ -30046,7 +30046,7 @@
     <row r="558">
       <c r="A558" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B558" s="18" t="inlineStr">
@@ -30061,7 +30061,7 @@
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="E558" s="18" t="n"/>
@@ -30083,13 +30083,13 @@
       </c>
       <c r="J558" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="K558" s="19" t="n"/>
       <c r="L558" s="19" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M558" s="20" t="n"/>
@@ -30101,7 +30101,7 @@
     <row r="559">
       <c r="A559" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B559" s="18" t="inlineStr">
@@ -30116,13 +30116,13 @@
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
         </is>
       </c>
       <c r="E559" s="18" t="n"/>
       <c r="F559" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -30136,11 +30136,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J559" s="13" t="n"/>
+      <c r="J559" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K559" s="19" t="n"/>
       <c r="L559" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M559" s="20" t="n"/>
@@ -30152,7 +30156,7 @@
     <row r="560">
       <c r="A560" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B560" s="18" t="inlineStr">
@@ -30167,13 +30171,13 @@
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
       <c r="F560" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -30187,15 +30191,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J560" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="J560" s="13" t="n"/>
       <c r="K560" s="19" t="n"/>
       <c r="L560" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M560" s="20" t="n"/>
@@ -30207,7 +30207,7 @@
     <row r="561">
       <c r="A561" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B561" s="18" t="inlineStr">
@@ -30222,7 +30222,7 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
@@ -30244,13 +30244,13 @@
       </c>
       <c r="J561" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="K561" s="19" t="n"/>
       <c r="L561" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M561" s="20" t="n"/>
@@ -30262,7 +30262,7 @@
     <row r="562">
       <c r="A562" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B562" s="18" t="inlineStr">
@@ -30277,13 +30277,13 @@
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
       <c r="F562" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -30299,13 +30299,13 @@
       </c>
       <c r="J562" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K562" s="19" t="n"/>
       <c r="L562" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M562" s="20" t="n"/>
@@ -30317,7 +30317,7 @@
     <row r="563">
       <c r="A563" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B563" s="18" t="inlineStr">
@@ -30332,7 +30332,7 @@
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
@@ -30354,13 +30354,13 @@
       </c>
       <c r="J563" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K563" s="19" t="n"/>
       <c r="L563" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M563" s="20" t="n"/>
@@ -30372,7 +30372,7 @@
     <row r="564">
       <c r="A564" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B564" s="18" t="inlineStr">
@@ -30387,13 +30387,13 @@
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
       <c r="F564" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -30409,13 +30409,13 @@
       </c>
       <c r="J564" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K564" s="19" t="n"/>
       <c r="L564" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M564" s="20" t="n"/>
@@ -30427,7 +30427,7 @@
     <row r="565">
       <c r="A565" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B565" s="18" t="inlineStr">
@@ -30442,13 +30442,13 @@
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="E565" s="18" t="n"/>
       <c r="F565" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -30464,13 +30464,13 @@
       </c>
       <c r="J565" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K565" s="19" t="n"/>
       <c r="L565" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M565" s="20" t="n"/>
@@ -30482,7 +30482,7 @@
     <row r="566">
       <c r="A566" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B566" s="18" t="inlineStr">
@@ -30497,13 +30497,13 @@
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="E566" s="18" t="n"/>
       <c r="F566" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
@@ -30519,13 +30519,13 @@
       </c>
       <c r="J566" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K566" s="19" t="n"/>
       <c r="L566" s="19" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M566" s="20" t="n"/>
@@ -30537,7 +30537,7 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
@@ -30547,18 +30547,18 @@
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="E567" s="18" t="n"/>
       <c r="F567" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
@@ -30567,12 +30567,20 @@
         </is>
       </c>
       <c r="H567" s="18" t="n"/>
-      <c r="I567" s="13" t="n"/>
-      <c r="J567" s="13" t="n"/>
+      <c r="I567" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J567" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K567" s="19" t="n"/>
       <c r="L567" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M567" s="20" t="n"/>
@@ -30599,13 +30607,13 @@
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
+          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
         </is>
       </c>
       <c r="E568" s="18" t="n"/>
       <c r="F568" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
@@ -30619,7 +30627,7 @@
       <c r="K568" s="19" t="n"/>
       <c r="L568" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M568" s="20" t="n"/>
@@ -30646,13 +30654,13 @@
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
+          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
       <c r="F569" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -30666,7 +30674,7 @@
       <c r="K569" s="19" t="n"/>
       <c r="L569" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M569" s="20" t="n"/>
@@ -30693,13 +30701,13 @@
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
+          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
       <c r="F570" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -30713,7 +30721,7 @@
       <c r="K570" s="19" t="n"/>
       <c r="L570" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M570" s="20" t="n"/>
@@ -30740,7 +30748,7 @@
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
+          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30760,7 +30768,7 @@
       <c r="K571" s="19" t="n"/>
       <c r="L571" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M571" s="20" t="n"/>
@@ -30787,13 +30795,13 @@
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
+          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
         </is>
       </c>
       <c r="E572" s="18" t="n"/>
       <c r="F572" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -30807,7 +30815,7 @@
       <c r="K572" s="19" t="n"/>
       <c r="L572" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M572" s="20" t="n"/>
@@ -30834,13 +30842,13 @@
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
+          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
       <c r="F573" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -30854,7 +30862,7 @@
       <c r="K573" s="19" t="n"/>
       <c r="L573" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M573" s="20" t="n"/>
@@ -30881,7 +30889,7 @@
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
+          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
@@ -30901,7 +30909,7 @@
       <c r="K574" s="19" t="n"/>
       <c r="L574" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M574" s="20" t="n"/>
@@ -30928,13 +30936,13 @@
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
+          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
         </is>
       </c>
       <c r="E575" s="18" t="n"/>
       <c r="F575" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -30948,7 +30956,7 @@
       <c r="K575" s="19" t="n"/>
       <c r="L575" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M575" s="20" t="n"/>
@@ -30975,7 +30983,7 @@
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
+          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
         </is>
       </c>
       <c r="E576" s="18" t="n"/>
@@ -30995,7 +31003,7 @@
       <c r="K576" s="19" t="n"/>
       <c r="L576" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M576" s="20" t="n"/>
@@ -31012,7 +31020,7 @@
       </c>
       <c r="B577" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C577" s="18" t="inlineStr">
@@ -31022,7 +31030,7 @@
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
+          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
         </is>
       </c>
       <c r="E577" s="18" t="n"/>
@@ -31037,16 +31045,12 @@
         </is>
       </c>
       <c r="H577" s="18" t="n"/>
-      <c r="I577" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I577" s="13" t="n"/>
       <c r="J577" s="13" t="n"/>
       <c r="K577" s="19" t="n"/>
       <c r="L577" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M577" s="20" t="n"/>
@@ -31063,7 +31067,7 @@
       </c>
       <c r="B578" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C578" s="18" t="inlineStr">
@@ -31073,7 +31077,7 @@
       </c>
       <c r="D578" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
+          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
         </is>
       </c>
       <c r="E578" s="18" t="n"/>
@@ -31088,12 +31092,16 @@
         </is>
       </c>
       <c r="H578" s="18" t="n"/>
-      <c r="I578" s="13" t="n"/>
+      <c r="I578" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J578" s="13" t="n"/>
       <c r="K578" s="19" t="n"/>
       <c r="L578" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M578" s="20" t="n"/>
@@ -31120,13 +31128,13 @@
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E579" s="18" t="n"/>
       <c r="F579" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
@@ -31140,7 +31148,7 @@
       <c r="K579" s="19" t="n"/>
       <c r="L579" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M579" s="20" t="n"/>
@@ -31167,7 +31175,7 @@
       </c>
       <c r="D580" s="18" t="inlineStr">
         <is>
-          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E580" s="18" t="n"/>
@@ -31187,7 +31195,7 @@
       <c r="K580" s="19" t="n"/>
       <c r="L580" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M580" s="20" t="n"/>
@@ -31214,13 +31222,13 @@
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
+          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E581" s="18" t="n"/>
       <c r="F581" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -31234,7 +31242,7 @@
       <c r="K581" s="19" t="n"/>
       <c r="L581" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M581" s="20" t="n"/>
@@ -31251,7 +31259,7 @@
       </c>
       <c r="B582" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C582" s="18" t="inlineStr">
@@ -31261,7 +31269,7 @@
       </c>
       <c r="D582" s="18" t="inlineStr">
         <is>
-          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
+          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
         </is>
       </c>
       <c r="E582" s="18" t="n"/>
@@ -31281,7 +31289,7 @@
       <c r="K582" s="19" t="n"/>
       <c r="L582" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M582" s="20" t="n"/>
@@ -31308,7 +31316,7 @@
       </c>
       <c r="D583" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
+          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
         </is>
       </c>
       <c r="E583" s="18" t="n"/>
@@ -31328,7 +31336,7 @@
       <c r="K583" s="19" t="n"/>
       <c r="L583" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M583" s="20" t="n"/>
@@ -31355,13 +31363,13 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
+          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
       <c r="F584" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
@@ -31375,7 +31383,7 @@
       <c r="K584" s="19" t="n"/>
       <c r="L584" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M584" s="20" t="n"/>
@@ -31402,13 +31410,13 @@
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
+          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
         </is>
       </c>
       <c r="E585" s="18" t="n"/>
       <c r="F585" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -31422,7 +31430,7 @@
       <c r="K585" s="19" t="n"/>
       <c r="L585" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M585" s="20" t="n"/>
@@ -31449,13 +31457,13 @@
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
+          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
         </is>
       </c>
       <c r="E586" s="18" t="n"/>
       <c r="F586" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -31469,7 +31477,7 @@
       <c r="K586" s="19" t="n"/>
       <c r="L586" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M586" s="20" t="n"/>
@@ -31496,7 +31504,7 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
+          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
@@ -31516,7 +31524,7 @@
       <c r="K587" s="19" t="n"/>
       <c r="L587" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M587" s="20" t="n"/>
@@ -31543,13 +31551,13 @@
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
+          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
         </is>
       </c>
       <c r="E588" s="18" t="n"/>
       <c r="F588" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -31563,7 +31571,7 @@
       <c r="K588" s="19" t="n"/>
       <c r="L588" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M588" s="20" t="n"/>
@@ -31590,13 +31598,13 @@
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
+          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
         </is>
       </c>
       <c r="E589" s="18" t="n"/>
       <c r="F589" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -31610,7 +31618,7 @@
       <c r="K589" s="19" t="n"/>
       <c r="L589" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M589" s="20" t="n"/>
@@ -31637,13 +31645,13 @@
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
+          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
         </is>
       </c>
       <c r="E590" s="18" t="n"/>
       <c r="F590" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -31657,7 +31665,7 @@
       <c r="K590" s="19" t="n"/>
       <c r="L590" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M590" s="20" t="n"/>
@@ -31684,7 +31692,7 @@
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
+          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
         </is>
       </c>
       <c r="E591" s="18" t="n"/>
@@ -31704,7 +31712,7 @@
       <c r="K591" s="19" t="n"/>
       <c r="L591" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M591" s="20" t="n"/>
@@ -31731,13 +31739,13 @@
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
+          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
         </is>
       </c>
       <c r="E592" s="18" t="n"/>
       <c r="F592" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -31751,7 +31759,7 @@
       <c r="K592" s="19" t="n"/>
       <c r="L592" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M592" s="20" t="n"/>
@@ -31778,7 +31786,7 @@
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
+          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>
@@ -31798,7 +31806,7 @@
       <c r="K593" s="19" t="n"/>
       <c r="L593" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M593" s="20" t="n"/>
@@ -31825,7 +31833,7 @@
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
+          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
         </is>
       </c>
       <c r="E594" s="18" t="n"/>
@@ -31845,7 +31853,7 @@
       <c r="K594" s="19" t="n"/>
       <c r="L594" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M594" s="20" t="n"/>
@@ -31872,7 +31880,7 @@
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
+          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
@@ -31892,7 +31900,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -31919,7 +31927,7 @@
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
+          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
         </is>
       </c>
       <c r="E596" s="18" t="n"/>
@@ -31939,7 +31947,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -31966,13 +31974,13 @@
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
+          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
       <c r="F597" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
@@ -31986,7 +31994,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -32013,7 +32021,7 @@
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
+          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
@@ -32033,7 +32041,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -32060,13 +32068,13 @@
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
+          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
       <c r="F599" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -32080,7 +32088,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -32097,7 +32105,7 @@
       </c>
       <c r="B600" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C600" s="18" t="inlineStr">
@@ -32107,13 +32115,13 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
+          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
       <c r="F600" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -32127,7 +32135,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -32154,7 +32162,7 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
+          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32174,7 +32182,7 @@
       <c r="K601" s="19" t="n"/>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -32201,7 +32209,7 @@
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
+          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
         </is>
       </c>
       <c r="E602" s="18" t="n"/>
@@ -32221,7 +32229,7 @@
       <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -32238,7 +32246,7 @@
       </c>
       <c r="B603" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C603" s="18" t="inlineStr">
@@ -32248,13 +32256,13 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
+          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
       <c r="F603" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -32268,7 +32276,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -32295,7 +32303,7 @@
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
+          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
@@ -32315,7 +32323,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -32332,7 +32340,7 @@
       </c>
       <c r="B605" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C605" s="18" t="inlineStr">
@@ -32342,7 +32350,7 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
+          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
@@ -32362,7 +32370,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -32389,13 +32397,13 @@
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
+          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
       <c r="F606" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -32409,7 +32417,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -32426,7 +32434,7 @@
       </c>
       <c r="B607" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C607" s="18" t="inlineStr">
@@ -32436,13 +32444,13 @@
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
+          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
       <c r="F607" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -32456,7 +32464,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -32473,7 +32481,7 @@
       </c>
       <c r="B608" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C608" s="18" t="inlineStr">
@@ -32483,13 +32491,13 @@
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
+          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
       <c r="F608" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
@@ -32503,7 +32511,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -32520,7 +32528,7 @@
       </c>
       <c r="B609" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C609" s="18" t="inlineStr">
@@ -32530,13 +32538,13 @@
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
+          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
         </is>
       </c>
       <c r="E609" s="18" t="n"/>
       <c r="F609" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -32550,7 +32558,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32577,7 +32585,7 @@
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
+          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
         </is>
       </c>
       <c r="E610" s="18" t="n"/>
@@ -32597,7 +32605,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32614,7 +32622,7 @@
       </c>
       <c r="B611" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C611" s="18" t="inlineStr">
@@ -32624,13 +32632,13 @@
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
         </is>
       </c>
       <c r="E611" s="18" t="n"/>
       <c r="F611" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -32644,7 +32652,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32671,13 +32679,13 @@
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
+          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E612" s="18" t="n"/>
       <c r="F612" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -32691,7 +32699,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32718,7 +32726,7 @@
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
+          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
         </is>
       </c>
       <c r="E613" s="18" t="n"/>
@@ -32738,7 +32746,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32755,7 +32763,7 @@
       </c>
       <c r="B614" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C614" s="18" t="inlineStr">
@@ -32765,7 +32773,7 @@
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
+          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
         </is>
       </c>
       <c r="E614" s="18" t="n"/>
@@ -32785,7 +32793,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -32812,7 +32820,7 @@
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
+          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
         </is>
       </c>
       <c r="E615" s="18" t="n"/>
@@ -32832,7 +32840,7 @@
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -32859,13 +32867,13 @@
       </c>
       <c r="D616" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
+          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
         </is>
       </c>
       <c r="E616" s="18" t="n"/>
       <c r="F616" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
@@ -32879,7 +32887,7 @@
       <c r="K616" s="19" t="n"/>
       <c r="L616" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M616" s="20" t="n"/>
@@ -32906,7 +32914,7 @@
       </c>
       <c r="D617" s="18" t="inlineStr">
         <is>
-          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
+          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
         </is>
       </c>
       <c r="E617" s="18" t="n"/>
@@ -32926,7 +32934,7 @@
       <c r="K617" s="19" t="n"/>
       <c r="L617" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M617" s="20" t="n"/>
@@ -32953,13 +32961,13 @@
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
+          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
         </is>
       </c>
       <c r="E618" s="18" t="n"/>
       <c r="F618" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
@@ -32973,7 +32981,7 @@
       <c r="K618" s="19" t="n"/>
       <c r="L618" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M618" s="20" t="n"/>
@@ -32990,7 +32998,7 @@
       </c>
       <c r="B619" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C619" s="18" t="inlineStr">
@@ -33000,13 +33008,13 @@
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
+          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="E619" s="18" t="n"/>
       <c r="F619" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
@@ -33020,7 +33028,7 @@
       <c r="K619" s="19" t="n"/>
       <c r="L619" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M619" s="20" t="n"/>
@@ -33047,7 +33055,7 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
+          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="E620" s="18" t="n"/>
@@ -33067,7 +33075,7 @@
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M620" s="20" t="n"/>
@@ -33094,7 +33102,7 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
+          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
         </is>
       </c>
       <c r="E621" s="18" t="n"/>
@@ -33114,7 +33122,7 @@
       <c r="K621" s="19" t="n"/>
       <c r="L621" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M621" s="20" t="n"/>
@@ -33141,7 +33149,7 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
+          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
@@ -33161,7 +33169,7 @@
       <c r="K622" s="19" t="n"/>
       <c r="L622" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M622" s="20" t="n"/>
@@ -33188,13 +33196,13 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
+          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
         </is>
       </c>
       <c r="E623" s="18" t="n"/>
       <c r="F623" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
@@ -33208,7 +33216,7 @@
       <c r="K623" s="19" t="n"/>
       <c r="L623" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M623" s="20" t="n"/>
@@ -33235,13 +33243,13 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
+          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
       <c r="F624" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -33255,7 +33263,7 @@
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -33282,13 +33290,13 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
+          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
       <c r="F625" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -33302,7 +33310,7 @@
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -33329,13 +33337,13 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
+          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -33349,7 +33357,7 @@
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -33376,7 +33384,7 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
+          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
@@ -33396,7 +33404,7 @@
       <c r="K627" s="19" t="n"/>
       <c r="L627" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M627" s="20" t="n"/>
@@ -33423,7 +33431,7 @@
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
+          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
         </is>
       </c>
       <c r="E628" s="18" t="n"/>
@@ -33443,7 +33451,7 @@
       <c r="K628" s="19" t="n"/>
       <c r="L628" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M628" s="20" t="n"/>
@@ -33470,7 +33478,7 @@
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
+          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
         </is>
       </c>
       <c r="E629" s="18" t="n"/>
@@ -33490,7 +33498,7 @@
       <c r="K629" s="19" t="n"/>
       <c r="L629" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M629" s="20" t="n"/>
@@ -33517,7 +33525,7 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
+          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -33537,7 +33545,7 @@
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33564,7 +33572,7 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
+          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
@@ -33584,7 +33592,7 @@
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33601,7 +33609,7 @@
       </c>
       <c r="B632" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C632" s="18" t="inlineStr">
@@ -33611,7 +33619,7 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
+          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
@@ -33631,7 +33639,7 @@
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33648,7 +33656,7 @@
       </c>
       <c r="B633" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C633" s="18" t="inlineStr">
@@ -33658,7 +33666,7 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
+          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
@@ -33678,7 +33686,7 @@
       <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33705,7 +33713,7 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
@@ -33725,7 +33733,7 @@
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33752,7 +33760,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
+          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -33772,7 +33780,7 @@
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -33799,13 +33807,13 @@
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
+          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
       <c r="F636" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -33819,7 +33827,7 @@
       <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -33846,13 +33854,13 @@
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
+          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -33866,7 +33874,7 @@
       <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -33893,13 +33901,13 @@
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
+          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
         </is>
       </c>
       <c r="E638" s="18" t="n"/>
       <c r="F638" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -33913,7 +33921,7 @@
       <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -33940,13 +33948,13 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
+          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
       <c r="F639" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -33960,7 +33968,7 @@
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -33987,7 +33995,7 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
@@ -34007,7 +34015,7 @@
       <c r="K640" s="19" t="n"/>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -34034,7 +34042,7 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
+          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
@@ -34054,7 +34062,7 @@
       <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -34081,7 +34089,7 @@
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
+          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
@@ -34101,7 +34109,7 @@
       <c r="K642" s="19" t="n"/>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -34128,13 +34136,13 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
+          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
       <c r="F643" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
@@ -34148,7 +34156,7 @@
       <c r="K643" s="19" t="n"/>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -34165,7 +34173,7 @@
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
@@ -34175,7 +34183,7 @@
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
+          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -34195,7 +34203,7 @@
       <c r="K644" s="19" t="n"/>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -34222,7 +34230,7 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
+          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
@@ -34242,7 +34250,7 @@
       <c r="K645" s="19" t="n"/>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -34269,7 +34277,7 @@
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -34289,7 +34297,7 @@
       <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34316,7 +34324,7 @@
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
@@ -34336,7 +34344,7 @@
       <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34363,7 +34371,7 @@
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
+          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
@@ -34383,7 +34391,7 @@
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34410,7 +34418,7 @@
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
+          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E649" s="18" t="n"/>
@@ -34430,7 +34438,7 @@
       <c r="K649" s="19" t="n"/>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34457,7 +34465,7 @@
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
+          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
@@ -34477,7 +34485,7 @@
       <c r="K650" s="19" t="n"/>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34504,7 +34512,7 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
@@ -34524,7 +34532,7 @@
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34551,7 +34559,7 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
@@ -34571,7 +34579,7 @@
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34588,7 +34596,7 @@
       </c>
       <c r="B653" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C653" s="18" t="inlineStr">
@@ -34598,13 +34606,13 @@
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
+          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -34618,7 +34626,7 @@
       <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34645,7 +34653,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
+          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34665,7 +34673,7 @@
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34692,7 +34700,7 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
+          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34712,7 +34720,7 @@
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34739,7 +34747,7 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34759,7 +34767,7 @@
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34786,7 +34794,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34806,7 +34814,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34823,7 +34831,7 @@
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
@@ -34833,7 +34841,7 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
+          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
@@ -34853,7 +34861,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34870,7 +34878,7 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
@@ -34880,13 +34888,13 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
+          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34895,20 +34903,12 @@
         </is>
       </c>
       <c r="H659" s="18" t="n"/>
-      <c r="I659" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J659" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I659" s="13" t="n"/>
+      <c r="J659" s="13" t="n"/>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34935,7 +34935,7 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
+          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
@@ -34957,13 +34957,13 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
@@ -34990,13 +34990,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
+          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -35005,12 +35005,20 @@
         </is>
       </c>
       <c r="H661" s="18" t="n"/>
-      <c r="I661" s="13" t="n"/>
-      <c r="J661" s="13" t="n"/>
+      <c r="I661" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J661" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35037,7 +35045,7 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
+          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
@@ -35057,7 +35065,7 @@
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35074,7 +35082,7 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
@@ -35084,7 +35092,7 @@
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
+          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
@@ -35104,7 +35112,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35131,7 +35139,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
+          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35146,16 +35154,12 @@
         </is>
       </c>
       <c r="H664" s="18" t="n"/>
-      <c r="I664" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I664" s="13" t="n"/>
       <c r="J664" s="13" t="n"/>
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35182,7 +35186,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
+          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35206,7 +35210,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35233,7 +35237,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
+          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35257,7 +35261,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35284,13 +35288,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
+          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35308,7 +35312,7 @@
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35335,7 +35339,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
+          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35359,7 +35363,7 @@
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35386,7 +35390,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
+          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35410,7 +35414,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35437,7 +35441,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35461,7 +35465,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35488,7 +35492,7 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35512,7 +35516,7 @@
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35524,7 +35528,7 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
@@ -35534,18 +35538,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
+          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35563,7 +35567,7 @@
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35590,13 +35594,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
+          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35614,7 +35618,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35641,13 +35645,13 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
+          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
       <c r="F674" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -35665,7 +35669,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35692,13 +35696,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>ヘルスチェックの実装</t>
+          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35716,7 +35720,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35743,13 +35747,13 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
+          <t>ヘルスチェックの実装</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35767,7 +35771,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35794,7 +35798,7 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
+          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35818,7 +35822,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35845,13 +35849,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
+          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35869,7 +35873,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35896,13 +35900,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性サポートについて理解する</t>
+          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35920,7 +35924,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35947,13 +35951,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
+          <t>Azure App Service の信頼性サポートについて理解する</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35971,7 +35975,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35998,7 +36002,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>正常性チェックを使用した App Service インスタンスの監視</t>
+          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36022,7 +36026,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36049,7 +36053,7 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+          <t>正常性チェックを使用した App Service インスタンスの監視</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36073,7 +36077,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36100,13 +36104,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36124,7 +36128,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36141,7 +36145,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36151,17 +36155,13 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用してシークレットを格納する</t>
-        </is>
-      </c>
-      <c r="E684" s="18" t="inlineStr">
-        <is>
-          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
-        </is>
-      </c>
+          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+        </is>
+      </c>
+      <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36179,7 +36179,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36206,12 +36206,12 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して Key Vault に接続する</t>
+          <t>Key Vault を使用してシークレットを格納する</t>
         </is>
       </c>
       <c r="E685" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
         </is>
       </c>
       <c r="F685" s="18" t="inlineStr">
@@ -36234,7 +36234,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36261,12 +36261,12 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+          <t>マネージド ID を使用して Key Vault に接続する</t>
         </is>
       </c>
       <c r="E686" s="18" t="inlineStr">
         <is>
-          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="F686" s="18" t="inlineStr">
@@ -36289,7 +36289,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36316,17 +36316,17 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムを分離する</t>
+          <t>Key Vault を使用して TLS 証明書を格納します。</t>
         </is>
       </c>
       <c r="E687" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+          <t>App Service TLS 証明書を Key Vault に格納します。</t>
         </is>
       </c>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36344,7 +36344,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36371,12 +36371,12 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>機密データをローカルディスクに保存しない</t>
+          <t>機密情報を処理するシステムを分離する</t>
         </is>
       </c>
       <c r="E688" s="18" t="inlineStr">
         <is>
-          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
+          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="F688" s="18" t="inlineStr">
@@ -36399,7 +36399,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36426,12 +36426,12 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>認証に確立された ID プロバイダーを使用する</t>
+          <t>機密データをローカルディスクに保存しない</t>
         </is>
       </c>
       <c r="E689" s="18" t="inlineStr">
         <is>
-          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
+          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
         </is>
       </c>
       <c r="F689" s="18" t="inlineStr">
@@ -36454,7 +36454,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36481,17 +36481,17 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>信頼できる環境からのデプロイ</t>
+          <t>認証に確立された ID プロバイダーを使用する</t>
         </is>
       </c>
       <c r="E690" s="18" t="inlineStr">
         <is>
-          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
+          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
         </is>
       </c>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36509,7 +36509,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36536,12 +36536,12 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>基本認証の無効化</t>
+          <t>信頼できる環境からのデプロイ</t>
         </is>
       </c>
       <c r="E691" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
         </is>
       </c>
       <c r="F691" s="18" t="inlineStr">
@@ -36564,7 +36564,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36591,12 +36591,12 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してリソースに接続する</t>
+          <t>基本認証の無効化</t>
         </is>
       </c>
       <c r="E692" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
         </is>
       </c>
       <c r="F692" s="18" t="inlineStr">
@@ -36619,7 +36619,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36646,12 +36646,12 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
+          <t>マネージド ID を使用してリソースに接続する</t>
         </is>
       </c>
       <c r="E693" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
+          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="F693" s="18" t="inlineStr">
@@ -36674,7 +36674,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36701,17 +36701,17 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>App Service ランタイム ログを Log Analytics に送信する</t>
+          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
         </is>
       </c>
       <c r="E694" s="18" t="inlineStr">
         <is>
-          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
         </is>
       </c>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36729,7 +36729,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36756,12 +36756,12 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
+          <t>App Service ランタイム ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E695" s="18" t="inlineStr">
         <is>
-          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F695" s="18" t="inlineStr">
@@ -36784,7 +36784,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36811,12 +36811,12 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>送信ネットワーク アクセスを制御する必要がある</t>
+          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E696" s="18" t="inlineStr">
         <is>
-          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
+          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F696" s="18" t="inlineStr">
@@ -36839,7 +36839,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36866,17 +36866,17 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
+          <t>送信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E697" s="18" t="inlineStr">
         <is>
-          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
+          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36894,7 +36894,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36921,17 +36921,17 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>受信ネットワーク アクセスを制御する必要がある</t>
+          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
         </is>
       </c>
       <c r="E698" s="18" t="inlineStr">
         <is>
-          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
+          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
         </is>
       </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36949,7 +36949,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36976,12 +36976,12 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
+          <t>受信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E699" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
+          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
         </is>
       </c>
       <c r="F699" s="18" t="inlineStr">
@@ -37004,7 +37004,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37031,12 +37031,12 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>WAFをバイパスすることは避けてください</t>
+          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
         </is>
       </c>
       <c r="E700" s="18" t="inlineStr">
         <is>
-          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
+          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F700" s="18" t="inlineStr">
@@ -37059,7 +37059,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37086,17 +37086,17 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>WAFをバイパスすることは避けてください</t>
         </is>
       </c>
       <c r="E701" s="18" t="inlineStr">
         <is>
-          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37111,14 +37111,10 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37145,17 +37141,17 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用</t>
+          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="E702" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
+          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37172,12 +37168,12 @@
       <c r="J702" s="13" t="n"/>
       <c r="K702" s="19" t="inlineStr">
         <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37204,12 +37200,12 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>ワイルドカードは CORS に使用しないでください</t>
+          <t>HTTPS のみを使用</t>
         </is>
       </c>
       <c r="E703" s="18" t="inlineStr">
         <is>
-          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
+          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
         </is>
       </c>
       <c r="F703" s="18" t="inlineStr">
@@ -37229,10 +37225,14 @@
         </is>
       </c>
       <c r="J703" s="13" t="n"/>
-      <c r="K703" s="19" t="n"/>
+      <c r="K703" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37259,12 +37259,12 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>リモートデバッグをオフにする</t>
+          <t>ワイルドカードは CORS に使用しないでください</t>
         </is>
       </c>
       <c r="E704" s="18" t="inlineStr">
         <is>
-          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
+          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
         </is>
       </c>
       <c r="F704" s="18" t="inlineStr">
@@ -37284,14 +37284,10 @@
         </is>
       </c>
       <c r="J704" s="13" t="n"/>
-      <c r="K704" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37318,17 +37314,17 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Defender for Cloud を有効にする - Defender for App Service</t>
+          <t>リモートデバッグをオフにする</t>
         </is>
       </c>
       <c r="E705" s="18" t="inlineStr">
         <is>
-          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
         </is>
       </c>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37343,10 +37339,14 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="n"/>
+      <c r="K705" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37373,12 +37373,12 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
+          <t>Defender for Cloud を有効にする - Defender for App Service</t>
         </is>
       </c>
       <c r="E706" s="18" t="inlineStr">
         <is>
-          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
         </is>
       </c>
       <c r="F706" s="18" t="inlineStr">
@@ -37401,7 +37401,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37428,12 +37428,12 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network 経由でコンテナーをプルする</t>
+          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E707" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
+          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="F707" s="18" t="inlineStr">
@@ -37456,7 +37456,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37483,12 +37483,12 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>ペネトレーションテストの実施</t>
+          <t>Virtual Network 経由でコンテナーをプルする</t>
         </is>
       </c>
       <c r="E708" s="18" t="inlineStr">
         <is>
-          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
         </is>
       </c>
       <c r="F708" s="18" t="inlineStr">
@@ -37511,7 +37511,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37538,12 +37538,12 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>検証済みコードのデプロイ</t>
+          <t>ペネトレーションテストの実施</t>
         </is>
       </c>
       <c r="E709" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
+          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
         </is>
       </c>
       <c r="F709" s="18" t="inlineStr">
@@ -37566,7 +37566,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37593,17 +37593,17 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
+          <t>検証済みコードのデプロイ</t>
         </is>
       </c>
       <c r="E710" s="18" t="inlineStr">
         <is>
-          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
+          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
         </is>
       </c>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37621,7 +37621,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,17 +37631,54 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="n"/>
-      <c r="B711" s="18" t="n"/>
-      <c r="C711" s="18" t="n"/>
-      <c r="D711" s="18" t="n"/>
-      <c r="E711" s="18" t="n"/>
-      <c r="F711" s="18" t="n"/>
+      <c r="A711" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B711" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C711" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D711" s="18" t="inlineStr">
+        <is>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
+        </is>
+      </c>
+      <c r="E711" s="18" t="inlineStr">
+        <is>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
+        </is>
+      </c>
+      <c r="F711" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="13" t="n"/>
+      <c r="I711" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J711" s="13" t="n"/>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="n"/>
+      <c r="L711" s="19" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46685,7 +46722,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47239,10 +47276,10 @@
     <hyperlink ref="I564" r:id="rId547"/>
     <hyperlink ref="I565" r:id="rId548"/>
     <hyperlink ref="I566" r:id="rId549"/>
-    <hyperlink ref="I577" r:id="rId550"/>
-    <hyperlink ref="I659" r:id="rId551"/>
+    <hyperlink ref="I567" r:id="rId550"/>
+    <hyperlink ref="I578" r:id="rId551"/>
     <hyperlink ref="I660" r:id="rId552"/>
-    <hyperlink ref="I664" r:id="rId553"/>
+    <hyperlink ref="I661" r:id="rId553"/>
     <hyperlink ref="I665" r:id="rId554"/>
     <hyperlink ref="I666" r:id="rId555"/>
     <hyperlink ref="I667" r:id="rId556"/>
@@ -47289,6 +47326,7 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
+    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -30171,13 +30171,13 @@
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
       <c r="F560" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -30191,11 +30191,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J560" s="13" t="n"/>
+      <c r="J560" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K560" s="19" t="n"/>
       <c r="L560" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M560" s="20" t="n"/>
@@ -30222,7 +30226,7 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
@@ -30244,13 +30248,13 @@
       </c>
       <c r="J561" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K561" s="19" t="n"/>
       <c r="L561" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M561" s="20" t="n"/>
@@ -30277,13 +30281,13 @@
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
       <c r="F562" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -30299,13 +30303,13 @@
       </c>
       <c r="J562" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K562" s="19" t="n"/>
       <c r="L562" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M562" s="20" t="n"/>
@@ -30332,7 +30336,7 @@
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>Azure で Microsoft マルウェア対策ソフトウェアを使用して、悪意のあるファイル、アドウェア、その他の脅威から仮想マシンを保護することを検討してください。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
@@ -30354,13 +30358,13 @@
       </c>
       <c r="J563" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K563" s="19" t="n"/>
       <c r="L563" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M563" s="20" t="n"/>
@@ -30387,13 +30391,13 @@
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
       <c r="F564" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -30409,13 +30413,13 @@
       </c>
       <c r="J564" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K564" s="19" t="n"/>
       <c r="L564" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M564" s="20" t="n"/>
@@ -30442,13 +30446,13 @@
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="E565" s="18" t="n"/>
       <c r="F565" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -30464,13 +30468,13 @@
       </c>
       <c r="J565" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K565" s="19" t="n"/>
       <c r="L565" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M565" s="20" t="n"/>
@@ -30497,13 +30501,13 @@
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="E566" s="18" t="n"/>
       <c r="F566" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
@@ -30519,13 +30523,13 @@
       </c>
       <c r="J566" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="K566" s="19" t="n"/>
       <c r="L566" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M566" s="20" t="n"/>
@@ -30537,7 +30541,7 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>SAP Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
@@ -30547,18 +30551,18 @@
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
         </is>
       </c>
       <c r="E567" s="18" t="n"/>
       <c r="F567" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
@@ -30567,20 +30571,12 @@
         </is>
       </c>
       <c r="H567" s="18" t="n"/>
-      <c r="I567" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J567" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="I567" s="13" t="n"/>
+      <c r="J567" s="13" t="n"/>
       <c r="K567" s="19" t="n"/>
       <c r="L567" s="19" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M567" s="20" t="n"/>
@@ -30607,13 +30603,13 @@
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
+          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
         </is>
       </c>
       <c r="E568" s="18" t="n"/>
       <c r="F568" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
@@ -30627,7 +30623,7 @@
       <c r="K568" s="19" t="n"/>
       <c r="L568" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M568" s="20" t="n"/>
@@ -30654,13 +30650,13 @@
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
+          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
       <c r="F569" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -30674,7 +30670,7 @@
       <c r="K569" s="19" t="n"/>
       <c r="L569" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M569" s="20" t="n"/>
@@ -30701,13 +30697,13 @@
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
+          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
       <c r="F570" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -30721,7 +30717,7 @@
       <c r="K570" s="19" t="n"/>
       <c r="L570" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M570" s="20" t="n"/>
@@ -30748,7 +30744,7 @@
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
+          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30768,7 +30764,7 @@
       <c r="K571" s="19" t="n"/>
       <c r="L571" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M571" s="20" t="n"/>
@@ -30795,13 +30791,13 @@
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
+          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
         </is>
       </c>
       <c r="E572" s="18" t="n"/>
       <c r="F572" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -30815,7 +30811,7 @@
       <c r="K572" s="19" t="n"/>
       <c r="L572" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M572" s="20" t="n"/>
@@ -30842,13 +30838,13 @@
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
+          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
       <c r="F573" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -30862,7 +30858,7 @@
       <c r="K573" s="19" t="n"/>
       <c r="L573" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M573" s="20" t="n"/>
@@ -30889,7 +30885,7 @@
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
+          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
@@ -30909,7 +30905,7 @@
       <c r="K574" s="19" t="n"/>
       <c r="L574" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M574" s="20" t="n"/>
@@ -30936,13 +30932,13 @@
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
+          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
         </is>
       </c>
       <c r="E575" s="18" t="n"/>
       <c r="F575" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -30956,7 +30952,7 @@
       <c r="K575" s="19" t="n"/>
       <c r="L575" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M575" s="20" t="n"/>
@@ -30983,7 +30979,7 @@
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
+          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
         </is>
       </c>
       <c r="E576" s="18" t="n"/>
@@ -31003,7 +30999,7 @@
       <c r="K576" s="19" t="n"/>
       <c r="L576" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M576" s="20" t="n"/>
@@ -31020,7 +31016,7 @@
       </c>
       <c r="B577" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C577" s="18" t="inlineStr">
@@ -31030,7 +31026,7 @@
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
+          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
         </is>
       </c>
       <c r="E577" s="18" t="n"/>
@@ -31045,12 +31041,16 @@
         </is>
       </c>
       <c r="H577" s="18" t="n"/>
-      <c r="I577" s="13" t="n"/>
+      <c r="I577" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J577" s="13" t="n"/>
       <c r="K577" s="19" t="n"/>
       <c r="L577" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M577" s="20" t="n"/>
@@ -31067,7 +31067,7 @@
       </c>
       <c r="B578" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C578" s="18" t="inlineStr">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="D578" s="18" t="inlineStr">
         <is>
-          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
+          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E578" s="18" t="n"/>
@@ -31092,16 +31092,12 @@
         </is>
       </c>
       <c r="H578" s="18" t="n"/>
-      <c r="I578" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I578" s="13" t="n"/>
       <c r="J578" s="13" t="n"/>
       <c r="K578" s="19" t="n"/>
       <c r="L578" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M578" s="20" t="n"/>
@@ -31128,13 +31124,13 @@
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
+          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E579" s="18" t="n"/>
       <c r="F579" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
@@ -31148,7 +31144,7 @@
       <c r="K579" s="19" t="n"/>
       <c r="L579" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M579" s="20" t="n"/>
@@ -31175,7 +31171,7 @@
       </c>
       <c r="D580" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E580" s="18" t="n"/>
@@ -31195,7 +31191,7 @@
       <c r="K580" s="19" t="n"/>
       <c r="L580" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M580" s="20" t="n"/>
@@ -31222,13 +31218,13 @@
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
         </is>
       </c>
       <c r="E581" s="18" t="n"/>
       <c r="F581" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -31242,7 +31238,7 @@
       <c r="K581" s="19" t="n"/>
       <c r="L581" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M581" s="20" t="n"/>
@@ -31259,7 +31255,7 @@
       </c>
       <c r="B582" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C582" s="18" t="inlineStr">
@@ -31269,7 +31265,7 @@
       </c>
       <c r="D582" s="18" t="inlineStr">
         <is>
-          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
+          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
         </is>
       </c>
       <c r="E582" s="18" t="n"/>
@@ -31289,7 +31285,7 @@
       <c r="K582" s="19" t="n"/>
       <c r="L582" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M582" s="20" t="n"/>
@@ -31316,7 +31312,7 @@
       </c>
       <c r="D583" s="18" t="inlineStr">
         <is>
-          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
+          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
         </is>
       </c>
       <c r="E583" s="18" t="n"/>
@@ -31336,7 +31332,7 @@
       <c r="K583" s="19" t="n"/>
       <c r="L583" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M583" s="20" t="n"/>
@@ -31363,13 +31359,13 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
+          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
       <c r="F584" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
@@ -31383,7 +31379,7 @@
       <c r="K584" s="19" t="n"/>
       <c r="L584" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M584" s="20" t="n"/>
@@ -31410,13 +31406,13 @@
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
+          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
         </is>
       </c>
       <c r="E585" s="18" t="n"/>
       <c r="F585" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -31430,7 +31426,7 @@
       <c r="K585" s="19" t="n"/>
       <c r="L585" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M585" s="20" t="n"/>
@@ -31457,13 +31453,13 @@
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
+          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
         </is>
       </c>
       <c r="E586" s="18" t="n"/>
       <c r="F586" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -31477,7 +31473,7 @@
       <c r="K586" s="19" t="n"/>
       <c r="L586" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M586" s="20" t="n"/>
@@ -31504,7 +31500,7 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
+          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
@@ -31524,7 +31520,7 @@
       <c r="K587" s="19" t="n"/>
       <c r="L587" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M587" s="20" t="n"/>
@@ -31551,13 +31547,13 @@
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
+          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
         </is>
       </c>
       <c r="E588" s="18" t="n"/>
       <c r="F588" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -31571,7 +31567,7 @@
       <c r="K588" s="19" t="n"/>
       <c r="L588" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M588" s="20" t="n"/>
@@ -31598,13 +31594,13 @@
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
+          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
         </is>
       </c>
       <c r="E589" s="18" t="n"/>
       <c r="F589" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -31618,7 +31614,7 @@
       <c r="K589" s="19" t="n"/>
       <c r="L589" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M589" s="20" t="n"/>
@@ -31645,13 +31641,13 @@
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
+          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
         </is>
       </c>
       <c r="E590" s="18" t="n"/>
       <c r="F590" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -31665,7 +31661,7 @@
       <c r="K590" s="19" t="n"/>
       <c r="L590" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M590" s="20" t="n"/>
@@ -31692,7 +31688,7 @@
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
+          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
         </is>
       </c>
       <c r="E591" s="18" t="n"/>
@@ -31712,7 +31708,7 @@
       <c r="K591" s="19" t="n"/>
       <c r="L591" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M591" s="20" t="n"/>
@@ -31739,13 +31735,13 @@
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
+          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
         </is>
       </c>
       <c r="E592" s="18" t="n"/>
       <c r="F592" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -31759,7 +31755,7 @@
       <c r="K592" s="19" t="n"/>
       <c r="L592" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M592" s="20" t="n"/>
@@ -31786,7 +31782,7 @@
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
+          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>
@@ -31806,7 +31802,7 @@
       <c r="K593" s="19" t="n"/>
       <c r="L593" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M593" s="20" t="n"/>
@@ -31833,7 +31829,7 @@
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
+          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
         </is>
       </c>
       <c r="E594" s="18" t="n"/>
@@ -31853,7 +31849,7 @@
       <c r="K594" s="19" t="n"/>
       <c r="L594" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M594" s="20" t="n"/>
@@ -31880,7 +31876,7 @@
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
+          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
@@ -31900,7 +31896,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -31927,7 +31923,7 @@
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
+          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
         </is>
       </c>
       <c r="E596" s="18" t="n"/>
@@ -31947,7 +31943,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -31974,13 +31970,13 @@
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
+          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
       <c r="F597" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
@@ -31994,7 +31990,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -32021,7 +32017,7 @@
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
+          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
@@ -32041,7 +32037,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -32068,13 +32064,13 @@
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
+          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
       <c r="F599" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -32088,7 +32084,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -32105,7 +32101,7 @@
       </c>
       <c r="B600" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C600" s="18" t="inlineStr">
@@ -32115,13 +32111,13 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
+          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
       <c r="F600" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -32135,7 +32131,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -32162,7 +32158,7 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
+          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32182,7 +32178,7 @@
       <c r="K601" s="19" t="n"/>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -32209,7 +32205,7 @@
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
+          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
         </is>
       </c>
       <c r="E602" s="18" t="n"/>
@@ -32229,7 +32225,7 @@
       <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -32246,7 +32242,7 @@
       </c>
       <c r="B603" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C603" s="18" t="inlineStr">
@@ -32256,13 +32252,13 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
+          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
       <c r="F603" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -32276,7 +32272,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -32303,7 +32299,7 @@
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
+          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
@@ -32323,7 +32319,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -32340,7 +32336,7 @@
       </c>
       <c r="B605" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C605" s="18" t="inlineStr">
@@ -32350,7 +32346,7 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
+          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
@@ -32370,7 +32366,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -32397,13 +32393,13 @@
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
+          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
       <c r="F606" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -32417,7 +32413,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -32434,7 +32430,7 @@
       </c>
       <c r="B607" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C607" s="18" t="inlineStr">
@@ -32444,13 +32440,13 @@
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
+          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
       <c r="F607" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -32464,7 +32460,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -32481,7 +32477,7 @@
       </c>
       <c r="B608" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C608" s="18" t="inlineStr">
@@ -32491,13 +32487,13 @@
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
+          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
       <c r="F608" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
@@ -32511,7 +32507,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -32528,7 +32524,7 @@
       </c>
       <c r="B609" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C609" s="18" t="inlineStr">
@@ -32538,13 +32534,13 @@
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
+          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
         </is>
       </c>
       <c r="E609" s="18" t="n"/>
       <c r="F609" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -32558,7 +32554,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32585,7 +32581,7 @@
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
+          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
         </is>
       </c>
       <c r="E610" s="18" t="n"/>
@@ -32605,7 +32601,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32622,7 +32618,7 @@
       </c>
       <c r="B611" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C611" s="18" t="inlineStr">
@@ -32632,13 +32628,13 @@
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
+          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E611" s="18" t="n"/>
       <c r="F611" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -32652,7 +32648,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32679,13 +32675,13 @@
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
         </is>
       </c>
       <c r="E612" s="18" t="n"/>
       <c r="F612" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -32699,7 +32695,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32726,7 +32722,7 @@
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
+          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
         </is>
       </c>
       <c r="E613" s="18" t="n"/>
@@ -32746,7 +32742,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32763,7 +32759,7 @@
       </c>
       <c r="B614" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C614" s="18" t="inlineStr">
@@ -32773,7 +32769,7 @@
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
+          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
         </is>
       </c>
       <c r="E614" s="18" t="n"/>
@@ -32793,7 +32789,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -32820,7 +32816,7 @@
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
+          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
         </is>
       </c>
       <c r="E615" s="18" t="n"/>
@@ -32840,7 +32836,7 @@
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -32867,13 +32863,13 @@
       </c>
       <c r="D616" s="18" t="inlineStr">
         <is>
-          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
+          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
         </is>
       </c>
       <c r="E616" s="18" t="n"/>
       <c r="F616" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
@@ -32887,7 +32883,7 @@
       <c r="K616" s="19" t="n"/>
       <c r="L616" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M616" s="20" t="n"/>
@@ -32914,7 +32910,7 @@
       </c>
       <c r="D617" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
+          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
         </is>
       </c>
       <c r="E617" s="18" t="n"/>
@@ -32934,7 +32930,7 @@
       <c r="K617" s="19" t="n"/>
       <c r="L617" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M617" s="20" t="n"/>
@@ -32961,13 +32957,13 @@
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
+          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="E618" s="18" t="n"/>
       <c r="F618" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
@@ -32981,7 +32977,7 @@
       <c r="K618" s="19" t="n"/>
       <c r="L618" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M618" s="20" t="n"/>
@@ -32998,7 +32994,7 @@
       </c>
       <c r="B619" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C619" s="18" t="inlineStr">
@@ -33008,13 +33004,13 @@
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
+          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="E619" s="18" t="n"/>
       <c r="F619" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
@@ -33028,7 +33024,7 @@
       <c r="K619" s="19" t="n"/>
       <c r="L619" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M619" s="20" t="n"/>
@@ -33055,7 +33051,7 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
+          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
         </is>
       </c>
       <c r="E620" s="18" t="n"/>
@@ -33075,7 +33071,7 @@
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M620" s="20" t="n"/>
@@ -33102,7 +33098,7 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
+          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
         </is>
       </c>
       <c r="E621" s="18" t="n"/>
@@ -33122,7 +33118,7 @@
       <c r="K621" s="19" t="n"/>
       <c r="L621" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M621" s="20" t="n"/>
@@ -33149,7 +33145,7 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
+          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
@@ -33169,7 +33165,7 @@
       <c r="K622" s="19" t="n"/>
       <c r="L622" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M622" s="20" t="n"/>
@@ -33196,13 +33192,13 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
+          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
         </is>
       </c>
       <c r="E623" s="18" t="n"/>
       <c r="F623" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
@@ -33216,7 +33212,7 @@
       <c r="K623" s="19" t="n"/>
       <c r="L623" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M623" s="20" t="n"/>
@@ -33243,13 +33239,13 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
+          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
       <c r="F624" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -33263,7 +33259,7 @@
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -33290,13 +33286,13 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
+          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
       <c r="F625" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -33310,7 +33306,7 @@
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -33337,13 +33333,13 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
+          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -33357,7 +33353,7 @@
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -33384,7 +33380,7 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
+          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
@@ -33404,7 +33400,7 @@
       <c r="K627" s="19" t="n"/>
       <c r="L627" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M627" s="20" t="n"/>
@@ -33431,7 +33427,7 @@
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
+          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
         </is>
       </c>
       <c r="E628" s="18" t="n"/>
@@ -33451,7 +33447,7 @@
       <c r="K628" s="19" t="n"/>
       <c r="L628" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M628" s="20" t="n"/>
@@ -33478,7 +33474,7 @@
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
+          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E629" s="18" t="n"/>
@@ -33498,7 +33494,7 @@
       <c r="K629" s="19" t="n"/>
       <c r="L629" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M629" s="20" t="n"/>
@@ -33525,7 +33521,7 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
+          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -33545,7 +33541,7 @@
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33572,7 +33568,7 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
+          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
@@ -33592,7 +33588,7 @@
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33609,7 +33605,7 @@
       </c>
       <c r="B632" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C632" s="18" t="inlineStr">
@@ -33619,7 +33615,7 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
+          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
@@ -33639,7 +33635,7 @@
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33656,7 +33652,7 @@
       </c>
       <c r="B633" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C633" s="18" t="inlineStr">
@@ -33666,7 +33662,7 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
+          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
@@ -33686,7 +33682,7 @@
       <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33713,7 +33709,7 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
+          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
@@ -33733,7 +33729,7 @@
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33760,7 +33756,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -33780,7 +33776,7 @@
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -33807,13 +33803,13 @@
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
+          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
       <c r="F636" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -33827,7 +33823,7 @@
       <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -33854,13 +33850,13 @@
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
+          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -33874,7 +33870,7 @@
       <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -33901,13 +33897,13 @@
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
+          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
         </is>
       </c>
       <c r="E638" s="18" t="n"/>
       <c r="F638" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -33921,7 +33917,7 @@
       <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -33948,13 +33944,13 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
+          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
       <c r="F639" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -33968,7 +33964,7 @@
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -33995,7 +33991,7 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
+          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
@@ -34015,7 +34011,7 @@
       <c r="K640" s="19" t="n"/>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -34042,7 +34038,7 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
@@ -34062,7 +34058,7 @@
       <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -34089,7 +34085,7 @@
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
+          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
@@ -34109,7 +34105,7 @@
       <c r="K642" s="19" t="n"/>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -34136,13 +34132,13 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
+          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
       <c r="F643" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
@@ -34156,7 +34152,7 @@
       <c r="K643" s="19" t="n"/>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -34173,7 +34169,7 @@
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
@@ -34183,7 +34179,7 @@
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
+          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -34203,7 +34199,7 @@
       <c r="K644" s="19" t="n"/>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -34230,7 +34226,7 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
+          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
@@ -34250,7 +34246,7 @@
       <c r="K645" s="19" t="n"/>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -34277,7 +34273,7 @@
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
+          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -34297,7 +34293,7 @@
       <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34324,7 +34320,7 @@
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
@@ -34344,7 +34340,7 @@
       <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34371,7 +34367,7 @@
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
@@ -34391,7 +34387,7 @@
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34418,7 +34414,7 @@
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
+          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
         </is>
       </c>
       <c r="E649" s="18" t="n"/>
@@ -34438,7 +34434,7 @@
       <c r="K649" s="19" t="n"/>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34465,7 +34461,7 @@
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
+          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
@@ -34485,7 +34481,7 @@
       <c r="K650" s="19" t="n"/>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34512,7 +34508,7 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
+          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
@@ -34532,7 +34528,7 @@
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34559,7 +34555,7 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
@@ -34579,7 +34575,7 @@
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34596,7 +34592,7 @@
       </c>
       <c r="B653" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C653" s="18" t="inlineStr">
@@ -34606,13 +34602,13 @@
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -34626,7 +34622,7 @@
       <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34653,7 +34649,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
+          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34673,7 +34669,7 @@
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34700,7 +34696,7 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
+          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34720,7 +34716,7 @@
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34747,7 +34743,7 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
+          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34767,7 +34763,7 @@
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34794,7 +34790,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34814,7 +34810,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34831,7 +34827,7 @@
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
@@ -34841,7 +34837,7 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
@@ -34861,7 +34857,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34878,7 +34874,7 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
@@ -34888,13 +34884,13 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
+          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34903,12 +34899,20 @@
         </is>
       </c>
       <c r="H659" s="18" t="n"/>
-      <c r="I659" s="13" t="n"/>
-      <c r="J659" s="13" t="n"/>
+      <c r="I659" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J659" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34935,7 +34939,7 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
+          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
@@ -34957,13 +34961,13 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34980,7 +34984,7 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
@@ -34990,13 +34994,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
+          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -35005,20 +35009,12 @@
         </is>
       </c>
       <c r="H661" s="18" t="n"/>
-      <c r="I661" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J661" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I661" s="13" t="n"/>
+      <c r="J661" s="13" t="n"/>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35045,7 +35041,7 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
+          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
@@ -35065,7 +35061,7 @@
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35082,7 +35078,7 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
@@ -35092,7 +35088,7 @@
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
+          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
@@ -35112,7 +35108,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35139,7 +35135,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
+          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35154,12 +35150,16 @@
         </is>
       </c>
       <c r="H664" s="18" t="n"/>
-      <c r="I664" s="13" t="n"/>
+      <c r="I664" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J664" s="13" t="n"/>
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35186,7 +35186,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
+          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35210,7 +35210,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35237,7 +35237,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
+          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35261,7 +35261,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35288,13 +35288,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
+          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35312,7 +35312,7 @@
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35339,7 +35339,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
+          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35363,7 +35363,7 @@
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35390,7 +35390,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35414,7 +35414,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35465,7 +35465,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35492,7 +35492,7 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
+          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35516,7 +35516,7 @@
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35528,7 +35528,7 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
@@ -35538,18 +35538,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
+          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35567,7 +35567,7 @@
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35594,13 +35594,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
+          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35618,7 +35618,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35645,13 +35645,13 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
+          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
       <c r="F674" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -35669,7 +35669,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35696,13 +35696,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
+          <t>ヘルスチェックの実装</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35720,7 +35720,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35747,13 +35747,13 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>ヘルスチェックの実装</t>
+          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35771,7 +35771,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35798,7 +35798,7 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
+          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35822,7 +35822,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35849,13 +35849,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
+          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35873,7 +35873,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35900,13 +35900,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
+          <t>Azure App Service の信頼性サポートについて理解する</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35924,7 +35924,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35951,13 +35951,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性サポートについて理解する</t>
+          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35975,7 +35975,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36002,7 +36002,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
+          <t>正常性チェックを使用した App Service インスタンスの監視</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36026,7 +36026,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36053,7 +36053,7 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>正常性チェックを使用した App Service インスタンスの監視</t>
+          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36077,7 +36077,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36104,13 +36104,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36128,7 +36128,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36145,7 +36145,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36155,13 +36155,17 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
-        </is>
-      </c>
-      <c r="E684" s="18" t="n"/>
+          <t>Key Vault を使用してシークレットを格納する</t>
+        </is>
+      </c>
+      <c r="E684" s="18" t="inlineStr">
+        <is>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
+        </is>
+      </c>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36179,7 +36183,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36206,12 +36210,12 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用してシークレットを格納する</t>
+          <t>マネージド ID を使用して Key Vault に接続する</t>
         </is>
       </c>
       <c r="E685" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
+          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="F685" s="18" t="inlineStr">
@@ -36234,7 +36238,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36261,12 +36265,12 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して Key Vault に接続する</t>
+          <t>Key Vault を使用して TLS 証明書を格納します。</t>
         </is>
       </c>
       <c r="E686" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+          <t>App Service TLS 証明書を Key Vault に格納します。</t>
         </is>
       </c>
       <c r="F686" s="18" t="inlineStr">
@@ -36289,7 +36293,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36316,17 +36320,17 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+          <t>機密情報を処理するシステムを分離する</t>
         </is>
       </c>
       <c r="E687" s="18" t="inlineStr">
         <is>
-          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36344,7 +36348,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36371,12 +36375,12 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムを分離する</t>
+          <t>機密データをローカルディスクに保存しない</t>
         </is>
       </c>
       <c r="E688" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
         </is>
       </c>
       <c r="F688" s="18" t="inlineStr">
@@ -36399,7 +36403,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36426,12 +36430,12 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>機密データをローカルディスクに保存しない</t>
+          <t>認証に確立された ID プロバイダーを使用する</t>
         </is>
       </c>
       <c r="E689" s="18" t="inlineStr">
         <is>
-          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
+          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
         </is>
       </c>
       <c r="F689" s="18" t="inlineStr">
@@ -36454,7 +36458,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36481,17 +36485,17 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>認証に確立された ID プロバイダーを使用する</t>
+          <t>信頼できる環境からのデプロイ</t>
         </is>
       </c>
       <c r="E690" s="18" t="inlineStr">
         <is>
-          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
+          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
         </is>
       </c>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36509,7 +36513,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36536,12 +36540,12 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>信頼できる環境からのデプロイ</t>
+          <t>基本認証の無効化</t>
         </is>
       </c>
       <c r="E691" s="18" t="inlineStr">
         <is>
-          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
+          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
         </is>
       </c>
       <c r="F691" s="18" t="inlineStr">
@@ -36564,7 +36568,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36591,12 +36595,12 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>基本認証の無効化</t>
+          <t>マネージド ID を使用してリソースに接続する</t>
         </is>
       </c>
       <c r="E692" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="F692" s="18" t="inlineStr">
@@ -36619,7 +36623,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36646,12 +36650,12 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してリソースに接続する</t>
+          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
         </is>
       </c>
       <c r="E693" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
         </is>
       </c>
       <c r="F693" s="18" t="inlineStr">
@@ -36674,7 +36678,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36701,17 +36705,17 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
+          <t>App Service ランタイム ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E694" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
+          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36729,7 +36733,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36756,12 +36760,12 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>App Service ランタイム ログを Log Analytics に送信する</t>
+          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E695" s="18" t="inlineStr">
         <is>
-          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
+          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F695" s="18" t="inlineStr">
@@ -36784,7 +36788,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36811,12 +36815,12 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
+          <t>送信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E696" s="18" t="inlineStr">
         <is>
-          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F696" s="18" t="inlineStr">
@@ -36839,7 +36843,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36866,17 +36870,17 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>送信ネットワーク アクセスを制御する必要がある</t>
+          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
         </is>
       </c>
       <c r="E697" s="18" t="inlineStr">
         <is>
-          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
+          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
         </is>
       </c>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36894,7 +36898,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36921,17 +36925,17 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
+          <t>受信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E698" s="18" t="inlineStr">
         <is>
-          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
+          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
         </is>
       </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36949,7 +36953,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36976,12 +36980,12 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>受信ネットワーク アクセスを制御する必要がある</t>
+          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
         </is>
       </c>
       <c r="E699" s="18" t="inlineStr">
         <is>
-          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
+          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F699" s="18" t="inlineStr">
@@ -37004,7 +37008,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37031,12 +37035,12 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
+          <t>WAFをバイパスすることは避けてください</t>
         </is>
       </c>
       <c r="E700" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
+          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="F700" s="18" t="inlineStr">
@@ -37059,7 +37063,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37086,17 +37090,17 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>WAFをバイパスすることは避けてください</t>
+          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="E701" s="18" t="inlineStr">
         <is>
-          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
+          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37111,10 +37115,14 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="n"/>
+      <c r="K701" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37141,17 +37149,17 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>HTTPS のみを使用</t>
         </is>
       </c>
       <c r="E702" s="18" t="inlineStr">
         <is>
-          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
         </is>
       </c>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37168,12 +37176,12 @@
       <c r="J702" s="13" t="n"/>
       <c r="K702" s="19" t="inlineStr">
         <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37200,12 +37208,12 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用</t>
+          <t>ワイルドカードは CORS に使用しないでください</t>
         </is>
       </c>
       <c r="E703" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
+          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
         </is>
       </c>
       <c r="F703" s="18" t="inlineStr">
@@ -37225,14 +37233,10 @@
         </is>
       </c>
       <c r="J703" s="13" t="n"/>
-      <c r="K703" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37259,12 +37263,12 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>ワイルドカードは CORS に使用しないでください</t>
+          <t>リモートデバッグをオフにする</t>
         </is>
       </c>
       <c r="E704" s="18" t="inlineStr">
         <is>
-          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
+          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
         </is>
       </c>
       <c r="F704" s="18" t="inlineStr">
@@ -37284,10 +37288,14 @@
         </is>
       </c>
       <c r="J704" s="13" t="n"/>
-      <c r="K704" s="19" t="n"/>
+      <c r="K704" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37314,17 +37322,17 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>リモートデバッグをオフにする</t>
+          <t>Defender for Cloud を有効にする - Defender for App Service</t>
         </is>
       </c>
       <c r="E705" s="18" t="inlineStr">
         <is>
-          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
+          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
         </is>
       </c>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37339,14 +37347,10 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37373,12 +37377,12 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Defender for Cloud を有効にする - Defender for App Service</t>
+          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E706" s="18" t="inlineStr">
         <is>
-          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="F706" s="18" t="inlineStr">
@@ -37401,7 +37405,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37428,12 +37432,12 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
+          <t>Virtual Network 経由でコンテナーをプルする</t>
         </is>
       </c>
       <c r="E707" s="18" t="inlineStr">
         <is>
-          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
         </is>
       </c>
       <c r="F707" s="18" t="inlineStr">
@@ -37456,7 +37460,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37483,12 +37487,12 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network 経由でコンテナーをプルする</t>
+          <t>ペネトレーションテストの実施</t>
         </is>
       </c>
       <c r="E708" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
+          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
         </is>
       </c>
       <c r="F708" s="18" t="inlineStr">
@@ -37511,7 +37515,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37538,12 +37542,12 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>ペネトレーションテストの実施</t>
+          <t>検証済みコードのデプロイ</t>
         </is>
       </c>
       <c r="E709" s="18" t="inlineStr">
         <is>
-          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
+          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
         </is>
       </c>
       <c r="F709" s="18" t="inlineStr">
@@ -37566,7 +37570,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37593,17 +37597,17 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>検証済みコードのデプロイ</t>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
         </is>
       </c>
       <c r="E710" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
         </is>
       </c>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37621,7 +37625,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,54 +37635,17 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="inlineStr">
-        <is>
-          <t>Azure App Service Review</t>
-        </is>
-      </c>
-      <c r="B711" s="18" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C711" s="18" t="inlineStr">
-        <is>
-          <t>App Services</t>
-        </is>
-      </c>
-      <c r="D711" s="18" t="inlineStr">
-        <is>
-          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
-        </is>
-      </c>
-      <c r="E711" s="18" t="inlineStr">
-        <is>
-          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
-        </is>
-      </c>
-      <c r="F711" s="18" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A711" s="18" t="n"/>
+      <c r="B711" s="18" t="n"/>
+      <c r="C711" s="18" t="n"/>
+      <c r="D711" s="18" t="n"/>
+      <c r="E711" s="18" t="n"/>
+      <c r="F711" s="18" t="n"/>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I711" s="13" t="n"/>
       <c r="J711" s="13" t="n"/>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="inlineStr">
-        <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
-        </is>
-      </c>
+      <c r="L711" s="19" t="n"/>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46722,7 +46689,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47276,10 +47243,10 @@
     <hyperlink ref="I564" r:id="rId547"/>
     <hyperlink ref="I565" r:id="rId548"/>
     <hyperlink ref="I566" r:id="rId549"/>
-    <hyperlink ref="I567" r:id="rId550"/>
-    <hyperlink ref="I578" r:id="rId551"/>
+    <hyperlink ref="I577" r:id="rId550"/>
+    <hyperlink ref="I659" r:id="rId551"/>
     <hyperlink ref="I660" r:id="rId552"/>
-    <hyperlink ref="I661" r:id="rId553"/>
+    <hyperlink ref="I664" r:id="rId553"/>
     <hyperlink ref="I665" r:id="rId554"/>
     <hyperlink ref="I666" r:id="rId555"/>
     <hyperlink ref="I667" r:id="rId556"/>
@@ -47326,7 +47293,6 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
-    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -34681,7 +34681,7 @@
     <row r="655">
       <c r="A655" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B655" s="18" t="inlineStr">
@@ -34691,18 +34691,18 @@
       </c>
       <c r="C655" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+          <t>Azure Bot Service の信頼性サポートの推奨事項に従う</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
       <c r="F655" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -34720,7 +34720,7 @@
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34732,7 +34732,7 @@
     <row r="656">
       <c r="A656" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B656" s="18" t="inlineStr">
@@ -34742,18 +34742,18 @@
       </c>
       <c r="C656" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+          <t>ローカル データ所在地とリージョン コンプライアンスを備えたボットのデプロイ</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
       <c r="F656" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -34771,7 +34771,7 @@
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34783,7 +34783,7 @@
     <row r="657">
       <c r="A657" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B657" s="18" t="inlineStr">
@@ -34793,18 +34793,18 @@
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Azure Bot Service は、グローバル サービスとリージョン サービスの両方に対してアクティブ/アクティブ モードで実行されます。停止が発生した場合、エラーを検出したり、サービスを管理したりする必要はありません。Azure Bot Service は、複数リージョンの地理的アーキテクチャで自動フェールオーバーと自動復旧を自動的に実行します。EU ボット リージョン サービスの場合、Azure Bot Service は、冗長性を確保するために、アクティブ/アクティブ レプリケーションを備えたヨーロッパ内の 2 つの完全なリージョンを提供します。グローバル ボット サービスの場合、使用可能なすべてのリージョン/地域をグローバル フットプリントとして提供できます。</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
       <c r="F657" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
@@ -34822,7 +34822,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34849,7 +34849,7 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
@@ -34873,7 +34873,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34890,7 +34890,7 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
@@ -34900,13 +34900,13 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34924,7 +34924,7 @@
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34936,28 +34936,28 @@
     <row r="660">
       <c r="A660" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34975,7 +34975,7 @@
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34987,28 +34987,28 @@
     <row r="661">
       <c r="A661" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU を使用していることを確認する</t>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -35022,19 +35022,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J661" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K661" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J661" s="13" t="n"/>
+      <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35046,22 +35038,22 @@
     <row r="662">
       <c r="A662" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer に Standard SKU を使用していることを確認する</t>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
@@ -35082,14 +35074,10 @@
         </is>
       </c>
       <c r="J662" s="13" t="n"/>
-      <c r="K662" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35106,17 +35094,17 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
@@ -35140,7 +35128,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35167,7 +35155,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+          <t>Application Gateway v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35194,12 +35182,12 @@
       </c>
       <c r="K664" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
         </is>
       </c>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35221,19 +35209,15 @@
       </c>
       <c r="C665" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
-        </is>
-      </c>
-      <c r="E665" s="18" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
-        </is>
-      </c>
+          <t>Azure Load Balancer に Standard SKU を使用していることを確認する</t>
+        </is>
+      </c>
+      <c r="E665" s="18" t="n"/>
       <c r="F665" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35250,15 +35234,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K665" s="19" t="n"/>
+      <c r="J665" s="13" t="n"/>
+      <c r="K665" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35280,12 +35264,12 @@
       </c>
       <c r="C666" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35305,15 +35289,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J666" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J666" s="13" t="n"/>
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35330,7 +35310,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35340,7 +35320,7 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
+          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
@@ -35367,12 +35347,12 @@
       </c>
       <c r="K667" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35389,7 +35369,7 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
@@ -35399,10 +35379,14 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
-        </is>
-      </c>
-      <c r="E668" s="18" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
+        </is>
+      </c>
+      <c r="E668" s="18" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
+        </is>
+      </c>
       <c r="F668" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35424,14 +35408,10 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K668" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35453,12 +35433,12 @@
       </c>
       <c r="C669" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35486,7 +35466,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35503,17 +35483,17 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35535,13 +35515,17 @@
       </c>
       <c r="J670" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K670" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K670" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35563,18 +35547,18 @@
       </c>
       <c r="C671" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35590,13 +35574,17 @@
       </c>
       <c r="J671" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K671" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K671" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35618,18 +35606,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35645,13 +35633,13 @@
       </c>
       <c r="J672" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35673,12 +35661,12 @@
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
@@ -35700,13 +35688,13 @@
       </c>
       <c r="J673" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35723,17 +35711,17 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35753,15 +35741,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J674" s="13" t="n"/>
-      <c r="K674" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J674" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35783,18 +35771,18 @@
       </c>
       <c r="C675" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35808,11 +35796,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J675" s="13" t="n"/>
+      <c r="J675" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35834,18 +35826,18 @@
       </c>
       <c r="C676" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35859,11 +35851,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J676" s="13" t="n"/>
+      <c r="J676" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35880,7 +35876,7 @@
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
@@ -35890,13 +35886,13 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35913,12 +35909,12 @@
       <c r="J677" s="13" t="n"/>
       <c r="K677" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
         </is>
       </c>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35935,7 +35931,7 @@
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
@@ -35945,13 +35941,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35969,7 +35965,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35986,7 +35982,7 @@
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
@@ -35996,13 +35992,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -36017,14 +36013,10 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36041,23 +36033,23 @@
       </c>
       <c r="B680" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -36074,12 +36066,12 @@
       <c r="J680" s="13" t="n"/>
       <c r="K680" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
         </is>
       </c>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36096,7 +36088,7 @@
       </c>
       <c r="B681" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C681" s="18" t="inlineStr">
@@ -36106,13 +36098,13 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -36127,14 +36119,10 @@
         </is>
       </c>
       <c r="J681" s="13" t="n"/>
-      <c r="K681" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36151,7 +36139,7 @@
       </c>
       <c r="B682" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C682" s="18" t="inlineStr">
@@ -36161,13 +36149,13 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -36182,10 +36170,14 @@
         </is>
       </c>
       <c r="J682" s="13" t="n"/>
-      <c r="K682" s="19" t="n"/>
+      <c r="K682" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36202,17 +36194,17 @@
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
@@ -36233,10 +36225,14 @@
         </is>
       </c>
       <c r="J683" s="13" t="n"/>
-      <c r="K683" s="19" t="n"/>
+      <c r="K683" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36253,7 +36249,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36263,13 +36259,13 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36284,10 +36280,14 @@
         </is>
       </c>
       <c r="J684" s="13" t="n"/>
-      <c r="K684" s="19" t="n"/>
+      <c r="K684" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36304,7 +36304,7 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
@@ -36314,13 +36314,13 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -36338,7 +36338,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36365,7 +36365,7 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
@@ -36389,7 +36389,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36416,13 +36416,13 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36440,7 +36440,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36467,7 +36467,7 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
@@ -36491,7 +36491,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36518,7 +36518,7 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
@@ -36542,7 +36542,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36569,13 +36569,13 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36593,7 +36593,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36620,13 +36620,13 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36644,7 +36644,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36671,13 +36671,13 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36695,7 +36695,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36722,13 +36722,13 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36746,7 +36746,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36773,7 +36773,7 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
@@ -36797,7 +36797,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36819,18 +36819,18 @@
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -36845,14 +36845,10 @@
         </is>
       </c>
       <c r="J695" s="13" t="n"/>
-      <c r="K695" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36874,18 +36870,18 @@
       </c>
       <c r="C696" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
       <c r="F696" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
@@ -36903,7 +36899,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36925,18 +36921,18 @@
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36954,7 +36950,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36981,7 +36977,7 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
@@ -37004,12 +37000,12 @@
       <c r="J698" s="13" t="n"/>
       <c r="K698" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
         </is>
       </c>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37036,13 +37032,13 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -37060,7 +37056,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37087,13 +37083,13 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -37111,7 +37107,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37138,13 +37134,13 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37159,10 +37155,14 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="n"/>
+      <c r="K701" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
@@ -37213,7 +37213,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37240,7 +37240,7 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
@@ -37264,7 +37264,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37281,7 +37281,7 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
@@ -37291,13 +37291,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37315,7 +37315,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37332,17 +37332,17 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
+          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37366,7 +37366,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37383,7 +37383,7 @@
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37417,7 +37417,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37439,12 +37439,12 @@
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37468,7 +37468,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37490,12 +37490,12 @@
       </c>
       <c r="C708" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37519,7 +37519,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37546,7 +37546,7 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37570,7 +37570,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37587,17 +37587,17 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
@@ -37621,7 +37621,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37638,17 +37638,17 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37672,7 +37672,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37689,7 +37689,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37699,13 +37699,13 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37723,7 +37723,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37750,13 +37750,13 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37774,7 +37774,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37796,12 +37796,12 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>HTTPをHTTPSにリダイレクトする</t>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -37825,7 +37825,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37842,7 +37842,7 @@
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
@@ -37852,13 +37852,13 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
+          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
       <c r="F715" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
@@ -37876,7 +37876,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37903,7 +37903,7 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37927,7 +37927,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37944,7 +37944,7 @@
       </c>
       <c r="B717" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C717" s="18" t="inlineStr">
@@ -37954,13 +37954,13 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+          <t>HTTPをHTTPSにリダイレクトする</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37978,7 +37978,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37995,7 +37995,7 @@
       </c>
       <c r="B718" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C718" s="18" t="inlineStr">
@@ -38005,7 +38005,7 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
@@ -38029,7 +38029,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38046,7 +38046,7 @@
       </c>
       <c r="B719" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C719" s="18" t="inlineStr">
@@ -38056,13 +38056,13 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -38080,7 +38080,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38097,7 +38097,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -38107,13 +38107,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>トランスポート層の負荷分散を使用する</t>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -38131,7 +38131,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38158,7 +38158,7 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38182,7 +38182,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38199,7 +38199,7 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38233,7 +38233,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38250,7 +38250,7 @@
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
@@ -38260,13 +38260,13 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+          <t>トランスポート層の負荷分散を使用する</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
       <c r="F723" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -38284,7 +38284,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38294,17 +38294,50 @@
       <c r="Q723" s="20" t="n"/>
     </row>
     <row r="724">
-      <c r="A724" s="18" t="n"/>
-      <c r="B724" s="18" t="n"/>
-      <c r="C724" s="18" t="n"/>
-      <c r="D724" s="18" t="n"/>
+      <c r="A724" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B724" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C724" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D724" s="18" t="inlineStr">
+        <is>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+        </is>
+      </c>
       <c r="E724" s="18" t="n"/>
-      <c r="F724" s="18" t="n"/>
+      <c r="F724" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H724" s="18" t="n"/>
-      <c r="I724" s="13" t="n"/>
+      <c r="I724" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J724" s="13" t="n"/>
       <c r="K724" s="19" t="n"/>
-      <c r="L724" s="19" t="n"/>
+      <c r="L724" s="19" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M724" s="20" t="n"/>
       <c r="N724" s="20" t="n"/>
       <c r="O724" s="20" t="n"/>
@@ -38312,17 +38345,50 @@
       <c r="Q724" s="20" t="n"/>
     </row>
     <row r="725">
-      <c r="A725" s="18" t="n"/>
-      <c r="B725" s="18" t="n"/>
-      <c r="C725" s="18" t="n"/>
-      <c r="D725" s="18" t="n"/>
+      <c r="A725" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B725" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C725" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D725" s="18" t="inlineStr">
+        <is>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+        </is>
+      </c>
       <c r="E725" s="18" t="n"/>
-      <c r="F725" s="18" t="n"/>
+      <c r="F725" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H725" s="18" t="n"/>
-      <c r="I725" s="13" t="n"/>
+      <c r="I725" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J725" s="13" t="n"/>
       <c r="K725" s="19" t="n"/>
-      <c r="L725" s="19" t="n"/>
+      <c r="L725" s="19" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M725" s="20" t="n"/>
       <c r="N725" s="20" t="n"/>
       <c r="O725" s="20" t="n"/>
@@ -38330,17 +38396,50 @@
       <c r="Q725" s="20" t="n"/>
     </row>
     <row r="726">
-      <c r="A726" s="18" t="n"/>
-      <c r="B726" s="18" t="n"/>
-      <c r="C726" s="18" t="n"/>
-      <c r="D726" s="18" t="n"/>
+      <c r="A726" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B726" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C726" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D726" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+        </is>
+      </c>
       <c r="E726" s="18" t="n"/>
-      <c r="F726" s="18" t="n"/>
+      <c r="F726" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H726" s="18" t="n"/>
-      <c r="I726" s="13" t="n"/>
+      <c r="I726" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J726" s="13" t="n"/>
       <c r="K726" s="19" t="n"/>
-      <c r="L726" s="19" t="n"/>
+      <c r="L726" s="19" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M726" s="20" t="n"/>
       <c r="N726" s="20" t="n"/>
       <c r="O726" s="20" t="n"/>
@@ -47114,7 +47213,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G724" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G727" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47731,6 +47830,9 @@
     <hyperlink ref="I721" r:id="rId610"/>
     <hyperlink ref="I722" r:id="rId611"/>
     <hyperlink ref="I723" r:id="rId612"/>
+    <hyperlink ref="I724" r:id="rId613"/>
+    <hyperlink ref="I725" r:id="rId614"/>
+    <hyperlink ref="I726" r:id="rId615"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -34834,28 +34834,32 @@
     <row r="658">
       <c r="A658" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
-        </is>
-      </c>
-      <c r="E658" s="18" t="n"/>
+          <t>必要に応じて、保存データの暗号化でカスタマー マネージド キー オプションを使用する</t>
+        </is>
+      </c>
+      <c r="E658" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub は、保存データの暗号化を提供します。独自のキーを使用する場合、データは引き続き Microsoft マネージド キーを使用して暗号化されますが、さらに Microsoft マネージド キーはカスタマー マネージド キーを使用して暗号化されます。</t>
+        </is>
+      </c>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34869,11 +34873,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J658" s="13" t="n"/>
+      <c r="J658" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34885,28 +34893,32 @@
     <row r="659">
       <c r="A659" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
-        </is>
-      </c>
-      <c r="E659" s="18" t="n"/>
+          <t>要求に最低限必要なバージョンのトランスポート層セキュリティ (TLS) を適用する</t>
+        </is>
+      </c>
+      <c r="E659" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hubs 名前空間を使用すると、クライアントは TLS 1.0 以降でデータを送受信できます。より厳格なセキュリティ対策を適用するには、クライアントが新しいバージョンの TLS を使用してデータを送受信するように Event Hubs 名前空間を構成できます。Event Hubs 名前空間で TLS の最小バージョンが必要な場合、古いバージョンで行われた要求はすべて失敗します。</t>
+        </is>
+      </c>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34920,11 +34932,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J659" s="13" t="n"/>
+      <c r="J659" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34936,28 +34952,32 @@
     <row r="660">
       <c r="A660" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
-        </is>
-      </c>
-      <c r="E660" s="18" t="n"/>
+          <t>必要のない場合はrootアカウントの使用を避けてください</t>
+        </is>
+      </c>
+      <c r="E660" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs 名前空間を作成すると、名前空間に対して RootManageSharedAccessKey という名前のポリシー規則が自動的に作成されます。このポリシーには、名前空間全体に対する管理アクセス許可があります。このルールは、管理ルートアカウントのように扱い、アプリケーションでは使用しないことをお勧めします。RBAC で認証プロバイダーとして AAD を使用することをお勧めします。</t>
+        </is>
+      </c>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34971,11 +34991,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J660" s="13" t="n"/>
+      <c r="J660" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34987,28 +35011,32 @@
     <row r="661">
       <c r="A661" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
-        </is>
-      </c>
-      <c r="E661" s="18" t="n"/>
+          <t>可能な場合は、アプリケーションでマネージド ID を使用して Azure Event Hub に対する認証を行う必要があります。そうでない場合は、ストレージ資格情報 (SAS、サービス プリンシパル資格情報) を Azure Key Vault または同等のサービスに用意することを検討してください</t>
+        </is>
+      </c>
+      <c r="E661" s="18" t="inlineStr">
+        <is>
+          <t>Azure リソースのマネージド ID は、Azure Virtual Machines (VM)、関数アプリ、Virtual Machine Scale Sets、その他のサービスで実行されているアプリケーションから Azure AD 資格情報を使用して、Event Hubs リソースへのアクセスを承認できます。Azure リソースのマネージド ID を Azure AD 認証と共に使用することで、クラウドで実行されるアプリケーションに資格情報を格納することを回避できます。</t>
+        </is>
+      </c>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -35022,11 +35050,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J661" s="13" t="n"/>
+      <c r="J661" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35038,28 +35070,32 @@
     <row r="662">
       <c r="A662" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
-        </is>
-      </c>
-      <c r="E662" s="18" t="n"/>
+          <t>最小特権データ プレーン RBAC を使用する</t>
+        </is>
+      </c>
+      <c r="E662" s="18" t="inlineStr">
+        <is>
+          <t>アクセス許可を作成するときは、Azure Event Hub へのクライアントのアクセスをきめ細かく制御します。Azure Event Hub のアクセス許可は、個々のリソース レベル (コンシューマー グループ、イベント ハブ エンティティ、イベント ハブ名前空間など) にスコープを設定する必要があり、またそうする必要があります。</t>
+        </is>
+      </c>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -35073,11 +35109,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="13" t="n"/>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35089,25 +35129,29 @@
     <row r="663">
       <c r="A663" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
-        </is>
-      </c>
-      <c r="E663" s="18" t="n"/>
+          <t>セキュリティ調査のログ記録を有効にします。Azure Monitor を使用して、リソース ログ、ランタイム監査ログ、Kafka ログなどのメトリックとログをキャプチャします</t>
+        </is>
+      </c>
+      <c r="E663" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub リソース ログには、操作ログ、仮想ネットワーク、Kafka ログが含まれます。ランタイム監査ログは、Event Hubs のすべてのデータ プレーン アクセス操作 (イベントの送受信など) に関する集計された診断情報をキャプチャします。</t>
+        </is>
+      </c>
       <c r="F663" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35124,11 +35168,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="13" t="n"/>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35140,7 +35188,7 @@
     <row r="664">
       <c r="A664" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B664" s="18" t="inlineStr">
@@ -35150,15 +35198,19 @@
       </c>
       <c r="C664" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU を使用していることを確認する</t>
-        </is>
-      </c>
-      <c r="E664" s="18" t="n"/>
+          <t>プライベート エンドポイントを使用して Azure Event Hub にアクセスし、該当する場合はパブリック ネットワーク アクセスを無効にすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="E664" s="18" t="inlineStr">
+        <is>
+          <t>既定では、Azure Event Hub にはパブリック IP アドレスがあり、インターネットに到達できます。プライベート エンドポイントを使用すると、仮想ネットワークと Azure Event Hub の間のトラフィックが Microsoft のバックボーン ネットワークを経由するようになります。それに加えて、パブリックエンドポイントを使用しない場合は無効にする必要があります。</t>
+        </is>
+      </c>
       <c r="F664" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35177,17 +35229,13 @@
       </c>
       <c r="J664" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K664" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
+      <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35199,7 +35247,7 @@
     <row r="665">
       <c r="A665" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B665" s="18" t="inlineStr">
@@ -35209,15 +35257,19 @@
       </c>
       <c r="C665" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer に Standard SKU を使用していることを確認する</t>
-        </is>
-      </c>
-      <c r="E665" s="18" t="n"/>
+          <t>特定の IP アドレスまたは範囲からの Azure Event Hub 名前空間へのアクセスのみを許可することを検討してください</t>
+        </is>
+      </c>
+      <c r="E665" s="18" t="inlineStr">
+        <is>
+          <t>IP ファイアウォールを使用すると、パブリック エンドポイントを、CIDR (Classless Inter-Domain Routing) 表記の一連の IPv4 アドレスまたは IPv4 アドレス範囲のみに制限できます。</t>
+        </is>
+      </c>
       <c r="F665" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35234,15 +35286,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="13" t="n"/>
-      <c r="K665" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
+      <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35254,22 +35306,22 @@
     <row r="666">
       <c r="A666" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
+          <t>FTAレジリエンシーハンドブックの活用</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35293,7 +35345,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35305,28 +35357,32 @@
     <row r="667">
       <c r="A667" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
-        </is>
-      </c>
-      <c r="E667" s="18" t="n"/>
+          <t>Availability Zones の活用 (地域的に適用可能な場合)</t>
+        </is>
+      </c>
+      <c r="E667" s="18" t="inlineStr">
+        <is>
+          <t>これは、ゾーン対応リージョンの Premium、Dedicated、または Standard SKU を使用してポータルから作成された新しい EH 名前空間に対して自動的にオンになります。EH メタデータとイベント データ自体の両方がゾーン間でレプリケートされます</t>
+        </is>
+      </c>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35340,19 +35396,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J667" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K667" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J667" s="13" t="n"/>
+      <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35364,29 +35412,25 @@
     <row r="668">
       <c r="A668" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
-        </is>
-      </c>
-      <c r="E668" s="18" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
-        </is>
-      </c>
+          <t>予測可能なパフォーマンスのために Premium または Dedicated SKU を使用する</t>
+        </is>
+      </c>
+      <c r="E668" s="18" t="n"/>
       <c r="F668" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35403,15 +35447,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J668" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J668" s="13" t="n"/>
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35423,28 +35463,32 @@
     <row r="669">
       <c r="A669" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B669" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C669" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="E669" s="18" t="n"/>
+          <t>アクティブ パッシブ構成を使用した Geo ディザスター リカバリーの計画</t>
+        </is>
+      </c>
+      <c r="E669" s="18" t="inlineStr">
+        <is>
+          <t>組み込みの geo ディザスター リカバリー機能を有効にすると、名前空間の構成全体 (Event Hubs、コンシューマー グループ、設定) がプライマリ名前空間からセカンダリ名前空間に継続的にレプリケートされ、プライマリからセカンダリへのフェールオーバーをいつでも 1 回だけ行うことができます。アクティブ/パッシブ機能は、アプリケーション構成を変更することなく、障害が発生した Azure リージョンからの復旧と破棄を容易にするように設計されています</t>
+        </is>
+      </c>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35458,15 +35502,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J669" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J669" s="13" t="n"/>
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35478,7 +35518,7 @@
     <row r="670">
       <c r="A670" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B670" s="18" t="inlineStr">
@@ -35488,15 +35528,19 @@
       </c>
       <c r="C670" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
-        </is>
-      </c>
-      <c r="E670" s="18" t="n"/>
+          <t>ビジネス クリティカルなアプリケーションの場合は、アクティブ アクティブ構成を使用します</t>
+        </is>
+      </c>
+      <c r="E670" s="18" t="inlineStr">
+        <is>
+          <t>ダウンしたリージョンでのイベントデータの停止または損失を許容できない DR 構成に使用する必要があります。このような場合は、レプリケーションのガイダンスに従い、組み込みの geo ディザスター リカバリー機能 (アクティブ/パッシブ) を使用しないでください。アクティブ/アクティブでは、異なるリージョンと名前空間で複数の Event Hubs を保持し、イベントはハブ間でレプリケートされます</t>
+        </is>
+      </c>
       <c r="F670" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -35513,19 +35557,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J670" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K670" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J670" s="13" t="n"/>
+      <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35537,7 +35573,7 @@
     <row r="671">
       <c r="A671" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B671" s="18" t="inlineStr">
@@ -35547,12 +35583,12 @@
       </c>
       <c r="C671" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
+          <t>回復力のある Event Hubs の設計</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35572,19 +35608,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J671" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K671" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J671" s="13" t="n"/>
+      <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35596,28 +35624,28 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35631,15 +35659,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J672" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J672" s="13" t="n"/>
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35651,28 +35675,28 @@
     <row r="673">
       <c r="A673" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35686,15 +35710,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J673" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J673" s="13" t="n"/>
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35706,7 +35726,7 @@
     <row r="674">
       <c r="A674" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B674" s="18" t="inlineStr">
@@ -35716,12 +35736,12 @@
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35741,15 +35761,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J674" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J674" s="13" t="n"/>
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35761,28 +35777,28 @@
     <row r="675">
       <c r="A675" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B675" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C675" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35796,15 +35812,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J675" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="J675" s="13" t="n"/>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35816,22 +35828,22 @@
     <row r="676">
       <c r="A676" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B676" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C676" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
@@ -35851,15 +35863,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J676" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="J676" s="13" t="n"/>
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35876,7 +35884,7 @@
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
@@ -35886,13 +35894,13 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35907,14 +35915,10 @@
         </is>
       </c>
       <c r="J677" s="13" t="n"/>
-      <c r="K677" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35936,18 +35940,18 @@
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Application Gateway v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35961,11 +35965,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J678" s="13" t="n"/>
-      <c r="K678" s="19" t="n"/>
+      <c r="J678" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K678" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
+        </is>
+      </c>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35987,18 +35999,18 @@
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Load Balancer に Standard SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -36013,10 +36025,14 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="n"/>
+      <c r="K679" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36033,23 +36049,23 @@
       </c>
       <c r="B680" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -36064,14 +36080,10 @@
         </is>
       </c>
       <c r="J680" s="13" t="n"/>
-      <c r="K680" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36088,17 +36100,17 @@
       </c>
       <c r="B681" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36118,11 +36130,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J681" s="13" t="n"/>
-      <c r="K681" s="19" t="n"/>
+      <c r="J681" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K681" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36139,23 +36159,27 @@
       </c>
       <c r="B682" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
-        </is>
-      </c>
-      <c r="E682" s="18" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
+        </is>
+      </c>
+      <c r="E682" s="18" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
+        </is>
+      </c>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -36169,15 +36193,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J682" s="13" t="n"/>
-      <c r="K682" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="J682" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36194,23 +36218,23 @@
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36224,15 +36248,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J683" s="13" t="n"/>
-      <c r="K683" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J683" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36249,23 +36273,23 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36279,15 +36303,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J684" s="13" t="n"/>
+      <c r="J684" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K684" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36304,17 +36332,17 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
@@ -36334,11 +36362,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
-      <c r="K685" s="19" t="n"/>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K685" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36365,13 +36401,13 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36385,11 +36421,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J686" s="13" t="n"/>
+      <c r="J686" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36416,7 +36456,7 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36436,11 +36476,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J687" s="13" t="n"/>
+      <c r="J687" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36457,17 +36501,17 @@
       </c>
       <c r="B688" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C688" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
@@ -36487,11 +36531,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="13" t="n"/>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36513,18 +36561,18 @@
       </c>
       <c r="C689" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36538,11 +36586,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J689" s="13" t="n"/>
+      <c r="J689" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36564,18 +36616,18 @@
       </c>
       <c r="C690" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
+          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36589,11 +36641,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J690" s="13" t="n"/>
+      <c r="J690" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36620,7 +36676,7 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
@@ -36641,10 +36697,14 @@
         </is>
       </c>
       <c r="J691" s="13" t="n"/>
-      <c r="K691" s="19" t="n"/>
+      <c r="K691" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36671,7 +36731,7 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
@@ -36695,7 +36755,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36722,13 +36782,13 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36746,7 +36806,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36763,7 +36823,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36773,13 +36833,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36794,10 +36854,14 @@
         </is>
       </c>
       <c r="J694" s="13" t="n"/>
-      <c r="K694" s="19" t="n"/>
+      <c r="K694" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36814,7 +36878,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36824,7 +36888,7 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36848,7 +36912,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36865,7 +36929,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36875,7 +36939,7 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
@@ -36896,10 +36960,14 @@
         </is>
       </c>
       <c r="J696" s="13" t="n"/>
-      <c r="K696" s="19" t="n"/>
+      <c r="K696" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36916,23 +36984,23 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36947,10 +37015,14 @@
         </is>
       </c>
       <c r="J697" s="13" t="n"/>
-      <c r="K697" s="19" t="n"/>
+      <c r="K697" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36967,17 +37039,17 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
@@ -37000,12 +37072,12 @@
       <c r="J698" s="13" t="n"/>
       <c r="K698" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
         </is>
       </c>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37022,23 +37094,23 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -37056,7 +37128,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37078,12 +37150,12 @@
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -37107,7 +37179,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37129,18 +37201,18 @@
       </c>
       <c r="C701" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37155,14 +37227,10 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37184,18 +37252,18 @@
       </c>
       <c r="C702" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37213,7 +37281,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37235,18 +37303,18 @@
       </c>
       <c r="C703" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37264,7 +37332,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37286,18 +37354,18 @@
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37315,7 +37383,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37337,18 +37405,18 @@
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37366,7 +37434,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37388,18 +37456,18 @@
       </c>
       <c r="C706" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37417,7 +37485,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37434,17 +37502,17 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37468,7 +37536,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37485,7 +37553,7 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
@@ -37495,7 +37563,7 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37519,7 +37587,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37536,17 +37604,17 @@
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37570,7 +37638,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37587,7 +37655,7 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
@@ -37597,13 +37665,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37621,7 +37689,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37638,17 +37706,17 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37672,7 +37740,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37689,7 +37757,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37699,13 +37767,13 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37720,10 +37788,14 @@
         </is>
       </c>
       <c r="J712" s="13" t="n"/>
-      <c r="K712" s="19" t="n"/>
+      <c r="K712" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37750,13 +37822,13 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37774,7 +37846,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37796,18 +37868,18 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
@@ -37825,7 +37897,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37852,7 +37924,7 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37873,10 +37945,14 @@
         </is>
       </c>
       <c r="J715" s="13" t="n"/>
-      <c r="K715" s="19" t="n"/>
+      <c r="K715" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37903,13 +37979,13 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
       <c r="F716" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -37927,7 +38003,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37954,7 +38030,7 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>HTTPをHTTPSにリダイレクトする</t>
+          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
@@ -37978,7 +38054,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37995,7 +38071,7 @@
       </c>
       <c r="B718" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C718" s="18" t="inlineStr">
@@ -38005,13 +38081,13 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -38029,7 +38105,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38056,13 +38132,13 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -38080,7 +38156,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38097,7 +38173,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -38107,13 +38183,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -38131,7 +38207,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38148,7 +38224,7 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
@@ -38158,7 +38234,7 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38182,7 +38258,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38199,17 +38275,17 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38233,7 +38309,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38250,7 +38326,7 @@
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
@@ -38260,7 +38336,7 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>トランスポート層の負荷分散を使用する</t>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38284,7 +38360,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38301,17 +38377,17 @@
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38335,7 +38411,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38352,7 +38428,7 @@
       </c>
       <c r="B725" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C725" s="18" t="inlineStr">
@@ -38362,7 +38438,7 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38386,7 +38462,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38403,7 +38479,7 @@
       </c>
       <c r="B726" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C726" s="18" t="inlineStr">
@@ -38413,13 +38489,13 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38437,7 +38513,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38447,17 +38523,50 @@
       <c r="Q726" s="20" t="n"/>
     </row>
     <row r="727">
-      <c r="A727" s="18" t="n"/>
-      <c r="B727" s="18" t="n"/>
-      <c r="C727" s="18" t="n"/>
-      <c r="D727" s="18" t="n"/>
+      <c r="A727" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B727" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C727" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D727" s="18" t="inlineStr">
+        <is>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+        </is>
+      </c>
       <c r="E727" s="18" t="n"/>
-      <c r="F727" s="18" t="n"/>
+      <c r="F727" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H727" s="18" t="n"/>
-      <c r="I727" s="13" t="n"/>
+      <c r="I727" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J727" s="13" t="n"/>
       <c r="K727" s="19" t="n"/>
-      <c r="L727" s="19" t="n"/>
+      <c r="L727" s="19" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M727" s="20" t="n"/>
       <c r="N727" s="20" t="n"/>
       <c r="O727" s="20" t="n"/>
@@ -38465,17 +38574,50 @@
       <c r="Q727" s="20" t="n"/>
     </row>
     <row r="728">
-      <c r="A728" s="18" t="n"/>
-      <c r="B728" s="18" t="n"/>
-      <c r="C728" s="18" t="n"/>
-      <c r="D728" s="18" t="n"/>
+      <c r="A728" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B728" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C728" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D728" s="18" t="inlineStr">
+        <is>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+        </is>
+      </c>
       <c r="E728" s="18" t="n"/>
-      <c r="F728" s="18" t="n"/>
+      <c r="F728" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H728" s="18" t="n"/>
-      <c r="I728" s="13" t="n"/>
+      <c r="I728" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J728" s="13" t="n"/>
       <c r="K728" s="19" t="n"/>
-      <c r="L728" s="19" t="n"/>
+      <c r="L728" s="19" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M728" s="20" t="n"/>
       <c r="N728" s="20" t="n"/>
       <c r="O728" s="20" t="n"/>
@@ -38483,17 +38625,50 @@
       <c r="Q728" s="20" t="n"/>
     </row>
     <row r="729">
-      <c r="A729" s="18" t="n"/>
-      <c r="B729" s="18" t="n"/>
-      <c r="C729" s="18" t="n"/>
-      <c r="D729" s="18" t="n"/>
+      <c r="A729" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B729" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C729" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D729" s="18" t="inlineStr">
+        <is>
+          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
+        </is>
+      </c>
       <c r="E729" s="18" t="n"/>
-      <c r="F729" s="18" t="n"/>
+      <c r="F729" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H729" s="18" t="n"/>
-      <c r="I729" s="13" t="n"/>
+      <c r="I729" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J729" s="13" t="n"/>
       <c r="K729" s="19" t="n"/>
-      <c r="L729" s="19" t="n"/>
+      <c r="L729" s="19" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M729" s="20" t="n"/>
       <c r="N729" s="20" t="n"/>
       <c r="O729" s="20" t="n"/>
@@ -38501,17 +38676,50 @@
       <c r="Q729" s="20" t="n"/>
     </row>
     <row r="730">
-      <c r="A730" s="18" t="n"/>
-      <c r="B730" s="18" t="n"/>
-      <c r="C730" s="18" t="n"/>
-      <c r="D730" s="18" t="n"/>
+      <c r="A730" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B730" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C730" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D730" s="18" t="inlineStr">
+        <is>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+        </is>
+      </c>
       <c r="E730" s="18" t="n"/>
-      <c r="F730" s="18" t="n"/>
+      <c r="F730" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H730" s="18" t="n"/>
-      <c r="I730" s="13" t="n"/>
+      <c r="I730" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J730" s="13" t="n"/>
       <c r="K730" s="19" t="n"/>
-      <c r="L730" s="19" t="n"/>
+      <c r="L730" s="19" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M730" s="20" t="n"/>
       <c r="N730" s="20" t="n"/>
       <c r="O730" s="20" t="n"/>
@@ -38519,17 +38727,50 @@
       <c r="Q730" s="20" t="n"/>
     </row>
     <row r="731">
-      <c r="A731" s="18" t="n"/>
-      <c r="B731" s="18" t="n"/>
-      <c r="C731" s="18" t="n"/>
-      <c r="D731" s="18" t="n"/>
+      <c r="A731" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B731" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C731" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D731" s="18" t="inlineStr">
+        <is>
+          <t>HTTPをHTTPSにリダイレクトする</t>
+        </is>
+      </c>
       <c r="E731" s="18" t="n"/>
-      <c r="F731" s="18" t="n"/>
+      <c r="F731" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H731" s="18" t="n"/>
-      <c r="I731" s="13" t="n"/>
+      <c r="I731" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J731" s="13" t="n"/>
       <c r="K731" s="19" t="n"/>
-      <c r="L731" s="19" t="n"/>
+      <c r="L731" s="19" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M731" s="20" t="n"/>
       <c r="N731" s="20" t="n"/>
       <c r="O731" s="20" t="n"/>
@@ -38537,17 +38778,50 @@
       <c r="Q731" s="20" t="n"/>
     </row>
     <row r="732">
-      <c r="A732" s="18" t="n"/>
-      <c r="B732" s="18" t="n"/>
-      <c r="C732" s="18" t="n"/>
-      <c r="D732" s="18" t="n"/>
+      <c r="A732" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B732" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C732" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D732" s="18" t="inlineStr">
+        <is>
+          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
+        </is>
+      </c>
       <c r="E732" s="18" t="n"/>
-      <c r="F732" s="18" t="n"/>
+      <c r="F732" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H732" s="18" t="n"/>
-      <c r="I732" s="13" t="n"/>
+      <c r="I732" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J732" s="13" t="n"/>
       <c r="K732" s="19" t="n"/>
-      <c r="L732" s="19" t="n"/>
+      <c r="L732" s="19" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M732" s="20" t="n"/>
       <c r="N732" s="20" t="n"/>
       <c r="O732" s="20" t="n"/>
@@ -38555,17 +38829,50 @@
       <c r="Q732" s="20" t="n"/>
     </row>
     <row r="733">
-      <c r="A733" s="18" t="n"/>
-      <c r="B733" s="18" t="n"/>
-      <c r="C733" s="18" t="n"/>
-      <c r="D733" s="18" t="n"/>
+      <c r="A733" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B733" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C733" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D733" s="18" t="inlineStr">
+        <is>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+        </is>
+      </c>
       <c r="E733" s="18" t="n"/>
-      <c r="F733" s="18" t="n"/>
+      <c r="F733" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H733" s="18" t="n"/>
-      <c r="I733" s="13" t="n"/>
+      <c r="I733" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J733" s="13" t="n"/>
       <c r="K733" s="19" t="n"/>
-      <c r="L733" s="19" t="n"/>
+      <c r="L733" s="19" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M733" s="20" t="n"/>
       <c r="N733" s="20" t="n"/>
       <c r="O733" s="20" t="n"/>
@@ -38573,17 +38880,50 @@
       <c r="Q733" s="20" t="n"/>
     </row>
     <row r="734">
-      <c r="A734" s="18" t="n"/>
-      <c r="B734" s="18" t="n"/>
-      <c r="C734" s="18" t="n"/>
-      <c r="D734" s="18" t="n"/>
+      <c r="A734" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B734" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C734" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D734" s="18" t="inlineStr">
+        <is>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+        </is>
+      </c>
       <c r="E734" s="18" t="n"/>
-      <c r="F734" s="18" t="n"/>
+      <c r="F734" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H734" s="18" t="n"/>
-      <c r="I734" s="13" t="n"/>
+      <c r="I734" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J734" s="13" t="n"/>
       <c r="K734" s="19" t="n"/>
-      <c r="L734" s="19" t="n"/>
+      <c r="L734" s="19" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M734" s="20" t="n"/>
       <c r="N734" s="20" t="n"/>
       <c r="O734" s="20" t="n"/>
@@ -38591,17 +38931,50 @@
       <c r="Q734" s="20" t="n"/>
     </row>
     <row r="735">
-      <c r="A735" s="18" t="n"/>
-      <c r="B735" s="18" t="n"/>
-      <c r="C735" s="18" t="n"/>
-      <c r="D735" s="18" t="n"/>
+      <c r="A735" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B735" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C735" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D735" s="18" t="inlineStr">
+        <is>
+          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+        </is>
+      </c>
       <c r="E735" s="18" t="n"/>
-      <c r="F735" s="18" t="n"/>
+      <c r="F735" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H735" s="18" t="n"/>
-      <c r="I735" s="13" t="n"/>
+      <c r="I735" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J735" s="13" t="n"/>
       <c r="K735" s="19" t="n"/>
-      <c r="L735" s="19" t="n"/>
+      <c r="L735" s="19" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M735" s="20" t="n"/>
       <c r="N735" s="20" t="n"/>
       <c r="O735" s="20" t="n"/>
@@ -38609,17 +38982,50 @@
       <c r="Q735" s="20" t="n"/>
     </row>
     <row r="736">
-      <c r="A736" s="18" t="n"/>
-      <c r="B736" s="18" t="n"/>
-      <c r="C736" s="18" t="n"/>
-      <c r="D736" s="18" t="n"/>
+      <c r="A736" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B736" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C736" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D736" s="18" t="inlineStr">
+        <is>
+          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
+        </is>
+      </c>
       <c r="E736" s="18" t="n"/>
-      <c r="F736" s="18" t="n"/>
+      <c r="F736" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H736" s="18" t="n"/>
-      <c r="I736" s="13" t="n"/>
+      <c r="I736" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="n"/>
-      <c r="L736" s="19" t="n"/>
+      <c r="L736" s="19" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M736" s="20" t="n"/>
       <c r="N736" s="20" t="n"/>
       <c r="O736" s="20" t="n"/>
@@ -38627,17 +39033,50 @@
       <c r="Q736" s="20" t="n"/>
     </row>
     <row r="737">
-      <c r="A737" s="18" t="n"/>
-      <c r="B737" s="18" t="n"/>
-      <c r="C737" s="18" t="n"/>
-      <c r="D737" s="18" t="n"/>
+      <c r="A737" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B737" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C737" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D737" s="18" t="inlineStr">
+        <is>
+          <t>トランスポート層の負荷分散を使用する</t>
+        </is>
+      </c>
       <c r="E737" s="18" t="n"/>
-      <c r="F737" s="18" t="n"/>
+      <c r="F737" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H737" s="18" t="n"/>
-      <c r="I737" s="13" t="n"/>
+      <c r="I737" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J737" s="13" t="n"/>
       <c r="K737" s="19" t="n"/>
-      <c r="L737" s="19" t="n"/>
+      <c r="L737" s="19" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M737" s="20" t="n"/>
       <c r="N737" s="20" t="n"/>
       <c r="O737" s="20" t="n"/>
@@ -38645,17 +39084,50 @@
       <c r="Q737" s="20" t="n"/>
     </row>
     <row r="738">
-      <c r="A738" s="18" t="n"/>
-      <c r="B738" s="18" t="n"/>
-      <c r="C738" s="18" t="n"/>
-      <c r="D738" s="18" t="n"/>
+      <c r="A738" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B738" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C738" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D738" s="18" t="inlineStr">
+        <is>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+        </is>
+      </c>
       <c r="E738" s="18" t="n"/>
-      <c r="F738" s="18" t="n"/>
+      <c r="F738" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H738" s="18" t="n"/>
-      <c r="I738" s="13" t="n"/>
+      <c r="I738" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J738" s="13" t="n"/>
       <c r="K738" s="19" t="n"/>
-      <c r="L738" s="19" t="n"/>
+      <c r="L738" s="19" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M738" s="20" t="n"/>
       <c r="N738" s="20" t="n"/>
       <c r="O738" s="20" t="n"/>
@@ -38663,17 +39135,50 @@
       <c r="Q738" s="20" t="n"/>
     </row>
     <row r="739">
-      <c r="A739" s="18" t="n"/>
-      <c r="B739" s="18" t="n"/>
-      <c r="C739" s="18" t="n"/>
-      <c r="D739" s="18" t="n"/>
+      <c r="A739" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B739" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C739" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D739" s="18" t="inlineStr">
+        <is>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+        </is>
+      </c>
       <c r="E739" s="18" t="n"/>
-      <c r="F739" s="18" t="n"/>
+      <c r="F739" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H739" s="18" t="n"/>
-      <c r="I739" s="13" t="n"/>
+      <c r="I739" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J739" s="13" t="n"/>
       <c r="K739" s="19" t="n"/>
-      <c r="L739" s="19" t="n"/>
+      <c r="L739" s="19" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M739" s="20" t="n"/>
       <c r="N739" s="20" t="n"/>
       <c r="O739" s="20" t="n"/>
@@ -38681,17 +39186,50 @@
       <c r="Q739" s="20" t="n"/>
     </row>
     <row r="740">
-      <c r="A740" s="18" t="n"/>
-      <c r="B740" s="18" t="n"/>
-      <c r="C740" s="18" t="n"/>
-      <c r="D740" s="18" t="n"/>
+      <c r="A740" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B740" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C740" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D740" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+        </is>
+      </c>
       <c r="E740" s="18" t="n"/>
-      <c r="F740" s="18" t="n"/>
+      <c r="F740" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H740" s="18" t="n"/>
-      <c r="I740" s="13" t="n"/>
+      <c r="I740" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J740" s="13" t="n"/>
       <c r="K740" s="19" t="n"/>
-      <c r="L740" s="19" t="n"/>
+      <c r="L740" s="19" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M740" s="20" t="n"/>
       <c r="N740" s="20" t="n"/>
       <c r="O740" s="20" t="n"/>
@@ -47213,7 +47751,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G727" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G741" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47833,6 +48371,20 @@
     <hyperlink ref="I724" r:id="rId613"/>
     <hyperlink ref="I725" r:id="rId614"/>
     <hyperlink ref="I726" r:id="rId615"/>
+    <hyperlink ref="I727" r:id="rId616"/>
+    <hyperlink ref="I728" r:id="rId617"/>
+    <hyperlink ref="I729" r:id="rId618"/>
+    <hyperlink ref="I730" r:id="rId619"/>
+    <hyperlink ref="I731" r:id="rId620"/>
+    <hyperlink ref="I732" r:id="rId621"/>
+    <hyperlink ref="I733" r:id="rId622"/>
+    <hyperlink ref="I734" r:id="rId623"/>
+    <hyperlink ref="I735" r:id="rId624"/>
+    <hyperlink ref="I736" r:id="rId625"/>
+    <hyperlink ref="I737" r:id="rId626"/>
+    <hyperlink ref="I738" r:id="rId627"/>
+    <hyperlink ref="I739" r:id="rId628"/>
+    <hyperlink ref="I740" r:id="rId629"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -30226,7 +30226,7 @@
       </c>
       <c r="J575" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="K575" s="19" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -11734,7 +11734,7 @@
       <c r="K213" s="19" t="n"/>
       <c r="L213" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M213" s="20" t="n"/>
@@ -11785,7 +11785,7 @@
       <c r="K214" s="19" t="n"/>
       <c r="L214" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M214" s="20" t="n"/>
@@ -11836,7 +11836,7 @@
       <c r="K215" s="19" t="n"/>
       <c r="L215" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M215" s="20" t="n"/>
@@ -11887,7 +11887,7 @@
       <c r="K216" s="19" t="n"/>
       <c r="L216" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M216" s="20" t="n"/>
@@ -11938,7 +11938,7 @@
       <c r="K217" s="19" t="n"/>
       <c r="L217" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M217" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -31693,7 +31693,7 @@
     <row r="603">
       <c r="A603" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B603" s="18" t="inlineStr">
@@ -31703,12 +31703,12 @@
       </c>
       <c r="C603" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
+          <t>有効期間の長い取り消し可能なトークンを使用し、トークンをキャッシュし、Microsoft ID ライブラリを使用してサイレントに取得します</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
@@ -31732,7 +31732,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>bb235c70-5e17-496f-bedf-a8a4c8cdec4c</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -31744,7 +31744,7 @@
     <row r="604">
       <c r="A604" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B604" s="18" t="inlineStr">
@@ -31754,12 +31754,12 @@
       </c>
       <c r="C604" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
+          <t>サインイン ユーザー フローがバックアップされ、回復性があることを確認します。ユーザーのサインインに使用するコードがバックアップされ、回復可能であることを確認します。外部プロセスとの回復力のあるインターフェース</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
@@ -31783,7 +31783,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>503547c1-447e-4c66-828a-71f0f1ce16dd</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -31795,22 +31795,22 @@
     <row r="605">
       <c r="A605" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B605" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C605" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
+          <t>カスタムブランドアセットはCDNでホストする必要がある</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
@@ -31834,7 +31834,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>3e3553a4-c873-4964-ab66-2d6c15f51296</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -31846,7 +31846,7 @@
     <row r="606">
       <c r="A606" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B606" s="18" t="inlineStr">
@@ -31856,18 +31856,18 @@
       </c>
       <c r="C606" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>AAD B2C</t>
         </is>
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>アプリに複数のアプリ インスタンスを使用する</t>
+          <t>複数のIDプロバイダーを持っている(つまり、Microsoft、Google、Facebookアカウントでログインする)</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
       <c r="F606" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -31885,7 +31885,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>5398e6df-d237-4de1-93b1-6c21d79a9b64</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -31897,7 +31897,7 @@
     <row r="607">
       <c r="A607" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B607" s="18" t="inlineStr">
@@ -31907,12 +31907,12 @@
       </c>
       <c r="C607" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
+          <t>VM レベルでの高可用性に関する VM ルールに従う (Premium ディスク、リージョン内の 2 つ以上、異なる可用性ゾーン内)</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
@@ -31936,7 +31936,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>604489a8-f42d-478e-98c0-7a73b22a4a57</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -31948,7 +31948,7 @@
     <row r="608">
       <c r="A608" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B608" s="18" t="inlineStr">
@@ -31958,12 +31958,12 @@
       </c>
       <c r="C608" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
+          <t>複製しないでください!レプリケーションにより、ディレクトリ同期に関する問題が発生する可能性があります</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
@@ -31987,7 +31987,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>e7a8dd4a-30e3-47c3-b297-11b2362ceee0</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -31999,7 +31999,7 @@
     <row r="609">
       <c r="A609" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B609" s="18" t="inlineStr">
@@ -32009,18 +32009,18 @@
       </c>
       <c r="C609" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Windows AD</t>
         </is>
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
+          <t>マルチリージョンのアクティブ/アクティブを持つ</t>
         </is>
       </c>
       <c r="E609" s="18" t="n"/>
       <c r="F609" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -32038,7 +32038,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>79b598de-fc59-472c-b4cd-21b078036f5e</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32050,7 +32050,7 @@
     <row r="610">
       <c r="A610" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B610" s="18" t="inlineStr">
@@ -32060,12 +32060,12 @@
       </c>
       <c r="C610" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
+          <t>Azure AD Domain Service スタンプを追加のリージョンと場所に追加する</t>
         </is>
       </c>
       <c r="E610" s="18" t="n"/>
@@ -32089,7 +32089,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>6b4bfd3d-5035-447c-8447-ec66128a71f0</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32101,12 +32101,12 @@
     <row r="611">
       <c r="A611" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Identity Review Checklist</t>
         </is>
       </c>
       <c r="B611" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C611" s="18" t="inlineStr">
@@ -32116,7 +32116,7 @@
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>マルチテナントに関する明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
+          <t>DR にレプリカ セットを使用する</t>
         </is>
       </c>
       <c r="E611" s="18" t="n"/>
@@ -32140,7 +32140,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>f1ce16dd-3f1d-45e8-92e4-2e3611cc58b4</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32152,28 +32152,28 @@
     <row r="612">
       <c r="A612" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B612" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C612" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID テナントを管理するためのマルチテナント自動化アプローチがあることを確認する</t>
+          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
         </is>
       </c>
       <c r="E612" s="18" t="n"/>
       <c r="F612" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -32191,7 +32191,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32203,28 +32203,28 @@
     <row r="613">
       <c r="A613" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B613" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C613" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>マルチテナント管理に Azure Lighthouse を活用する</t>
+          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
         </is>
       </c>
       <c r="E613" s="18" t="n"/>
       <c r="F613" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
@@ -32242,7 +32242,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32254,22 +32254,22 @@
     <row r="614">
       <c r="A614" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B614" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C614" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>パートナーによるテナントの管理に Azure Lighthouse が使用されていることを確認する</t>
+          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
         </is>
       </c>
       <c r="E614" s="18" t="n"/>
@@ -32293,7 +32293,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -32305,28 +32305,28 @@
     <row r="615">
       <c r="A615" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B615" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C615" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>アプリに複数のアプリ インスタンスを使用する</t>
         </is>
       </c>
       <c r="E615" s="18" t="n"/>
       <c r="F615" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
@@ -32340,15 +32340,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J615" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J615" s="13" t="n"/>
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -32360,22 +32356,22 @@
     <row r="616">
       <c r="A616" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B616" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C616" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D616" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
+          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
         </is>
       </c>
       <c r="E616" s="18" t="n"/>
@@ -32399,7 +32395,7 @@
       <c r="K616" s="19" t="n"/>
       <c r="L616" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M616" s="20" t="n"/>
@@ -32411,28 +32407,28 @@
     <row r="617">
       <c r="A617" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B617" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C617" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D617" s="18" t="inlineStr">
         <is>
-          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
+          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
         </is>
       </c>
       <c r="E617" s="18" t="n"/>
       <c r="F617" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
@@ -32446,15 +32442,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J617" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J617" s="13" t="n"/>
       <c r="K617" s="19" t="n"/>
       <c r="L617" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M617" s="20" t="n"/>
@@ -32466,22 +32458,22 @@
     <row r="618">
       <c r="A618" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B618" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C618" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID 条件付きアクセス ポリシーを適用する</t>
+          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
         </is>
       </c>
       <c r="E618" s="18" t="n"/>
@@ -32501,15 +32493,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J618" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J618" s="13" t="n"/>
       <c r="K618" s="19" t="n"/>
       <c r="L618" s="19" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M618" s="20" t="n"/>
@@ -32521,28 +32509,28 @@
     <row r="619">
       <c r="A619" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B619" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C619" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
         </is>
       </c>
       <c r="E619" s="18" t="n"/>
       <c r="F619" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
@@ -32556,15 +32544,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J619" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J619" s="13" t="n"/>
       <c r="K619" s="19" t="n"/>
       <c r="L619" s="19" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M619" s="20" t="n"/>
@@ -32581,7 +32565,7 @@
       </c>
       <c r="B620" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C620" s="18" t="inlineStr">
@@ -32591,7 +32575,7 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID Privileged Identity Management (PIM) を適用して、ゼロの永続的なアクセスと最小限の特権を確立します</t>
+          <t>マルチテナントに関する明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
         </is>
       </c>
       <c r="E620" s="18" t="n"/>
@@ -32611,15 +32595,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J620" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J620" s="13" t="n"/>
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M620" s="20" t="n"/>
@@ -32636,7 +32616,7 @@
       </c>
       <c r="B621" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C621" s="18" t="inlineStr">
@@ -32646,13 +32626,13 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
+          <t>Microsoft Entra ID テナントを管理するためのマルチテナント自動化アプローチがあることを確認する</t>
         </is>
       </c>
       <c r="E621" s="18" t="n"/>
       <c r="F621" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
@@ -32666,15 +32646,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J621" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J621" s="13" t="n"/>
       <c r="K621" s="19" t="n"/>
       <c r="L621" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M621" s="20" t="n"/>
@@ -32691,7 +32667,7 @@
       </c>
       <c r="B622" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C622" s="18" t="inlineStr">
@@ -32701,13 +32677,13 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
+          <t>マルチテナント管理に Azure Lighthouse を活用する</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
       <c r="F622" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -32721,15 +32697,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J622" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J622" s="13" t="n"/>
       <c r="K622" s="19" t="n"/>
       <c r="L622" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M622" s="20" t="n"/>
@@ -32746,7 +32718,7 @@
       </c>
       <c r="B623" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C623" s="18" t="inlineStr">
@@ -32756,7 +32728,7 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>Active Directory ドメイン サービスから Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します</t>
+          <t>パートナーによるテナントの管理に Azure Lighthouse が使用されていることを確認する</t>
         </is>
       </c>
       <c r="E623" s="18" t="n"/>
@@ -32776,15 +32748,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J623" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
-        </is>
-      </c>
+      <c r="J623" s="13" t="n"/>
       <c r="K623" s="19" t="n"/>
       <c r="L623" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M623" s="20" t="n"/>
@@ -32811,13 +32779,13 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
       <c r="F624" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -32833,13 +32801,13 @@
       </c>
       <c r="J624" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -32866,7 +32834,7 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
@@ -32886,15 +32854,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J625" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="J625" s="13" t="n"/>
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -32916,18 +32880,18 @@
       </c>
       <c r="C626" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -32943,13 +32907,13 @@
       </c>
       <c r="J626" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -32971,18 +32935,18 @@
       </c>
       <c r="C627" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
       <c r="F627" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -32996,11 +32960,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J627" s="13" t="n"/>
+      <c r="J627" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K627" s="19" t="n"/>
       <c r="L627" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M627" s="20" t="n"/>
@@ -33022,18 +32990,18 @@
       </c>
       <c r="C628" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="E628" s="18" t="n"/>
       <c r="F628" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -33049,13 +33017,13 @@
       </c>
       <c r="J628" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K628" s="19" t="n"/>
       <c r="L628" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M628" s="20" t="n"/>
@@ -33077,12 +33045,12 @@
       </c>
       <c r="C629" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
+          <t>Microsoft Entra ID Privileged Identity Management (PIM) を適用して、ゼロの永続的なアクセスと最小限の特権を確立します</t>
         </is>
       </c>
       <c r="E629" s="18" t="n"/>
@@ -33104,13 +33072,13 @@
       </c>
       <c r="J629" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K629" s="19" t="n"/>
       <c r="L629" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M629" s="20" t="n"/>
@@ -33127,17 +33095,17 @@
       </c>
       <c r="B630" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C630" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -33157,11 +33125,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J630" s="13" t="n"/>
+      <c r="J630" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33178,17 +33150,17 @@
       </c>
       <c r="B631" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C631" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
@@ -33208,11 +33180,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J631" s="13" t="n"/>
+      <c r="J631" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33234,18 +33210,18 @@
       </c>
       <c r="C632" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>Active Directory ドメイン サービスから Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
       <c r="F632" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
@@ -33259,11 +33235,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J632" s="13" t="n"/>
+      <c r="J632" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+        </is>
+      </c>
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33285,18 +33265,18 @@
       </c>
       <c r="C633" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
+          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
       <c r="F633" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
@@ -33310,15 +33290,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J633" s="13" t="n"/>
-      <c r="K633" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J633" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
+      <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33335,17 +33315,17 @@
       </c>
       <c r="B634" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C634" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
@@ -33367,13 +33347,13 @@
       </c>
       <c r="J634" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33390,7 +33370,7 @@
       </c>
       <c r="B635" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C635" s="18" t="inlineStr">
@@ -33400,7 +33380,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -33422,13 +33402,13 @@
       </c>
       <c r="J635" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -33445,17 +33425,17 @@
       </c>
       <c r="B636" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C636" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
@@ -33476,14 +33456,10 @@
         </is>
       </c>
       <c r="J636" s="13" t="n"/>
-      <c r="K636" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -33500,23 +33476,23 @@
       </c>
       <c r="B637" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C637" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -33530,15 +33506,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J637" s="13" t="n"/>
-      <c r="K637" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J637" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -33555,7 +33531,7 @@
       </c>
       <c r="B638" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C638" s="18" t="inlineStr">
@@ -33565,13 +33541,13 @@
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
         </is>
       </c>
       <c r="E638" s="18" t="n"/>
       <c r="F638" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -33585,15 +33561,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J638" s="13" t="n"/>
-      <c r="K638" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J638" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -33610,23 +33586,23 @@
       </c>
       <c r="B639" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C639" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
       <c r="F639" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -33640,15 +33616,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J639" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J639" s="13" t="n"/>
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -33670,19 +33642,15 @@
       </c>
       <c r="C640" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="E640" s="18" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+        </is>
+      </c>
+      <c r="E640" s="18" t="n"/>
       <c r="F640" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -33699,15 +33667,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J640" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J640" s="13" t="n"/>
       <c r="K640" s="19" t="n"/>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -33724,7 +33688,7 @@
       </c>
       <c r="B641" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C641" s="18" t="inlineStr">
@@ -33734,13 +33698,13 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
       <c r="F641" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
@@ -33754,19 +33718,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J641" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K641" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="J641" s="13" t="n"/>
+      <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -33783,23 +33739,23 @@
       </c>
       <c r="B642" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C642" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
+          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
       <c r="F642" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -33816,12 +33772,12 @@
       <c r="J642" s="13" t="n"/>
       <c r="K642" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -33838,23 +33794,23 @@
       </c>
       <c r="B643" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C643" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
+          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
       <c r="F643" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
@@ -33868,15 +33824,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J643" s="13" t="n"/>
-      <c r="K643" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J643" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K643" s="19" t="n"/>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -33893,17 +33849,17 @@
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -33925,17 +33881,13 @@
       </c>
       <c r="J644" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K644" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K644" s="19" t="n"/>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -33952,17 +33904,17 @@
       </c>
       <c r="B645" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C645" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
@@ -33982,15 +33934,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J645" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K645" s="19" t="n"/>
+      <c r="J645" s="13" t="n"/>
+      <c r="K645" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -34007,17 +33959,17 @@
       </c>
       <c r="B646" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C646" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -34037,15 +33989,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J646" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K646" s="19" t="n"/>
+      <c r="J646" s="13" t="n"/>
+      <c r="K646" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34067,18 +34019,18 @@
       </c>
       <c r="C647" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
       <c r="F647" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -34092,19 +34044,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J647" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
+      <c r="J647" s="13" t="n"/>
       <c r="K647" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34121,17 +34069,17 @@
       </c>
       <c r="B648" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C648" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
@@ -34153,13 +34101,13 @@
       </c>
       <c r="J648" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34176,7 +34124,7 @@
       </c>
       <c r="B649" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C649" s="18" t="inlineStr">
@@ -34186,13 +34134,17 @@
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
-        </is>
-      </c>
-      <c r="E649" s="18" t="n"/>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="E649" s="18" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="F649" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -34214,7 +34166,7 @@
       <c r="K649" s="19" t="n"/>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34231,7 +34183,7 @@
       </c>
       <c r="B650" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C650" s="18" t="inlineStr">
@@ -34241,7 +34193,7 @@
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
@@ -34266,10 +34218,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K650" s="19" t="n"/>
+      <c r="K650" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34286,7 +34242,7 @@
       </c>
       <c r="B651" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C651" s="18" t="inlineStr">
@@ -34296,13 +34252,13 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
       <c r="F651" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -34316,15 +34272,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J651" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K651" s="19" t="n"/>
+      <c r="J651" s="13" t="n"/>
+      <c r="K651" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34341,7 +34297,7 @@
       </c>
       <c r="B652" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C652" s="18" t="inlineStr">
@@ -34351,13 +34307,13 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
       <c r="F652" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
@@ -34371,15 +34327,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K652" s="19" t="n"/>
+      <c r="J652" s="13" t="n"/>
+      <c r="K652" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34406,7 +34362,7 @@
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
@@ -34433,12 +34389,12 @@
       </c>
       <c r="K653" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
         </is>
       </c>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34455,7 +34411,7 @@
       </c>
       <c r="B654" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C654" s="18" t="inlineStr">
@@ -34465,7 +34421,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34485,11 +34441,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J654" s="13" t="n"/>
+      <c r="J654" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34506,7 +34466,7 @@
       </c>
       <c r="B655" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C655" s="18" t="inlineStr">
@@ -34516,13 +34476,13 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
       <c r="F655" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -34536,15 +34496,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J655" s="13" t="n"/>
-      <c r="K655" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J655" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34566,18 +34526,18 @@
       </c>
       <c r="C656" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
+          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
       <c r="F656" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -34591,11 +34551,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J656" s="13" t="n"/>
-      <c r="K656" s="19" t="n"/>
+      <c r="J656" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K656" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34617,12 +34585,12 @@
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
+          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34644,13 +34612,13 @@
       </c>
       <c r="J657" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34667,7 +34635,7 @@
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
@@ -34677,13 +34645,13 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>Bidirectional Forwarding Detection(BFD)が有効で、顧客またはプロバイダーのエッジ ルーティング デバイスで設定されていることを確認します。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34705,7 +34673,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34722,7 +34690,7 @@
       </c>
       <c r="B659" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C659" s="18" t="inlineStr">
@@ -34732,13 +34700,13 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>回復性を高めるために、ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34760,7 +34728,7 @@
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34787,7 +34755,7 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
@@ -34815,7 +34783,7 @@
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34832,7 +34800,7 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
@@ -34842,7 +34810,7 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
+          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
@@ -34870,7 +34838,7 @@
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -34887,7 +34855,7 @@
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
@@ -34897,13 +34865,13 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -34919,13 +34887,17 @@
       </c>
       <c r="J662" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K662" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K662" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34942,23 +34914,23 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -34972,19 +34944,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K663" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
-        </is>
-      </c>
+      <c r="J663" s="13" t="n"/>
+      <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35001,17 +34965,17 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35031,19 +34995,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J664" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J664" s="13" t="n"/>
       <c r="K664" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35065,12 +35025,12 @@
       </c>
       <c r="C665" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35090,15 +35050,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="J665" s="13" t="n"/>
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35115,17 +35071,17 @@
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35147,13 +35103,13 @@
       </c>
       <c r="J666" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35170,17 +35126,17 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>Bidirectional Forwarding Detection(BFD)が有効で、顧客またはプロバイダーのエッジ ルーティング デバイスで設定されていることを確認します。</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
@@ -35202,13 +35158,13 @@
       </c>
       <c r="J667" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35225,23 +35181,23 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>回復性を高めるために、ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続します。</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
       <c r="F668" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
@@ -35255,11 +35211,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J668" s="13" t="n"/>
+      <c r="J668" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35281,18 +35241,18 @@
       </c>
       <c r="C669" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35308,13 +35268,13 @@
       </c>
       <c r="J669" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35331,17 +35291,17 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35361,11 +35321,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J670" s="13" t="n"/>
+      <c r="J670" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35387,18 +35351,18 @@
       </c>
       <c r="C671" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35412,15 +35376,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J671" s="13" t="n"/>
-      <c r="K671" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J671" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35442,18 +35406,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35469,13 +35433,17 @@
       </c>
       <c r="J672" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K672" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K672" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35492,23 +35460,23 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35524,13 +35492,17 @@
       </c>
       <c r="J673" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K673" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K673" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35547,17 +35519,17 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35579,13 +35551,13 @@
       </c>
       <c r="J674" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35602,23 +35574,23 @@
       </c>
       <c r="B675" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C675" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35634,13 +35606,13 @@
       </c>
       <c r="J675" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35657,23 +35629,23 @@
       </c>
       <c r="B676" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C676" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35687,11 +35659,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J676" s="13" t="n"/>
+      <c r="J676" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35708,23 +35684,23 @@
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35738,15 +35714,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J677" s="13" t="n"/>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35763,17 +35735,17 @@
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
@@ -35795,13 +35767,13 @@
       </c>
       <c r="J678" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35823,12 +35795,12 @@
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
@@ -35848,15 +35820,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J679" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J679" s="13" t="n"/>
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35878,18 +35846,18 @@
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35903,15 +35871,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J680" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K680" s="19" t="n"/>
+      <c r="J680" s="13" t="n"/>
+      <c r="K680" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35933,18 +35901,18 @@
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -35958,15 +35926,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J681" s="13" t="n"/>
-      <c r="K681" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J681" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35988,18 +35956,18 @@
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -36013,15 +35981,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J682" s="13" t="n"/>
-      <c r="K682" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J682" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36043,12 +36011,12 @@
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
@@ -36068,15 +36036,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J683" s="13" t="n"/>
-      <c r="K683" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J683" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36098,12 +36066,12 @@
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
@@ -36123,15 +36091,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J684" s="13" t="n"/>
-      <c r="K684" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J684" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36148,17 +36116,17 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
@@ -36179,14 +36147,10 @@
         </is>
       </c>
       <c r="J685" s="13" t="n"/>
-      <c r="K685" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
-        </is>
-      </c>
+      <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36203,23 +36167,23 @@
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>すべての Azure Firewall デプロイのログを保存するための診断設定を、リソース固有の宛先テーブルに追加します。</t>
+          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36241,7 +36205,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36258,7 +36222,7 @@
       </c>
       <c r="B687" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C687" s="18" t="inlineStr">
@@ -36268,13 +36232,13 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall クラシック規則 (存在する場合) からファイアウォール ポリシーに移行します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>大事な</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36296,7 +36260,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36323,13 +36287,13 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36343,15 +36307,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="13" t="n"/>
-      <c r="K688" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36368,7 +36332,7 @@
       </c>
       <c r="B689" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C689" s="18" t="inlineStr">
@@ -36378,13 +36342,13 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>ファイアウォール ポリシー内のルールをルール コレクション グループとルール コレクションに分類し、使用頻度に基づいて配置します</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36398,11 +36362,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J689" s="13" t="n"/>
+      <c r="J689" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36419,7 +36387,7 @@
       </c>
       <c r="B690" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C690" s="18" t="inlineStr">
@@ -36429,13 +36397,13 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>IP グループまたは IP プレフィックスを使用して、IP テーブル ルールの数を減らす</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36450,10 +36418,14 @@
         </is>
       </c>
       <c r="J690" s="13" t="n"/>
-      <c r="K690" s="19" t="n"/>
+      <c r="K690" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36470,7 +36442,7 @@
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
@@ -36480,13 +36452,13 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>DNATS の送信元 IP としてワイルドカード (* や any など) は使用せず、受信 DNAT の送信元 IP を指定する必要があります</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36501,10 +36473,14 @@
         </is>
       </c>
       <c r="J691" s="13" t="n"/>
-      <c r="K691" s="19" t="n"/>
+      <c r="K691" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36521,7 +36497,7 @@
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
@@ -36531,13 +36507,13 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>SNAT ポートの使用状況を監視し、NAT ゲートウェイの設定を評価し、シームレスなフェールオーバーを確保することで、SNAT ポートの枯渇を防ぎます。ポート数が制限に近づく場合は、SNAT の枯渇が差し迫っている可能性があります。</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36552,10 +36528,14 @@
         </is>
       </c>
       <c r="J692" s="13" t="n"/>
-      <c r="K692" s="19" t="n"/>
+      <c r="K692" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36572,7 +36552,7 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
@@ -36582,7 +36562,7 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>TLSインスペクションの有効化</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
@@ -36603,10 +36583,14 @@
         </is>
       </c>
       <c r="J693" s="13" t="n"/>
-      <c r="K693" s="19" t="n"/>
+      <c r="K693" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>346840b8-1064-496e-8396-4b1340172d52</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36623,7 +36607,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36633,13 +36617,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Web カテゴリを使用して、特定のトピックへの送信アクセスを許可または拒否します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36654,10 +36638,14 @@
         </is>
       </c>
       <c r="J694" s="13" t="n"/>
-      <c r="K694" s="19" t="n"/>
+      <c r="K694" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36674,7 +36662,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36684,7 +36672,7 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>TLS 検査の一環として、検査のために Azure App Gateway からトラフィックを受信することを計画します。</t>
+          <t>すべての Azure Firewall デプロイのログを保存するための診断設定を、リソース固有の宛先テーブルに追加します。</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36704,11 +36692,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J695" s="13" t="n"/>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36725,7 +36717,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36735,13 +36727,13 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall DNS プロキシ構成を有効にする</t>
+          <t>Azure Firewall クラシック規則 (存在する場合) からファイアウォール ポリシーに移行します。</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
       <c r="F696" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>大事な</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
@@ -36755,11 +36747,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J696" s="13" t="n"/>
+      <c r="J696" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36786,13 +36782,13 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>仮想マシンに直接関連付けられているパブリック IP アドレスを拒否するポリシーの割り当てがあることを確認します</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36807,10 +36803,14 @@
         </is>
       </c>
       <c r="J697" s="13" t="n"/>
-      <c r="K697" s="19" t="n"/>
+      <c r="K697" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36827,7 +36827,7 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>モニター</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
@@ -36837,13 +36837,13 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall を Azure Monitor と統合し、診断ログを有効にして、ファイアウォール ログを格納および分析します。</t>
+          <t>ファイアウォール ポリシー内のルールをルール コレクション グループとルール コレクションに分類し、使用頻度に基づいて配置します</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36861,7 +36861,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
+          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36878,7 +36878,7 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>モニター</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
@@ -36888,13 +36888,13 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>ファイアウォールルールのバックアップを実装する</t>
+          <t>IP グループまたは IP プレフィックスを使用して、IP テーブル ルールの数を減らす</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -36912,7 +36912,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
+          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36929,23 +36929,23 @@
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>DNATS の送信元 IP としてワイルドカード (* や any など) は使用せず、受信 DNAT の送信元 IP を指定する必要があります</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -36959,15 +36959,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J700" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+      <c r="J700" s="13" t="n"/>
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36984,17 +36980,17 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>SNAT ポートの使用状況を監視し、NAT ゲートウェイの設定を評価し、シームレスなフェールオーバーを確保することで、SNAT ポートの枯渇を防ぎます。ポート数が制限に近づく場合は、SNAT の枯渇が差し迫っている可能性があります。</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
@@ -37014,15 +37010,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J701" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J701" s="13" t="n"/>
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37039,23 +37031,23 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>TLSインスペクションの有効化</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37069,19 +37061,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J702" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K702" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+      <c r="J702" s="13" t="n"/>
+      <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>346840b8-1064-496e-8396-4b1340172d52</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37098,7 +37082,7 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
@@ -37108,13 +37092,13 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防ぎます。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>Web カテゴリを使用して、特定のトピックへの送信アクセスを許可または拒否します。</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37128,15 +37112,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J703" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+      <c r="J703" s="13" t="n"/>
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37153,23 +37133,23 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>TLS 検査の一環として、検査のために Azure App Gateway からトラフィックを受信することを計画します。</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37184,14 +37164,10 @@
         </is>
       </c>
       <c r="J704" s="13" t="n"/>
-      <c r="K704" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37213,12 +37189,12 @@
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure Firewall DNS プロキシ構成を有効にする</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37239,14 +37215,10 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37268,12 +37240,12 @@
       </c>
       <c r="C706" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>仮想マシンに直接関連付けられているパブリック IP アドレスを拒否するポリシーの割り当てがあることを確認します</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37293,15 +37265,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J706" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="J706" s="13" t="n"/>
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37318,23 +37286,23 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>モニター</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>Azure Firewall を Azure Monitor と統合し、診断ログを有効にして、ファイアウォール ログを格納および分析します。</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37343,20 +37311,16 @@
         </is>
       </c>
       <c r="H707" s="18" t="n"/>
-      <c r="I707" s="13" t="n"/>
-      <c r="J707" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K707" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+      <c r="I707" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J707" s="13" t="n"/>
+      <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37373,23 +37337,23 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>モニター</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細かくセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>ファイアウォールルールのバックアップを実装する</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37403,15 +37367,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J708" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="J708" s="13" t="n"/>
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37433,18 +37393,18 @@
       </c>
       <c r="C709" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>VNet フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37460,13 +37420,13 @@
       </c>
       <c r="J709" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37483,17 +37443,17 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>NSG あたりの NSG ルールの制限 (1000) を検討します。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
@@ -37515,17 +37475,13 @@
       </c>
       <c r="J710" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="K710" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37542,17 +37498,17 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37574,13 +37530,17 @@
       </c>
       <c r="J711" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
-        </is>
-      </c>
-      <c r="K711" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K711" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37597,17 +37557,17 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防ぎます。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
@@ -37627,11 +37587,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J712" s="13" t="n"/>
+      <c r="J712" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37648,23 +37612,23 @@
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37679,10 +37643,14 @@
         </is>
       </c>
       <c r="J713" s="13" t="n"/>
-      <c r="K713" s="19" t="n"/>
+      <c r="K713" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37704,12 +37672,12 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -37729,19 +37697,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J714" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J714" s="13" t="n"/>
       <c r="K714" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
         </is>
       </c>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37758,17 +37722,17 @@
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37788,11 +37752,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J715" s="13" t="n"/>
+      <c r="J715" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37809,17 +37777,17 @@
       </c>
       <c r="B716" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C716" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37834,16 +37802,20 @@
         </is>
       </c>
       <c r="H716" s="18" t="n"/>
-      <c r="I716" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J716" s="13" t="n"/>
-      <c r="K716" s="19" t="n"/>
+      <c r="I716" s="13" t="n"/>
+      <c r="J716" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K716" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+        </is>
+      </c>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37860,17 +37832,17 @@
       </c>
       <c r="B717" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C717" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細かくセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
@@ -37890,11 +37862,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J717" s="13" t="n"/>
+      <c r="J717" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37911,17 +37887,17 @@
       </c>
       <c r="B718" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C718" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>VNet フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
@@ -37941,11 +37917,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J718" s="13" t="n"/>
+      <c r="J718" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37967,12 +37947,12 @@
       </c>
       <c r="C719" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>NSG あたりの NSG ルールの制限 (1000) を検討します。</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
@@ -37992,11 +37972,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J719" s="13" t="n"/>
-      <c r="K719" s="19" t="n"/>
+      <c r="J719" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K719" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38013,7 +38001,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -38023,13 +38011,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -38043,11 +38031,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J720" s="13" t="n"/>
+      <c r="J720" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38064,23 +38056,23 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
       <c r="F721" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -38098,7 +38090,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38115,23 +38107,23 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38149,7 +38141,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38171,12 +38163,12 @@
       </c>
       <c r="C723" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38196,11 +38188,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J723" s="13" t="n"/>
-      <c r="K723" s="19" t="n"/>
+      <c r="J723" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K723" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38217,17 +38217,17 @@
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38251,7 +38251,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38268,23 +38268,23 @@
       </c>
       <c r="B725" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C725" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
       <c r="F725" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
@@ -38302,7 +38302,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38319,17 +38319,17 @@
       </c>
       <c r="B726" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C726" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
@@ -38353,7 +38353,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38370,24 +38370,20 @@
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="E727" s="18" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+        </is>
+      </c>
+      <c r="E727" s="18" t="n"/>
       <c r="F727" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -38408,7 +38404,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38425,17 +38421,17 @@
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38459,7 +38455,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38476,23 +38472,23 @@
       </c>
       <c r="B729" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C729" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38506,15 +38502,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J729" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J729" s="13" t="n"/>
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38541,13 +38533,13 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
+          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38565,7 +38557,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38592,7 +38584,7 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38616,7 +38608,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38643,7 +38635,7 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
@@ -38658,12 +38650,16 @@
         </is>
       </c>
       <c r="H732" s="18" t="n"/>
-      <c r="I732" s="13" t="n"/>
+      <c r="I732" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J732" s="13" t="n"/>
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38680,23 +38676,23 @@
       </c>
       <c r="B733" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C733" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38714,7 +38710,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38731,23 +38727,23 @@
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38765,7 +38761,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38782,17 +38778,17 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38816,7 +38812,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38833,20 +38829,24 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
-        </is>
-      </c>
-      <c r="E736" s="18" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="E736" s="18" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="F736" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -38863,15 +38863,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J736" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38888,17 +38884,17 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージと write-once、read-many ポリシーを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
@@ -38918,15 +38914,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J737" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J737" s="13" t="n"/>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38943,17 +38935,17 @@
       </c>
       <c r="B738" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C738" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage Machine Configuration 監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能をすぐに使用できます。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -38975,13 +38967,13 @@
       </c>
       <c r="J738" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38998,17 +38990,17 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
+          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -39028,15 +39020,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J739" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J739" s="13" t="n"/>
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39053,17 +39041,17 @@
       </c>
       <c r="B740" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C740" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
+          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
@@ -39083,15 +39071,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J740" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J740" s="13" t="n"/>
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39108,17 +39092,17 @@
       </c>
       <c r="B741" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C741" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
@@ -39133,20 +39117,12 @@
         </is>
       </c>
       <c r="H741" s="18" t="n"/>
-      <c r="I741" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J741" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="I741" s="13" t="n"/>
+      <c r="J741" s="13" t="n"/>
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39168,18 +39144,18 @@
       </c>
       <c r="C742" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39197,7 +39173,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39219,12 +39195,12 @@
       </c>
       <c r="C743" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
@@ -39248,7 +39224,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39265,17 +39241,17 @@
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39299,7 +39275,7 @@
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39316,17 +39292,17 @@
       </c>
       <c r="B745" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39346,11 +39322,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J745" s="13" t="n"/>
+      <c r="J745" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39367,24 +39347,20 @@
       </c>
       <c r="B746" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C746" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="E746" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージと write-once、read-many ポリシーを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+        </is>
+      </c>
+      <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39401,11 +39377,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J746" s="13" t="n"/>
+      <c r="J746" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39432,7 +39412,7 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure Policy を使用して OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage Machine Configuration 監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
@@ -39452,11 +39432,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J747" s="13" t="n"/>
+      <c r="J747" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39478,12 +39462,12 @@
       </c>
       <c r="C748" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
@@ -39503,11 +39487,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J748" s="13" t="n"/>
+      <c r="J748" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39524,7 +39512,7 @@
       </c>
       <c r="B749" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C749" s="18" t="inlineStr">
@@ -39534,13 +39522,13 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39554,11 +39542,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J749" s="13" t="n"/>
+      <c r="J749" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39575,23 +39567,23 @@
       </c>
       <c r="B750" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C750" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39605,11 +39597,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J750" s="13" t="n"/>
+      <c r="J750" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39626,17 +39622,17 @@
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39660,7 +39656,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39677,23 +39673,23 @@
       </c>
       <c r="B752" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C752" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39711,7 +39707,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39728,17 +39724,17 @@
       </c>
       <c r="B753" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C753" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
@@ -39759,14 +39755,10 @@
         </is>
       </c>
       <c r="J753" s="13" t="n"/>
-      <c r="K753" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39788,12 +39780,12 @@
       </c>
       <c r="C754" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39817,7 +39809,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39839,15 +39831,19 @@
       </c>
       <c r="C755" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
-        </is>
-      </c>
-      <c r="E755" s="18" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="E755" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="F755" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39868,7 +39864,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39885,17 +39881,17 @@
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
@@ -39919,7 +39915,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39936,17 +39932,17 @@
       </c>
       <c r="B757" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C757" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -39970,7 +39966,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39987,23 +39983,23 @@
       </c>
       <c r="B758" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C758" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -40021,7 +40017,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40038,23 +40034,23 @@
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
       <c r="F759" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -40072,7 +40068,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40089,17 +40085,17 @@
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40123,7 +40119,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40150,13 +40146,13 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -40174,7 +40170,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40201,7 +40197,7 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
@@ -40222,10 +40218,14 @@
         </is>
       </c>
       <c r="J762" s="13" t="n"/>
-      <c r="K762" s="19" t="n"/>
+      <c r="K762" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40252,7 +40252,7 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40276,7 +40276,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40298,12 +40298,12 @@
       </c>
       <c r="C764" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40327,7 +40327,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40349,18 +40349,18 @@
       </c>
       <c r="C765" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
       <c r="F765" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -40378,7 +40378,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40400,18 +40400,18 @@
       </c>
       <c r="C766" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40429,7 +40429,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40451,18 +40451,18 @@
       </c>
       <c r="C767" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
       <c r="F767" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -40480,7 +40480,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40502,18 +40502,18 @@
       </c>
       <c r="C768" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -40531,7 +40531,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40553,12 +40553,12 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
@@ -40582,7 +40582,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40604,12 +40604,12 @@
       </c>
       <c r="C770" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40633,7 +40633,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40655,12 +40655,12 @@
       </c>
       <c r="C771" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
@@ -40684,7 +40684,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40706,12 +40706,12 @@
       </c>
       <c r="C772" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40735,7 +40735,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40757,18 +40757,18 @@
       </c>
       <c r="C773" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
       <c r="F773" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -40786,7 +40786,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40808,12 +40808,12 @@
       </c>
       <c r="C774" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -40837,7 +40837,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40854,17 +40854,17 @@
       </c>
       <c r="B775" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C775" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -40888,7 +40888,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40900,22 +40900,22 @@
     <row r="776">
       <c r="A776" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
@@ -40939,7 +40939,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40951,28 +40951,28 @@
     <row r="777">
       <c r="A777" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40990,7 +40990,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41002,28 +41002,28 @@
     <row r="778">
       <c r="A778" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B778" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -41041,7 +41041,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41053,28 +41053,28 @@
     <row r="779">
       <c r="A779" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B779" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41092,7 +41092,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41104,28 +41104,28 @@
     <row r="780">
       <c r="A780" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B780" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41143,7 +41143,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41155,22 +41155,22 @@
     <row r="781">
       <c r="A781" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B781" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C781" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>グローバルレベルでのエラー処理ポリシーの実装</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41194,7 +41194,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41206,28 +41206,28 @@
     <row r="782">
       <c r="A782" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B782" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C782" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>すべての API ポリシーに要素が含まれている&lt;base/&gt;ことを確認します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41245,7 +41245,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41257,28 +41257,28 @@
     <row r="783">
       <c r="A783" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B783" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C783" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>ポリシーフラグメントを使用して、複数の API で同じポリシー定義を繰り返さないようにする</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
       <c r="F783" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G783" t="inlineStr">
@@ -41296,7 +41296,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41308,7 +41308,7 @@
     <row r="784">
       <c r="A784" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B784" s="18" t="inlineStr">
@@ -41318,18 +41318,18 @@
       </c>
       <c r="C784" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>API の収益化を計画している場合は、「収益化のサポート」の記事でおすすめの方法をご確認ください</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41347,7 +41347,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41359,22 +41359,22 @@
     <row r="785">
       <c r="A785" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B785" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C785" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>診断設定を有効にしてログを Azure Monitor にエクスポートする</t>
+          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
@@ -41398,7 +41398,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41410,22 +41410,22 @@
     <row r="786">
       <c r="A786" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B786" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C786" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>Application Insights を有効にして、より詳細なテレメトリを実現する</t>
+          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41449,7 +41449,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41461,22 +41461,22 @@
     <row r="787">
       <c r="A787" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B787" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C787" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成する</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
@@ -41500,7 +41500,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41512,22 +41512,22 @@
     <row r="788">
       <c r="A788" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B788" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C788" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>カスタム SSL 証明書が Azure Key Vault に格納され、安全にアクセスして更新できるようにする</t>
+          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
@@ -41551,7 +41551,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41563,22 +41563,22 @@
     <row r="789">
       <c r="A789" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B789" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C789" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Azure AD を使用して API (データ プレーン) への受信要求を保護する</t>
+          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
@@ -41602,7 +41602,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41619,7 +41619,7 @@
       </c>
       <c r="B790" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C790" s="18" t="inlineStr">
@@ -41629,7 +41629,7 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Azure AD を使用して開発者ポータルでユーザーを認証する</t>
+          <t>グローバルレベルでのエラー処理ポリシーの実装</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41653,7 +41653,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41670,7 +41670,7 @@
       </c>
       <c r="B791" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C791" s="18" t="inlineStr">
@@ -41680,7 +41680,7 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>適切なグループを作成して、製品の可視性を制御します</t>
+          <t>すべての API ポリシーに要素が含まれている&lt;base/&gt;ことを確認します。</t>
         </is>
       </c>
       <c r="E791" s="18" t="n"/>
@@ -41704,7 +41704,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41731,7 +41731,7 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>バックエンド機能を使用して、冗長な API バックエンド構成を排除します</t>
+          <t>ポリシーフラグメントを使用して、複数の API で同じポリシー定義を繰り返さないようにする</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
@@ -41755,7 +41755,7 @@
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -41782,7 +41782,7 @@
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>名前付き値を使用して、ポリシーで使用できる共通の値を格納します</t>
+          <t>API の収益化を計画している場合は、「収益化のサポート」の記事でおすすめの方法をご確認ください</t>
         </is>
       </c>
       <c r="E793" s="18" t="n"/>
@@ -41806,7 +41806,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -41823,7 +41823,7 @@
       </c>
       <c r="B794" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C794" s="18" t="inlineStr">
@@ -41833,13 +41833,13 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>複数の Azure リージョンにデプロイする</t>
+          <t>診断設定を有効にしてログを Azure Monitor にエクスポートする</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
       <c r="F794" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -41857,7 +41857,7 @@
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -41874,7 +41874,7 @@
       </c>
       <c r="B795" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C795" s="18" t="inlineStr">
@@ -41884,7 +41884,7 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>リージョンごとに 2 つの可用性ゾーンに分散した少なくとも 2 つのスケール ユニットをデプロイして、最適な可用性とパフォーマンスを実現します</t>
+          <t>Application Insights を有効にして、より詳細なテレメトリを実現する</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
@@ -41908,7 +41908,7 @@
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -41925,7 +41925,7 @@
       </c>
       <c r="B796" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C796" s="18" t="inlineStr">
@@ -41935,7 +41935,7 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>自動バックアップ・ルーチンがあることを確認する</t>
+          <t>最も重要なメトリックに関するアラートを構成する</t>
         </is>
       </c>
       <c r="E796" s="18" t="n"/>
@@ -41959,7 +41959,7 @@
       <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -41976,7 +41976,7 @@
       </c>
       <c r="B797" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C797" s="18" t="inlineStr">
@@ -41986,13 +41986,13 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
+          <t>カスタム SSL 証明書が Azure Key Vault に格納され、安全にアクセスして更新できるようにする</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
       <c r="F797" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -42010,7 +42010,7 @@
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -42027,7 +42027,7 @@
       </c>
       <c r="B798" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C798" s="18" t="inlineStr">
@@ -42037,13 +42037,13 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
+          <t>Azure AD を使用して API (データ プレーン) への受信要求を保護する</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
       <c r="F798" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -42057,15 +42057,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J798" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J798" s="13" t="n"/>
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -42082,7 +42078,7 @@
       </c>
       <c r="B799" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C799" s="18" t="inlineStr">
@@ -42092,7 +42088,7 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
+          <t>Azure AD を使用して開発者ポータルでユーザーを認証する</t>
         </is>
       </c>
       <c r="E799" s="18" t="n"/>
@@ -42116,7 +42112,7 @@
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42133,7 +42129,7 @@
       </c>
       <c r="B800" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C800" s="18" t="inlineStr">
@@ -42143,7 +42139,7 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>セルフホステッド ゲートウェイをデプロイする場所は、Azure のバックエンド API に近いリージョンがありません。</t>
+          <t>適切なグループを作成して、製品の可視性を制御します</t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
@@ -42167,7 +42163,7 @@
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42184,7 +42180,7 @@
       </c>
       <c r="B801" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C801" s="18" t="inlineStr">
@@ -42194,7 +42190,7 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
+          <t>バックエンド機能を使用して、冗長な API バックエンド構成を排除します</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
@@ -42218,7 +42214,7 @@
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42235,7 +42231,7 @@
       </c>
       <c r="B802" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C802" s="18" t="inlineStr">
@@ -42245,7 +42241,7 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
+          <t>名前付き値を使用して、ポリシーで使用できる共通の値を格納します</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
@@ -42269,7 +42265,7 @@
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42286,7 +42282,7 @@
       </c>
       <c r="B803" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C803" s="18" t="inlineStr">
@@ -42296,7 +42292,7 @@
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
+          <t>複数の Azure リージョンにデプロイする</t>
         </is>
       </c>
       <c r="E803" s="18" t="n"/>
@@ -42320,7 +42316,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42337,7 +42333,7 @@
       </c>
       <c r="B804" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C804" s="18" t="inlineStr">
@@ -42347,7 +42343,7 @@
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
+          <t>リージョンごとに 2 つの可用性ゾーンに分散した少なくとも 2 つのスケール ユニットをデプロイして、最適な可用性とパフォーマンスを実現します</t>
         </is>
       </c>
       <c r="E804" s="18" t="n"/>
@@ -42371,7 +42367,7 @@
       <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M804" s="20" t="n"/>
@@ -42388,7 +42384,7 @@
       </c>
       <c r="B805" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C805" s="18" t="inlineStr">
@@ -42398,7 +42394,7 @@
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>パブリックネットワークアクセスの無効化</t>
+          <t>自動バックアップ・ルーチンがあることを確認する</t>
         </is>
       </c>
       <c r="E805" s="18" t="n"/>
@@ -42422,7 +42418,7 @@
       <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M805" s="20" t="n"/>
@@ -42449,13 +42445,13 @@
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
+          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
         </is>
       </c>
       <c r="E806" s="18" t="n"/>
       <c r="F806" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -42473,7 +42469,7 @@
       <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M806" s="20" t="n"/>
@@ -42490,7 +42486,7 @@
       </c>
       <c r="B807" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C807" s="18" t="inlineStr">
@@ -42500,7 +42496,7 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
+          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
         </is>
       </c>
       <c r="E807" s="18" t="n"/>
@@ -42520,11 +42516,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J807" s="13" t="n"/>
+      <c r="J807" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K807" s="19" t="n"/>
       <c r="L807" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M807" s="20" t="n"/>
@@ -42541,7 +42541,7 @@
       </c>
       <c r="B808" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C808" s="18" t="inlineStr">
@@ -42551,7 +42551,7 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
+          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
         </is>
       </c>
       <c r="E808" s="18" t="n"/>
@@ -42575,7 +42575,7 @@
       <c r="K808" s="19" t="n"/>
       <c r="L808" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M808" s="20" t="n"/>
@@ -42592,7 +42592,7 @@
       </c>
       <c r="B809" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C809" s="18" t="inlineStr">
@@ -42602,7 +42602,7 @@
       </c>
       <c r="D809" s="18" t="inlineStr">
         <is>
-          <t>DevOpsとCI/CDをワークフローに実装する</t>
+          <t>セルフホステッド ゲートウェイをデプロイする場所は、Azure のバックエンド API に近いリージョンがありません。</t>
         </is>
       </c>
       <c r="E809" s="18" t="n"/>
@@ -42626,7 +42626,7 @@
       <c r="K809" s="19" t="n"/>
       <c r="L809" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M809" s="20" t="n"/>
@@ -42643,7 +42643,7 @@
       </c>
       <c r="B810" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C810" s="18" t="inlineStr">
@@ -42653,7 +42653,7 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用した API の保護</t>
+          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
         </is>
       </c>
       <c r="E810" s="18" t="n"/>
@@ -42677,7 +42677,7 @@
       <c r="K810" s="19" t="n"/>
       <c r="L810" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M810" s="20" t="n"/>
@@ -42704,7 +42704,7 @@
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
+          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
         </is>
       </c>
       <c r="E811" s="18" t="n"/>
@@ -42728,7 +42728,7 @@
       <c r="K811" s="19" t="n"/>
       <c r="L811" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M811" s="20" t="n"/>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認してください</t>
+          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
         </is>
       </c>
       <c r="E812" s="18" t="n"/>
@@ -42779,7 +42779,7 @@
       <c r="K812" s="19" t="n"/>
       <c r="L812" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M812" s="20" t="n"/>
@@ -42806,7 +42806,7 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
+          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="E813" s="18" t="n"/>
@@ -42830,7 +42830,7 @@
       <c r="K813" s="19" t="n"/>
       <c r="L813" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M813" s="20" t="n"/>
@@ -42857,7 +42857,7 @@
       </c>
       <c r="D814" s="18" t="inlineStr">
         <is>
-          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
+          <t>パブリックネットワークアクセスの無効化</t>
         </is>
       </c>
       <c r="E814" s="18" t="n"/>
@@ -42881,7 +42881,7 @@
       <c r="K814" s="19" t="n"/>
       <c r="L814" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M814" s="20" t="n"/>
@@ -42898,7 +42898,7 @@
       </c>
       <c r="B815" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C815" s="18" t="inlineStr">
@@ -42908,13 +42908,13 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>シークレット (名前付きの値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにします</t>
+          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
         </is>
       </c>
       <c r="E815" s="18" t="n"/>
       <c r="F815" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G815" t="inlineStr">
@@ -42932,7 +42932,7 @@
       <c r="K815" s="19" t="n"/>
       <c r="L815" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M815" s="20" t="n"/>
@@ -42949,7 +42949,7 @@
       </c>
       <c r="B816" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C816" s="18" t="inlineStr">
@@ -42959,7 +42959,7 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
+          <t>Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
         </is>
       </c>
       <c r="E816" s="18" t="n"/>
@@ -42983,7 +42983,7 @@
       <c r="K816" s="19" t="n"/>
       <c r="L816" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M816" s="20" t="n"/>
@@ -43000,7 +43000,7 @@
       </c>
       <c r="B817" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C817" s="18" t="inlineStr">
@@ -43010,13 +43010,13 @@
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォール (WAF) を使用して Application Gateway を APIM の前にデプロイする</t>
+          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
         </is>
       </c>
       <c r="E817" s="18" t="n"/>
       <c r="F817" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -43034,7 +43034,7 @@
       <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -43044,17 +43044,50 @@
       <c r="Q817" s="20" t="n"/>
     </row>
     <row r="818">
-      <c r="A818" s="18" t="n"/>
-      <c r="B818" s="18" t="n"/>
-      <c r="C818" s="18" t="n"/>
-      <c r="D818" s="18" t="n"/>
+      <c r="A818" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B818" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C818" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D818" s="18" t="inlineStr">
+        <is>
+          <t>DevOpsとCI/CDをワークフローに実装する</t>
+        </is>
+      </c>
       <c r="E818" s="18" t="n"/>
-      <c r="F818" s="18" t="n"/>
+      <c r="F818" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H818" s="18" t="n"/>
-      <c r="I818" s="13" t="n"/>
+      <c r="I818" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J818" s="13" t="n"/>
       <c r="K818" s="19" t="n"/>
-      <c r="L818" s="19" t="n"/>
+      <c r="L818" s="19" t="inlineStr">
+        <is>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+        </is>
+      </c>
       <c r="M818" s="20" t="n"/>
       <c r="N818" s="20" t="n"/>
       <c r="O818" s="20" t="n"/>
@@ -43062,17 +43095,50 @@
       <c r="Q818" s="20" t="n"/>
     </row>
     <row r="819">
-      <c r="A819" s="18" t="n"/>
-      <c r="B819" s="18" t="n"/>
-      <c r="C819" s="18" t="n"/>
-      <c r="D819" s="18" t="n"/>
+      <c r="A819" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B819" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C819" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D819" s="18" t="inlineStr">
+        <is>
+          <t>クライアント証明書認証を使用した API の保護</t>
+        </is>
+      </c>
       <c r="E819" s="18" t="n"/>
-      <c r="F819" s="18" t="n"/>
+      <c r="F819" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H819" s="18" t="n"/>
-      <c r="I819" s="13" t="n"/>
+      <c r="I819" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J819" s="13" t="n"/>
       <c r="K819" s="19" t="n"/>
-      <c r="L819" s="19" t="n"/>
+      <c r="L819" s="19" t="inlineStr">
+        <is>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+        </is>
+      </c>
       <c r="M819" s="20" t="n"/>
       <c r="N819" s="20" t="n"/>
       <c r="O819" s="20" t="n"/>
@@ -43080,17 +43146,50 @@
       <c r="Q819" s="20" t="n"/>
     </row>
     <row r="820">
-      <c r="A820" s="18" t="n"/>
-      <c r="B820" s="18" t="n"/>
-      <c r="C820" s="18" t="n"/>
-      <c r="D820" s="18" t="n"/>
+      <c r="A820" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B820" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C820" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D820" s="18" t="inlineStr">
+        <is>
+          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
+        </is>
+      </c>
       <c r="E820" s="18" t="n"/>
-      <c r="F820" s="18" t="n"/>
+      <c r="F820" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H820" s="18" t="n"/>
-      <c r="I820" s="13" t="n"/>
+      <c r="I820" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J820" s="13" t="n"/>
       <c r="K820" s="19" t="n"/>
-      <c r="L820" s="19" t="n"/>
+      <c r="L820" s="19" t="inlineStr">
+        <is>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+        </is>
+      </c>
       <c r="M820" s="20" t="n"/>
       <c r="N820" s="20" t="n"/>
       <c r="O820" s="20" t="n"/>
@@ -43098,17 +43197,50 @@
       <c r="Q820" s="20" t="n"/>
     </row>
     <row r="821">
-      <c r="A821" s="18" t="n"/>
-      <c r="B821" s="18" t="n"/>
-      <c r="C821" s="18" t="n"/>
-      <c r="D821" s="18" t="n"/>
+      <c r="A821" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B821" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C821" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D821" s="18" t="inlineStr">
+        <is>
+          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認してください</t>
+        </is>
+      </c>
       <c r="E821" s="18" t="n"/>
-      <c r="F821" s="18" t="n"/>
+      <c r="F821" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H821" s="18" t="n"/>
-      <c r="I821" s="13" t="n"/>
+      <c r="I821" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J821" s="13" t="n"/>
       <c r="K821" s="19" t="n"/>
-      <c r="L821" s="19" t="n"/>
+      <c r="L821" s="19" t="inlineStr">
+        <is>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+        </is>
+      </c>
       <c r="M821" s="20" t="n"/>
       <c r="N821" s="20" t="n"/>
       <c r="O821" s="20" t="n"/>
@@ -43116,17 +43248,50 @@
       <c r="Q821" s="20" t="n"/>
     </row>
     <row r="822">
-      <c r="A822" s="18" t="n"/>
-      <c r="B822" s="18" t="n"/>
-      <c r="C822" s="18" t="n"/>
-      <c r="D822" s="18" t="n"/>
+      <c r="A822" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B822" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C822" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D822" s="18" t="inlineStr">
+        <is>
+          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
+        </is>
+      </c>
       <c r="E822" s="18" t="n"/>
-      <c r="F822" s="18" t="n"/>
+      <c r="F822" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H822" s="18" t="n"/>
-      <c r="I822" s="13" t="n"/>
+      <c r="I822" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J822" s="13" t="n"/>
       <c r="K822" s="19" t="n"/>
-      <c r="L822" s="19" t="n"/>
+      <c r="L822" s="19" t="inlineStr">
+        <is>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+        </is>
+      </c>
       <c r="M822" s="20" t="n"/>
       <c r="N822" s="20" t="n"/>
       <c r="O822" s="20" t="n"/>
@@ -43134,17 +43299,50 @@
       <c r="Q822" s="20" t="n"/>
     </row>
     <row r="823">
-      <c r="A823" s="18" t="n"/>
-      <c r="B823" s="18" t="n"/>
-      <c r="C823" s="18" t="n"/>
-      <c r="D823" s="18" t="n"/>
+      <c r="A823" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B823" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C823" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D823" s="18" t="inlineStr">
+        <is>
+          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
+        </is>
+      </c>
       <c r="E823" s="18" t="n"/>
-      <c r="F823" s="18" t="n"/>
+      <c r="F823" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H823" s="18" t="n"/>
-      <c r="I823" s="13" t="n"/>
+      <c r="I823" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J823" s="13" t="n"/>
       <c r="K823" s="19" t="n"/>
-      <c r="L823" s="19" t="n"/>
+      <c r="L823" s="19" t="inlineStr">
+        <is>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+        </is>
+      </c>
       <c r="M823" s="20" t="n"/>
       <c r="N823" s="20" t="n"/>
       <c r="O823" s="20" t="n"/>
@@ -43152,17 +43350,50 @@
       <c r="Q823" s="20" t="n"/>
     </row>
     <row r="824">
-      <c r="A824" s="18" t="n"/>
-      <c r="B824" s="18" t="n"/>
-      <c r="C824" s="18" t="n"/>
-      <c r="D824" s="18" t="n"/>
+      <c r="A824" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B824" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C824" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D824" s="18" t="inlineStr">
+        <is>
+          <t>シークレット (名前付きの値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにします</t>
+        </is>
+      </c>
       <c r="E824" s="18" t="n"/>
-      <c r="F824" s="18" t="n"/>
+      <c r="F824" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H824" s="18" t="n"/>
-      <c r="I824" s="13" t="n"/>
+      <c r="I824" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J824" s="13" t="n"/>
       <c r="K824" s="19" t="n"/>
-      <c r="L824" s="19" t="n"/>
+      <c r="L824" s="19" t="inlineStr">
+        <is>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+        </is>
+      </c>
       <c r="M824" s="20" t="n"/>
       <c r="N824" s="20" t="n"/>
       <c r="O824" s="20" t="n"/>
@@ -43170,17 +43401,50 @@
       <c r="Q824" s="20" t="n"/>
     </row>
     <row r="825">
-      <c r="A825" s="18" t="n"/>
-      <c r="B825" s="18" t="n"/>
-      <c r="C825" s="18" t="n"/>
-      <c r="D825" s="18" t="n"/>
+      <c r="A825" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B825" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C825" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D825" s="18" t="inlineStr">
+        <is>
+          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
+        </is>
+      </c>
       <c r="E825" s="18" t="n"/>
-      <c r="F825" s="18" t="n"/>
+      <c r="F825" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H825" s="18" t="n"/>
-      <c r="I825" s="13" t="n"/>
+      <c r="I825" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J825" s="13" t="n"/>
       <c r="K825" s="19" t="n"/>
-      <c r="L825" s="19" t="n"/>
+      <c r="L825" s="19" t="inlineStr">
+        <is>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+        </is>
+      </c>
       <c r="M825" s="20" t="n"/>
       <c r="N825" s="20" t="n"/>
       <c r="O825" s="20" t="n"/>
@@ -43188,17 +43452,50 @@
       <c r="Q825" s="20" t="n"/>
     </row>
     <row r="826">
-      <c r="A826" s="18" t="n"/>
-      <c r="B826" s="18" t="n"/>
-      <c r="C826" s="18" t="n"/>
-      <c r="D826" s="18" t="n"/>
+      <c r="A826" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B826" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C826" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D826" s="18" t="inlineStr">
+        <is>
+          <t>Web アプリケーション ファイアウォール (WAF) を使用して Application Gateway を APIM の前にデプロイする</t>
+        </is>
+      </c>
       <c r="E826" s="18" t="n"/>
-      <c r="F826" s="18" t="n"/>
+      <c r="F826" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H826" s="18" t="n"/>
-      <c r="I826" s="13" t="n"/>
+      <c r="I826" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J826" s="13" t="n"/>
       <c r="K826" s="19" t="n"/>
-      <c r="L826" s="19" t="n"/>
+      <c r="L826" s="19" t="inlineStr">
+        <is>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+        </is>
+      </c>
       <c r="M826" s="20" t="n"/>
       <c r="N826" s="20" t="n"/>
       <c r="O826" s="20" t="n"/>
@@ -50172,7 +50469,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G818" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G827" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -50774,15 +51071,15 @@
     <hyperlink ref="I704" r:id="rId595"/>
     <hyperlink ref="I705" r:id="rId596"/>
     <hyperlink ref="I706" r:id="rId597"/>
-    <hyperlink ref="I708" r:id="rId598"/>
-    <hyperlink ref="I709" r:id="rId599"/>
-    <hyperlink ref="I710" r:id="rId600"/>
-    <hyperlink ref="I711" r:id="rId601"/>
-    <hyperlink ref="I712" r:id="rId602"/>
-    <hyperlink ref="I713" r:id="rId603"/>
-    <hyperlink ref="I714" r:id="rId604"/>
-    <hyperlink ref="I715" r:id="rId605"/>
-    <hyperlink ref="I716" r:id="rId606"/>
+    <hyperlink ref="I707" r:id="rId598"/>
+    <hyperlink ref="I708" r:id="rId599"/>
+    <hyperlink ref="I709" r:id="rId600"/>
+    <hyperlink ref="I710" r:id="rId601"/>
+    <hyperlink ref="I711" r:id="rId602"/>
+    <hyperlink ref="I712" r:id="rId603"/>
+    <hyperlink ref="I713" r:id="rId604"/>
+    <hyperlink ref="I714" r:id="rId605"/>
+    <hyperlink ref="I715" r:id="rId606"/>
     <hyperlink ref="I717" r:id="rId607"/>
     <hyperlink ref="I718" r:id="rId608"/>
     <hyperlink ref="I719" r:id="rId609"/>
@@ -50798,15 +51095,15 @@
     <hyperlink ref="I729" r:id="rId619"/>
     <hyperlink ref="I730" r:id="rId620"/>
     <hyperlink ref="I731" r:id="rId621"/>
-    <hyperlink ref="I733" r:id="rId622"/>
-    <hyperlink ref="I734" r:id="rId623"/>
-    <hyperlink ref="I735" r:id="rId624"/>
-    <hyperlink ref="I736" r:id="rId625"/>
-    <hyperlink ref="I737" r:id="rId626"/>
-    <hyperlink ref="I738" r:id="rId627"/>
-    <hyperlink ref="I739" r:id="rId628"/>
-    <hyperlink ref="I740" r:id="rId629"/>
-    <hyperlink ref="I741" r:id="rId630"/>
+    <hyperlink ref="I732" r:id="rId622"/>
+    <hyperlink ref="I733" r:id="rId623"/>
+    <hyperlink ref="I734" r:id="rId624"/>
+    <hyperlink ref="I735" r:id="rId625"/>
+    <hyperlink ref="I736" r:id="rId626"/>
+    <hyperlink ref="I737" r:id="rId627"/>
+    <hyperlink ref="I738" r:id="rId628"/>
+    <hyperlink ref="I739" r:id="rId629"/>
+    <hyperlink ref="I740" r:id="rId630"/>
     <hyperlink ref="I742" r:id="rId631"/>
     <hyperlink ref="I743" r:id="rId632"/>
     <hyperlink ref="I744" r:id="rId633"/>
@@ -50883,6 +51180,15 @@
     <hyperlink ref="I815" r:id="rId704"/>
     <hyperlink ref="I816" r:id="rId705"/>
     <hyperlink ref="I817" r:id="rId706"/>
+    <hyperlink ref="I818" r:id="rId707"/>
+    <hyperlink ref="I819" r:id="rId708"/>
+    <hyperlink ref="I820" r:id="rId709"/>
+    <hyperlink ref="I821" r:id="rId710"/>
+    <hyperlink ref="I822" r:id="rId711"/>
+    <hyperlink ref="I823" r:id="rId712"/>
+    <hyperlink ref="I824" r:id="rId713"/>
+    <hyperlink ref="I825" r:id="rId714"/>
+    <hyperlink ref="I826" r:id="rId715"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -37286,7 +37286,7 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>モニター</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>モニター</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -32779,7 +32779,7 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
@@ -32801,13 +32801,13 @@
       </c>
       <c r="J624" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -32834,13 +32834,13 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
+          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
       <c r="F625" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -32854,11 +32854,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J625" s="13" t="n"/>
+      <c r="J625" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -32885,13 +32889,13 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
+          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -32907,13 +32911,13 @@
       </c>
       <c r="J626" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -33105,13 +33109,13 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
+          <t>Active Directory ドメイン サービスから Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
       <c r="F630" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -33127,13 +33131,13 @@
       </c>
       <c r="J630" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33160,7 +33164,7 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
@@ -33180,15 +33184,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J631" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J631" s="13" t="n"/>
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33215,13 +33215,13 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Active Directory ドメイン サービスから Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します</t>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
       <c r="F632" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
@@ -33237,13 +33237,13 @@
       </c>
       <c r="J632" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33270,7 +33270,7 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
+          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
@@ -33292,13 +33292,13 @@
       </c>
       <c r="J633" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33325,7 +33325,7 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
+          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
@@ -33347,13 +33347,13 @@
       </c>
       <c r="J634" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33380,7 +33380,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -33402,13 +33402,13 @@
       </c>
       <c r="J635" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -33425,23 +33425,23 @@
       </c>
       <c r="B636" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C636" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
       <c r="F636" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -33481,18 +33481,18 @@
       </c>
       <c r="C637" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -33508,13 +33508,13 @@
       </c>
       <c r="J637" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -33531,17 +33531,17 @@
       </c>
       <c r="B638" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C638" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="E638" s="18" t="n"/>
@@ -33561,15 +33561,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J638" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J638" s="13" t="n"/>
       <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -33586,23 +33582,23 @@
       </c>
       <c r="B639" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C639" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
       <c r="F639" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -33620,7 +33616,7 @@
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -33637,23 +33633,23 @@
       </c>
       <c r="B640" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C640" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
       <c r="F640" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
@@ -33668,10 +33664,14 @@
         </is>
       </c>
       <c r="J640" s="13" t="n"/>
-      <c r="K640" s="19" t="n"/>
+      <c r="K640" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -33688,23 +33688,23 @@
       </c>
       <c r="B641" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C641" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
       <c r="F641" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
@@ -33718,11 +33718,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J641" s="13" t="n"/>
+      <c r="J641" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -33739,23 +33743,23 @@
       </c>
       <c r="B642" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C642" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
       <c r="F642" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -33769,15 +33773,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J642" s="13" t="n"/>
-      <c r="K642" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J642" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K642" s="19" t="n"/>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -33794,7 +33798,7 @@
       </c>
       <c r="B643" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C643" s="18" t="inlineStr">
@@ -33804,7 +33808,7 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
@@ -33824,15 +33828,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J643" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K643" s="19" t="n"/>
+      <c r="J643" s="13" t="n"/>
+      <c r="K643" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -33849,7 +33853,7 @@
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
@@ -33859,7 +33863,7 @@
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -33879,15 +33883,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J644" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K644" s="19" t="n"/>
+      <c r="J644" s="13" t="n"/>
+      <c r="K644" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -33914,13 +33918,13 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
       <c r="F645" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -33937,12 +33941,12 @@
       <c r="J645" s="13" t="n"/>
       <c r="K645" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -33959,17 +33963,17 @@
       </c>
       <c r="B646" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C646" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -33990,14 +33994,10 @@
         </is>
       </c>
       <c r="J646" s="13" t="n"/>
-      <c r="K646" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34014,23 +34014,23 @@
       </c>
       <c r="B647" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C647" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
       <c r="F647" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -34044,15 +34044,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J647" s="13" t="n"/>
-      <c r="K647" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J647" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34069,7 +34069,7 @@
       </c>
       <c r="B648" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C648" s="18" t="inlineStr">
@@ -34079,13 +34079,13 @@
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
       <c r="F648" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
@@ -34101,13 +34101,13 @@
       </c>
       <c r="J648" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34124,27 +34124,23 @@
       </c>
       <c r="B649" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C649" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="E649" s="18" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+        </is>
+      </c>
+      <c r="E649" s="18" t="n"/>
       <c r="F649" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -34160,13 +34156,17 @@
       </c>
       <c r="J649" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K649" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K649" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34188,18 +34188,18 @@
       </c>
       <c r="C650" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
       <c r="F650" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -34215,17 +34215,17 @@
       </c>
       <c r="J650" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K650" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34242,17 +34242,17 @@
       </c>
       <c r="B651" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C651" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
@@ -34272,15 +34272,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J651" s="13" t="n"/>
-      <c r="K651" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J651" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34297,23 +34297,23 @@
       </c>
       <c r="B652" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C652" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
       <c r="F652" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
@@ -34327,15 +34327,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="13" t="n"/>
-      <c r="K652" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J652" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34352,17 +34352,17 @@
       </c>
       <c r="B653" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C653" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
@@ -34384,17 +34384,13 @@
       </c>
       <c r="J653" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K653" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34411,23 +34407,23 @@
       </c>
       <c r="B654" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C654" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
       <c r="F654" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
@@ -34441,15 +34437,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J654" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J654" s="13" t="n"/>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34466,23 +34458,23 @@
       </c>
       <c r="B655" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C655" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
       <c r="F655" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -34498,13 +34490,13 @@
       </c>
       <c r="J655" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34521,17 +34513,17 @@
       </c>
       <c r="B656" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C656" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34551,19 +34543,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J656" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K656" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J656" s="13" t="n"/>
+      <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34580,17 +34564,17 @@
       </c>
       <c r="B657" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C657" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34610,15 +34594,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J657" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K657" s="19" t="n"/>
+      <c r="J657" s="13" t="n"/>
+      <c r="K657" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34635,23 +34619,23 @@
       </c>
       <c r="B658" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C658" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34667,13 +34651,13 @@
       </c>
       <c r="J658" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34695,18 +34679,18 @@
       </c>
       <c r="C659" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
       <c r="F659" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -34722,13 +34706,13 @@
       </c>
       <c r="J659" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34745,23 +34729,23 @@
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34777,13 +34761,13 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34800,23 +34784,23 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -34832,13 +34816,13 @@
       </c>
       <c r="J661" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -34860,18 +34844,18 @@
       </c>
       <c r="C662" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -34885,19 +34869,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K662" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J662" s="13" t="n"/>
+      <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34914,23 +34890,23 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
+          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -34944,11 +34920,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="13" t="n"/>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -34965,7 +34945,7 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
@@ -34975,13 +34955,13 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
       <c r="F664" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
@@ -34995,15 +34975,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J664" s="13" t="n"/>
-      <c r="K664" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J664" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35030,13 +35010,17 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
-        </is>
-      </c>
-      <c r="E665" s="18" t="n"/>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="E665" s="18" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="F665" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
@@ -35050,11 +35034,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="13" t="n"/>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35071,7 +35059,7 @@
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
@@ -35081,7 +35069,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35106,10 +35094,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K666" s="19" t="n"/>
+      <c r="K666" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35126,7 +35118,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35136,13 +35128,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Bidirectional Forwarding Detection(BFD)が有効で、顧客またはプロバイダーのエッジ ルーティング デバイスで設定されていることを確認します。</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35156,15 +35148,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J667" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K667" s="19" t="n"/>
+      <c r="J667" s="13" t="n"/>
+      <c r="K667" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35181,7 +35173,7 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
@@ -35191,7 +35183,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>回復性を高めるために、ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続します。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35211,15 +35203,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J668" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K668" s="19" t="n"/>
+      <c r="J668" s="13" t="n"/>
+      <c r="K668" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35236,7 +35228,7 @@
       </c>
       <c r="B669" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C669" s="18" t="inlineStr">
@@ -35246,7 +35238,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35271,10 +35263,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K669" s="19" t="n"/>
+      <c r="K669" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35301,7 +35297,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35329,7 +35325,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35346,7 +35342,7 @@
       </c>
       <c r="B671" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C671" s="18" t="inlineStr">
@@ -35356,13 +35352,13 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35378,13 +35374,13 @@
       </c>
       <c r="J671" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35401,23 +35397,23 @@
       </c>
       <c r="B672" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35433,17 +35429,17 @@
       </c>
       <c r="J672" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K672" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35460,23 +35456,23 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35492,17 +35488,13 @@
       </c>
       <c r="J673" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K673" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35519,17 +35511,17 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35551,13 +35543,13 @@
       </c>
       <c r="J674" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35574,17 +35566,17 @@
       </c>
       <c r="B675" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C675" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
@@ -35606,13 +35598,13 @@
       </c>
       <c r="J675" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35629,17 +35621,17 @@
       </c>
       <c r="B676" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C676" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
@@ -35661,13 +35653,13 @@
       </c>
       <c r="J676" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35689,18 +35681,18 @@
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -35714,11 +35706,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="13" t="n"/>
+      <c r="J677" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35735,23 +35731,23 @@
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35767,13 +35763,17 @@
       </c>
       <c r="J678" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K678" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K678" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35790,17 +35790,17 @@
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
@@ -35824,7 +35824,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35841,23 +35841,23 @@
       </c>
       <c r="B680" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35874,12 +35874,12 @@
       <c r="J680" s="13" t="n"/>
       <c r="K680" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35896,23 +35896,23 @@
       </c>
       <c r="B681" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
       <c r="F681" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -35926,15 +35926,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J681" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J681" s="13" t="n"/>
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35951,23 +35947,23 @@
       </c>
       <c r="B682" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -35983,13 +35979,13 @@
       </c>
       <c r="J682" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36006,23 +36002,23 @@
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Bidirectional Forwarding Detection(BFD)が有効で、顧客またはプロバイダーのエッジ ルーティング デバイスで設定されていることを確認します。</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36038,13 +36034,13 @@
       </c>
       <c r="J683" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36061,17 +36057,17 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>回復性を高めるために、ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続します。</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
@@ -36093,13 +36089,13 @@
       </c>
       <c r="J684" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36116,23 +36112,23 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -36146,11 +36142,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36167,23 +36167,23 @@
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
+          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36199,13 +36199,13 @@
       </c>
       <c r="J686" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -39144,18 +39144,18 @@
       </c>
       <c r="C742" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39169,11 +39169,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J742" s="13" t="n"/>
+      <c r="J742" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39195,12 +39199,12 @@
       </c>
       <c r="C743" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージと write-once、read-many ポリシーを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
@@ -39220,11 +39224,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J743" s="13" t="n"/>
+      <c r="J743" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39241,17 +39249,17 @@
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
+          <t>Azure Policy を使用して OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage Machine Configuration 監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39271,11 +39279,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J744" s="13" t="n"/>
+      <c r="J744" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39297,12 +39309,12 @@
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39324,13 +39336,13 @@
       </c>
       <c r="J745" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39352,12 +39364,12 @@
       </c>
       <c r="C746" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージと write-once、read-many ポリシーを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
@@ -39379,13 +39391,13 @@
       </c>
       <c r="J746" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39407,12 +39419,12 @@
       </c>
       <c r="C747" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage Machine Configuration 監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能をすぐに使用できます。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
@@ -39434,13 +39446,13 @@
       </c>
       <c r="J747" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39462,12 +39474,12 @@
       </c>
       <c r="C748" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
@@ -39487,15 +39499,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J748" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J748" s="13" t="n"/>
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39517,12 +39525,12 @@
       </c>
       <c r="C749" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
@@ -39542,15 +39550,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J749" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J749" s="13" t="n"/>
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39572,12 +39576,12 @@
       </c>
       <c r="C750" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
@@ -39597,15 +39601,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J750" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J750" s="13" t="n"/>
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39622,17 +39622,17 @@
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39656,7 +39656,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39673,17 +39673,17 @@
       </c>
       <c r="B752" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C752" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
@@ -39707,7 +39707,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39724,20 +39724,24 @@
       </c>
       <c r="B753" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C753" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
-        </is>
-      </c>
-      <c r="E753" s="18" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="E753" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="F753" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39758,7 +39762,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39775,7 +39779,7 @@
       </c>
       <c r="B754" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C754" s="18" t="inlineStr">
@@ -39785,7 +39789,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39809,7 +39813,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39826,24 +39830,20 @@
       </c>
       <c r="B755" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C755" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="E755" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+        </is>
+      </c>
+      <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39864,7 +39864,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39881,7 +39881,7 @@
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
@@ -39891,13 +39891,13 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -39915,7 +39915,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39932,23 +39932,23 @@
       </c>
       <c r="B757" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C757" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -39966,7 +39966,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39993,13 +39993,13 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -40017,7 +40017,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40034,17 +40034,17 @@
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -40068,7 +40068,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40085,17 +40085,17 @@
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40119,7 +40119,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -20066,7 +20066,7 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Azure AD を使用して開発者ポータルでユーザーを認証する</t>
+          <t>Microsoft Entra ID を使用して開発者ポータルでユーザーを認証する</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
@@ -36629,7 +36629,7 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>複数の Azure リージョンにデプロイする</t>
+          <t>DR の場合は、99.99% の SLA で 2 つ以上のリージョンにスケーリングされたデプロイで Premium レベルを活用します</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
@@ -36680,7 +36680,7 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>リージョンごとに 2 つの可用性ゾーンに分散した少なくとも 2 つのスケール ユニットをデプロイして、最適な可用性とパフォーマンスを実現します</t>
+          <t>少なくとも 1 つのユニットを 2 つ以上の可用性ゾーンにデプロイして、SLA を 99.99% に向上させる</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36772,7 +36772,7 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
@@ -36782,13 +36782,13 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
+          <t>ポリシーを使用して、フェイルオーバー・バックエンドURLとキャッシュを追加し、コールの失敗を減らします。</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36806,7 +36806,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36823,7 +36823,7 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
@@ -36833,13 +36833,13 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
+          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36853,15 +36853,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J698" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J698" s="13" t="n"/>
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36888,7 +36884,7 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
+          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -36908,11 +36904,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J699" s="13" t="n"/>
+      <c r="J699" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36939,7 +36939,7 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>セルフホステッド ゲートウェイをデプロイする場所は、Azure のバックエンド API に近いリージョンがありません。</t>
+          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -36963,7 +36963,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36990,7 +36990,7 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
+          <t>セルフホステッド ゲートウェイをデプロイする場所は、バックエンド API に近いリージョンが Azure にありません。</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
@@ -37014,7 +37014,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37031,7 +37031,7 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
@@ -37041,7 +37041,7 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
+          <t>運用環境のワークロードには Premium レベルを使用します。</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
@@ -37065,7 +37065,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37082,7 +37082,7 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
@@ -37092,7 +37092,7 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
+          <t>複数リージョン モデルでは、ポリシーを使用して、可用性または待機時間に基づいてリージョン バックエンドに要求をルーティングします。</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
@@ -37116,7 +37116,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37133,7 +37133,7 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
@@ -37143,13 +37143,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
+          <t>APIM の制限に注意する</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37167,7 +37167,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37184,7 +37184,7 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37194,7 +37194,7 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>パブリックネットワークアクセスの無効化</t>
+          <t>セルフホステッド ゲートウェイのデプロイに回復性があることを確認します。</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37218,7 +37218,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
@@ -37245,7 +37245,7 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
+          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37269,7 +37269,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
@@ -37296,7 +37296,7 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
+          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37320,7 +37320,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
@@ -37347,7 +37347,7 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
+          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37371,7 +37371,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37388,7 +37388,7 @@
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
@@ -37398,7 +37398,7 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>DevOpsとCI/CDをワークフローに実装する</t>
+          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37422,7 +37422,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37449,13 +37449,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用した API の保護</t>
+          <t>パブリックネットワークアクセスの無効化</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37490,7 +37490,7 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
@@ -37500,7 +37500,7 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
+          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37524,7 +37524,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37541,7 +37541,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37551,7 +37551,7 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認してください</t>
+          <t>Infrastructure-as-code を使用して APIM を構成します。Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
@@ -37575,7 +37575,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37592,7 +37592,7 @@
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
@@ -37602,7 +37602,7 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
+          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
@@ -37626,7 +37626,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37643,7 +37643,7 @@
       </c>
       <c r="B714" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C714" s="18" t="inlineStr">
@@ -37653,13 +37653,13 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
+          <t>DevOpsとCI/CDをワークフローに実装する</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
@@ -37677,7 +37677,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37704,13 +37704,13 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>シークレット (名前付きの値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにします</t>
+          <t>クライアント証明書認証を使用した API の保護</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
       <c r="F715" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
@@ -37728,7 +37728,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37755,7 +37755,7 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
+          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37779,7 +37779,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37806,13 +37806,13 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォール (WAF) を使用して Application Gateway を APIM の前にデプロイする</t>
+          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認します</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37830,7 +37830,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37842,28 +37842,28 @@
     <row r="718">
       <c r="A718" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B718" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C718" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>AKS Windows ワークロードで必要な場合は、HostProcess コンテナーを使用できます</t>
+          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -37881,7 +37881,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37893,28 +37893,28 @@
     <row r="719">
       <c r="A719" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B719" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C719" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>イベント ドリブン ワークロードを実行する場合は KEDA を使用します</t>
+          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -37932,7 +37932,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -37944,28 +37944,28 @@
     <row r="720">
       <c r="A720" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
+          <t>シークレット (名前付き値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにする</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -37983,7 +37983,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -37995,28 +37995,28 @@
     <row r="721">
       <c r="A721" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>SLA でサポートされる AKS オファリングを使用する</t>
+          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
       <c r="F721" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -38031,14 +38031,10 @@
         </is>
       </c>
       <c r="J721" s="13" t="n"/>
-      <c r="K721" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38050,28 +38046,28 @@
     <row r="722">
       <c r="A722" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>ポッドとデプロイ定義でのディスラプション バジェットの使用</t>
+          <t>Web アプリケーション ファイアウォール (WAF) を使用するには、APIM の前に Application Gateway をデプロイします</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38089,7 +38085,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38111,18 +38107,18 @@
       </c>
       <c r="C723" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>プライベート レジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョン レプリケーションを構成します</t>
+          <t>AKS Windows ワークロードで必要な場合は、HostProcess コンテナーを使用できます</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
       <c r="F723" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -38140,7 +38136,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38157,7 +38153,7 @@
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
@@ -38167,7 +38163,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーにコストを割り当てます</t>
+          <t>イベント ドリブン ワークロードを実行する場合は KEDA を使用します</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38191,7 +38187,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38208,7 +38204,7 @@
       </c>
       <c r="B725" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C725" s="18" t="inlineStr">
@@ -38218,7 +38214,7 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
+          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38242,7 +38238,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38259,7 +38255,7 @@
       </c>
       <c r="B726" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C726" s="18" t="inlineStr">
@@ -38269,13 +38265,13 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS クラスターで複数インスタンスの分割 GPU を使用する</t>
+          <t>SLA でサポートされる AKS オファリングを使用する</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38290,10 +38286,14 @@
         </is>
       </c>
       <c r="J726" s="13" t="n"/>
-      <c r="K726" s="19" t="n"/>
+      <c r="K726" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38310,7 +38310,7 @@
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
@@ -38320,7 +38320,7 @@
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Dev/Test クラスターを実行している場合は、NodePool Start/Stop を使用します。</t>
+          <t>ポッドとデプロイ定義でのディスラプション バジェットの使用</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
@@ -38344,7 +38344,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38361,23 +38361,23 @@
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
+          <t>プライベート レジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョン レプリケーションを構成します</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
       <c r="F728" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -38392,14 +38392,10 @@
         </is>
       </c>
       <c r="J728" s="13" t="n"/>
-      <c r="K728" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38416,7 +38412,7 @@
       </c>
       <c r="B729" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C729" s="18" t="inlineStr">
@@ -38426,13 +38422,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>ユーザー/システムノードプールを使用してコントロールプレーンからアプリケーションを分離する</t>
+          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーにコストを割り当てます</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38447,14 +38443,10 @@
         </is>
       </c>
       <c r="J729" s="13" t="n"/>
-      <c r="K729" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38471,7 +38463,7 @@
       </c>
       <c r="B730" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C730" s="18" t="inlineStr">
@@ -38481,7 +38473,7 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>システム ノードプールにテイントを追加して専用にする</t>
+          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
@@ -38505,7 +38497,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38522,7 +38514,7 @@
       </c>
       <c r="B731" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C731" s="18" t="inlineStr">
@@ -38532,7 +38524,7 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>イメージにはプライベート レジストリ (ACR など) を使用する</t>
+          <t>必要に応じて、AKS クラスターで複数インスタンスの分割 GPU を使用する</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38556,7 +38548,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38573,23 +38565,23 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>イメージをスキャンして脆弱性を検出する</t>
+          <t>Dev/Test クラスターを実行している場合は、NodePool Start/Stop を使用します。</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -38607,7 +38599,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38634,13 +38626,13 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>アプリの分離要件を定義する (名前空間/ノードプール/クラスター)</t>
+          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38655,10 +38647,14 @@
         </is>
       </c>
       <c r="J733" s="13" t="n"/>
-      <c r="K733" s="19" t="n"/>
+      <c r="K733" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38685,7 +38681,7 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
+          <t>ユーザー/システムノードプールを使用してコントロールプレーンからアプリケーションを分離する</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
@@ -38706,10 +38702,14 @@
         </is>
       </c>
       <c r="J734" s="13" t="n"/>
-      <c r="K734" s="19" t="n"/>
+      <c r="K734" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38736,13 +38736,13 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>クラスターにサービス プリンシパルを使用する場合は、資格情報を定期的に (四半期ごとなど) 更新します</t>
+          <t>システム ノードプールにテイントを追加して専用にする</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
       <c r="F735" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -38760,7 +38760,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38787,7 +38787,7 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、キー管理サービスの etcd 暗号化を追加します</t>
+          <t>イメージにはプライベート レジストリ (ACR など) を使用する</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
@@ -38811,7 +38811,7 @@
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38833,18 +38833,18 @@
       </c>
       <c r="C737" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、Confidential Compute for AKS の使用を検討してください</t>
+          <t>イメージをスキャンして脆弱性を検出する</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -38862,7 +38862,7 @@
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38889,13 +38889,13 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Defender for Containers の使用を検討する</t>
+          <t>アプリの分離要件を定義する (名前空間/ノードプール/クラスター)</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
       <c r="F738" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
@@ -38913,7 +38913,7 @@
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38940,13 +38940,13 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>サービス プリンシパルの代わりにマネージド ID を使用するUse managed identities instead of Service Principals</t>
+          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
       <c r="F739" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -38961,14 +38961,10 @@
         </is>
       </c>
       <c r="J739" s="13" t="n"/>
-      <c r="K739" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -38995,13 +38991,13 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>認証と AAD の統合 (マネージド統合を使用)</t>
+          <t>クラスターにサービス プリンシパルを使用する場合は、資格情報を定期的に (四半期ごとなど) 更新します</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39016,14 +39012,10 @@
         </is>
       </c>
       <c r="J740" s="13" t="n"/>
-      <c r="K740" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39050,7 +39042,7 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>管理者 kubeconfig へのアクセスを制限する (get-credentials --admin)</t>
+          <t>必要に応じて、キー管理サービスの etcd 暗号化を追加します</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
@@ -39074,7 +39066,7 @@
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39101,13 +39093,13 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>承認と AAD RBAC の統合</t>
+          <t>必要に応じて、Confidential Compute for AKS の使用を検討してください</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39125,7 +39117,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39152,13 +39144,13 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
+          <t>Defender for Containers の使用を検討する</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39176,7 +39168,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39203,13 +39195,13 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>ポッド ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します</t>
+          <t>サービス プリンシパルの代わりにマネージド ID を使用するUse managed identities instead of Service Principals</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39224,10 +39216,14 @@
         </is>
       </c>
       <c r="J744" s="13" t="n"/>
-      <c r="K744" s="19" t="n"/>
+      <c r="K744" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39254,7 +39250,7 @@
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>AKS 非対話型ログインの場合は、kubelogin (プレビュー) を使用します</t>
+          <t>認証と AAD の統合 (マネージド統合を使用)</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39275,10 +39271,14 @@
         </is>
       </c>
       <c r="J745" s="13" t="n"/>
-      <c r="K745" s="19" t="n"/>
+      <c r="K745" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39305,7 +39305,7 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>AKS ローカル アカウントを無効にする</t>
+          <t>管理者 kubeconfig へのアクセスを制限する (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
@@ -39326,14 +39326,10 @@
         </is>
       </c>
       <c r="J746" s="13" t="n"/>
-      <c r="K746" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39360,13 +39356,13 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて Just-In-Time クラスター アクセスを構成する</t>
+          <t>承認と AAD RBAC の統合</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39384,7 +39380,7 @@
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39411,13 +39407,13 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて AKS の AAD 条件付きアクセスを構成する</t>
+          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39435,7 +39431,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39462,13 +39458,13 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Windows AKS ワークロードで必要な場合は、gMSA を構成します</t>
+          <t>ポッド ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39486,7 +39482,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39513,7 +39509,7 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>より細かく制御するには、マネージドKubelet Identityの使用を検討してください</t>
+          <t>AKS 非対話型ログインの場合は、kubelogin (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
@@ -39537,7 +39533,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39554,7 +39550,7 @@
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
@@ -39564,7 +39560,7 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>AGIC を使用している場合は、クラスター間で AppGW を共有しないでください</t>
+          <t>AKS ローカル アカウントを無効にする</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39585,10 +39581,14 @@
         </is>
       </c>
       <c r="J751" s="13" t="n"/>
-      <c r="K751" s="19" t="n"/>
+      <c r="K751" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39605,7 +39605,7 @@
       </c>
       <c r="B752" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C752" s="18" t="inlineStr">
@@ -39615,13 +39615,13 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>AKS HTTP ルーティング アドオンを使用せず、代わりにアプリケーション ルーティング アドオンでマネージド NGINX イングレスを使用します。</t>
+          <t>必要に応じて Just-In-Time クラスター アクセスを構成する</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39636,14 +39636,10 @@
         </is>
       </c>
       <c r="J752" s="13" t="n"/>
-      <c r="K752" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39660,7 +39656,7 @@
       </c>
       <c r="B753" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C753" s="18" t="inlineStr">
@@ -39670,13 +39666,13 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Windows ワークロードの場合は、高速ネットワークを使用します</t>
+          <t>必要に応じて AKS の AAD 条件付きアクセスを構成する</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -39694,7 +39690,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39711,7 +39707,7 @@
       </c>
       <c r="B754" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C754" s="18" t="inlineStr">
@@ -39721,13 +39717,13 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>標準のALBを使用する(基本的なALBとは対照的)</t>
+          <t>Windows AKS ワークロードで必要な場合は、gMSA を構成します</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
       <c r="F754" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
@@ -39742,14 +39738,10 @@
         </is>
       </c>
       <c r="J754" s="13" t="n"/>
-      <c r="K754" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39776,7 +39768,7 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI を使用する場合は、NodePool に異なるサブネットを使用することを検討してください</t>
+          <t>より細かく制御するには、マネージドKubelet Identityの使用を検討してください</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
@@ -39800,7 +39792,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39817,7 +39809,7 @@
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
@@ -39827,7 +39819,7 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>プライベート エンドポイント (推奨) または Virtual Network サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
+          <t>AGIC を使用している場合は、クラスター間で AppGW を共有しないでください</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
@@ -39851,7 +39843,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39878,7 +39870,7 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
+          <t>AKS HTTP ルーティング アドオンを使用せず、代わりにアプリケーション ルーティング アドオンでマネージド NGINX イングレスを使用します。</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -39901,12 +39893,12 @@
       <c r="J757" s="13" t="n"/>
       <c r="K757" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39933,13 +39925,13 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI を使用する場合は、ノードあたりのポッドの最大数を考慮して、サブネットのサイズを適切に設定します</t>
+          <t>Windows ワークロードの場合は、高速ネットワークを使用します</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -39957,7 +39949,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -39974,7 +39966,7 @@
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
@@ -39984,7 +39976,7 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、最大ポッド数/ノード (既定値は 30) を確認します</t>
+          <t>標準のALBを使用する(基本的なALBとは対照的)</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -40005,10 +39997,14 @@
         </is>
       </c>
       <c r="J759" s="13" t="n"/>
-      <c r="K759" s="19" t="n"/>
+      <c r="K759" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40035,17 +40031,13 @@
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>プライベート IP LoadBalancer サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します</t>
-        </is>
-      </c>
-      <c r="E760" s="18" t="inlineStr">
-        <is>
-          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッドへのネットワーク アクセスも開かれます (Azure CNI を使用している場合)。LoadBalancer の IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
-        </is>
-      </c>
+          <t>Azure CNI を使用する場合は、NodePool に異なるサブネットを使用することを検討してください</t>
+        </is>
+      </c>
+      <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
@@ -40063,7 +40055,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40080,7 +40072,7 @@
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
@@ -40090,13 +40082,13 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>それに応じて、サービスの IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
+          <t>プライベート エンドポイント (推奨) または Virtual Network サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -40114,7 +40106,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40131,7 +40123,7 @@
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
@@ -40141,13 +40133,13 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、独自のCNIプラグインを追加します</t>
+          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40162,10 +40154,14 @@
         </is>
       </c>
       <c r="J762" s="13" t="n"/>
-      <c r="K762" s="19" t="n"/>
+      <c r="K762" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40192,13 +40188,13 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS でノードごとにパブリック IP を構成する</t>
+          <t>Azure CNI を使用する場合は、ノードあたりのポッドの最大数を考慮して、サブネットのサイズを適切に設定します</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
@@ -40216,7 +40212,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40233,7 +40229,7 @@
       </c>
       <c r="B764" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C764" s="18" t="inlineStr">
@@ -40243,13 +40239,13 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに、Web ベースのアプリを公開します</t>
+          <t>Azure CNI を使用している場合は、最大ポッド数/ノード (既定値は 30) を確認します</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
       <c r="F764" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -40267,7 +40263,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40284,7 +40280,7 @@
       </c>
       <c r="B765" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C765" s="18" t="inlineStr">
@@ -40294,10 +40290,14 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>エグレス トラフィックをスケーリングするために Azure NAT Gateway を outboundType として使用する</t>
-        </is>
-      </c>
-      <c r="E765" s="18" t="n"/>
+          <t>プライベート IP LoadBalancer サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します</t>
+        </is>
+      </c>
+      <c r="E765" s="18" t="inlineStr">
+        <is>
+          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッドへのネットワーク アクセスも開かれます (Azure CNI を使用している場合)。LoadBalancer の IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
+        </is>
+      </c>
       <c r="F765" s="18" t="inlineStr">
         <is>
           <t>低い</t>
@@ -40318,7 +40318,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40345,13 +40345,13 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
+          <t>それに応じて、サービスの IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40369,7 +40369,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40396,13 +40396,13 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA を使用してエグレス トラフィックをフィルター処理します</t>
+          <t>必要に応じて、独自のCNIプラグインを追加します</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
       <c r="F767" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -40417,14 +40417,10 @@
         </is>
       </c>
       <c r="J767" s="13" t="n"/>
-      <c r="K767" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40441,7 +40437,7 @@
       </c>
       <c r="B768" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C768" s="18" t="inlineStr">
@@ -40451,13 +40447,13 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限します</t>
+          <t>必要に応じて、AKS でノードごとにパブリック IP を構成する</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -40472,14 +40468,10 @@
         </is>
       </c>
       <c r="J768" s="13" t="n"/>
-      <c r="K768" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40496,7 +40488,7 @@
       </c>
       <c r="B769" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C769" s="18" t="inlineStr">
@@ -40506,13 +40498,13 @@
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>要件で必要な場合は、プライベート クラスターを使用します</t>
+          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに、Web ベースのアプリを公開します</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
       <c r="F769" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -40527,14 +40519,10 @@
         </is>
       </c>
       <c r="J769" s="13" t="n"/>
-      <c r="K769" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40551,7 +40539,7 @@
       </c>
       <c r="B770" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C770" s="18" t="inlineStr">
@@ -40561,13 +40549,13 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Windows 2019 および 2022 AKS ノードでは、Calico ネットワーク ポリシーを使用できます</t>
+          <t>エグレス トラフィックをスケーリングするために Azure NAT Gateway を outboundType として使用する</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
       <c r="F770" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
@@ -40582,14 +40570,10 @@
         </is>
       </c>
       <c r="J770" s="13" t="n"/>
-      <c r="K770" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40606,7 +40590,7 @@
       </c>
       <c r="B771" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C771" s="18" t="inlineStr">
@@ -40616,13 +40600,13 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
+          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
       <c r="F771" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -40637,14 +40621,10 @@
         </is>
       </c>
       <c r="J771" s="13" t="n"/>
-      <c r="K771" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40671,7 +40651,7 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Kubernetesネットワークポリシーを使用してクラスタ内のセキュリティを強化</t>
+          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA を使用してエグレス トラフィックをフィルター処理します</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40692,10 +40672,14 @@
         </is>
       </c>
       <c r="J772" s="13" t="n"/>
-      <c r="K772" s="19" t="n"/>
+      <c r="K772" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40722,13 +40706,13 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Web ワークロード (UI または API) に WAF を使用するUse a WAF for a web workloads (UI or API)</t>
+          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限します</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
       <c r="F773" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -40743,10 +40727,14 @@
         </is>
       </c>
       <c r="J773" s="13" t="n"/>
-      <c r="K773" s="19" t="n"/>
+      <c r="K773" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40773,13 +40761,13 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>AKS Virtual Network で DDoS Standard を使用するUse DDoS Standard in the AKS Virtual Network</t>
+          <t>要件で必要な場合は、プライベート クラスターを使用します</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
       <c r="F774" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
@@ -40796,12 +40784,12 @@
       <c r="J774" s="13" t="n"/>
       <c r="K774" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40828,13 +40816,13 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、会社の HTTP プロキシを追加します</t>
+          <t>Windows 2019 および 2022 AKS ノードでは、Calico ネットワーク ポリシーを使用できます</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -40851,12 +40839,12 @@
       <c r="J775" s="13" t="n"/>
       <c r="K775" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40883,13 +40871,13 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理にサービスメッシュの使用を検討する</t>
+          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -40904,10 +40892,14 @@
         </is>
       </c>
       <c r="J776" s="13" t="n"/>
-      <c r="K776" s="19" t="n"/>
+      <c r="K776" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40924,7 +40916,7 @@
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
@@ -40934,7 +40926,7 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「Container Insights」を参照してください)</t>
+          <t>Kubernetesネットワークポリシーを使用してクラスタ内のセキュリティを強化</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
@@ -40958,7 +40950,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40975,7 +40967,7 @@
       </c>
       <c r="B778" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C778" s="18" t="inlineStr">
@@ -40985,13 +40977,13 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Azure Advisor でクラスターの推奨事項を定期的に確認する</t>
+          <t>Web ワークロード (UI または API) に WAF を使用するUse a WAF for a web workloads (UI or API)</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -41009,7 +41001,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41026,7 +41018,7 @@
       </c>
       <c r="B779" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C779" s="18" t="inlineStr">
@@ -41036,13 +41028,13 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>AKS 自動証明書のローテーションを有効にする</t>
+          <t>AKS Virtual Network で DDoS Standard を使用するUse DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41057,10 +41049,14 @@
         </is>
       </c>
       <c r="J779" s="13" t="n"/>
-      <c r="K779" s="19" t="n"/>
+      <c r="K779" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41077,7 +41073,7 @@
       </c>
       <c r="B780" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C780" s="18" t="inlineStr">
@@ -41087,13 +41083,13 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>kubernetes のバージョンを定期的に (四半期ごとなど) アップグレードする定期的なプロセスを行うか、AKS 自動アップグレード機能を使用します</t>
+          <t>必要に応じて、会社の HTTP プロキシを追加します</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41108,10 +41104,14 @@
         </is>
       </c>
       <c r="J780" s="13" t="n"/>
-      <c r="K780" s="19" t="n"/>
+      <c r="K780" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41128,7 +41128,7 @@
       </c>
       <c r="B781" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C781" s="18" t="inlineStr">
@@ -41138,13 +41138,13 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>ノードイメージのアップグレードを使用していない場合は、Linuxノードのアップグレードにkuredを使用します</t>
+          <t>高度なマイクロサービス通信管理にサービスメッシュの使用を検討する</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
       <c r="F781" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -41162,7 +41162,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41189,7 +41189,7 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意します</t>
+          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「Container Insights」を参照してください)</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
@@ -41213,7 +41213,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41240,7 +41240,7 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするために gitop を検討してください</t>
+          <t>Azure Advisor でクラスターの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
@@ -41264,7 +41264,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41291,7 +41291,7 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>プライベート クラスターで AKS コマンド呼び出しを使用することを検討する</t>
+          <t>AKS 自動証明書のローテーションを有効にする</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
@@ -41315,7 +41315,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41342,13 +41342,13 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>計画されたイベントの場合は、ノードの自動ドレインの使用を検討してください</t>
+          <t>kubernetes のバージョンを定期的に (四半期ごとなど) アップグレードする定期的なプロセスを行うか、AKS 自動アップグレード機能を使用します</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41366,7 +41366,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41393,7 +41393,7 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします</t>
+          <t>ノードイメージのアップグレードを使用していない場合は、Linuxノードのアップグレードにkuredを使用します</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41417,7 +41417,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41444,13 +41444,13 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>カスタムノードRG(別名「インフラRG」)名を使用</t>
+          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意します</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41465,14 +41465,10 @@
         </is>
       </c>
       <c r="J787" s="13" t="n"/>
-      <c r="K787" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41499,13 +41495,13 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
+          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするために gitop を検討してください</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41523,7 +41519,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41550,7 +41546,7 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Windows ノードのテイント</t>
+          <t>プライベート クラスターで AKS コマンド呼び出しを使用することを検討する</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
@@ -41574,7 +41570,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41601,7 +41597,7 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Windows コンテナーのパッチ レベルをホストのパッチ レベルと同期させる</t>
+          <t>計画されたイベントの場合は、ノードの自動ドレインの使用を検討してください</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41625,7 +41621,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41652,17 +41648,13 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
-        </is>
-      </c>
-      <c r="E791" s="18" t="inlineStr">
-        <is>
-          <t>クラスタレベルでの診断設定経由</t>
-        </is>
-      </c>
+          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします</t>
+        </is>
+      </c>
+      <c r="E791" s="18" t="n"/>
       <c r="F791" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -41680,7 +41672,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41697,7 +41689,7 @@
       </c>
       <c r="B792" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C792" s="18" t="inlineStr">
@@ -41707,7 +41699,7 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、nodePool スナップショットを使用します</t>
+          <t>カスタムノードRG(別名「インフラRG」)名を使用</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
@@ -41728,10 +41720,14 @@
         </is>
       </c>
       <c r="J792" s="13" t="n"/>
-      <c r="K792" s="19" t="n"/>
+      <c r="K792" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -41758,13 +41754,13 @@
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>時間的制約のないワークロードのスポット ノード プールを検討する</t>
+          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
         </is>
       </c>
       <c r="E793" s="18" t="n"/>
       <c r="F793" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -41782,7 +41778,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -41809,7 +41805,7 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>クイック バーストのために AKS 仮想ノードを検討する</t>
+          <t>Windows ノードのテイント</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
@@ -41830,14 +41826,10 @@
         </is>
       </c>
       <c r="J794" s="13" t="n"/>
-      <c r="K794" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -41864,13 +41856,13 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>Container Insights (または Prometheus などの他のツール) を使用してクラスター メトリックを監視する</t>
+          <t>Windows コンテナーのパッチ レベルをホストのパッチ レベルと同期させる</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
       <c r="F795" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -41888,7 +41880,7 @@
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -41915,13 +41907,17 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>Container Insights(またはTelegraf/ElasticSearchなどの他のツール)を使用してクラスターログを保存および分析します</t>
-        </is>
-      </c>
-      <c r="E796" s="18" t="n"/>
+          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+        </is>
+      </c>
+      <c r="E796" s="18" t="inlineStr">
+        <is>
+          <t>クラスタレベルでの診断設定経由</t>
+        </is>
+      </c>
       <c r="F796" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -41936,14 +41932,10 @@
         </is>
       </c>
       <c r="J796" s="13" t="n"/>
-      <c r="K796" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -41960,7 +41952,7 @@
       </c>
       <c r="B797" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C797" s="18" t="inlineStr">
@@ -41970,13 +41962,13 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>ノードの CPU とメモリの使用率を監視する</t>
+          <t>必要に応じて、nodePool スナップショットを使用します</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
       <c r="F797" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -41994,7 +41986,7 @@
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -42021,13 +42013,13 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します</t>
+          <t>時間的制約のないワークロードのスポット ノード プールを検討する</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
       <c r="F798" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -42045,7 +42037,7 @@
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -42072,17 +42064,13 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>ノード内の OS ディスク キューの深さを監視する</t>
-        </is>
-      </c>
-      <c r="E799" s="18" t="inlineStr">
-        <is>
-          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生し、通常はノードが NotReady と宣言される可能性があります</t>
-        </is>
-      </c>
+          <t>クイック バーストのために AKS 仮想ノードを検討する</t>
+        </is>
+      </c>
+      <c r="E799" s="18" t="n"/>
       <c r="F799" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -42097,10 +42085,14 @@
         </is>
       </c>
       <c r="J799" s="13" t="n"/>
-      <c r="K799" s="19" t="n"/>
+      <c r="K799" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42127,13 +42119,13 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>AzFW/NVA でエグレス フィルター処理を使用しない場合は、標準の ALB によって割り当てられた SNAT ポートを監視します</t>
+          <t>Container Insights (または Prometheus などの他のツール) を使用してクラスター メトリックを監視する</t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
       <c r="F800" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -42151,7 +42143,7 @@
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42178,13 +42170,13 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>AKS クラスターのリソース正常性通知をサブスクライブするSubscribe to resource health notifications for your AKS cluster</t>
+          <t>Container Insights(またはTelegraf/ElasticSearchなどの他のツール)を使用してクラスターログを保存および分析します</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
       <c r="F801" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -42199,10 +42191,14 @@
         </is>
       </c>
       <c r="J801" s="13" t="n"/>
-      <c r="K801" s="19" t="n"/>
+      <c r="K801" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42229,13 +42225,13 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>ポッド仕様で要求と制限を構成する</t>
+          <t>ノードの CPU とメモリの使用率を監視する</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
       <c r="F802" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G802" t="inlineStr">
@@ -42253,7 +42249,7 @@
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42280,7 +42276,7 @@
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>名前空間のリソースクォータを適用する</t>
+          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します</t>
         </is>
       </c>
       <c r="E803" s="18" t="n"/>
@@ -42304,7 +42300,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42331,13 +42327,17 @@
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
-        </is>
-      </c>
-      <c r="E804" s="18" t="n"/>
+          <t>ノード内の OS ディスク キューの深さを監視する</t>
+        </is>
+      </c>
+      <c r="E804" s="18" t="inlineStr">
+        <is>
+          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生し、通常はノードが NotReady と宣言される可能性があります</t>
+        </is>
+      </c>
       <c r="F804" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G804" t="inlineStr">
@@ -42355,7 +42355,7 @@
       <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M804" s="20" t="n"/>
@@ -42372,7 +42372,7 @@
       </c>
       <c r="B805" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C805" s="18" t="inlineStr">
@@ -42382,7 +42382,7 @@
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>Cluster Autoscaler を使用する</t>
+          <t>AzFW/NVA でエグレス フィルター処理を使用しない場合は、標準の ALB によって割り当てられた SNAT ポートを監視します</t>
         </is>
       </c>
       <c r="E805" s="18" t="n"/>
@@ -42403,14 +42403,10 @@
         </is>
       </c>
       <c r="J805" s="13" t="n"/>
-      <c r="K805" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M805" s="20" t="n"/>
@@ -42427,7 +42423,7 @@
       </c>
       <c r="B806" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C806" s="18" t="inlineStr">
@@ -42437,13 +42433,13 @@
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>AKS ノード プールのノード構成をカスタマイズする</t>
+          <t>AKS クラスターのリソース正常性通知をサブスクライブするSubscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="E806" s="18" t="n"/>
       <c r="F806" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -42458,14 +42454,10 @@
         </is>
       </c>
       <c r="J806" s="13" t="n"/>
-      <c r="K806" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M806" s="20" t="n"/>
@@ -42482,7 +42474,7 @@
       </c>
       <c r="B807" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C807" s="18" t="inlineStr">
@@ -42492,13 +42484,13 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>必要に応じてHorizontal Pod Autoscalerを使用します</t>
+          <t>ポッド仕様で要求と制限を構成する</t>
         </is>
       </c>
       <c r="E807" s="18" t="n"/>
       <c r="F807" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -42516,7 +42508,7 @@
       <c r="K807" s="19" t="n"/>
       <c r="L807" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M807" s="20" t="n"/>
@@ -42533,7 +42525,7 @@
       </c>
       <c r="B808" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C808" s="18" t="inlineStr">
@@ -42543,17 +42535,13 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>大きすぎず小さすぎない適切なノードサイズを検討してください</t>
-        </is>
-      </c>
-      <c r="E808" s="18" t="inlineStr">
-        <is>
-          <t>ノードが大きくなると、パフォーマンスが向上し、エフェメラル ディスクや高速ネットワークなどの機能が提供されますが、爆発半径が大きくなり、スケーリングの粒度が低下します</t>
-        </is>
-      </c>
+          <t>名前空間のリソースクォータを適用する</t>
+        </is>
+      </c>
+      <c r="E808" s="18" t="n"/>
       <c r="F808" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -42571,7 +42559,7 @@
       <c r="K808" s="19" t="n"/>
       <c r="L808" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M808" s="20" t="n"/>
@@ -42588,7 +42576,7 @@
       </c>
       <c r="B809" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C809" s="18" t="inlineStr">
@@ -42598,13 +42586,13 @@
       </c>
       <c r="D809" s="18" t="inlineStr">
         <is>
-          <t>スケーラビリティのために 5,000 を超えるノードが必要な場合は、追加の AKS クラスターの使用を検討してください</t>
+          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
         </is>
       </c>
       <c r="E809" s="18" t="n"/>
       <c r="F809" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -42622,7 +42610,7 @@
       <c r="K809" s="19" t="n"/>
       <c r="L809" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M809" s="20" t="n"/>
@@ -42649,13 +42637,13 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>AKS 自動化のために EventGrid イベントをサブスクライブすることを検討する</t>
+          <t>Cluster Autoscaler を使用する</t>
         </is>
       </c>
       <c r="E810" s="18" t="n"/>
       <c r="F810" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -42670,10 +42658,14 @@
         </is>
       </c>
       <c r="J810" s="13" t="n"/>
-      <c r="K810" s="19" t="n"/>
+      <c r="K810" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L810" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M810" s="20" t="n"/>
@@ -42700,7 +42692,7 @@
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>AKS クラスターで実行時間の長い操作を行う場合は、イベントの終了を検討してください</t>
+          <t>AKS ノード プールのノード構成をカスタマイズする</t>
         </is>
       </c>
       <c r="E811" s="18" t="n"/>
@@ -42721,10 +42713,14 @@
         </is>
       </c>
       <c r="J811" s="13" t="n"/>
-      <c r="K811" s="19" t="n"/>
+      <c r="K811" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L811" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M811" s="20" t="n"/>
@@ -42751,13 +42747,13 @@
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS ノードに Azure Dedicated Hosts を使用することを検討してください</t>
+          <t>必要に応じてHorizontal Pod Autoscalerを使用します</t>
         </is>
       </c>
       <c r="E812" s="18" t="n"/>
       <c r="F812" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -42775,7 +42771,7 @@
       <c r="K812" s="19" t="n"/>
       <c r="L812" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M812" s="20" t="n"/>
@@ -42802,10 +42798,14 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>エフェメラル OS ディスクを使用する</t>
-        </is>
-      </c>
-      <c r="E813" s="18" t="n"/>
+          <t>大きすぎず小さすぎない適切なノードサイズを検討してください</t>
+        </is>
+      </c>
+      <c r="E813" s="18" t="inlineStr">
+        <is>
+          <t>ノードが大きくなると、パフォーマンスが向上し、エフェメラル ディスクや高速ネットワークなどの機能が提供されますが、爆発半径が大きくなり、スケーリングの粒度が低下します</t>
+        </is>
+      </c>
       <c r="F813" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -42823,14 +42823,10 @@
         </is>
       </c>
       <c r="J813" s="13" t="n"/>
-      <c r="K813" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K813" s="19" t="n"/>
       <c r="L813" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M813" s="20" t="n"/>
@@ -42857,13 +42853,13 @@
       </c>
       <c r="D814" s="18" t="inlineStr">
         <is>
-          <t>非エフェメラル ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します</t>
+          <t>スケーラビリティのために 5,000 を超えるノードが必要な場合は、追加の AKS クラスターの使用を検討してください</t>
         </is>
       </c>
       <c r="E814" s="18" t="n"/>
       <c r="F814" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G814" t="inlineStr">
@@ -42881,7 +42877,7 @@
       <c r="K814" s="19" t="n"/>
       <c r="L814" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M814" s="20" t="n"/>
@@ -42908,7 +42904,7 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS 上の Ultra Disks を使用します</t>
+          <t>AKS 自動化のために EventGrid イベントをサブスクライブすることを検討する</t>
         </is>
       </c>
       <c r="E815" s="18" t="n"/>
@@ -42932,7 +42928,7 @@
       <c r="K815" s="19" t="n"/>
       <c r="L815" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M815" s="20" t="n"/>
@@ -42959,13 +42955,13 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>クラスター内に状態を保持することは避け、外部 (AzStorage、AzSQL、Cosmos など) にデータを格納します</t>
+          <t>AKS クラスターで実行時間の長い操作を行う場合は、イベントの終了を検討してください</t>
         </is>
       </c>
       <c r="E816" s="18" t="n"/>
       <c r="F816" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -42983,7 +42979,7 @@
       <c r="K816" s="19" t="n"/>
       <c r="L816" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M816" s="20" t="n"/>
@@ -43010,13 +43006,13 @@
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください</t>
+          <t>必要に応じて、AKS ノードに Azure Dedicated Hosts を使用することを検討してください</t>
         </is>
       </c>
       <c r="E817" s="18" t="n"/>
       <c r="F817" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -43034,7 +43030,7 @@
       <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -43061,13 +43057,13 @@
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
+          <t>エフェメラル OS ディスクを使用する</t>
         </is>
       </c>
       <c r="E818" s="18" t="n"/>
       <c r="F818" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -43082,10 +43078,14 @@
         </is>
       </c>
       <c r="J818" s="13" t="n"/>
-      <c r="K818" s="19" t="n"/>
+      <c r="K818" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L818" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M818" s="20" t="n"/>
@@ -43097,28 +43097,28 @@
     <row r="819">
       <c r="A819" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B819" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C819" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D819" s="18" t="inlineStr">
         <is>
-          <t>フレキシブル サーバーの活用</t>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します</t>
         </is>
       </c>
       <c r="E819" s="18" t="n"/>
       <c r="F819" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -43136,7 +43136,7 @@
       <c r="K819" s="19" t="n"/>
       <c r="L819" s="19" t="inlineStr">
         <is>
-          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M819" s="20" t="n"/>
@@ -43148,28 +43148,28 @@
     <row r="820">
       <c r="A820" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B820" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C820" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones (地域的に適用可能な場合) を活用する</t>
+          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS 上の Ultra Disks を使用します</t>
         </is>
       </c>
       <c r="E820" s="18" t="n"/>
       <c r="F820" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -43187,7 +43187,7 @@
       <c r="K820" s="19" t="n"/>
       <c r="L820" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M820" s="20" t="n"/>
@@ -43199,22 +43199,22 @@
     <row r="821">
       <c r="A821" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B821" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C821" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>リージョン間の DR シナリオでのデータイン レプリケーションの活用</t>
+          <t>クラスター内に状態を保持することは避け、外部 (AzStorage、AzSQL、Cosmos など) にデータを格納します</t>
         </is>
       </c>
       <c r="E821" s="18" t="n"/>
@@ -43238,7 +43238,7 @@
       <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43250,28 +43250,28 @@
     <row r="822">
       <c r="A822" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B822" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C822" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください</t>
         </is>
       </c>
       <c r="E822" s="18" t="n"/>
       <c r="F822" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -43289,7 +43289,7 @@
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43301,28 +43301,28 @@
     <row r="823">
       <c r="A823" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B823" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C823" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
         </is>
       </c>
       <c r="E823" s="18" t="n"/>
       <c r="F823" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -43340,7 +43340,7 @@
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43352,7 +43352,7 @@
     <row r="824">
       <c r="A824" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B824" s="18" t="inlineStr">
@@ -43362,18 +43362,18 @@
       </c>
       <c r="C824" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>フレキシブル サーバーの活用</t>
         </is>
       </c>
       <c r="E824" s="18" t="n"/>
       <c r="F824" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -43391,7 +43391,7 @@
       <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43403,7 +43403,7 @@
     <row r="825">
       <c r="A825" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B825" s="18" t="inlineStr">
@@ -43413,12 +43413,12 @@
       </c>
       <c r="C825" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+          <t>Availability Zones (地域的に適用可能な場合) を活用する</t>
         </is>
       </c>
       <c r="E825" s="18" t="n"/>
@@ -43442,7 +43442,7 @@
       <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43454,22 +43454,22 @@
     <row r="826">
       <c r="A826" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B826" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C826" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+          <t>リージョン間の DR シナリオでのデータイン レプリケーションの活用</t>
         </is>
       </c>
       <c r="E826" s="18" t="n"/>
@@ -43493,7 +43493,7 @@
       <c r="K826" s="19" t="n"/>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43503,17 +43503,50 @@
       <c r="Q826" s="20" t="n"/>
     </row>
     <row r="827">
-      <c r="A827" s="18" t="n"/>
-      <c r="B827" s="18" t="n"/>
-      <c r="C827" s="18" t="n"/>
-      <c r="D827" s="18" t="n"/>
+      <c r="A827" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B827" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C827" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D827" s="18" t="inlineStr">
+        <is>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+        </is>
+      </c>
       <c r="E827" s="18" t="n"/>
-      <c r="F827" s="18" t="n"/>
+      <c r="F827" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H827" s="18" t="n"/>
-      <c r="I827" s="13" t="n"/>
+      <c r="I827" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J827" s="13" t="n"/>
       <c r="K827" s="19" t="n"/>
-      <c r="L827" s="19" t="n"/>
+      <c r="L827" s="19" t="inlineStr">
+        <is>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+        </is>
+      </c>
       <c r="M827" s="20" t="n"/>
       <c r="N827" s="20" t="n"/>
       <c r="O827" s="20" t="n"/>
@@ -43521,17 +43554,50 @@
       <c r="Q827" s="20" t="n"/>
     </row>
     <row r="828">
-      <c r="A828" s="18" t="n"/>
-      <c r="B828" s="18" t="n"/>
-      <c r="C828" s="18" t="n"/>
-      <c r="D828" s="18" t="n"/>
+      <c r="A828" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B828" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C828" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D828" s="18" t="inlineStr">
+        <is>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+        </is>
+      </c>
       <c r="E828" s="18" t="n"/>
-      <c r="F828" s="18" t="n"/>
+      <c r="F828" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H828" s="18" t="n"/>
-      <c r="I828" s="13" t="n"/>
+      <c r="I828" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J828" s="13" t="n"/>
       <c r="K828" s="19" t="n"/>
-      <c r="L828" s="19" t="n"/>
+      <c r="L828" s="19" t="inlineStr">
+        <is>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+        </is>
+      </c>
       <c r="M828" s="20" t="n"/>
       <c r="N828" s="20" t="n"/>
       <c r="O828" s="20" t="n"/>
@@ -43539,17 +43605,50 @@
       <c r="Q828" s="20" t="n"/>
     </row>
     <row r="829">
-      <c r="A829" s="18" t="n"/>
-      <c r="B829" s="18" t="n"/>
-      <c r="C829" s="18" t="n"/>
-      <c r="D829" s="18" t="n"/>
+      <c r="A829" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B829" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C829" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D829" s="18" t="inlineStr">
+        <is>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+        </is>
+      </c>
       <c r="E829" s="18" t="n"/>
-      <c r="F829" s="18" t="n"/>
+      <c r="F829" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H829" s="18" t="n"/>
-      <c r="I829" s="13" t="n"/>
+      <c r="I829" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J829" s="13" t="n"/>
       <c r="K829" s="19" t="n"/>
-      <c r="L829" s="19" t="n"/>
+      <c r="L829" s="19" t="inlineStr">
+        <is>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+        </is>
+      </c>
       <c r="M829" s="20" t="n"/>
       <c r="N829" s="20" t="n"/>
       <c r="O829" s="20" t="n"/>
@@ -43557,17 +43656,50 @@
       <c r="Q829" s="20" t="n"/>
     </row>
     <row r="830">
-      <c r="A830" s="18" t="n"/>
-      <c r="B830" s="18" t="n"/>
-      <c r="C830" s="18" t="n"/>
-      <c r="D830" s="18" t="n"/>
+      <c r="A830" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B830" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C830" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D830" s="18" t="inlineStr">
+        <is>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+        </is>
+      </c>
       <c r="E830" s="18" t="n"/>
-      <c r="F830" s="18" t="n"/>
+      <c r="F830" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H830" s="18" t="n"/>
-      <c r="I830" s="13" t="n"/>
+      <c r="I830" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J830" s="13" t="n"/>
       <c r="K830" s="19" t="n"/>
-      <c r="L830" s="19" t="n"/>
+      <c r="L830" s="19" t="inlineStr">
+        <is>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+        </is>
+      </c>
       <c r="M830" s="20" t="n"/>
       <c r="N830" s="20" t="n"/>
       <c r="O830" s="20" t="n"/>
@@ -43575,17 +43707,50 @@
       <c r="Q830" s="20" t="n"/>
     </row>
     <row r="831">
-      <c r="A831" s="18" t="n"/>
-      <c r="B831" s="18" t="n"/>
-      <c r="C831" s="18" t="n"/>
-      <c r="D831" s="18" t="n"/>
+      <c r="A831" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B831" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C831" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D831" s="18" t="inlineStr">
+        <is>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+        </is>
+      </c>
       <c r="E831" s="18" t="n"/>
-      <c r="F831" s="18" t="n"/>
+      <c r="F831" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H831" s="18" t="n"/>
-      <c r="I831" s="13" t="n"/>
+      <c r="I831" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J831" s="13" t="n"/>
       <c r="K831" s="19" t="n"/>
-      <c r="L831" s="19" t="n"/>
+      <c r="L831" s="19" t="inlineStr">
+        <is>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+        </is>
+      </c>
       <c r="M831" s="20" t="n"/>
       <c r="N831" s="20" t="n"/>
       <c r="O831" s="20" t="n"/>
@@ -50469,7 +50634,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G827" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G832" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -51189,6 +51354,11 @@
     <hyperlink ref="I824" r:id="rId713"/>
     <hyperlink ref="I825" r:id="rId714"/>
     <hyperlink ref="I826" r:id="rId715"/>
+    <hyperlink ref="I827" r:id="rId716"/>
+    <hyperlink ref="I828" r:id="rId717"/>
+    <hyperlink ref="I829" r:id="rId718"/>
+    <hyperlink ref="I830" r:id="rId719"/>
+    <hyperlink ref="I831" r:id="rId720"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -32357,7 +32357,7 @@
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>マルチテナントに関する明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
+          <t>Azure リソースの管理には 1 つの Entra テナントを使用します (マルチテナントに対する明確な規制要件やビジネス要件がない限り)。</t>
         </is>
       </c>
       <c r="E618" s="18" t="n"/>
@@ -32408,7 +32408,7 @@
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID テナントを管理するためのマルチテナント自動化アプローチがあることを確認する</t>
+          <t>マルチテナント自動化アプローチを使用して、Microsoft Entra ID テナントを管理します。</t>
         </is>
       </c>
       <c r="E619" s="18" t="n"/>
@@ -32459,13 +32459,13 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>マルチテナント管理に Azure Lighthouse を活用する</t>
+          <t>同じ ID でマルチテナント管理に Azure Lighthouse を使用します。</t>
         </is>
       </c>
       <c r="E620" s="18" t="n"/>
       <c r="F620" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
@@ -32479,7 +32479,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J620" s="13" t="n"/>
+      <c r="J620" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
+        </is>
+      </c>
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
@@ -32510,13 +32514,13 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>パートナーによるテナントの管理に Azure Lighthouse が使用されていることを確認する</t>
+          <t>テナントを管理するためのアクセス権をパートナーに付与する場合は、Azure Lighthouse を使用します。</t>
         </is>
       </c>
       <c r="E621" s="18" t="n"/>
       <c r="F621" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
@@ -32561,7 +32565,7 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
+          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当て。</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
@@ -32616,7 +32620,7 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
+          <t>すべてのアカウントの種類に対して、認証の種類である [職場または学校アカウント] のみを使用します。Microsoftアカウントの使用は避けてください</t>
         </is>
       </c>
       <c r="E623" s="18" t="n"/>
@@ -32671,7 +32675,7 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
+          <t>権限の割り当てには、グループのみを使用してください。グループ管理システムがすでに導入されている場合は、オンプレミス グループを Entra ID のみのグループに追加します。</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
@@ -32726,13 +32730,13 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID 条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに対して、Microsoft Entra ID 条件付きアクセス ポリシーを適用します。</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
       <c r="F625" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -32781,7 +32785,7 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用します。</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
@@ -32836,7 +32840,7 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID Privileged Identity Management (PIM) を適用して、ゼロの永続的なアクセスと最小限の特権を確立します</t>
+          <t>Microsoft Entra ID Privileged Identity Management (PIM) を適用して、ゼロスタンディング アクセスと最小特権を確立します。</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
@@ -32891,7 +32895,7 @@
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>Active Directory ドメイン サービスから Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します</t>
+          <t>Active Directory Domain Services から Entra ドメイン サービスへの切り替えを計画している場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="E628" s="18" t="n"/>
@@ -32946,7 +32950,7 @@
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中央の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源を使用できるため、ログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを組織に提供できます。</t>
         </is>
       </c>
       <c r="E629" s="18" t="n"/>
@@ -32997,7 +33001,7 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装します。</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -33052,7 +33056,7 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
+          <t>特に必要なシナリオがない限り、Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
@@ -33107,7 +33111,7 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
+          <t>Microsoft Entra ID アプリケーション プロキシを使用してリモート ユーザーにアプリケーションへのアクセス権を付与する場合は、テナントごとに 1 つのインスタンスしか持つことができないため、プラットフォーム リソースとして管理します。</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
@@ -33162,7 +33166,7 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
+          <t>ハブアンドスポークネットワークトポロジは、最大限の柔軟性を必要とするネットワークシナリオに使用します。</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
@@ -33217,7 +33221,7 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall またはパートナー NVA などの共有ネットワーク サービスを中央ハブ仮想ネットワークにデプロイします。必要に応じて、DNS サービスもデプロイします。</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
@@ -33268,13 +33272,13 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
       <c r="F635" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
@@ -33323,7 +33327,7 @@
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください。</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
@@ -33374,7 +33378,7 @@
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>ハブ アンド スポークのシナリオで ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
@@ -33480,7 +33484,7 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
@@ -33535,7 +33539,7 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンドツーエンドの状態を監視します。</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
@@ -33590,7 +33594,7 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
+          <t>リージョンに 400 を超えるスポーク ネットワークがある場合は、VNet ピアリングの制限 (500) と ExpressRoute 経由でアドバタイズできるプレフィックスの最大数 (1000) をバイパスするために、追加のハブをデプロイします。</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
@@ -33645,7 +33649,7 @@
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
+          <t>ルート テーブルあたりのルート数を 400 に制限します。</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
@@ -33700,7 +33704,7 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+          <t>VNet ピアリングを構成するときは、"リモート仮想ネットワークへのトラフィックを許可する" 設定を使用します。</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
@@ -33755,7 +33759,7 @@
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フロー内のこの暗号化を示しています。</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -33806,13 +33810,13 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
       <c r="F645" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -33861,7 +33865,7 @@
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します。</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -33916,13 +33920,13 @@
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>プライベートインターネットのアドレス割り当て範囲(RFC 1918)のIPアドレスを使用します。</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
       <c r="F647" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -33975,7 +33979,7 @@
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大規模な仮想ネットワーク (/16 など) を作成しないでください。</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
@@ -34034,7 +34038,7 @@
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>運用サイトとディザスター リカバリー サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="E649" s="18" t="n"/>
@@ -34089,7 +34093,7 @@
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>Azure での名前解決が必要な環境では、Azure プライベート DNS を使用して解決し、名前解決に委任されたゾーン ('azure.contoso.com' など) を使用します。</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
@@ -34144,7 +34148,7 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>Azure とオンプレミス間での名前解決が必要で、Active Directory のような既存のエンタープライズ DNS サービスがない環境の場合は、Azure DNS Private Resolver を使用して DNS 要求を Azure またはオンプレミスの DNS サーバーにルーティングします。</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
@@ -34199,7 +34203,7 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>独自の DNS が必要でデプロイする特別なワークロード (Red Hat OpenShift など) は、優先する DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
@@ -34305,7 +34309,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>Azure Bastion を使用して、ネットワークに安全に接続します。</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34356,7 +34360,7 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34411,7 +34415,7 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバルな保護を提供します。</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34466,7 +34470,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door の WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34521,7 +34525,7 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>受信 HTTP/S 接続に WAF やその他のリバース プロキシが必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
@@ -34631,7 +34635,7 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>ネットワークの送信トラフィックの構成と戦略を管理する方法を、今後の破壊的変更の前に計画します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます。</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
@@ -34682,7 +34686,7 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
+          <t>診断設定を追加して、保護されたすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連のログを保存します。</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
@@ -34727,23 +34731,23 @@
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>Virtual Machines に直接関連付けられているパブリック IP アドレスを拒否するポリシーの割り当てがあることを確認します。 特定の VM でパブリック IP が必要な場合は、除外を使用します。</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -34757,15 +34761,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J662" s="13" t="n"/>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -34782,7 +34782,7 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
@@ -34792,14 +34792,10 @@
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="E663" s="18" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用します。 バックアップ接続のソースとして VPN を使用します。</t>
+        </is>
+      </c>
+      <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -34824,7 +34820,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -34841,7 +34837,7 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
@@ -34851,10 +34847,14 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
-        </is>
-      </c>
-      <c r="E664" s="18" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合は、BGP 属性を使用してルーティングを最適化します。</t>
+        </is>
+      </c>
+      <c r="E664" s="18" t="inlineStr">
+        <is>
+          <t>AS パスの先頭と接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与えたり、独自のルーターの BGP 属性の全範囲を使用してオンプレミスから Azure へのトラフィックに影響を与えたりできます。</t>
+        </is>
+      </c>
       <c r="F664" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -34876,14 +34876,10 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K664" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -34900,7 +34896,7 @@
       </c>
       <c r="B665" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C665" s="18" t="inlineStr">
@@ -34910,13 +34906,13 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
+          <t>ExpressRoute/VPN ゲートウェイの適切な SKU は、帯域幅とパフォーマンスの要件に基づいて選択してください。</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
       <c r="F665" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
@@ -34930,15 +34926,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J665" s="13" t="n"/>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K665" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
         </is>
       </c>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -34965,7 +34965,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
+          <t>無制限のデータ ExpressRoute 回線を使用しているのは、そのコストを正当化する帯域幅に達した場合にのみしてください。</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -34988,12 +34988,12 @@
       <c r="J666" s="13" t="n"/>
       <c r="K666" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35020,13 +35020,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>ExpressRoute のローカル SKU を活用して、回線のコストを削減します (回線ピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合)。</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35040,19 +35040,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J667" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J667" s="13" t="n"/>
       <c r="K667" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
         </is>
       </c>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35069,7 +35065,7 @@
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
@@ -35079,7 +35075,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>ゾーン冗長 ExpressRoute ゲートウェイをサポートされている Azure リージョンにデプロイします。</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35104,10 +35100,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K668" s="19" t="n"/>
+      <c r="K668" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35134,7 +35134,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートが必要なシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35162,7 +35162,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35179,17 +35179,17 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35211,17 +35211,13 @@
       </c>
       <c r="J670" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K670" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35248,7 +35244,7 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
+          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure (使用可能な場合) に接続します。</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35273,10 +35269,14 @@
           <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
-      <c r="K671" s="19" t="n"/>
+      <c r="K671" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35293,23 +35293,23 @@
       </c>
       <c r="B672" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
+          <t>オンプレミスで冗長な VPN アプライアンス (アクティブ/アクティブまたはアクティブ/パッシブ) を使用します。</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35325,13 +35325,13 @@
       </c>
       <c r="J672" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35348,7 +35348,7 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
@@ -35358,13 +35358,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカル Azure リージョンへの ExpressRoute ローカル回線を使用することを検討してください。</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35386,7 +35386,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35403,7 +35403,7 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
@@ -35413,7 +35413,7 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティングドメインを分離し、ノイズの多い隣人のリスクを軽減できます。</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
@@ -35441,7 +35441,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
+          <t>ExpressRoute の可用性と使用率は、組み込みの Express Route Insights を使用して監視します。</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
@@ -35496,7 +35496,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35513,7 +35513,7 @@
       </c>
       <c r="B676" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C676" s="18" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure の間) の接続監視に使用します。</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
@@ -35548,14 +35548,10 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K676" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35582,7 +35578,7 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
+          <t>冗長性を確保するために、さまざまなピアリングの場所から ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35602,11 +35598,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="13" t="n"/>
-      <c r="K677" s="19" t="n"/>
+      <c r="J677" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K677" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35633,13 +35637,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
+          <t>ExpressRoute 回線を 1 つだけ使用する場合は、ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します。</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35654,14 +35658,10 @@
         </is>
       </c>
       <c r="J678" s="13" t="n"/>
-      <c r="K678" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35688,7 +35688,7 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認してください。</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
@@ -35709,10 +35709,14 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="n"/>
+      <c r="K679" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
+        </is>
+      </c>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35739,13 +35743,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続エラーが発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/アクティブとして両方の接続で共有するのが理想的ですが、アクティブ/パッシブもサポートされています。</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35759,15 +35763,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J680" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J680" s="13" t="n"/>
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35794,7 +35794,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Bidirectional Forwarding Detection(BFD)が有効で、顧客またはプロバイダーのエッジ ルーティング デバイスで設定されていることを確認します。</t>
+          <t>ExpressRoute 回線の 2 つの物理リンクが、ネットワーク内の 2 つの異なるエッジ デバイスに接続されていることを確認します。</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -35822,7 +35822,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -35849,13 +35849,13 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>回復性を高めるために、ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続します。</t>
+          <t>BFD(Bidirectional Forwarding Detection)が顧客またはプロバイダのエッジルーティングデバイスで有効で設定されていることを確認します。</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -35877,7 +35877,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -35894,7 +35894,7 @@
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
@@ -35904,13 +35904,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
+          <t>ExpressRoute ゲートウェイを異なるピアリングの場所から 2 つ以上の回線に接続すると、回復性が向上します。</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -35932,7 +35932,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -35959,7 +35959,7 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
+          <t>ExpressRoute 仮想ネットワーク ゲートウェイの診断ログとアラートを構成します。</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
@@ -35987,7 +35987,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36004,23 +36004,23 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>VNet 間通信に ExpressRoute 回線を使用しないでください。</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -36036,13 +36036,13 @@
       </c>
       <c r="J685" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36059,23 +36059,23 @@
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>検査のために Azure トラフィックをハイブリッドの場所に送信しないでください。 代わりに、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるように、"Azure のトラフィックは Azure にとどまる" という原則に従います。</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36089,15 +36089,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J686" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J686" s="13" t="n"/>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36124,13 +36120,13 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36152,7 +36148,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36179,13 +36175,13 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するためのグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かなポリシーを可能にします。</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36199,15 +36195,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="13" t="n"/>
-      <c r="K688" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36234,13 +36230,13 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>サポートされているパートナー SaaS セキュリティプロバイダーを Firewall Manager 内で構成します。これは、組織がアウトバウンド接続を保護するためにそのようなソリューションを使用する場合です。</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36254,15 +36250,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J689" s="13" t="n"/>
-      <c r="K689" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J689" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36289,7 +36285,7 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>アプリケーション・ルールを使用して、サポートされているプロトコルの宛先ホスト名でアウトバウンド・トラフィックをフィルタリングします。 FQDN ベースのネットワーク規則と Azure Firewall と DNS プロキシを使用して、他のプロトコル経由でインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
@@ -36312,12 +36308,12 @@
       <c r="J690" s="13" t="n"/>
       <c r="K690" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36344,7 +36340,7 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>Azure Firewall Premium を使用して、追加のセキュリティ機能を有効にします。</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
@@ -36367,12 +36363,12 @@
       <c r="J691" s="13" t="n"/>
       <c r="K691" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36399,7 +36395,7 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>Azure Firewall の脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
@@ -36422,12 +36418,12 @@
       <c r="J692" s="13" t="n"/>
       <c r="K692" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36444,7 +36440,7 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
@@ -36454,13 +36450,13 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>すべての Azure Firewall デプロイのログを保存するための診断設定を、リソース固有の宛先テーブルに追加します。</t>
+          <t>Azure Firewall の IDPS モードを [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36474,15 +36470,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J693" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K693" s="19" t="n"/>
+      <c r="J693" s="13" t="n"/>
+      <c r="K693" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36499,7 +36495,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36509,13 +36505,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall クラシック規則 (存在する場合) からファイアウォール ポリシーに移行します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>大事な</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36529,15 +36525,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J694" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K694" s="19" t="n"/>
+      <c r="J694" s="13" t="n"/>
+      <c r="K694" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36554,7 +36550,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36564,13 +36560,13 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>診断設定を追加して、リソース固有の宛先テーブルを使用して、すべての Azure Firewall デプロイのログを保存します。</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -36584,15 +36580,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J695" s="13" t="n"/>
-      <c r="K695" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36609,7 +36605,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36619,13 +36615,13 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>ファイアウォール ポリシー内のルールをルール コレクション グループとルール コレクションに分類し、使用頻度に基づいて配置します</t>
+          <t>Azure Firewall クラシック ルール (存在する場合) からファイアウォール ポリシーに移行します。</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
       <c r="F696" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>大事な</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
@@ -36639,11 +36635,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J696" s="13" t="n"/>
+      <c r="J696" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36660,7 +36660,7 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
@@ -36670,13 +36670,13 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>IP グループまたは IP プレフィックスを使用して、IP テーブル ルールの数を減らす</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36691,10 +36691,14 @@
         </is>
       </c>
       <c r="J697" s="13" t="n"/>
-      <c r="K697" s="19" t="n"/>
+      <c r="K697" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36721,7 +36725,7 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>DNATS の送信元 IP としてワイルドカード (* や any など) は使用せず、受信 DNAT の送信元 IP を指定する必要があります</t>
+          <t>ファイアウォールポリシー内のルールを、使用頻度に基づいて「ルールコレクショングループ」と「ルールコレクション」に整理します。</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
@@ -36745,7 +36749,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
+          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36772,7 +36776,7 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>SNAT ポートの使用状況を監視し、NAT ゲートウェイの設定を評価し、シームレスなフェールオーバーを確保することで、SNAT ポートの枯渇を防ぎます。ポート数が制限に近づく場合は、SNAT の枯渇が差し迫っている可能性があります。</t>
+          <t>IP グループまたは IP プレフィックスを使用して、IP テーブル・ルールの数を減らします。</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -36796,7 +36800,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
+          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -36823,13 +36827,13 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>TLSインスペクションの有効化</t>
+          <t>DNATSのソースIPとしてワイルドカード(*やanyなど)を使用せず、受信DNATのソースIPを指定する必要があります。</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
       <c r="F700" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -36847,7 +36851,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>346840b8-1064-496e-8396-4b1340172d52</t>
+          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -36874,13 +36878,13 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Web カテゴリを使用して、特定のトピックへの送信アクセスを許可または拒否します。</t>
+          <t>SNAT ポートの使用状況を監視し、NAT ゲートウェイの設定を評価し、シームレスなフェールオーバーを確保することで、SNAT ポートの枯渇を防ぎます。ポート数が制限に近づく場合は、SNAT の枯渇が差し迫っている可能性があります。</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -36898,7 +36902,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
+          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -36925,13 +36929,13 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>TLS 検査の一環として、検査のために Azure App Gateway からトラフィックを受信することを計画します。</t>
+          <t>Azure Firewall Premium を使用している場合は、TLS 検査を有効にします。</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -36949,7 +36953,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
+          <t>346840b8-1064-496e-8396-4b1340172d52</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -36966,7 +36970,7 @@
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
@@ -36976,13 +36980,13 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall DNS プロキシ構成を有効にする</t>
+          <t>Web カテゴリを使用して、特定のトピックへの送信アクセスを許可または拒否します。</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37000,7 +37004,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
+          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37017,7 +37021,7 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
@@ -37027,7 +37031,7 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>仮想マシンに直接関連付けられているパブリック IP アドレスを拒否するポリシーの割り当てがあることを確認します</t>
+          <t>TLS 検査の一環として、Azure App Gateway からのトラフィックの受信を検査用に計画します。</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
@@ -37051,7 +37055,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
+          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37068,7 +37072,7 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37078,13 +37082,13 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall を Azure Monitor と統合し、診断ログを有効にして、ファイアウォール ログを格納および分析します。</t>
+          <t>Azure Firewall DNS プロキシ構成を有効にします。</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37102,7 +37106,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
+          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37129,13 +37133,13 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>ファイアウォールルールのバックアップを実装する</t>
+          <t>Azure Firewall を Azure Monitor と統合し、診断ログを有効にしてファイアウォール ログを格納および分析します。</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37153,7 +37157,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
+          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37170,23 +37174,23 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>ファイアウォールルールのバックアップを実装する</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37200,15 +37204,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J707" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+      <c r="J707" s="13" t="n"/>
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37230,18 +37230,18 @@
       </c>
       <c r="C708" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールなど、仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信を中断しないでください。</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37257,13 +37257,13 @@
       </c>
       <c r="J708" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37285,12 +37285,12 @@
       </c>
       <c r="C709" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、公共のインターネット経由のトランジットを回避できます。</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37312,17 +37312,13 @@
       </c>
       <c r="J709" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K709" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37344,18 +37340,18 @@
       </c>
       <c r="C710" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防ぎます。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37374,10 +37370,14 @@
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
-      <c r="K710" s="19" t="n"/>
+      <c r="K710" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37399,18 +37399,18 @@
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>Azure Firewall または NVA の IP アドレスではなく FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データの流出を防ぎます。Private Link を使用している場合は、すべての FQDN をブロックでき、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
       <c r="F711" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -37424,15 +37424,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J711" s="13" t="n"/>
-      <c r="K711" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J711" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37454,18 +37454,18 @@
       </c>
       <c r="C712" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Gateway サブネットには、少なくとも /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37482,12 +37482,12 @@
       <c r="J712" s="13" t="n"/>
       <c r="K712" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37514,13 +37514,13 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>VirtualNetwork サービス タグを使用して接続を制限する NSG 受信既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37534,15 +37534,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J713" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K713" s="19" t="n"/>
+      <c r="J713" s="13" t="n"/>
+      <c r="K713" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
+        </is>
+      </c>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37569,7 +37569,7 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -37584,20 +37584,20 @@
         </is>
       </c>
       <c r="H714" s="18" t="n"/>
-      <c r="I714" s="13" t="n"/>
+      <c r="I714" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J714" s="31" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
-      <c r="K714" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+      <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37624,7 +37624,7 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細かくセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37679,7 +37679,7 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>VNet フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>VNet フロー ログを有効にし、Traffic Analytics にフィードして、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37734,7 +37734,7 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>NSG あたりの NSG ルールの制限 (1000) を検討します。</t>
+          <t>1000 ルールの制限があるため、NSG ごとに 900 を超える NSG ルールを実装しないでください。</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
@@ -37793,7 +37793,7 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>Virtual WAN ルーティング設計の一覧にシナリオが明示的に説明されている場合は、Virtual WAN を使用します。</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
@@ -37889,7 +37889,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -37899,13 +37899,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
+          <t>送信インターネット トラフィックの保護とフィルタリングを行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします。</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -37919,11 +37919,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J720" s="13" t="n"/>
-      <c r="K720" s="19" t="n"/>
+      <c r="J720" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K720" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -37940,7 +37948,7 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
@@ -37950,7 +37958,7 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>Virtual WAN ネットワーク アーキテクチャが、特定されたアーキテクチャ シナリオと一致していることを確認します。</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -37970,19 +37978,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J721" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K721" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J721" s="13" t="n"/>
+      <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -37999,7 +37999,7 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
@@ -38009,7 +38009,7 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンド トポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38033,7 +38033,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38050,7 +38050,7 @@
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
@@ -38060,7 +38060,7 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>Virtual WAN のブランチ間トラフィックは、これらのフローを明示的にブロックする必要がない限り、無効にしないでください。</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38084,7 +38084,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38111,7 +38111,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティング設定として使用します。</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38135,7 +38135,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>Virtual WAN でラベルベースの伝達を構成すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38186,7 +38186,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38213,13 +38213,13 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>仮想ハブに少なくとも /23 プレフィックスを割り当てて、十分な IP スペースが使用可能であることを確認します。</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38237,7 +38237,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38254,17 +38254,17 @@
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
@@ -38288,7 +38288,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38315,13 +38315,13 @@
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy 定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
       <c r="F728" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -38339,7 +38339,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38366,7 +38366,7 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにします。</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
@@ -38390,7 +38390,7 @@
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38417,13 +38417,13 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>ポリシーの割り当てを適切な最上位レベルで管理し、必要に応じて下位レベルで除外します。</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38441,7 +38441,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38468,13 +38468,13 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御します。</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
       <c r="F731" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -38492,7 +38492,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38519,13 +38519,13 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>可能な場合は組み込みポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -38543,7 +38543,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38570,10 +38570,14 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
-        </is>
-      </c>
-      <c r="E733" s="18" t="n"/>
+          <t>特定のスコープで組み込みのリソース ポリシー共同作成者ロールを割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="E733" s="18" t="inlineStr">
+        <is>
+          <t>Resource Policy Contributor ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央のITチームが管理グループレベルのポリシーを監督し、アプリケーションチームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散型ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="F733" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -38594,7 +38598,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38621,14 +38625,10 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="E734" s="18" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+        </is>
+      </c>
+      <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -38649,7 +38649,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38676,7 +38676,7 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>データ主権の要件が存在する場合は、それらを適用するために Azure ポリシーをデプロイする必要があります。</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38696,11 +38696,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J735" s="13" t="n"/>
+      <c r="J735" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38727,7 +38731,7 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>ソブリン ランディング ゾーンの場合は、ソブリン ポリシー ベースラインをデプロイし、正しい管理グループ レベルで割り当てます。</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
@@ -38747,15 +38751,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J736" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38782,7 +38782,7 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
+          <t>ソブリン ランディング ゾーンの場合は、ソブリン制御の目標をポリシー マッピングに文書化します。</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
@@ -38806,7 +38806,7 @@
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38833,7 +38833,7 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
+          <t>ソブリン・ランディング・ゾーンについては、「ソブリン・コントロールの目標からポリシー・マッピングまで」の管理プロセスが実施されていることを確認してください。</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -38857,7 +38857,7 @@
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38874,17 +38874,17 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -38899,12 +38899,20 @@
         </is>
       </c>
       <c r="H739" s="18" t="n"/>
-      <c r="I739" s="13" t="n"/>
-      <c r="J739" s="13" t="n"/>
+      <c r="I739" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J739" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -38931,13 +38939,13 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。write-once、read-many ポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -38953,13 +38961,13 @@
       </c>
       <c r="J740" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -38981,12 +38989,12 @@
       </c>
       <c r="C741" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>ログの保持要件が 12 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージと write-once、read-many ポリシーを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>Azure Policy を使用して、OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage マシン構成の監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
@@ -39008,13 +39016,13 @@
       </c>
       <c r="J741" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39041,7 +39049,7 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して OS レベルの仮想マシン (VM) 構成のずれを監視します。ポリシーを使用して Azure Automanage Machine Configuration 監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能をすぐに使用できます。</t>
+          <t>Azure Update Manager は、Azure の Windows VM と Linux VM の修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
@@ -39063,13 +39071,13 @@
       </c>
       <c r="J742" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39096,7 +39104,7 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラム適用メカニズムとして Azure Update Manager を使用します。</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
@@ -39124,7 +39132,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39146,12 +39154,12 @@
       </c>
       <c r="C744" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
+          <t>Network Watcher を使用して、トラフィック フローを事前に監視します。</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39173,13 +39181,13 @@
       </c>
       <c r="J744" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39201,12 +39209,12 @@
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39226,15 +39234,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J745" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J745" s="13" t="n"/>
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39261,7 +39265,7 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>Azure Monitor アラートを使用して、運用アラートを生成します。</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
@@ -39285,7 +39289,7 @@
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39312,7 +39316,7 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure Automation アカウントを使用して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンが選択されていることを確認してください。</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
@@ -39336,7 +39340,7 @@
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39353,23 +39357,23 @@
       </c>
       <c r="B748" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C748" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、バックアップに正しいバックアップの種類 (GRS、ZRS、LRS) を使用します。</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39387,7 +39391,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39404,17 +39408,17 @@
       </c>
       <c r="B749" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C749" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
+          <t>Azure ゲスト ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
@@ -39438,7 +39442,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39465,10 +39469,14 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
-        </is>
-      </c>
-      <c r="E750" s="18" t="n"/>
+          <t>Azure Policy を使用して VM セキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="E750" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能を使用して、マシンの設定 (OS、アプリケーション、環境など) を監査および修復し、リソースが予想される構成と一致していることを確認し、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="F750" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39489,7 +39497,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39506,7 +39514,7 @@
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
@@ -39516,14 +39524,10 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="E751" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>Azure Site Recovery は、Azure から Azure Virtual Machines へのディザスター リカバリー シナリオに使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+        </is>
+      </c>
+      <c r="E751" s="18" t="n"/>
       <c r="F751" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -39544,7 +39548,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39566,12 +39570,12 @@
       </c>
       <c r="C752" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure と互換性のあるサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
@@ -39595,7 +39599,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39617,18 +39621,18 @@
       </c>
       <c r="C753" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知の検出がないか確認します。</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -39646,7 +39650,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39663,23 +39667,23 @@
       </c>
       <c r="B754" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C754" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを Microsoft Sentinel に送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
       <c r="F754" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
@@ -39697,7 +39701,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39714,17 +39718,17 @@
       </c>
       <c r="B755" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C755" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Azure Key Vault を使用して、シークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
@@ -39748,7 +39752,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39765,17 +39769,17 @@
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
@@ -39796,10 +39800,14 @@
         </is>
       </c>
       <c r="J756" s="13" t="n"/>
-      <c r="K756" s="19" t="n"/>
+      <c r="K756" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39816,23 +39824,23 @@
       </c>
       <c r="B757" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C757" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -39850,7 +39858,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39867,17 +39875,17 @@
       </c>
       <c r="B758" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C758" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を、特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
@@ -39901,7 +39909,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -39928,13 +39936,13 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>公開認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
       <c r="F759" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -39952,7 +39960,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -39979,7 +39987,7 @@
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>キーと証明書のローテーションのための自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40000,14 +40008,10 @@
         </is>
       </c>
       <c r="J760" s="13" t="n"/>
-      <c r="K760" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40034,7 +40038,7 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
@@ -40058,7 +40062,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40085,7 +40089,7 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
@@ -40109,7 +40113,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40136,7 +40140,7 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40160,7 +40164,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40187,7 +40191,7 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40211,7 +40215,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40238,7 +40242,7 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合が望ましい結果を妨げないように、適切な軽減策を実装します。レイテンシを最小限に抑える適切なリージョンペアとディザスタリカバリリージョンを選択します。</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40262,7 +40266,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40289,7 +40293,7 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
@@ -40313,7 +40317,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40335,12 +40339,12 @@
       </c>
       <c r="C767" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40364,7 +40368,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40386,18 +40390,18 @@
       </c>
       <c r="C768" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>すべてのサブスクリプションで Defender Cloud セキュリティ態勢管理を有効にします。</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -40415,7 +40419,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40437,18 +40441,18 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>すべてのサブスクリプションで、サーバーの Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
       <c r="F769" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -40466,7 +40470,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40488,18 +40492,18 @@
       </c>
       <c r="C770" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
       <c r="F770" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
@@ -40517,7 +40521,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40539,18 +40543,18 @@
       </c>
       <c r="C771" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>IaaS サーバーでエンドポイント保護を有効にします。</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
       <c r="F771" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -40568,7 +40572,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40590,18 +40594,18 @@
       </c>
       <c r="C772" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムのずれを監視します。</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
       <c r="F772" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -40619,7 +40623,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40641,18 +40645,18 @@
       </c>
       <c r="C773" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
       <c r="F773" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -40670,7 +40674,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40692,18 +40696,18 @@
       </c>
       <c r="C774" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Entra ID テナントで透明度ログを有効にします。</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
       <c r="F774" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
@@ -40721,7 +40725,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40743,18 +40747,18 @@
       </c>
       <c r="C775" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>Sovereign Landing Zone の場合は、Entra ID テナントでカスタマー ロックボックスを有効にします。</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -40772,7 +40776,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40794,18 +40798,18 @@
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にします。</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -40823,7 +40827,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40845,18 +40849,18 @@
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40874,7 +40878,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40891,23 +40895,23 @@
       </c>
       <c r="B778" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報のハードコーディングを回避します。</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -40925,7 +40929,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -40937,28 +40941,28 @@
     <row r="779">
       <c r="A779" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B779" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -40976,7 +40980,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -40988,28 +40992,28 @@
     <row r="780">
       <c r="A780" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B780" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41027,7 +41031,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41039,22 +41043,22 @@
     <row r="781">
       <c r="A781" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B781" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C781" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41078,7 +41082,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41090,22 +41094,22 @@
     <row r="782">
       <c r="A782" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B782" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C782" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
@@ -41129,7 +41133,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41156,7 +41160,7 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
+          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
@@ -41180,7 +41184,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41192,7 +41196,7 @@
     <row r="784">
       <c r="A784" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B784" s="18" t="inlineStr">
@@ -41202,18 +41206,18 @@
       </c>
       <c r="C784" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
+          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41231,7 +41235,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41243,7 +41247,7 @@
     <row r="785">
       <c r="A785" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B785" s="18" t="inlineStr">
@@ -41253,18 +41257,18 @@
       </c>
       <c r="C785" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41282,7 +41286,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41294,7 +41298,7 @@
     <row r="786">
       <c r="A786" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B786" s="18" t="inlineStr">
@@ -41304,12 +41308,12 @@
       </c>
       <c r="C786" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
+          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41333,7 +41337,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41345,7 +41349,7 @@
     <row r="787">
       <c r="A787" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B787" s="18" t="inlineStr">
@@ -41355,18 +41359,18 @@
       </c>
       <c r="C787" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
+          <t>ヘルスチェックの実装</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41384,7 +41388,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41411,13 +41415,13 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
+          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41435,7 +41439,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41462,13 +41466,13 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
+          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
       <c r="F789" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -41486,7 +41490,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41513,13 +41517,13 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
+          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
       <c r="F790" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
@@ -41537,7 +41541,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41564,13 +41568,13 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>ヘルスチェックの実装</t>
+          <t>Azure App Service の信頼性サポートについて理解する</t>
         </is>
       </c>
       <c r="E791" s="18" t="n"/>
       <c r="F791" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -41588,7 +41592,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41615,13 +41619,13 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
+          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
       <c r="F792" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G792" t="inlineStr">
@@ -41639,7 +41643,7 @@
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -41666,13 +41670,13 @@
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
+          <t>正常性チェックを使用した App Service インスタンスの監視</t>
         </is>
       </c>
       <c r="E793" s="18" t="n"/>
       <c r="F793" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -41690,7 +41694,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -41717,13 +41721,13 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
+          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
       <c r="F794" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -41741,7 +41745,7 @@
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -41768,13 +41772,13 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性サポートについて理解する</t>
+          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
       <c r="F795" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -41792,7 +41796,7 @@
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -41809,7 +41813,7 @@
       </c>
       <c r="B796" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C796" s="18" t="inlineStr">
@@ -41819,13 +41823,17 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
-        </is>
-      </c>
-      <c r="E796" s="18" t="n"/>
+          <t>Key Vault を使用してシークレットを格納する</t>
+        </is>
+      </c>
+      <c r="E796" s="18" t="inlineStr">
+        <is>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
+        </is>
+      </c>
       <c r="F796" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -41843,7 +41851,7 @@
       <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -41860,7 +41868,7 @@
       </c>
       <c r="B797" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C797" s="18" t="inlineStr">
@@ -41870,13 +41878,17 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>正常性チェックを使用した App Service インスタンスの監視</t>
-        </is>
-      </c>
-      <c r="E797" s="18" t="n"/>
+          <t>マネージド ID を使用して Key Vault に接続する</t>
+        </is>
+      </c>
+      <c r="E797" s="18" t="inlineStr">
+        <is>
+          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+        </is>
+      </c>
       <c r="F797" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -41894,7 +41906,7 @@
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -41911,7 +41923,7 @@
       </c>
       <c r="B798" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C798" s="18" t="inlineStr">
@@ -41921,13 +41933,17 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
-        </is>
-      </c>
-      <c r="E798" s="18" t="n"/>
+          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+        </is>
+      </c>
+      <c r="E798" s="18" t="inlineStr">
+        <is>
+          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+        </is>
+      </c>
       <c r="F798" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -41945,7 +41961,7 @@
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -41962,7 +41978,7 @@
       </c>
       <c r="B799" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C799" s="18" t="inlineStr">
@@ -41972,13 +41988,17 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
-        </is>
-      </c>
-      <c r="E799" s="18" t="n"/>
+          <t>機密情報を処理するシステムを分離する</t>
+        </is>
+      </c>
+      <c r="E799" s="18" t="inlineStr">
+        <is>
+          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="F799" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -41996,7 +42016,7 @@
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42023,17 +42043,17 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用してシークレットを格納する</t>
+          <t>機密データをローカルディスクに保存しない</t>
         </is>
       </c>
       <c r="E800" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
+          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
         </is>
       </c>
       <c r="F800" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -42051,7 +42071,7 @@
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42078,17 +42098,17 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して Key Vault に接続する</t>
+          <t>認証に確立された ID プロバイダーを使用する</t>
         </is>
       </c>
       <c r="E801" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
         </is>
       </c>
       <c r="F801" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -42106,7 +42126,7 @@
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42133,12 +42153,12 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+          <t>信頼できる環境からのデプロイ</t>
         </is>
       </c>
       <c r="E802" s="18" t="inlineStr">
         <is>
-          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
         </is>
       </c>
       <c r="F802" s="18" t="inlineStr">
@@ -42161,7 +42181,7 @@
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42188,17 +42208,17 @@
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムを分離する</t>
+          <t>基本認証の無効化</t>
         </is>
       </c>
       <c r="E803" s="18" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
         </is>
       </c>
       <c r="F803" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G803" t="inlineStr">
@@ -42216,7 +42236,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42243,17 +42263,17 @@
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>機密データをローカルディスクに保存しない</t>
+          <t>マネージド ID を使用してリソースに接続する</t>
         </is>
       </c>
       <c r="E804" s="18" t="inlineStr">
         <is>
-          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
+          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="F804" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G804" t="inlineStr">
@@ -42271,7 +42291,7 @@
       <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M804" s="20" t="n"/>
@@ -42298,17 +42318,17 @@
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>認証に確立された ID プロバイダーを使用する</t>
+          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
         </is>
       </c>
       <c r="E805" s="18" t="inlineStr">
         <is>
-          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
         </is>
       </c>
       <c r="F805" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -42326,7 +42346,7 @@
       <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M805" s="20" t="n"/>
@@ -42353,17 +42373,17 @@
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>信頼できる環境からのデプロイ</t>
+          <t>App Service ランタイム ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E806" s="18" t="inlineStr">
         <is>
-          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
+          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F806" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -42381,7 +42401,7 @@
       <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M806" s="20" t="n"/>
@@ -42408,17 +42428,17 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>基本認証の無効化</t>
+          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="E807" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
         </is>
       </c>
       <c r="F807" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -42436,7 +42456,7 @@
       <c r="K807" s="19" t="n"/>
       <c r="L807" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M807" s="20" t="n"/>
@@ -42463,17 +42483,17 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してリソースに接続する</t>
+          <t>送信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E808" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F808" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -42491,7 +42511,7 @@
       <c r="K808" s="19" t="n"/>
       <c r="L808" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M808" s="20" t="n"/>
@@ -42518,17 +42538,17 @@
       </c>
       <c r="D809" s="18" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
+          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
         </is>
       </c>
       <c r="E809" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
+          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
         </is>
       </c>
       <c r="F809" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -42546,7 +42566,7 @@
       <c r="K809" s="19" t="n"/>
       <c r="L809" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M809" s="20" t="n"/>
@@ -42573,17 +42593,17 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>App Service ランタイム ログを Log Analytics に送信する</t>
+          <t>受信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="E810" s="18" t="inlineStr">
         <is>
-          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
+          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
         </is>
       </c>
       <c r="F810" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -42601,7 +42621,7 @@
       <c r="K810" s="19" t="n"/>
       <c r="L810" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M810" s="20" t="n"/>
@@ -42628,17 +42648,17 @@
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
+          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
         </is>
       </c>
       <c r="E811" s="18" t="inlineStr">
         <is>
-          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="F811" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -42656,7 +42676,7 @@
       <c r="K811" s="19" t="n"/>
       <c r="L811" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M811" s="20" t="n"/>
@@ -42683,17 +42703,17 @@
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>送信ネットワーク アクセスを制御する必要がある</t>
+          <t>WAFをバイパスすることは避けてください</t>
         </is>
       </c>
       <c r="E812" s="18" t="inlineStr">
         <is>
-          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
+          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="F812" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -42711,7 +42731,7 @@
       <c r="K812" s="19" t="n"/>
       <c r="L812" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M812" s="20" t="n"/>
@@ -42738,17 +42758,17 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
+          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="E813" s="18" t="inlineStr">
         <is>
-          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
+          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="F813" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
@@ -42763,10 +42783,14 @@
         </is>
       </c>
       <c r="J813" s="13" t="n"/>
-      <c r="K813" s="19" t="n"/>
+      <c r="K813" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L813" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M813" s="20" t="n"/>
@@ -42793,12 +42817,12 @@
       </c>
       <c r="D814" s="18" t="inlineStr">
         <is>
-          <t>受信ネットワーク アクセスを制御する必要がある</t>
+          <t>HTTPS のみを使用</t>
         </is>
       </c>
       <c r="E814" s="18" t="inlineStr">
         <is>
-          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
+          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
         </is>
       </c>
       <c r="F814" s="18" t="inlineStr">
@@ -42818,10 +42842,14 @@
         </is>
       </c>
       <c r="J814" s="13" t="n"/>
-      <c r="K814" s="19" t="n"/>
+      <c r="K814" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L814" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M814" s="20" t="n"/>
@@ -42848,12 +42876,12 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
+          <t>ワイルドカードは CORS に使用しないでください</t>
         </is>
       </c>
       <c r="E815" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
+          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
         </is>
       </c>
       <c r="F815" s="18" t="inlineStr">
@@ -42876,7 +42904,7 @@
       <c r="K815" s="19" t="n"/>
       <c r="L815" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M815" s="20" t="n"/>
@@ -42903,12 +42931,12 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>WAFをバイパスすることは避けてください</t>
+          <t>リモートデバッグをオフにする</t>
         </is>
       </c>
       <c r="E816" s="18" t="inlineStr">
         <is>
-          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
+          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
         </is>
       </c>
       <c r="F816" s="18" t="inlineStr">
@@ -42928,10 +42956,14 @@
         </is>
       </c>
       <c r="J816" s="13" t="n"/>
-      <c r="K816" s="19" t="n"/>
+      <c r="K816" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L816" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M816" s="20" t="n"/>
@@ -42958,12 +42990,12 @@
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>Defender for Cloud を有効にする - Defender for App Service</t>
         </is>
       </c>
       <c r="E817" s="18" t="inlineStr">
         <is>
-          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
         </is>
       </c>
       <c r="F817" s="18" t="inlineStr">
@@ -42983,14 +43015,10 @@
         </is>
       </c>
       <c r="J817" s="13" t="n"/>
-      <c r="K817" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -43017,17 +43045,17 @@
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用</t>
+          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E818" s="18" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
+          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="F818" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -43042,14 +43070,10 @@
         </is>
       </c>
       <c r="J818" s="13" t="n"/>
-      <c r="K818" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K818" s="19" t="n"/>
       <c r="L818" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M818" s="20" t="n"/>
@@ -43076,17 +43100,17 @@
       </c>
       <c r="D819" s="18" t="inlineStr">
         <is>
-          <t>ワイルドカードは CORS に使用しないでください</t>
+          <t>Virtual Network 経由でコンテナーをプルする</t>
         </is>
       </c>
       <c r="E819" s="18" t="inlineStr">
         <is>
-          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
         </is>
       </c>
       <c r="F819" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -43104,7 +43128,7 @@
       <c r="K819" s="19" t="n"/>
       <c r="L819" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M819" s="20" t="n"/>
@@ -43131,17 +43155,17 @@
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>リモートデバッグをオフにする</t>
+          <t>ペネトレーションテストの実施</t>
         </is>
       </c>
       <c r="E820" s="18" t="inlineStr">
         <is>
-          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
+          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
         </is>
       </c>
       <c r="F820" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -43156,14 +43180,10 @@
         </is>
       </c>
       <c r="J820" s="13" t="n"/>
-      <c r="K820" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K820" s="19" t="n"/>
       <c r="L820" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M820" s="20" t="n"/>
@@ -43190,12 +43210,12 @@
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>Defender for Cloud を有効にする - Defender for App Service</t>
+          <t>検証済みコードのデプロイ</t>
         </is>
       </c>
       <c r="E821" s="18" t="inlineStr">
         <is>
-          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
         </is>
       </c>
       <c r="F821" s="18" t="inlineStr">
@@ -43218,7 +43238,7 @@
       <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43245,17 +43265,17 @@
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
         </is>
       </c>
       <c r="E822" s="18" t="inlineStr">
         <is>
-          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
         </is>
       </c>
       <c r="F822" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -43273,7 +43293,7 @@
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43285,32 +43305,28 @@
     <row r="823">
       <c r="A823" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B823" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C823" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network 経由でコンテナーをプルする</t>
-        </is>
-      </c>
-      <c r="E823" s="18" t="inlineStr">
-        <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
-        </is>
-      </c>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+        </is>
+      </c>
+      <c r="E823" s="18" t="n"/>
       <c r="F823" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -43328,7 +43344,7 @@
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43340,32 +43356,28 @@
     <row r="824">
       <c r="A824" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B824" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C824" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t>ペネトレーションテストの実施</t>
-        </is>
-      </c>
-      <c r="E824" s="18" t="inlineStr">
-        <is>
-          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
-        </is>
-      </c>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+        </is>
+      </c>
+      <c r="E824" s="18" t="n"/>
       <c r="F824" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -43383,7 +43395,7 @@
       <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43395,32 +43407,28 @@
     <row r="825">
       <c r="A825" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B825" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C825" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>検証済みコードのデプロイ</t>
-        </is>
-      </c>
-      <c r="E825" s="18" t="inlineStr">
-        <is>
-          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
-        </is>
-      </c>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+        </is>
+      </c>
+      <c r="E825" s="18" t="n"/>
       <c r="F825" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -43438,7 +43446,7 @@
       <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43450,29 +43458,25 @@
     <row r="826">
       <c r="A826" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B826" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C826" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
-        </is>
-      </c>
-      <c r="E826" s="18" t="inlineStr">
-        <is>
-          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
-        </is>
-      </c>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+        </is>
+      </c>
+      <c r="E826" s="18" t="n"/>
       <c r="F826" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -43493,7 +43497,7 @@
       <c r="K826" s="19" t="n"/>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43510,7 +43514,7 @@
       </c>
       <c r="B827" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C827" s="18" t="inlineStr">
@@ -43520,13 +43524,13 @@
       </c>
       <c r="D827" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
         </is>
       </c>
       <c r="E827" s="18" t="n"/>
       <c r="F827" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -43544,7 +43548,7 @@
       <c r="K827" s="19" t="n"/>
       <c r="L827" s="19" t="inlineStr">
         <is>
-          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M827" s="20" t="n"/>
@@ -43554,50 +43558,17 @@
       <c r="Q827" s="20" t="n"/>
     </row>
     <row r="828">
-      <c r="A828" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps checklist</t>
-        </is>
-      </c>
-      <c r="B828" s="18" t="inlineStr">
-        <is>
-          <t>確実</t>
-        </is>
-      </c>
-      <c r="C828" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps</t>
-        </is>
-      </c>
-      <c r="D828" s="18" t="inlineStr">
-        <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
-        </is>
-      </c>
+      <c r="A828" s="18" t="n"/>
+      <c r="B828" s="18" t="n"/>
+      <c r="C828" s="18" t="n"/>
+      <c r="D828" s="18" t="n"/>
       <c r="E828" s="18" t="n"/>
-      <c r="F828" s="18" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="F828" s="18" t="n"/>
       <c r="H828" s="18" t="n"/>
-      <c r="I828" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I828" s="13" t="n"/>
       <c r="J828" s="13" t="n"/>
       <c r="K828" s="19" t="n"/>
-      <c r="L828" s="19" t="inlineStr">
-        <is>
-          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
-        </is>
-      </c>
+      <c r="L828" s="19" t="n"/>
       <c r="M828" s="20" t="n"/>
       <c r="N828" s="20" t="n"/>
       <c r="O828" s="20" t="n"/>
@@ -43605,50 +43576,17 @@
       <c r="Q828" s="20" t="n"/>
     </row>
     <row r="829">
-      <c r="A829" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps checklist</t>
-        </is>
-      </c>
-      <c r="B829" s="18" t="inlineStr">
-        <is>
-          <t>確実</t>
-        </is>
-      </c>
-      <c r="C829" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps</t>
-        </is>
-      </c>
-      <c r="D829" s="18" t="inlineStr">
-        <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
-        </is>
-      </c>
+      <c r="A829" s="18" t="n"/>
+      <c r="B829" s="18" t="n"/>
+      <c r="C829" s="18" t="n"/>
+      <c r="D829" s="18" t="n"/>
       <c r="E829" s="18" t="n"/>
-      <c r="F829" s="18" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="F829" s="18" t="n"/>
       <c r="H829" s="18" t="n"/>
-      <c r="I829" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I829" s="13" t="n"/>
       <c r="J829" s="13" t="n"/>
       <c r="K829" s="19" t="n"/>
-      <c r="L829" s="19" t="inlineStr">
-        <is>
-          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
-        </is>
-      </c>
+      <c r="L829" s="19" t="n"/>
       <c r="M829" s="20" t="n"/>
       <c r="N829" s="20" t="n"/>
       <c r="O829" s="20" t="n"/>
@@ -43656,50 +43594,17 @@
       <c r="Q829" s="20" t="n"/>
     </row>
     <row r="830">
-      <c r="A830" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps checklist</t>
-        </is>
-      </c>
-      <c r="B830" s="18" t="inlineStr">
-        <is>
-          <t>確実</t>
-        </is>
-      </c>
-      <c r="C830" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps</t>
-        </is>
-      </c>
-      <c r="D830" s="18" t="inlineStr">
-        <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
-        </is>
-      </c>
+      <c r="A830" s="18" t="n"/>
+      <c r="B830" s="18" t="n"/>
+      <c r="C830" s="18" t="n"/>
+      <c r="D830" s="18" t="n"/>
       <c r="E830" s="18" t="n"/>
-      <c r="F830" s="18" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="F830" s="18" t="n"/>
       <c r="H830" s="18" t="n"/>
-      <c r="I830" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I830" s="13" t="n"/>
       <c r="J830" s="13" t="n"/>
       <c r="K830" s="19" t="n"/>
-      <c r="L830" s="19" t="inlineStr">
-        <is>
-          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
-        </is>
-      </c>
+      <c r="L830" s="19" t="n"/>
       <c r="M830" s="20" t="n"/>
       <c r="N830" s="20" t="n"/>
       <c r="O830" s="20" t="n"/>
@@ -43707,50 +43612,17 @@
       <c r="Q830" s="20" t="n"/>
     </row>
     <row r="831">
-      <c r="A831" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps checklist</t>
-        </is>
-      </c>
-      <c r="B831" s="18" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C831" s="18" t="inlineStr">
-        <is>
-          <t>Logic Apps</t>
-        </is>
-      </c>
-      <c r="D831" s="18" t="inlineStr">
-        <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
-        </is>
-      </c>
+      <c r="A831" s="18" t="n"/>
+      <c r="B831" s="18" t="n"/>
+      <c r="C831" s="18" t="n"/>
+      <c r="D831" s="18" t="n"/>
       <c r="E831" s="18" t="n"/>
-      <c r="F831" s="18" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="F831" s="18" t="n"/>
       <c r="H831" s="18" t="n"/>
-      <c r="I831" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I831" s="13" t="n"/>
       <c r="J831" s="13" t="n"/>
       <c r="K831" s="19" t="n"/>
-      <c r="L831" s="19" t="inlineStr">
-        <is>
-          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
-        </is>
-      </c>
+      <c r="L831" s="19" t="n"/>
       <c r="M831" s="20" t="n"/>
       <c r="N831" s="20" t="n"/>
       <c r="O831" s="20" t="n"/>
@@ -50634,7 +50506,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G832" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G828" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -51243,122 +51115,120 @@
     <hyperlink ref="I711" r:id="rId602"/>
     <hyperlink ref="I712" r:id="rId603"/>
     <hyperlink ref="I713" r:id="rId604"/>
-    <hyperlink ref="I715" r:id="rId605"/>
-    <hyperlink ref="I716" r:id="rId606"/>
-    <hyperlink ref="I717" r:id="rId607"/>
-    <hyperlink ref="I718" r:id="rId608"/>
-    <hyperlink ref="I719" r:id="rId609"/>
-    <hyperlink ref="I720" r:id="rId610"/>
-    <hyperlink ref="I721" r:id="rId611"/>
-    <hyperlink ref="I722" r:id="rId612"/>
-    <hyperlink ref="I723" r:id="rId613"/>
-    <hyperlink ref="I724" r:id="rId614"/>
-    <hyperlink ref="I725" r:id="rId615"/>
-    <hyperlink ref="I726" r:id="rId616"/>
-    <hyperlink ref="I727" r:id="rId617"/>
-    <hyperlink ref="I728" r:id="rId618"/>
-    <hyperlink ref="I729" r:id="rId619"/>
-    <hyperlink ref="I730" r:id="rId620"/>
-    <hyperlink ref="I731" r:id="rId621"/>
-    <hyperlink ref="I732" r:id="rId622"/>
-    <hyperlink ref="I733" r:id="rId623"/>
-    <hyperlink ref="I734" r:id="rId624"/>
-    <hyperlink ref="I735" r:id="rId625"/>
-    <hyperlink ref="I736" r:id="rId626"/>
-    <hyperlink ref="I737" r:id="rId627"/>
-    <hyperlink ref="I738" r:id="rId628"/>
-    <hyperlink ref="I740" r:id="rId629"/>
-    <hyperlink ref="I741" r:id="rId630"/>
-    <hyperlink ref="I742" r:id="rId631"/>
-    <hyperlink ref="I743" r:id="rId632"/>
-    <hyperlink ref="I744" r:id="rId633"/>
-    <hyperlink ref="I745" r:id="rId634"/>
-    <hyperlink ref="I746" r:id="rId635"/>
-    <hyperlink ref="I747" r:id="rId636"/>
-    <hyperlink ref="I748" r:id="rId637"/>
-    <hyperlink ref="I749" r:id="rId638"/>
-    <hyperlink ref="I750" r:id="rId639"/>
-    <hyperlink ref="I751" r:id="rId640"/>
-    <hyperlink ref="I752" r:id="rId641"/>
-    <hyperlink ref="I753" r:id="rId642"/>
-    <hyperlink ref="I754" r:id="rId643"/>
-    <hyperlink ref="I755" r:id="rId644"/>
-    <hyperlink ref="I756" r:id="rId645"/>
-    <hyperlink ref="I757" r:id="rId646"/>
-    <hyperlink ref="I758" r:id="rId647"/>
-    <hyperlink ref="I759" r:id="rId648"/>
-    <hyperlink ref="I760" r:id="rId649"/>
-    <hyperlink ref="I761" r:id="rId650"/>
-    <hyperlink ref="I762" r:id="rId651"/>
-    <hyperlink ref="I763" r:id="rId652"/>
-    <hyperlink ref="I764" r:id="rId653"/>
-    <hyperlink ref="I765" r:id="rId654"/>
-    <hyperlink ref="I766" r:id="rId655"/>
-    <hyperlink ref="I767" r:id="rId656"/>
-    <hyperlink ref="I768" r:id="rId657"/>
-    <hyperlink ref="I769" r:id="rId658"/>
-    <hyperlink ref="I770" r:id="rId659"/>
-    <hyperlink ref="I771" r:id="rId660"/>
-    <hyperlink ref="I772" r:id="rId661"/>
-    <hyperlink ref="I773" r:id="rId662"/>
-    <hyperlink ref="I774" r:id="rId663"/>
-    <hyperlink ref="I775" r:id="rId664"/>
-    <hyperlink ref="I776" r:id="rId665"/>
-    <hyperlink ref="I777" r:id="rId666"/>
-    <hyperlink ref="I778" r:id="rId667"/>
-    <hyperlink ref="I779" r:id="rId668"/>
-    <hyperlink ref="I780" r:id="rId669"/>
-    <hyperlink ref="I781" r:id="rId670"/>
-    <hyperlink ref="I782" r:id="rId671"/>
-    <hyperlink ref="I783" r:id="rId672"/>
-    <hyperlink ref="I784" r:id="rId673"/>
-    <hyperlink ref="I785" r:id="rId674"/>
-    <hyperlink ref="I786" r:id="rId675"/>
-    <hyperlink ref="I787" r:id="rId676"/>
-    <hyperlink ref="I788" r:id="rId677"/>
-    <hyperlink ref="I789" r:id="rId678"/>
-    <hyperlink ref="I790" r:id="rId679"/>
-    <hyperlink ref="I791" r:id="rId680"/>
-    <hyperlink ref="I792" r:id="rId681"/>
-    <hyperlink ref="I793" r:id="rId682"/>
-    <hyperlink ref="I794" r:id="rId683"/>
-    <hyperlink ref="I795" r:id="rId684"/>
-    <hyperlink ref="I796" r:id="rId685"/>
-    <hyperlink ref="I797" r:id="rId686"/>
-    <hyperlink ref="I798" r:id="rId687"/>
-    <hyperlink ref="I799" r:id="rId688"/>
-    <hyperlink ref="I800" r:id="rId689"/>
-    <hyperlink ref="I801" r:id="rId690"/>
-    <hyperlink ref="I802" r:id="rId691"/>
-    <hyperlink ref="I803" r:id="rId692"/>
-    <hyperlink ref="I804" r:id="rId693"/>
-    <hyperlink ref="I805" r:id="rId694"/>
-    <hyperlink ref="I806" r:id="rId695"/>
-    <hyperlink ref="I807" r:id="rId696"/>
-    <hyperlink ref="I808" r:id="rId697"/>
-    <hyperlink ref="I809" r:id="rId698"/>
-    <hyperlink ref="I810" r:id="rId699"/>
-    <hyperlink ref="I811" r:id="rId700"/>
-    <hyperlink ref="I812" r:id="rId701"/>
-    <hyperlink ref="I813" r:id="rId702"/>
-    <hyperlink ref="I814" r:id="rId703"/>
-    <hyperlink ref="I815" r:id="rId704"/>
-    <hyperlink ref="I816" r:id="rId705"/>
-    <hyperlink ref="I817" r:id="rId706"/>
-    <hyperlink ref="I818" r:id="rId707"/>
-    <hyperlink ref="I819" r:id="rId708"/>
-    <hyperlink ref="I820" r:id="rId709"/>
-    <hyperlink ref="I821" r:id="rId710"/>
-    <hyperlink ref="I822" r:id="rId711"/>
-    <hyperlink ref="I823" r:id="rId712"/>
-    <hyperlink ref="I824" r:id="rId713"/>
-    <hyperlink ref="I825" r:id="rId714"/>
-    <hyperlink ref="I826" r:id="rId715"/>
-    <hyperlink ref="I827" r:id="rId716"/>
-    <hyperlink ref="I828" r:id="rId717"/>
-    <hyperlink ref="I829" r:id="rId718"/>
-    <hyperlink ref="I830" r:id="rId719"/>
-    <hyperlink ref="I831" r:id="rId720"/>
+    <hyperlink ref="I714" r:id="rId605"/>
+    <hyperlink ref="I715" r:id="rId606"/>
+    <hyperlink ref="I716" r:id="rId607"/>
+    <hyperlink ref="I717" r:id="rId608"/>
+    <hyperlink ref="I718" r:id="rId609"/>
+    <hyperlink ref="I719" r:id="rId610"/>
+    <hyperlink ref="I720" r:id="rId611"/>
+    <hyperlink ref="I721" r:id="rId612"/>
+    <hyperlink ref="I722" r:id="rId613"/>
+    <hyperlink ref="I723" r:id="rId614"/>
+    <hyperlink ref="I724" r:id="rId615"/>
+    <hyperlink ref="I725" r:id="rId616"/>
+    <hyperlink ref="I726" r:id="rId617"/>
+    <hyperlink ref="I727" r:id="rId618"/>
+    <hyperlink ref="I728" r:id="rId619"/>
+    <hyperlink ref="I729" r:id="rId620"/>
+    <hyperlink ref="I730" r:id="rId621"/>
+    <hyperlink ref="I731" r:id="rId622"/>
+    <hyperlink ref="I732" r:id="rId623"/>
+    <hyperlink ref="I733" r:id="rId624"/>
+    <hyperlink ref="I734" r:id="rId625"/>
+    <hyperlink ref="I735" r:id="rId626"/>
+    <hyperlink ref="I736" r:id="rId627"/>
+    <hyperlink ref="I737" r:id="rId628"/>
+    <hyperlink ref="I738" r:id="rId629"/>
+    <hyperlink ref="I739" r:id="rId630"/>
+    <hyperlink ref="I740" r:id="rId631"/>
+    <hyperlink ref="I741" r:id="rId632"/>
+    <hyperlink ref="I742" r:id="rId633"/>
+    <hyperlink ref="I743" r:id="rId634"/>
+    <hyperlink ref="I744" r:id="rId635"/>
+    <hyperlink ref="I745" r:id="rId636"/>
+    <hyperlink ref="I746" r:id="rId637"/>
+    <hyperlink ref="I747" r:id="rId638"/>
+    <hyperlink ref="I748" r:id="rId639"/>
+    <hyperlink ref="I749" r:id="rId640"/>
+    <hyperlink ref="I750" r:id="rId641"/>
+    <hyperlink ref="I751" r:id="rId642"/>
+    <hyperlink ref="I752" r:id="rId643"/>
+    <hyperlink ref="I753" r:id="rId644"/>
+    <hyperlink ref="I754" r:id="rId645"/>
+    <hyperlink ref="I755" r:id="rId646"/>
+    <hyperlink ref="I756" r:id="rId647"/>
+    <hyperlink ref="I757" r:id="rId648"/>
+    <hyperlink ref="I758" r:id="rId649"/>
+    <hyperlink ref="I759" r:id="rId650"/>
+    <hyperlink ref="I760" r:id="rId651"/>
+    <hyperlink ref="I761" r:id="rId652"/>
+    <hyperlink ref="I762" r:id="rId653"/>
+    <hyperlink ref="I763" r:id="rId654"/>
+    <hyperlink ref="I764" r:id="rId655"/>
+    <hyperlink ref="I765" r:id="rId656"/>
+    <hyperlink ref="I766" r:id="rId657"/>
+    <hyperlink ref="I767" r:id="rId658"/>
+    <hyperlink ref="I768" r:id="rId659"/>
+    <hyperlink ref="I769" r:id="rId660"/>
+    <hyperlink ref="I770" r:id="rId661"/>
+    <hyperlink ref="I771" r:id="rId662"/>
+    <hyperlink ref="I772" r:id="rId663"/>
+    <hyperlink ref="I773" r:id="rId664"/>
+    <hyperlink ref="I774" r:id="rId665"/>
+    <hyperlink ref="I775" r:id="rId666"/>
+    <hyperlink ref="I776" r:id="rId667"/>
+    <hyperlink ref="I777" r:id="rId668"/>
+    <hyperlink ref="I778" r:id="rId669"/>
+    <hyperlink ref="I779" r:id="rId670"/>
+    <hyperlink ref="I780" r:id="rId671"/>
+    <hyperlink ref="I781" r:id="rId672"/>
+    <hyperlink ref="I782" r:id="rId673"/>
+    <hyperlink ref="I783" r:id="rId674"/>
+    <hyperlink ref="I784" r:id="rId675"/>
+    <hyperlink ref="I785" r:id="rId676"/>
+    <hyperlink ref="I786" r:id="rId677"/>
+    <hyperlink ref="I787" r:id="rId678"/>
+    <hyperlink ref="I788" r:id="rId679"/>
+    <hyperlink ref="I789" r:id="rId680"/>
+    <hyperlink ref="I790" r:id="rId681"/>
+    <hyperlink ref="I791" r:id="rId682"/>
+    <hyperlink ref="I792" r:id="rId683"/>
+    <hyperlink ref="I793" r:id="rId684"/>
+    <hyperlink ref="I794" r:id="rId685"/>
+    <hyperlink ref="I795" r:id="rId686"/>
+    <hyperlink ref="I796" r:id="rId687"/>
+    <hyperlink ref="I797" r:id="rId688"/>
+    <hyperlink ref="I798" r:id="rId689"/>
+    <hyperlink ref="I799" r:id="rId690"/>
+    <hyperlink ref="I800" r:id="rId691"/>
+    <hyperlink ref="I801" r:id="rId692"/>
+    <hyperlink ref="I802" r:id="rId693"/>
+    <hyperlink ref="I803" r:id="rId694"/>
+    <hyperlink ref="I804" r:id="rId695"/>
+    <hyperlink ref="I805" r:id="rId696"/>
+    <hyperlink ref="I806" r:id="rId697"/>
+    <hyperlink ref="I807" r:id="rId698"/>
+    <hyperlink ref="I808" r:id="rId699"/>
+    <hyperlink ref="I809" r:id="rId700"/>
+    <hyperlink ref="I810" r:id="rId701"/>
+    <hyperlink ref="I811" r:id="rId702"/>
+    <hyperlink ref="I812" r:id="rId703"/>
+    <hyperlink ref="I813" r:id="rId704"/>
+    <hyperlink ref="I814" r:id="rId705"/>
+    <hyperlink ref="I815" r:id="rId706"/>
+    <hyperlink ref="I816" r:id="rId707"/>
+    <hyperlink ref="I817" r:id="rId708"/>
+    <hyperlink ref="I818" r:id="rId709"/>
+    <hyperlink ref="I819" r:id="rId710"/>
+    <hyperlink ref="I820" r:id="rId711"/>
+    <hyperlink ref="I821" r:id="rId712"/>
+    <hyperlink ref="I822" r:id="rId713"/>
+    <hyperlink ref="I823" r:id="rId714"/>
+    <hyperlink ref="I824" r:id="rId715"/>
+    <hyperlink ref="I825" r:id="rId716"/>
+    <hyperlink ref="I826" r:id="rId717"/>
+    <hyperlink ref="I827" r:id="rId718"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -14361,7 +14361,7 @@
       </c>
       <c r="B268" s="18" t="inlineStr">
         <is>
-          <t>運用上のエクセレンス</t>
+          <t>オペレーショナルエクセレンス</t>
         </is>
       </c>
       <c r="C268" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -42859,25 +42859,29 @@
     <row r="817">
       <c r="A817" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B817" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C817" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
-        </is>
-      </c>
-      <c r="E817" s="18" t="n"/>
+          <t>「ストレージの Azure セキュリティ ベースライン」を検討する</t>
+        </is>
+      </c>
+      <c r="E817" s="18" t="inlineStr">
+        <is>
+          <t>ストレージに関連する Microsoft クラウド セキュリティ ベンチマークのガイダンスを適用する</t>
+        </is>
+      </c>
       <c r="F817" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -42898,7 +42902,7 @@
       <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -42910,7 +42914,7 @@
     <row r="818">
       <c r="A818" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B818" s="18" t="inlineStr">
@@ -42920,18 +42924,22 @@
       </c>
       <c r="C818" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU を使用していることを確認する</t>
-        </is>
-      </c>
-      <c r="E818" s="18" t="n"/>
+          <t>Azure Storage のプライベート エンドポイントの使用を検討する</t>
+        </is>
+      </c>
+      <c r="E818" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage は、既定ではパブリック IP アドレスを持ち、インターネットからアクセスできます。プライベート エンドポイントを使用すると、アクセスが必要な Azure コンピューティング リソースのみに Azure Storage を安全に公開できるため、パブリック インターネットへの露出がなくなります</t>
+        </is>
+      </c>
       <c r="F818" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -42945,19 +42953,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J818" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K818" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J818" s="13" t="n"/>
+      <c r="K818" s="19" t="n"/>
       <c r="L818" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M818" s="20" t="n"/>
@@ -42969,7 +42969,7 @@
     <row r="819">
       <c r="A819" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B819" s="18" t="inlineStr">
@@ -42979,15 +42979,19 @@
       </c>
       <c r="C819" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D819" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
-        </is>
-      </c>
-      <c r="E819" s="18" t="n"/>
+          <t>古いストレージ アカウントが "クラシック デプロイ モデル" を使用していないことを確認する</t>
+        </is>
+      </c>
+      <c r="E819" s="18" t="inlineStr">
+        <is>
+          <t>新しく作成されたストレージ アカウントは ARM デプロイ モデルを使用して作成されるため、RBAC、監査などがすべて有効になります。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認します</t>
+        </is>
+      </c>
       <c r="F819" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -43005,14 +43009,10 @@
         </is>
       </c>
       <c r="J819" s="13" t="n"/>
-      <c r="K819" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K819" s="19" t="n"/>
       <c r="L819" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M819" s="20" t="n"/>
@@ -43024,7 +43024,7 @@
     <row r="820">
       <c r="A820" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B820" s="18" t="inlineStr">
@@ -43034,18 +43034,22 @@
       </c>
       <c r="C820" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
-        </is>
-      </c>
-      <c r="E820" s="18" t="n"/>
+          <t>すべてのストレージ アカウントで Microsoft Defender を有効にする</t>
+        </is>
+      </c>
+      <c r="E820" s="18" t="inlineStr">
+        <is>
+          <t>Microsoft Defender を活用して、不審なアクティビティや構成ミスについて学習します。</t>
+        </is>
+      </c>
       <c r="F820" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -43063,7 +43067,7 @@
       <c r="K820" s="19" t="n"/>
       <c r="L820" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M820" s="20" t="n"/>
@@ -43075,7 +43079,7 @@
     <row r="821">
       <c r="A821" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B821" s="18" t="inlineStr">
@@ -43085,15 +43089,19 @@
       </c>
       <c r="C821" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
-        </is>
-      </c>
-      <c r="E821" s="18" t="n"/>
+          <t>BLOB の '論理的な削除' を有効にする</t>
+        </is>
+      </c>
+      <c r="E821" s="18" t="inlineStr">
+        <is>
+          <t>論理的な削除メカニズムにより、誤って削除されたブロブを回復できます。</t>
+        </is>
+      </c>
       <c r="F821" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -43110,19 +43118,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J821" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K821" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J821" s="13" t="n"/>
+      <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43134,7 +43134,7 @@
     <row r="822">
       <c r="A822" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B822" s="18" t="inlineStr">
@@ -43144,17 +43144,17 @@
       </c>
       <c r="C822" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
+          <t>BLOB の '論理的な削除' を無効にする</t>
         </is>
       </c>
       <c r="E822" s="18" t="inlineStr">
         <is>
-          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="F822" s="18" t="inlineStr">
@@ -43173,15 +43173,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J822" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J822" s="13" t="n"/>
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43193,7 +43189,7 @@
     <row r="823">
       <c r="A823" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B823" s="18" t="inlineStr">
@@ -43203,18 +43199,22 @@
       </c>
       <c r="C823" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="E823" s="18" t="n"/>
+          <t>コンテナの「論理的な削除」を有効にする</t>
+        </is>
+      </c>
+      <c r="E823" s="18" t="inlineStr">
+        <is>
+          <t>コンテナの論理的な削除を使用すると、コンテナが削除された後に、たとえば、誤って削除した操作から回復するなどして、コンテナを回復できます。</t>
+        </is>
+      </c>
       <c r="F823" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -43228,15 +43228,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J823" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J823" s="13" t="n"/>
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43248,25 +43244,29 @@
     <row r="824">
       <c r="A824" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B824" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C824" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
-        </is>
-      </c>
-      <c r="E824" s="18" t="n"/>
+          <t>コンテナの「論理的な削除」を無効にする</t>
+        </is>
+      </c>
+      <c r="E824" s="18" t="inlineStr">
+        <is>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
+        </is>
+      </c>
       <c r="F824" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -43283,19 +43283,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J824" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K824" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J824" s="13" t="n"/>
+      <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43307,28 +43299,32 @@
     <row r="825">
       <c r="A825" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B825" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C825" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
-        </is>
-      </c>
-      <c r="E825" s="18" t="n"/>
+          <t>ストレージ アカウントでのリソース ロックの有効化</t>
+        </is>
+      </c>
+      <c r="E825" s="18" t="inlineStr">
+        <is>
+          <t>削除する前に、ユーザーに削除ロックを最初に解除するように強制することで、ストレージ アカウントが誤って削除されるのを防ぎます</t>
+        </is>
+      </c>
       <c r="F825" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -43342,19 +43338,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J825" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K825" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J825" s="13" t="n"/>
+      <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43366,7 +43354,7 @@
     <row r="826">
       <c r="A826" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B826" s="18" t="inlineStr">
@@ -43376,18 +43364,22 @@
       </c>
       <c r="C826" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
-        </is>
-      </c>
-      <c r="E826" s="18" t="n"/>
+          <t>不変ブロブについて考える</t>
+        </is>
+      </c>
+      <c r="E826" s="18" t="inlineStr">
+        <is>
+          <t>BLOB の "訴訟ホールド" または "時間ベースの保持" ポリシーを検討して、BLOB、コンテナー、またはストレージ アカウントを削除できないようにします。「不可能」は実際には「不可能」を意味することに注意してください。ストレージ アカウントに不変 BLOB が含まれている場合、そのストレージ アカウントを "削除" する唯一の方法は、Azure サブスクリプションをキャンセルすることです。</t>
+        </is>
+      </c>
       <c r="F826" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -43401,15 +43393,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J826" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J826" s="13" t="n"/>
       <c r="K826" s="19" t="n"/>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43421,7 +43409,7 @@
     <row r="827">
       <c r="A827" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B827" s="18" t="inlineStr">
@@ -43431,18 +43419,22 @@
       </c>
       <c r="C827" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D827" s="18" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
-        </is>
-      </c>
-      <c r="E827" s="18" t="n"/>
+          <t>HTTPS を要求する (つまり、ストレージ アカウントのポート 80 を無効にする)</t>
+        </is>
+      </c>
+      <c r="E827" s="18" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントへの保護されていない HTTP/80 アクセスを無効にして、すべてのデータ転送が暗号化され、整合性が保護され、サーバーが認証されるようにすることを検討してください。</t>
+        </is>
+      </c>
       <c r="F827" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -43456,15 +43448,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J827" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J827" s="13" t="n"/>
       <c r="K827" s="19" t="n"/>
       <c r="L827" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M827" s="20" t="n"/>
@@ -43476,25 +43464,29 @@
     <row r="828">
       <c r="A828" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B828" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C828" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D828" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
-        </is>
-      </c>
-      <c r="E828" s="18" t="n"/>
+          <t>HTTPS を適用する (HTTP を無効にする) 場合は、ストレージ アカウントにカスタム ドメイン (CNAME) を使用していないことを確認します。</t>
+        </is>
+      </c>
+      <c r="E828" s="18" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントでカスタム ドメイン (ホスト名) を構成する場合は、TLS/HTTPS が必要かどうかを確認します。その場合は、ストレージ アカウントの前に Azure CDN を配置する必要がある場合があります。</t>
+        </is>
+      </c>
       <c r="F828" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -43511,15 +43503,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J828" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J828" s="13" t="n"/>
       <c r="K828" s="19" t="n"/>
       <c r="L828" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M828" s="20" t="n"/>
@@ -43531,7 +43519,7 @@
     <row r="829">
       <c r="A829" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B829" s="18" t="inlineStr">
@@ -43541,18 +43529,22 @@
       </c>
       <c r="C829" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D829" s="18" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
-        </is>
-      </c>
-      <c r="E829" s="18" t="n"/>
+          <t>Shared Access Signature (SAS) トークンを HTTPS 接続のみに制限する</t>
+        </is>
+      </c>
+      <c r="E829" s="18" t="inlineStr">
+        <is>
+          <t>クライアントが SAS トークンを使用して BLOB データにアクセスするときに HTTPS を要求すると、資格情報の損失リスクを最小限に抑えるのに役立ちます。</t>
+        </is>
+      </c>
       <c r="F829" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -43566,15 +43558,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J829" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="J829" s="13" t="n"/>
       <c r="K829" s="19" t="n"/>
       <c r="L829" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M829" s="20" t="n"/>
@@ -43586,7 +43574,7 @@
     <row r="830">
       <c r="A830" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B830" s="18" t="inlineStr">
@@ -43596,18 +43584,22 @@
       </c>
       <c r="C830" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D830" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
-        </is>
-      </c>
-      <c r="E830" s="18" t="n"/>
+          <t>ストレージ アカウントに最新の TLS バージョンを適用する</t>
+        </is>
+      </c>
+      <c r="E830" s="18" t="inlineStr">
+        <is>
+          <t>.最新の TLS バージョンを適用すると、古いバージョンを使用しているクライアントからの要求が拒否されます。</t>
+        </is>
+      </c>
       <c r="F830" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -43621,15 +43613,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J830" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
-      <c r="K830" s="19" t="n"/>
+      <c r="J830" s="13" t="n"/>
+      <c r="K830" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (isnull(properties.minimumTlsVersion) == false and properties.minimumTlsVersion in ('TLS1_2', 'TLS1_3')) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L830" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>e12be569-a18f-4562-8d5d-ce151b9e7d55</t>
         </is>
       </c>
       <c r="M830" s="20" t="n"/>
@@ -43641,7 +43633,7 @@
     <row r="831">
       <c r="A831" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B831" s="18" t="inlineStr">
@@ -43651,15 +43643,19 @@
       </c>
       <c r="C831" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D831" s="18" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
-        </is>
-      </c>
-      <c r="E831" s="18" t="n"/>
+          <t>BLOB アクセスに Microsoft Entra ID トークンを使用する</t>
+        </is>
+      </c>
+      <c r="E831" s="18" t="inlineStr">
+        <is>
+          <t>Microsoft Entra ID トークンは、可能な限り、共有アクセス署名よりも優先する必要があります</t>
+        </is>
+      </c>
       <c r="F831" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -43677,14 +43673,10 @@
         </is>
       </c>
       <c r="J831" s="13" t="n"/>
-      <c r="K831" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K831" s="19" t="n"/>
       <c r="L831" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M831" s="20" t="n"/>
@@ -43696,7 +43688,7 @@
     <row r="832">
       <c r="A832" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B832" s="18" t="inlineStr">
@@ -43706,18 +43698,22 @@
       </c>
       <c r="C832" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D832" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
-        </is>
-      </c>
-      <c r="E832" s="18" t="n"/>
+          <t>IaM アクセス許可の最小特権</t>
+        </is>
+      </c>
+      <c r="E832" s="18" t="inlineStr">
+        <is>
+          <t>ユーザー、グループ、またはアプリケーションにロールを割り当てる場合は、タスクの実行に必要なアクセス許可のみをそのセキュリティ プリンシパルに付与します。リソースへのアクセスを制限することで、意図しないデータの誤用と悪意のある誤用の両方を防ぐことができます。</t>
+        </is>
+      </c>
       <c r="F832" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -43726,16 +43722,12 @@
         </is>
       </c>
       <c r="H832" s="18" t="n"/>
-      <c r="I832" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I832" s="13" t="n"/>
       <c r="J832" s="13" t="n"/>
       <c r="K832" s="19" t="n"/>
       <c r="L832" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M832" s="20" t="n"/>
@@ -43747,7 +43739,7 @@
     <row r="833">
       <c r="A833" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B833" s="18" t="inlineStr">
@@ -43757,15 +43749,19 @@
       </c>
       <c r="C833" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D833" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
-        </is>
-      </c>
-      <c r="E833" s="18" t="n"/>
+          <t>SAS を使用する場合は、ストレージ アカウント キー ベースの SAS よりも "ユーザー委任 SAS" を優先します。</t>
+        </is>
+      </c>
+      <c r="E833" s="18" t="inlineStr">
+        <is>
+          <t>ユーザー委任 SAS は、Azure Active Directory (Azure AD) 資格情報と、SAS に指定されたアクセス許可によって保護されます。ユーザー委任 SAS は、そのスコープと機能の点でサービス SAS に似ていますが、サービス SAS よりもセキュリティ上の利点があります。</t>
+        </is>
+      </c>
       <c r="F833" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -43786,7 +43782,7 @@
       <c r="K833" s="19" t="n"/>
       <c r="L833" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M833" s="20" t="n"/>
@@ -43798,28 +43794,32 @@
     <row r="834">
       <c r="A834" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B834" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C834" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D834" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
-        </is>
-      </c>
-      <c r="E834" s="18" t="n"/>
+          <t>Microsoft Entra ID アクセス (およびユーザー委任 SAS) のみがサポートされるように、ストレージ アカウント キーを無効にすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="E834" s="18" t="inlineStr">
+        <is>
+          <t>ストレージ アカウント キー ("共有キー") には、監査機能がほとんどありません。誰が/いつキーのコピーをフェッチしたかを監視することはできますが、キーが複数の人の手に渡ると、特定のユーザーに使用状況を帰属させることはできなくなります。Entra ID認証のみに依存すると、ストレージアクセスをユーザーに結び付けることが容易になります。</t>
+        </is>
+      </c>
       <c r="F834" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -43836,12 +43836,12 @@
       <c r="J834" s="13" t="n"/>
       <c r="K834" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend allowSharedKeyAccess = tostring(properties.allowSharedKeyAccess) | extend compliant = (isnotempty(allowSharedKeyAccess) and allowSharedKeyAccess == 'false') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L834" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M834" s="20" t="n"/>
@@ -43853,28 +43853,32 @@
     <row r="835">
       <c r="A835" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B835" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C835" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D835" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
-        </is>
-      </c>
-      <c r="E835" s="18" t="n"/>
+          <t>Azure Monitor を使用して、ストレージ アカウントでのコントロール プレーン操作を監査することを検討してください</t>
+        </is>
+      </c>
+      <c r="E835" s="18" t="inlineStr">
+        <is>
+          <t>アクティビティ ログ データを使用して、ストレージ アカウントのセキュリティが (ストレージ アカウント キー、アクセス ポリシーなど) 表示または変更されているのは「いつ」、「誰が」、「何を」、「どのように」特定します。</t>
+        </is>
+      </c>
       <c r="F835" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
@@ -43892,7 +43896,7 @@
       <c r="K835" s="19" t="n"/>
       <c r="L835" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M835" s="20" t="n"/>
@@ -43904,28 +43908,32 @@
     <row r="836">
       <c r="A836" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B836" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C836" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D836" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
-        </is>
-      </c>
-      <c r="E836" s="18" t="n"/>
+          <t>ストレージ アカウント キーを使用する場合は、"キーの有効期限ポリシー" を有効にすることを検討してください</t>
+        </is>
+      </c>
+      <c r="E836" s="18" t="inlineStr">
+        <is>
+          <t>キーの有効期限ポリシーを使用すると、アカウント アクセス キーのローテーションのリマインダーを設定できます。リマインダーは、指定した間隔が経過し、キーがまだローテーションされていない場合に表示されます。</t>
+        </is>
+      </c>
       <c r="F836" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -43940,14 +43948,10 @@
         </is>
       </c>
       <c r="J836" s="13" t="n"/>
-      <c r="K836" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K836" s="19" t="n"/>
       <c r="L836" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M836" s="20" t="n"/>
@@ -43959,28 +43963,32 @@
     <row r="837">
       <c r="A837" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B837" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C837" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D837" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
-        </is>
-      </c>
-      <c r="E837" s="18" t="n"/>
+          <t>SAS 有効期限ポリシーの構成を検討する</t>
+        </is>
+      </c>
+      <c r="E837" s="18" t="inlineStr">
+        <is>
+          <t>SAS 有効期限ポリシーは、SAS が有効である推奨間隔を指定します。SAS 有効期限ポリシーは、サービス SAS またはアカウント SAS に適用されます。ユーザーが、推奨間隔よりも長い有効期間でサービス SAS またはアカウント SAS を生成すると、警告が表示されます。</t>
+        </is>
+      </c>
       <c r="F837" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -43995,14 +44003,10 @@
         </is>
       </c>
       <c r="J837" s="13" t="n"/>
-      <c r="K837" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K837" s="19" t="n"/>
       <c r="L837" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M837" s="20" t="n"/>
@@ -44014,28 +44018,32 @@
     <row r="838">
       <c r="A838" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B838" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C838" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D838" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
-        </is>
-      </c>
-      <c r="E838" s="18" t="n"/>
+          <t>SASを保存されたアクセスポリシーにリンクすることを検討する</t>
+        </is>
+      </c>
+      <c r="E838" s="18" t="inlineStr">
+        <is>
+          <t>保存されているアクセス ポリシーでは、ストレージ アカウント キーを再生成しなくても、サービス SAS のアクセス許可を取り消すことができます。</t>
+        </is>
+      </c>
       <c r="F838" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -44050,14 +44058,10 @@
         </is>
       </c>
       <c r="J838" s="13" t="n"/>
-      <c r="K838" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K838" s="19" t="n"/>
       <c r="L838" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M838" s="20" t="n"/>
@@ -44069,22 +44073,22 @@
     <row r="839">
       <c r="A839" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B839" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C839" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D839" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>チェックインされた接続文字列とストレージ アカウント キーを検出するように、アプリケーションのソース コード リポジトリを構成することを検討してください。</t>
         </is>
       </c>
       <c r="E839" s="18" t="n"/>
@@ -44108,7 +44112,7 @@
       <c r="K839" s="19" t="n"/>
       <c r="L839" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M839" s="20" t="n"/>
@@ -44120,7 +44124,7 @@
     <row r="840">
       <c r="A840" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B840" s="18" t="inlineStr">
@@ -44130,15 +44134,19 @@
       </c>
       <c r="C840" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D840" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
-        </is>
-      </c>
-      <c r="E840" s="18" t="n"/>
+          <t>Azure KeyVault に接続文字列を格納することを検討してください (マネージド ID が不可能なシナリオの場合)</t>
+        </is>
+      </c>
+      <c r="E840" s="18" t="inlineStr">
+        <is>
+          <t>理想的には、アプリケーションでマネージド ID を使用して Azure Storage に対する認証を行う必要があります。それが不可能な場合は、ストレージ資格情報 (接続文字列、ストレージ アカウント キー、SAS、サービス プリンシパル資格情報) を Azure KeyVault または同等のサービスに持つことを検討してください。</t>
+        </is>
+      </c>
       <c r="F840" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -44159,7 +44167,7 @@
       <c r="K840" s="19" t="n"/>
       <c r="L840" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M840" s="20" t="n"/>
@@ -44171,7 +44179,7 @@
     <row r="841">
       <c r="A841" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B841" s="18" t="inlineStr">
@@ -44181,18 +44189,22 @@
       </c>
       <c r="C841" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
-        </is>
-      </c>
-      <c r="E841" s="18" t="n"/>
+          <t>アドホックSASの有効期間を短くするよう努める</t>
+        </is>
+      </c>
+      <c r="E841" s="18" t="inlineStr">
+        <is>
+          <t>アドホック SAS サービス SAS またはアカウント SAS で短期的な有効期限を使用します。このように、SASが侵害された場合でも、SASは短時間しか有効ではありません。この方法は、保存されたアクセス ポリシーを参照できない場合に特に重要です。有効期限が近いと、BLOB にアップロードできる時間を制限することで、BLOB に書き込むことができるデータの量も制限されます。</t>
+        </is>
+      </c>
       <c r="F841" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -44210,7 +44222,7 @@
       <c r="K841" s="19" t="n"/>
       <c r="L841" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M841" s="20" t="n"/>
@@ -44222,7 +44234,7 @@
     <row r="842">
       <c r="A842" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B842" s="18" t="inlineStr">
@@ -44232,18 +44244,22 @@
       </c>
       <c r="C842" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
-        </is>
-      </c>
-      <c r="E842" s="18" t="n"/>
+          <t>SAS に狭いスコープを適用する</t>
+        </is>
+      </c>
+      <c r="E842" s="18" t="inlineStr">
+        <is>
+          <t>SASを作成するときは、できるだけ具体的で制限的にしてください。1 つのリソースと操作には、より広範なアクセスを提供する SAS よりも SAS を優先します。</t>
+        </is>
+      </c>
       <c r="F842" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -44261,7 +44277,7 @@
       <c r="K842" s="19" t="n"/>
       <c r="L842" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M842" s="20" t="n"/>
@@ -44273,7 +44289,7 @@
     <row r="843">
       <c r="A843" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B843" s="18" t="inlineStr">
@@ -44283,18 +44299,22 @@
       </c>
       <c r="C843" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D843" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
-        </is>
-      </c>
-      <c r="E843" s="18" t="n"/>
+          <t>可能な限り、SAS のスコープを特定のクライアント IP アドレスに設定することを検討してください</t>
+        </is>
+      </c>
+      <c r="E843" s="18" t="inlineStr">
+        <is>
+          <t>SAS には、SAS を使用してリソースを要求する権限を与えられたクライアントの IP アドレスまたはアドレス範囲のパラメーターを含めることができます。</t>
+        </is>
+      </c>
       <c r="F843" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -44312,7 +44332,7 @@
       <c r="K843" s="19" t="n"/>
       <c r="L843" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M843" s="20" t="n"/>
@@ -44324,7 +44344,7 @@
     <row r="844">
       <c r="A844" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B844" s="18" t="inlineStr">
@@ -44334,18 +44354,22 @@
       </c>
       <c r="C844" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D844" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
-        </is>
-      </c>
-      <c r="E844" s="18" t="n"/>
+          <t>クライアントが SAS を使用してファイルをアップロードした後、アップロードされたデータを確認することを検討してください。</t>
+        </is>
+      </c>
+      <c r="E844" s="18" t="inlineStr">
+        <is>
+          <t>SAS は、クライアントがアップロードするデータの量を制限することはできません。時間の経過に伴うストレージ量の価格設定モデルを考えると、クライアントが悪意を持って大きなコンテンツをアップロードしたかどうかを検証することは理にかなっているかもしれません。</t>
+        </is>
+      </c>
       <c r="F844" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -44354,16 +44378,12 @@
         </is>
       </c>
       <c r="H844" s="18" t="n"/>
-      <c r="I844" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I844" s="13" t="n"/>
       <c r="J844" s="13" t="n"/>
       <c r="K844" s="19" t="n"/>
       <c r="L844" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M844" s="20" t="n"/>
@@ -44375,7 +44395,7 @@
     <row r="845">
       <c r="A845" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B845" s="18" t="inlineStr">
@@ -44385,15 +44405,19 @@
       </c>
       <c r="C845" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D845" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
-        </is>
-      </c>
-      <c r="E845" s="18" t="n"/>
+          <t>SFTP: SFTP アクセスの「ローカル ユーザー」の数を制限し、アクセスが必要かどうかを経時的に監査します。</t>
+        </is>
+      </c>
+      <c r="E845" s="18" t="inlineStr">
+        <is>
+          <t>「ローカル ユーザー アカウント」を使用して SFTP 経由で BLOB ストレージにアクセスする場合、「通常の」RBAC コントロールは適用されません。NFS または REST 経由の BLOB アクセスは、SFTP アクセスよりも制限が厳しい場合があります。残念ながら、2023 年初頭の時点で、SFTP エンドポイントで現在サポートされている ID 管理の形式は、ローカル ユーザーのみです</t>
+        </is>
+      </c>
       <c r="F845" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -44414,7 +44438,7 @@
       <c r="K845" s="19" t="n"/>
       <c r="L845" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M845" s="20" t="n"/>
@@ -44426,7 +44450,7 @@
     <row r="846">
       <c r="A846" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B846" s="18" t="inlineStr">
@@ -44436,18 +44460,18 @@
       </c>
       <c r="C846" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D846" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>SFTP: SFTP エンドポイントは POSIX のような ACL をサポートしていません。</t>
         </is>
       </c>
       <c r="E846" s="18" t="n"/>
       <c r="F846" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -44465,7 +44489,7 @@
       <c r="K846" s="19" t="n"/>
       <c r="L846" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M846" s="20" t="n"/>
@@ -44477,7 +44501,7 @@
     <row r="847">
       <c r="A847" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B847" s="18" t="inlineStr">
@@ -44487,18 +44511,22 @@
       </c>
       <c r="C847" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
-        </is>
-      </c>
-      <c r="E847" s="18" t="n"/>
+          <t>過度に広範なCORSポリシーを避ける</t>
+        </is>
+      </c>
+      <c r="E847" s="18" t="inlineStr">
+        <is>
+          <t>ストレージは、CORS(Cross-Origin Resource Sharing)、つまり、異なるドメインのWebアプリが同一生成元ポリシーを緩和できるようにするHTTP機能をサポートしています。CORS を有効にするときは、CorsRules を最小限の特権に保ちます。</t>
+        </is>
+      </c>
       <c r="F847" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -44516,7 +44544,7 @@
       <c r="K847" s="19" t="n"/>
       <c r="L847" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M847" s="20" t="n"/>
@@ -44528,7 +44556,7 @@
     <row r="848">
       <c r="A848" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B848" s="18" t="inlineStr">
@@ -44538,18 +44566,22 @@
       </c>
       <c r="C848" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D848" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
-        </is>
-      </c>
-      <c r="E848" s="18" t="n"/>
+          <t>保存データの暗号化方法を決定します。データのスレッドモデルを理解する。</t>
+        </is>
+      </c>
+      <c r="E848" s="18" t="inlineStr">
+        <is>
+          <t>保存データは常にサーバー側で暗号化され、さらにクライアント側でも暗号化される場合があります。サーバー側の暗号化は、プラットフォーム管理キー (デフォルト) またはカスタマー管理キーを使用して行われる場合があります。クライアント側の暗号化は、クライアントが BLOB ごとに暗号化/暗号化解除キーを Azure ストレージに提供するか、クライアント側で暗号化を完全に処理することによって行われます。したがって、機密性の保証については Azure Storage にまったく依存しません。</t>
+        </is>
+      </c>
       <c r="F848" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -44567,7 +44599,7 @@
       <c r="K848" s="19" t="n"/>
       <c r="L848" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M848" s="20" t="n"/>
@@ -44579,7 +44611,7 @@
     <row r="849">
       <c r="A849" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B849" s="18" t="inlineStr">
@@ -44589,12 +44621,12 @@
       </c>
       <c r="C849" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
+          <t>プラットフォームの暗号化を使用するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E849" s="18" t="n"/>
@@ -44618,7 +44650,7 @@
       <c r="K849" s="19" t="n"/>
       <c r="L849" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M849" s="20" t="n"/>
@@ -44630,7 +44662,7 @@
     <row r="850">
       <c r="A850" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B850" s="18" t="inlineStr">
@@ -44640,18 +44672,18 @@
       </c>
       <c r="C850" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D850" s="18" t="inlineStr">
         <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>クライアント側の暗号化を使用するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E850" s="18" t="n"/>
       <c r="F850" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -44669,7 +44701,7 @@
       <c r="K850" s="19" t="n"/>
       <c r="L850" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M850" s="20" t="n"/>
@@ -44681,7 +44713,7 @@
     <row r="851">
       <c r="A851" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B851" s="18" t="inlineStr">
@@ -44691,18 +44723,22 @@
       </c>
       <c r="C851" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D851" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
-        </is>
-      </c>
-      <c r="E851" s="18" t="n"/>
+          <t>パブリック BLOB の匿名アクセスが必要かどうか、または特定のストレージ アカウントに対して無効にできるかどうかを検討します。</t>
+        </is>
+      </c>
+      <c r="E851" s="18" t="inlineStr">
+        <is>
+          <t>Resource Graph エクスプローラー (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを見つけます。</t>
+        </is>
+      </c>
       <c r="F851" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -44717,10 +44753,14 @@
         </is>
       </c>
       <c r="J851" s="13" t="n"/>
-      <c r="K851" s="19" t="n"/>
+      <c r="K851" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (properties.allowBlobPublicAccess == 'false') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L851" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M851" s="20" t="n"/>
@@ -44732,22 +44772,22 @@
     <row r="852">
       <c r="A852" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B852" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C852" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>storagev2 アカウントタイプを活用して、パフォーマンスと信頼性を向上させます</t>
         </is>
       </c>
       <c r="E852" s="18" t="n"/>
@@ -44768,14 +44808,10 @@
         </is>
       </c>
       <c r="J852" s="13" t="n"/>
-      <c r="K852" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K852" s="19" t="n"/>
       <c r="L852" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>cb8eb8c0-aa62-4a25-a495-6eaa8dc4a243</t>
         </is>
       </c>
       <c r="M852" s="20" t="n"/>
@@ -44787,22 +44823,22 @@
     <row r="853">
       <c r="A853" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B853" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C853" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
+          <t>GRS、ZRS、またはGZRSストレージを活用して、最高の可用性を実現</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
@@ -44826,7 +44862,7 @@
       <c r="K853" s="19" t="n"/>
       <c r="L853" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>e05bbe20-9d49-4fda-9777-8424d116785c</t>
         </is>
       </c>
       <c r="M853" s="20" t="n"/>
@@ -44838,28 +44874,28 @@
     <row r="854">
       <c r="A854" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B854" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C854" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
+          <t>フェールオーバー後の書き込み操作には、顧客管理のフェールオーバーを使用します</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
       <c r="F854" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -44877,7 +44913,7 @@
       <c r="K854" s="19" t="n"/>
       <c r="L854" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>2fa56c56-ad48-4408-be72-734c486ba280</t>
         </is>
       </c>
       <c r="M854" s="20" t="n"/>
@@ -44889,28 +44925,28 @@
     <row r="855">
       <c r="A855" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B855" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C855" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D855" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Microsoft マネージド フェールオーバーの詳細を理解する</t>
         </is>
       </c>
       <c r="E855" s="18" t="n"/>
       <c r="F855" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -44925,14 +44961,10 @@
         </is>
       </c>
       <c r="J855" s="13" t="n"/>
-      <c r="K855" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K855" s="19" t="n"/>
       <c r="L855" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>dc0590cf-65de-48e1-909c-cbd579266bcc</t>
         </is>
       </c>
       <c r="M855" s="20" t="n"/>
@@ -44944,22 +44976,22 @@
     <row r="856">
       <c r="A856" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B856" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C856" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D856" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
+          <t>ソフト削除を有効にする</t>
         </is>
       </c>
       <c r="E856" s="18" t="n"/>
@@ -44983,7 +45015,7 @@
       <c r="K856" s="19" t="n"/>
       <c r="L856" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>a274faa1-abfe-49d5-9d04-c3c4919cb1b3</t>
         </is>
       </c>
       <c r="M856" s="20" t="n"/>
@@ -45000,17 +45032,17 @@
       </c>
       <c r="B857" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C857" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
@@ -45034,7 +45066,7 @@
       <c r="K857" s="19" t="n"/>
       <c r="L857" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M857" s="20" t="n"/>
@@ -45061,13 +45093,13 @@
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Application Gateway v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
       <c r="F858" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -45081,11 +45113,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J858" s="13" t="n"/>
-      <c r="K858" s="19" t="n"/>
+      <c r="J858" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K858" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
+        </is>
+      </c>
       <c r="L858" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M858" s="20" t="n"/>
@@ -45107,12 +45147,12 @@
       </c>
       <c r="C859" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45133,10 +45173,14 @@
         </is>
       </c>
       <c r="J859" s="13" t="n"/>
-      <c r="K859" s="19" t="n"/>
+      <c r="K859" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L859" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M859" s="20" t="n"/>
@@ -45158,12 +45202,12 @@
       </c>
       <c r="C860" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
@@ -45187,7 +45231,7 @@
       <c r="K860" s="19" t="n"/>
       <c r="L860" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M860" s="20" t="n"/>
@@ -45204,7 +45248,7 @@
       </c>
       <c r="B861" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C861" s="18" t="inlineStr">
@@ -45214,7 +45258,7 @@
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
+          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
@@ -45234,11 +45278,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J861" s="13" t="n"/>
-      <c r="K861" s="19" t="n"/>
+      <c r="J861" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K861" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L861" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M861" s="20" t="n"/>
@@ -45255,20 +45307,24 @@
       </c>
       <c r="B862" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C862" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
-        </is>
-      </c>
-      <c r="E862" s="18" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
+        </is>
+      </c>
+      <c r="E862" s="18" t="inlineStr">
+        <is>
+          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="F862" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -45285,11 +45341,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J862" s="13" t="n"/>
+      <c r="J862" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K862" s="19" t="n"/>
       <c r="L862" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M862" s="20" t="n"/>
@@ -45306,7 +45366,7 @@
       </c>
       <c r="B863" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C863" s="18" t="inlineStr">
@@ -45316,7 +45376,7 @@
       </c>
       <c r="D863" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E863" s="18" t="n"/>
@@ -45336,11 +45396,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J863" s="13" t="n"/>
+      <c r="J863" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K863" s="19" t="n"/>
       <c r="L863" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M863" s="20" t="n"/>
@@ -45357,17 +45421,17 @@
       </c>
       <c r="B864" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C864" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
@@ -45387,11 +45451,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J864" s="13" t="n"/>
-      <c r="K864" s="19" t="n"/>
+      <c r="J864" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K864" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L864" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M864" s="20" t="n"/>
@@ -45408,7 +45480,7 @@
       </c>
       <c r="B865" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C865" s="18" t="inlineStr">
@@ -45418,7 +45490,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45438,11 +45510,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J865" s="13" t="n"/>
-      <c r="K865" s="19" t="n"/>
+      <c r="J865" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K865" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L865" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M865" s="20" t="n"/>
@@ -45459,17 +45539,17 @@
       </c>
       <c r="B866" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C866" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D866" s="18" t="inlineStr">
         <is>
-          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
         </is>
       </c>
       <c r="E866" s="18" t="n"/>
@@ -45489,11 +45569,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J866" s="13" t="n"/>
+      <c r="J866" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K866" s="19" t="n"/>
       <c r="L866" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M866" s="20" t="n"/>
@@ -45515,12 +45599,12 @@
       </c>
       <c r="C867" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45540,11 +45624,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J867" s="13" t="n"/>
+      <c r="J867" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K867" s="19" t="n"/>
       <c r="L867" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M867" s="20" t="n"/>
@@ -45561,23 +45649,23 @@
       </c>
       <c r="B868" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C868" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D868" s="18" t="inlineStr">
         <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="E868" s="18" t="n"/>
       <c r="F868" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -45591,11 +45679,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J868" s="13" t="n"/>
+      <c r="J868" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K868" s="19" t="n"/>
       <c r="L868" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M868" s="20" t="n"/>
@@ -45617,18 +45709,18 @@
       </c>
       <c r="C869" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
       <c r="F869" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -45642,11 +45734,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J869" s="13" t="n"/>
+      <c r="J869" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K869" s="19" t="n"/>
       <c r="L869" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M869" s="20" t="n"/>
@@ -45668,18 +45764,18 @@
       </c>
       <c r="C870" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D870" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="E870" s="18" t="n"/>
       <c r="F870" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -45693,11 +45789,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J870" s="13" t="n"/>
+      <c r="J870" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K870" s="19" t="n"/>
       <c r="L870" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M870" s="20" t="n"/>
@@ -45719,18 +45819,18 @@
       </c>
       <c r="C871" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>HTTP を HTTPS にリダイレクトする</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
       <c r="F871" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -45745,10 +45845,14 @@
         </is>
       </c>
       <c r="J871" s="13" t="n"/>
-      <c r="K871" s="19" t="n"/>
+      <c r="K871" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L871" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M871" s="20" t="n"/>
@@ -45765,23 +45869,23 @@
       </c>
       <c r="B872" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C872" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D872" s="18" t="inlineStr">
         <is>
-          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
+          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
         </is>
       </c>
       <c r="E872" s="18" t="n"/>
       <c r="F872" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -45799,7 +45903,7 @@
       <c r="K872" s="19" t="n"/>
       <c r="L872" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M872" s="20" t="n"/>
@@ -45821,12 +45925,12 @@
       </c>
       <c r="C873" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="E873" s="18" t="n"/>
@@ -45850,7 +45954,7 @@
       <c r="K873" s="19" t="n"/>
       <c r="L873" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M873" s="20" t="n"/>
@@ -45867,17 +45971,17 @@
       </c>
       <c r="B874" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C874" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="E874" s="18" t="n"/>
@@ -45898,10 +46002,14 @@
         </is>
       </c>
       <c r="J874" s="13" t="n"/>
-      <c r="K874" s="19" t="n"/>
+      <c r="K874" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L874" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M874" s="20" t="n"/>
@@ -45918,17 +46026,17 @@
       </c>
       <c r="B875" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C875" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D875" s="18" t="inlineStr">
         <is>
-          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
         </is>
       </c>
       <c r="E875" s="18" t="n"/>
@@ -45952,7 +46060,7 @@
       <c r="K875" s="19" t="n"/>
       <c r="L875" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M875" s="20" t="n"/>
@@ -45974,18 +46082,18 @@
       </c>
       <c r="C876" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D876" s="18" t="inlineStr">
         <is>
-          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="E876" s="18" t="n"/>
       <c r="F876" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -46000,10 +46108,14 @@
         </is>
       </c>
       <c r="J876" s="13" t="n"/>
-      <c r="K876" s="19" t="n"/>
+      <c r="K876" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L876" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M876" s="20" t="n"/>
@@ -46020,23 +46132,23 @@
       </c>
       <c r="B877" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C877" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D877" s="18" t="inlineStr">
         <is>
-          <t>トランスポート層の負荷分散を使用する</t>
+          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="E877" s="18" t="n"/>
       <c r="F877" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -46051,10 +46163,14 @@
         </is>
       </c>
       <c r="J877" s="13" t="n"/>
-      <c r="K877" s="19" t="n"/>
+      <c r="K877" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L877" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M877" s="20" t="n"/>
@@ -46071,23 +46187,23 @@
       </c>
       <c r="B878" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C878" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>
       <c r="F878" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -46102,10 +46218,14 @@
         </is>
       </c>
       <c r="J878" s="13" t="n"/>
-      <c r="K878" s="19" t="n"/>
+      <c r="K878" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L878" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M878" s="20" t="n"/>
@@ -46122,17 +46242,17 @@
       </c>
       <c r="B879" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C879" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D879" s="18" t="inlineStr">
         <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E879" s="18" t="n"/>
@@ -46156,7 +46276,7 @@
       <c r="K879" s="19" t="n"/>
       <c r="L879" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M879" s="20" t="n"/>
@@ -46178,18 +46298,18 @@
       </c>
       <c r="C880" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D880" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
+          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="E880" s="18" t="n"/>
       <c r="F880" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -46207,7 +46327,7 @@
       <c r="K880" s="19" t="n"/>
       <c r="L880" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M880" s="20" t="n"/>
@@ -46219,22 +46339,22 @@
     <row r="881">
       <c r="A881" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B881" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C881" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D881" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory の FTA 回復性プレイブックの活用</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="E881" s="18" t="n"/>
@@ -46258,7 +46378,7 @@
       <c r="K881" s="19" t="n"/>
       <c r="L881" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M881" s="20" t="n"/>
@@ -46270,22 +46390,22 @@
     <row r="882">
       <c r="A882" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B882" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C882" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D882" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones をサポートするリージョンでゾーン冗長パイプラインを使用するUse zone redundant pipelines in regions that support Availability Zones</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="E882" s="18" t="n"/>
@@ -46309,7 +46429,7 @@
       <c r="K882" s="19" t="n"/>
       <c r="L882" s="19" t="inlineStr">
         <is>
-          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M882" s="20" t="n"/>
@@ -46321,28 +46441,28 @@
     <row r="883">
       <c r="A883" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B883" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C883" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D883" s="18" t="inlineStr">
         <is>
-          <t>DevOps を使用して Github と Azure DevOps の統合で ARM テンプレートをバックアップする</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
         </is>
       </c>
       <c r="E883" s="18" t="n"/>
       <c r="F883" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -46360,7 +46480,7 @@
       <c r="K883" s="19" t="n"/>
       <c r="L883" s="19" t="inlineStr">
         <is>
-          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M883" s="20" t="n"/>
@@ -46372,28 +46492,28 @@
     <row r="884">
       <c r="A884" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B884" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C884" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D884" s="18" t="inlineStr">
         <is>
-          <t>セルフホステッド統合ランタイム VM を別のリージョンにレプリケートしてください</t>
+          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E884" s="18" t="n"/>
       <c r="F884" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -46411,7 +46531,7 @@
       <c r="K884" s="19" t="n"/>
       <c r="L884" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M884" s="20" t="n"/>
@@ -46423,28 +46543,28 @@
     <row r="885">
       <c r="A885" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B885" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C885" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D885" s="18" t="inlineStr">
         <is>
-          <t>必ず、姉妹リージョンでネットワークをレプリケートまたは複製してください。別のリージョンに VNet のコピーを作成する必要があります</t>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="E885" s="18" t="n"/>
       <c r="F885" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -46462,7 +46582,7 @@
       <c r="K885" s="19" t="n"/>
       <c r="L885" s="19" t="inlineStr">
         <is>
-          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M885" s="20" t="n"/>
@@ -46474,32 +46594,28 @@
     <row r="886">
       <c r="A886" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B886" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C886" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D886" s="18" t="inlineStr">
         <is>
-          <t>Keyvault 統合を使用している場合は、Keyvault の SLA を使用して可用性を把握します</t>
-        </is>
-      </c>
-      <c r="E886" s="18" t="inlineStr">
-        <is>
-          <t>ADF パイプラインで Key Vault が使用されている場合は、Key Vault をレプリケートするために何もする必要はありません。Key Vault はマネージド サービスであり、Microsoft が処理します</t>
-        </is>
-      </c>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+        </is>
+      </c>
+      <c r="E886" s="18" t="n"/>
       <c r="F886" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -46517,7 +46633,7 @@
       <c r="K886" s="19" t="n"/>
       <c r="L886" s="19" t="inlineStr">
         <is>
-          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M886" s="20" t="n"/>
@@ -46529,28 +46645,28 @@
     <row r="887">
       <c r="A887" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B887" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C887" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D887" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E887" s="18" t="n"/>
       <c r="F887" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -46568,7 +46684,7 @@
       <c r="K887" s="19" t="n"/>
       <c r="L887" s="19" t="inlineStr">
         <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M887" s="20" t="n"/>
@@ -46580,22 +46696,22 @@
     <row r="888">
       <c r="A888" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B888" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C888" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D888" s="18" t="inlineStr">
         <is>
-          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="E888" s="18" t="n"/>
@@ -46619,7 +46735,7 @@
       <c r="K888" s="19" t="n"/>
       <c r="L888" s="19" t="inlineStr">
         <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M888" s="20" t="n"/>
@@ -46631,28 +46747,28 @@
     <row r="889">
       <c r="A889" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B889" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C889" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D889" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="E889" s="18" t="n"/>
       <c r="F889" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -46670,7 +46786,7 @@
       <c r="K889" s="19" t="n"/>
       <c r="L889" s="19" t="inlineStr">
         <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M889" s="20" t="n"/>
@@ -46682,28 +46798,28 @@
     <row r="890">
       <c r="A890" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B890" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C890" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D890" s="18" t="inlineStr">
         <is>
-          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E890" s="18" t="n"/>
       <c r="F890" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -46721,7 +46837,7 @@
       <c r="K890" s="19" t="n"/>
       <c r="L890" s="19" t="inlineStr">
         <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M890" s="20" t="n"/>
@@ -46733,28 +46849,28 @@
     <row r="891">
       <c r="A891" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B891" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C891" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D891" s="18" t="inlineStr">
         <is>
-          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E891" s="18" t="n"/>
       <c r="F891" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -46772,7 +46888,7 @@
       <c r="K891" s="19" t="n"/>
       <c r="L891" s="19" t="inlineStr">
         <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M891" s="20" t="n"/>
@@ -46784,28 +46900,28 @@
     <row r="892">
       <c r="A892" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B892" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C892" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D892" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E892" s="18" t="n"/>
       <c r="F892" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -46820,10 +46936,14 @@
         </is>
       </c>
       <c r="J892" s="13" t="n"/>
-      <c r="K892" s="19" t="n"/>
+      <c r="K892" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L892" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M892" s="20" t="n"/>
@@ -46835,28 +46955,28 @@
     <row r="893">
       <c r="A893" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B893" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C893" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D893" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E893" s="18" t="n"/>
       <c r="F893" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -46874,7 +46994,7 @@
       <c r="K893" s="19" t="n"/>
       <c r="L893" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M893" s="20" t="n"/>
@@ -46886,28 +47006,28 @@
     <row r="894">
       <c r="A894" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B894" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C894" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D894" s="18" t="inlineStr">
         <is>
-          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
+          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="E894" s="18" t="n"/>
       <c r="F894" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -46925,7 +47045,7 @@
       <c r="K894" s="19" t="n"/>
       <c r="L894" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M894" s="20" t="n"/>
@@ -46937,28 +47057,28 @@
     <row r="895">
       <c r="A895" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B895" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C895" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D895" s="18" t="inlineStr">
         <is>
-          <t>アプリに複数のアプリ インスタンスを使用する</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E895" s="18" t="n"/>
       <c r="F895" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -46973,10 +47093,14 @@
         </is>
       </c>
       <c r="J895" s="13" t="n"/>
-      <c r="K895" s="19" t="n"/>
+      <c r="K895" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L895" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M895" s="20" t="n"/>
@@ -46988,22 +47112,22 @@
     <row r="896">
       <c r="A896" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B896" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C896" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D896" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="E896" s="18" t="n"/>
@@ -47027,7 +47151,7 @@
       <c r="K896" s="19" t="n"/>
       <c r="L896" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M896" s="20" t="n"/>
@@ -47039,22 +47163,22 @@
     <row r="897">
       <c r="A897" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B897" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C897" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D897" s="18" t="inlineStr">
         <is>
-          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
+          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="E897" s="18" t="n"/>
@@ -47078,7 +47202,7 @@
       <c r="K897" s="19" t="n"/>
       <c r="L897" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M897" s="20" t="n"/>
@@ -47090,22 +47214,22 @@
     <row r="898">
       <c r="A898" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B898" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C898" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D898" s="18" t="inlineStr">
         <is>
-          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E898" s="18" t="n"/>
@@ -47129,7 +47253,7 @@
       <c r="K898" s="19" t="n"/>
       <c r="L898" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M898" s="20" t="n"/>
@@ -47141,22 +47265,22 @@
     <row r="899">
       <c r="A899" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B899" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C899" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D899" s="18" t="inlineStr">
         <is>
-          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
+          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E899" s="18" t="n"/>
@@ -47180,7 +47304,7 @@
       <c r="K899" s="19" t="n"/>
       <c r="L899" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M899" s="20" t="n"/>
@@ -47192,28 +47316,28 @@
     <row r="900">
       <c r="A900" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B900" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C900" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D900" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E900" s="18" t="n"/>
       <c r="F900" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -47231,7 +47355,7 @@
       <c r="K900" s="19" t="n"/>
       <c r="L900" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M900" s="20" t="n"/>
@@ -47243,22 +47367,22 @@
     <row r="901">
       <c r="A901" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B901" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C901" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D901" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E901" s="18" t="n"/>
@@ -47282,7 +47406,7 @@
       <c r="K901" s="19" t="n"/>
       <c r="L901" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M901" s="20" t="n"/>
@@ -47294,22 +47418,22 @@
     <row r="902">
       <c r="A902" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B902" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C902" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D902" s="18" t="inlineStr">
         <is>
-          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E902" s="18" t="n"/>
@@ -47333,7 +47457,7 @@
       <c r="K902" s="19" t="n"/>
       <c r="L902" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M902" s="20" t="n"/>
@@ -47345,22 +47469,22 @@
     <row r="903">
       <c r="A903" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B903" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C903" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D903" s="18" t="inlineStr">
         <is>
-          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E903" s="18" t="n"/>
@@ -47384,7 +47508,7 @@
       <c r="K903" s="19" t="n"/>
       <c r="L903" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M903" s="20" t="n"/>
@@ -47394,17 +47518,50 @@
       <c r="Q903" s="20" t="n"/>
     </row>
     <row r="904">
-      <c r="A904" s="18" t="n"/>
-      <c r="B904" s="18" t="n"/>
-      <c r="C904" s="18" t="n"/>
-      <c r="D904" s="18" t="n"/>
+      <c r="A904" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B904" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C904" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D904" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+        </is>
+      </c>
       <c r="E904" s="18" t="n"/>
-      <c r="F904" s="18" t="n"/>
+      <c r="F904" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H904" s="18" t="n"/>
-      <c r="I904" s="13" t="n"/>
+      <c r="I904" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J904" s="13" t="n"/>
       <c r="K904" s="19" t="n"/>
-      <c r="L904" s="19" t="n"/>
+      <c r="L904" s="19" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M904" s="20" t="n"/>
       <c r="N904" s="20" t="n"/>
       <c r="O904" s="20" t="n"/>
@@ -47412,17 +47569,50 @@
       <c r="Q904" s="20" t="n"/>
     </row>
     <row r="905">
-      <c r="A905" s="18" t="n"/>
-      <c r="B905" s="18" t="n"/>
-      <c r="C905" s="18" t="n"/>
-      <c r="D905" s="18" t="n"/>
+      <c r="A905" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B905" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C905" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D905" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+        </is>
+      </c>
       <c r="E905" s="18" t="n"/>
-      <c r="F905" s="18" t="n"/>
+      <c r="F905" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H905" s="18" t="n"/>
-      <c r="I905" s="13" t="n"/>
+      <c r="I905" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J905" s="13" t="n"/>
       <c r="K905" s="19" t="n"/>
-      <c r="L905" s="19" t="n"/>
+      <c r="L905" s="19" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M905" s="20" t="n"/>
       <c r="N905" s="20" t="n"/>
       <c r="O905" s="20" t="n"/>
@@ -47430,17 +47620,50 @@
       <c r="Q905" s="20" t="n"/>
     </row>
     <row r="906">
-      <c r="A906" s="18" t="n"/>
-      <c r="B906" s="18" t="n"/>
-      <c r="C906" s="18" t="n"/>
-      <c r="D906" s="18" t="n"/>
+      <c r="A906" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B906" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C906" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D906" s="18" t="inlineStr">
+        <is>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+        </is>
+      </c>
       <c r="E906" s="18" t="n"/>
-      <c r="F906" s="18" t="n"/>
+      <c r="F906" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H906" s="18" t="n"/>
-      <c r="I906" s="13" t="n"/>
+      <c r="I906" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J906" s="13" t="n"/>
       <c r="K906" s="19" t="n"/>
-      <c r="L906" s="19" t="n"/>
+      <c r="L906" s="19" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M906" s="20" t="n"/>
       <c r="N906" s="20" t="n"/>
       <c r="O906" s="20" t="n"/>
@@ -47448,17 +47671,50 @@
       <c r="Q906" s="20" t="n"/>
     </row>
     <row r="907">
-      <c r="A907" s="18" t="n"/>
-      <c r="B907" s="18" t="n"/>
-      <c r="C907" s="18" t="n"/>
-      <c r="D907" s="18" t="n"/>
+      <c r="A907" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B907" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C907" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D907" s="18" t="inlineStr">
+        <is>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
+        </is>
+      </c>
       <c r="E907" s="18" t="n"/>
-      <c r="F907" s="18" t="n"/>
+      <c r="F907" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H907" s="18" t="n"/>
-      <c r="I907" s="13" t="n"/>
+      <c r="I907" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J907" s="13" t="n"/>
       <c r="K907" s="19" t="n"/>
-      <c r="L907" s="19" t="n"/>
+      <c r="L907" s="19" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M907" s="20" t="n"/>
       <c r="N907" s="20" t="n"/>
       <c r="O907" s="20" t="n"/>
@@ -47466,17 +47722,50 @@
       <c r="Q907" s="20" t="n"/>
     </row>
     <row r="908">
-      <c r="A908" s="18" t="n"/>
-      <c r="B908" s="18" t="n"/>
-      <c r="C908" s="18" t="n"/>
-      <c r="D908" s="18" t="n"/>
+      <c r="A908" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B908" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C908" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D908" s="18" t="inlineStr">
+        <is>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
+        </is>
+      </c>
       <c r="E908" s="18" t="n"/>
-      <c r="F908" s="18" t="n"/>
+      <c r="F908" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H908" s="18" t="n"/>
-      <c r="I908" s="13" t="n"/>
+      <c r="I908" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J908" s="13" t="n"/>
       <c r="K908" s="19" t="n"/>
-      <c r="L908" s="19" t="n"/>
+      <c r="L908" s="19" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M908" s="20" t="n"/>
       <c r="N908" s="20" t="n"/>
       <c r="O908" s="20" t="n"/>
@@ -47484,17 +47773,50 @@
       <c r="Q908" s="20" t="n"/>
     </row>
     <row r="909">
-      <c r="A909" s="18" t="n"/>
-      <c r="B909" s="18" t="n"/>
-      <c r="C909" s="18" t="n"/>
-      <c r="D909" s="18" t="n"/>
+      <c r="A909" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B909" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C909" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D909" s="18" t="inlineStr">
+        <is>
+          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
+        </is>
+      </c>
       <c r="E909" s="18" t="n"/>
-      <c r="F909" s="18" t="n"/>
+      <c r="F909" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H909" s="18" t="n"/>
-      <c r="I909" s="13" t="n"/>
+      <c r="I909" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J909" s="13" t="n"/>
       <c r="K909" s="19" t="n"/>
-      <c r="L909" s="19" t="n"/>
+      <c r="L909" s="19" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M909" s="20" t="n"/>
       <c r="N909" s="20" t="n"/>
       <c r="O909" s="20" t="n"/>
@@ -47502,17 +47824,50 @@
       <c r="Q909" s="20" t="n"/>
     </row>
     <row r="910">
-      <c r="A910" s="18" t="n"/>
-      <c r="B910" s="18" t="n"/>
-      <c r="C910" s="18" t="n"/>
-      <c r="D910" s="18" t="n"/>
+      <c r="A910" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B910" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C910" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D910" s="18" t="inlineStr">
+        <is>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+        </is>
+      </c>
       <c r="E910" s="18" t="n"/>
-      <c r="F910" s="18" t="n"/>
+      <c r="F910" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H910" s="18" t="n"/>
-      <c r="I910" s="13" t="n"/>
+      <c r="I910" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J910" s="13" t="n"/>
       <c r="K910" s="19" t="n"/>
-      <c r="L910" s="19" t="n"/>
+      <c r="L910" s="19" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M910" s="20" t="n"/>
       <c r="N910" s="20" t="n"/>
       <c r="O910" s="20" t="n"/>
@@ -47520,17 +47875,50 @@
       <c r="Q910" s="20" t="n"/>
     </row>
     <row r="911">
-      <c r="A911" s="18" t="n"/>
-      <c r="B911" s="18" t="n"/>
-      <c r="C911" s="18" t="n"/>
-      <c r="D911" s="18" t="n"/>
+      <c r="A911" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B911" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C911" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D911" s="18" t="inlineStr">
+        <is>
+          <t>HTTP を HTTPS にリダイレクトする</t>
+        </is>
+      </c>
       <c r="E911" s="18" t="n"/>
-      <c r="F911" s="18" t="n"/>
+      <c r="F911" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H911" s="18" t="n"/>
-      <c r="I911" s="13" t="n"/>
+      <c r="I911" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J911" s="13" t="n"/>
       <c r="K911" s="19" t="n"/>
-      <c r="L911" s="19" t="n"/>
+      <c r="L911" s="19" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M911" s="20" t="n"/>
       <c r="N911" s="20" t="n"/>
       <c r="O911" s="20" t="n"/>
@@ -47538,17 +47926,50 @@
       <c r="Q911" s="20" t="n"/>
     </row>
     <row r="912">
-      <c r="A912" s="18" t="n"/>
-      <c r="B912" s="18" t="n"/>
-      <c r="C912" s="18" t="n"/>
-      <c r="D912" s="18" t="n"/>
+      <c r="A912" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B912" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C912" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D912" s="18" t="inlineStr">
+        <is>
+          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
+        </is>
+      </c>
       <c r="E912" s="18" t="n"/>
-      <c r="F912" s="18" t="n"/>
+      <c r="F912" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H912" s="18" t="n"/>
-      <c r="I912" s="13" t="n"/>
+      <c r="I912" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J912" s="13" t="n"/>
       <c r="K912" s="19" t="n"/>
-      <c r="L912" s="19" t="n"/>
+      <c r="L912" s="19" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M912" s="20" t="n"/>
       <c r="N912" s="20" t="n"/>
       <c r="O912" s="20" t="n"/>
@@ -47556,17 +47977,50 @@
       <c r="Q912" s="20" t="n"/>
     </row>
     <row r="913">
-      <c r="A913" s="18" t="n"/>
-      <c r="B913" s="18" t="n"/>
-      <c r="C913" s="18" t="n"/>
-      <c r="D913" s="18" t="n"/>
+      <c r="A913" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B913" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C913" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D913" s="18" t="inlineStr">
+        <is>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+        </is>
+      </c>
       <c r="E913" s="18" t="n"/>
-      <c r="F913" s="18" t="n"/>
+      <c r="F913" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H913" s="18" t="n"/>
-      <c r="I913" s="13" t="n"/>
+      <c r="I913" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J913" s="13" t="n"/>
       <c r="K913" s="19" t="n"/>
-      <c r="L913" s="19" t="n"/>
+      <c r="L913" s="19" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M913" s="20" t="n"/>
       <c r="N913" s="20" t="n"/>
       <c r="O913" s="20" t="n"/>
@@ -47574,17 +48028,50 @@
       <c r="Q913" s="20" t="n"/>
     </row>
     <row r="914">
-      <c r="A914" s="18" t="n"/>
-      <c r="B914" s="18" t="n"/>
-      <c r="C914" s="18" t="n"/>
-      <c r="D914" s="18" t="n"/>
+      <c r="A914" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B914" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C914" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D914" s="18" t="inlineStr">
+        <is>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+        </is>
+      </c>
       <c r="E914" s="18" t="n"/>
-      <c r="F914" s="18" t="n"/>
+      <c r="F914" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H914" s="18" t="n"/>
-      <c r="I914" s="13" t="n"/>
+      <c r="I914" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J914" s="13" t="n"/>
       <c r="K914" s="19" t="n"/>
-      <c r="L914" s="19" t="n"/>
+      <c r="L914" s="19" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M914" s="20" t="n"/>
       <c r="N914" s="20" t="n"/>
       <c r="O914" s="20" t="n"/>
@@ -47592,17 +48079,50 @@
       <c r="Q914" s="20" t="n"/>
     </row>
     <row r="915">
-      <c r="A915" s="18" t="n"/>
-      <c r="B915" s="18" t="n"/>
-      <c r="C915" s="18" t="n"/>
-      <c r="D915" s="18" t="n"/>
+      <c r="A915" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B915" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C915" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D915" s="18" t="inlineStr">
+        <is>
+          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+        </is>
+      </c>
       <c r="E915" s="18" t="n"/>
-      <c r="F915" s="18" t="n"/>
+      <c r="F915" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H915" s="18" t="n"/>
-      <c r="I915" s="13" t="n"/>
+      <c r="I915" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J915" s="13" t="n"/>
       <c r="K915" s="19" t="n"/>
-      <c r="L915" s="19" t="n"/>
+      <c r="L915" s="19" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M915" s="20" t="n"/>
       <c r="N915" s="20" t="n"/>
       <c r="O915" s="20" t="n"/>
@@ -47610,17 +48130,50 @@
       <c r="Q915" s="20" t="n"/>
     </row>
     <row r="916">
-      <c r="A916" s="18" t="n"/>
-      <c r="B916" s="18" t="n"/>
-      <c r="C916" s="18" t="n"/>
-      <c r="D916" s="18" t="n"/>
+      <c r="A916" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B916" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C916" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D916" s="18" t="inlineStr">
+        <is>
+          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
+        </is>
+      </c>
       <c r="E916" s="18" t="n"/>
-      <c r="F916" s="18" t="n"/>
+      <c r="F916" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H916" s="18" t="n"/>
-      <c r="I916" s="13" t="n"/>
+      <c r="I916" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J916" s="13" t="n"/>
       <c r="K916" s="19" t="n"/>
-      <c r="L916" s="19" t="n"/>
+      <c r="L916" s="19" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M916" s="20" t="n"/>
       <c r="N916" s="20" t="n"/>
       <c r="O916" s="20" t="n"/>
@@ -47628,17 +48181,50 @@
       <c r="Q916" s="20" t="n"/>
     </row>
     <row r="917">
-      <c r="A917" s="18" t="n"/>
-      <c r="B917" s="18" t="n"/>
-      <c r="C917" s="18" t="n"/>
-      <c r="D917" s="18" t="n"/>
+      <c r="A917" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B917" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C917" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D917" s="18" t="inlineStr">
+        <is>
+          <t>トランスポート層の負荷分散を使用する</t>
+        </is>
+      </c>
       <c r="E917" s="18" t="n"/>
-      <c r="F917" s="18" t="n"/>
+      <c r="F917" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H917" s="18" t="n"/>
-      <c r="I917" s="13" t="n"/>
+      <c r="I917" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J917" s="13" t="n"/>
       <c r="K917" s="19" t="n"/>
-      <c r="L917" s="19" t="n"/>
+      <c r="L917" s="19" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M917" s="20" t="n"/>
       <c r="N917" s="20" t="n"/>
       <c r="O917" s="20" t="n"/>
@@ -47646,17 +48232,50 @@
       <c r="Q917" s="20" t="n"/>
     </row>
     <row r="918">
-      <c r="A918" s="18" t="n"/>
-      <c r="B918" s="18" t="n"/>
-      <c r="C918" s="18" t="n"/>
-      <c r="D918" s="18" t="n"/>
+      <c r="A918" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B918" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C918" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D918" s="18" t="inlineStr">
+        <is>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+        </is>
+      </c>
       <c r="E918" s="18" t="n"/>
-      <c r="F918" s="18" t="n"/>
+      <c r="F918" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H918" s="18" t="n"/>
-      <c r="I918" s="13" t="n"/>
+      <c r="I918" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J918" s="13" t="n"/>
       <c r="K918" s="19" t="n"/>
-      <c r="L918" s="19" t="n"/>
+      <c r="L918" s="19" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M918" s="20" t="n"/>
       <c r="N918" s="20" t="n"/>
       <c r="O918" s="20" t="n"/>
@@ -47664,17 +48283,50 @@
       <c r="Q918" s="20" t="n"/>
     </row>
     <row r="919">
-      <c r="A919" s="18" t="n"/>
-      <c r="B919" s="18" t="n"/>
-      <c r="C919" s="18" t="n"/>
-      <c r="D919" s="18" t="n"/>
+      <c r="A919" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B919" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C919" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D919" s="18" t="inlineStr">
+        <is>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
+        </is>
+      </c>
       <c r="E919" s="18" t="n"/>
-      <c r="F919" s="18" t="n"/>
+      <c r="F919" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H919" s="18" t="n"/>
-      <c r="I919" s="13" t="n"/>
+      <c r="I919" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J919" s="13" t="n"/>
       <c r="K919" s="19" t="n"/>
-      <c r="L919" s="19" t="n"/>
+      <c r="L919" s="19" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M919" s="20" t="n"/>
       <c r="N919" s="20" t="n"/>
       <c r="O919" s="20" t="n"/>
@@ -47682,17 +48334,50 @@
       <c r="Q919" s="20" t="n"/>
     </row>
     <row r="920">
-      <c r="A920" s="18" t="n"/>
-      <c r="B920" s="18" t="n"/>
-      <c r="C920" s="18" t="n"/>
-      <c r="D920" s="18" t="n"/>
+      <c r="A920" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B920" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C920" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D920" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
+        </is>
+      </c>
       <c r="E920" s="18" t="n"/>
-      <c r="F920" s="18" t="n"/>
+      <c r="F920" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H920" s="18" t="n"/>
-      <c r="I920" s="13" t="n"/>
+      <c r="I920" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J920" s="13" t="n"/>
       <c r="K920" s="19" t="n"/>
-      <c r="L920" s="19" t="n"/>
+      <c r="L920" s="19" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M920" s="20" t="n"/>
       <c r="N920" s="20" t="n"/>
       <c r="O920" s="20" t="n"/>
@@ -47700,17 +48385,50 @@
       <c r="Q920" s="20" t="n"/>
     </row>
     <row r="921">
-      <c r="A921" s="18" t="n"/>
-      <c r="B921" s="18" t="n"/>
-      <c r="C921" s="18" t="n"/>
-      <c r="D921" s="18" t="n"/>
+      <c r="A921" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B921" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C921" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D921" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory の FTA 回復性プレイブックの活用</t>
+        </is>
+      </c>
       <c r="E921" s="18" t="n"/>
-      <c r="F921" s="18" t="n"/>
+      <c r="F921" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H921" s="18" t="n"/>
-      <c r="I921" s="13" t="n"/>
+      <c r="I921" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J921" s="13" t="n"/>
       <c r="K921" s="19" t="n"/>
-      <c r="L921" s="19" t="n"/>
+      <c r="L921" s="19" t="inlineStr">
+        <is>
+          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
+        </is>
+      </c>
       <c r="M921" s="20" t="n"/>
       <c r="N921" s="20" t="n"/>
       <c r="O921" s="20" t="n"/>
@@ -47718,17 +48436,50 @@
       <c r="Q921" s="20" t="n"/>
     </row>
     <row r="922">
-      <c r="A922" s="18" t="n"/>
-      <c r="B922" s="18" t="n"/>
-      <c r="C922" s="18" t="n"/>
-      <c r="D922" s="18" t="n"/>
+      <c r="A922" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B922" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C922" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D922" s="18" t="inlineStr">
+        <is>
+          <t>Availability Zones をサポートするリージョンでゾーン冗長パイプラインを使用するUse zone redundant pipelines in regions that support Availability Zones</t>
+        </is>
+      </c>
       <c r="E922" s="18" t="n"/>
-      <c r="F922" s="18" t="n"/>
+      <c r="F922" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H922" s="18" t="n"/>
-      <c r="I922" s="13" t="n"/>
+      <c r="I922" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J922" s="13" t="n"/>
       <c r="K922" s="19" t="n"/>
-      <c r="L922" s="19" t="n"/>
+      <c r="L922" s="19" t="inlineStr">
+        <is>
+          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
+        </is>
+      </c>
       <c r="M922" s="20" t="n"/>
       <c r="N922" s="20" t="n"/>
       <c r="O922" s="20" t="n"/>
@@ -47736,17 +48487,50 @@
       <c r="Q922" s="20" t="n"/>
     </row>
     <row r="923">
-      <c r="A923" s="18" t="n"/>
-      <c r="B923" s="18" t="n"/>
-      <c r="C923" s="18" t="n"/>
-      <c r="D923" s="18" t="n"/>
+      <c r="A923" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B923" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C923" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D923" s="18" t="inlineStr">
+        <is>
+          <t>DevOps を使用して Github と Azure DevOps の統合で ARM テンプレートをバックアップする</t>
+        </is>
+      </c>
       <c r="E923" s="18" t="n"/>
-      <c r="F923" s="18" t="n"/>
+      <c r="F923" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H923" s="18" t="n"/>
-      <c r="I923" s="13" t="n"/>
+      <c r="I923" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J923" s="13" t="n"/>
       <c r="K923" s="19" t="n"/>
-      <c r="L923" s="19" t="n"/>
+      <c r="L923" s="19" t="inlineStr">
+        <is>
+          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
+        </is>
+      </c>
       <c r="M923" s="20" t="n"/>
       <c r="N923" s="20" t="n"/>
       <c r="O923" s="20" t="n"/>
@@ -47754,17 +48538,50 @@
       <c r="Q923" s="20" t="n"/>
     </row>
     <row r="924">
-      <c r="A924" s="18" t="n"/>
-      <c r="B924" s="18" t="n"/>
-      <c r="C924" s="18" t="n"/>
-      <c r="D924" s="18" t="n"/>
+      <c r="A924" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B924" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C924" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D924" s="18" t="inlineStr">
+        <is>
+          <t>セルフホステッド統合ランタイム VM を別のリージョンにレプリケートしてください</t>
+        </is>
+      </c>
       <c r="E924" s="18" t="n"/>
-      <c r="F924" s="18" t="n"/>
+      <c r="F924" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H924" s="18" t="n"/>
-      <c r="I924" s="13" t="n"/>
+      <c r="I924" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J924" s="13" t="n"/>
       <c r="K924" s="19" t="n"/>
-      <c r="L924" s="19" t="n"/>
+      <c r="L924" s="19" t="inlineStr">
+        <is>
+          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
+        </is>
+      </c>
       <c r="M924" s="20" t="n"/>
       <c r="N924" s="20" t="n"/>
       <c r="O924" s="20" t="n"/>
@@ -47772,17 +48589,50 @@
       <c r="Q924" s="20" t="n"/>
     </row>
     <row r="925">
-      <c r="A925" s="18" t="n"/>
-      <c r="B925" s="18" t="n"/>
-      <c r="C925" s="18" t="n"/>
-      <c r="D925" s="18" t="n"/>
+      <c r="A925" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B925" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C925" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D925" s="18" t="inlineStr">
+        <is>
+          <t>必ず、姉妹リージョンでネットワークをレプリケートまたは複製してください。別のリージョンに VNet のコピーを作成する必要があります</t>
+        </is>
+      </c>
       <c r="E925" s="18" t="n"/>
-      <c r="F925" s="18" t="n"/>
+      <c r="F925" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H925" s="18" t="n"/>
-      <c r="I925" s="13" t="n"/>
+      <c r="I925" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J925" s="13" t="n"/>
       <c r="K925" s="19" t="n"/>
-      <c r="L925" s="19" t="n"/>
+      <c r="L925" s="19" t="inlineStr">
+        <is>
+          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
+        </is>
+      </c>
       <c r="M925" s="20" t="n"/>
       <c r="N925" s="20" t="n"/>
       <c r="O925" s="20" t="n"/>
@@ -47790,17 +48640,54 @@
       <c r="Q925" s="20" t="n"/>
     </row>
     <row r="926">
-      <c r="A926" s="18" t="n"/>
-      <c r="B926" s="18" t="n"/>
-      <c r="C926" s="18" t="n"/>
-      <c r="D926" s="18" t="n"/>
-      <c r="E926" s="18" t="n"/>
-      <c r="F926" s="18" t="n"/>
+      <c r="A926" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory Review Checklist</t>
+        </is>
+      </c>
+      <c r="B926" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C926" s="18" t="inlineStr">
+        <is>
+          <t>Azure Data Factory</t>
+        </is>
+      </c>
+      <c r="D926" s="18" t="inlineStr">
+        <is>
+          <t>Keyvault 統合を使用している場合は、Keyvault の SLA を使用して可用性を把握します</t>
+        </is>
+      </c>
+      <c r="E926" s="18" t="inlineStr">
+        <is>
+          <t>ADF パイプラインで Key Vault が使用されている場合は、Key Vault をレプリケートするために何もする必要はありません。Key Vault はマネージド サービスであり、Microsoft が処理します</t>
+        </is>
+      </c>
+      <c r="F926" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H926" s="18" t="n"/>
-      <c r="I926" s="13" t="n"/>
+      <c r="I926" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J926" s="13" t="n"/>
       <c r="K926" s="19" t="n"/>
-      <c r="L926" s="19" t="n"/>
+      <c r="L926" s="19" t="inlineStr">
+        <is>
+          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
+        </is>
+      </c>
       <c r="M926" s="20" t="n"/>
       <c r="N926" s="20" t="n"/>
       <c r="O926" s="20" t="n"/>
@@ -47808,17 +48695,50 @@
       <c r="Q926" s="20" t="n"/>
     </row>
     <row r="927">
-      <c r="A927" s="18" t="n"/>
-      <c r="B927" s="18" t="n"/>
-      <c r="C927" s="18" t="n"/>
-      <c r="D927" s="18" t="n"/>
+      <c r="A927" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B927" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C927" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D927" s="18" t="inlineStr">
+        <is>
+          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
+        </is>
+      </c>
       <c r="E927" s="18" t="n"/>
-      <c r="F927" s="18" t="n"/>
+      <c r="F927" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H927" s="18" t="n"/>
-      <c r="I927" s="13" t="n"/>
+      <c r="I927" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J927" s="13" t="n"/>
       <c r="K927" s="19" t="n"/>
-      <c r="L927" s="19" t="n"/>
+      <c r="L927" s="19" t="inlineStr">
+        <is>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+        </is>
+      </c>
       <c r="M927" s="20" t="n"/>
       <c r="N927" s="20" t="n"/>
       <c r="O927" s="20" t="n"/>
@@ -47826,17 +48746,50 @@
       <c r="Q927" s="20" t="n"/>
     </row>
     <row r="928">
-      <c r="A928" s="18" t="n"/>
-      <c r="B928" s="18" t="n"/>
-      <c r="C928" s="18" t="n"/>
-      <c r="D928" s="18" t="n"/>
+      <c r="A928" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B928" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C928" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D928" s="18" t="inlineStr">
+        <is>
+          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
+        </is>
+      </c>
       <c r="E928" s="18" t="n"/>
-      <c r="F928" s="18" t="n"/>
+      <c r="F928" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H928" s="18" t="n"/>
-      <c r="I928" s="13" t="n"/>
+      <c r="I928" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J928" s="13" t="n"/>
       <c r="K928" s="19" t="n"/>
-      <c r="L928" s="19" t="n"/>
+      <c r="L928" s="19" t="inlineStr">
+        <is>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+        </is>
+      </c>
       <c r="M928" s="20" t="n"/>
       <c r="N928" s="20" t="n"/>
       <c r="O928" s="20" t="n"/>
@@ -47844,17 +48797,50 @@
       <c r="Q928" s="20" t="n"/>
     </row>
     <row r="929">
-      <c r="A929" s="18" t="n"/>
-      <c r="B929" s="18" t="n"/>
-      <c r="C929" s="18" t="n"/>
-      <c r="D929" s="18" t="n"/>
+      <c r="A929" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B929" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C929" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D929" s="18" t="inlineStr">
+        <is>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+        </is>
+      </c>
       <c r="E929" s="18" t="n"/>
-      <c r="F929" s="18" t="n"/>
+      <c r="F929" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H929" s="18" t="n"/>
-      <c r="I929" s="13" t="n"/>
+      <c r="I929" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J929" s="13" t="n"/>
       <c r="K929" s="19" t="n"/>
-      <c r="L929" s="19" t="n"/>
+      <c r="L929" s="19" t="inlineStr">
+        <is>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+        </is>
+      </c>
       <c r="M929" s="20" t="n"/>
       <c r="N929" s="20" t="n"/>
       <c r="O929" s="20" t="n"/>
@@ -47862,17 +48848,50 @@
       <c r="Q929" s="20" t="n"/>
     </row>
     <row r="930">
-      <c r="A930" s="18" t="n"/>
-      <c r="B930" s="18" t="n"/>
-      <c r="C930" s="18" t="n"/>
-      <c r="D930" s="18" t="n"/>
+      <c r="A930" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B930" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C930" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D930" s="18" t="inlineStr">
+        <is>
+          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
+        </is>
+      </c>
       <c r="E930" s="18" t="n"/>
-      <c r="F930" s="18" t="n"/>
+      <c r="F930" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H930" s="18" t="n"/>
-      <c r="I930" s="13" t="n"/>
+      <c r="I930" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J930" s="13" t="n"/>
       <c r="K930" s="19" t="n"/>
-      <c r="L930" s="19" t="n"/>
+      <c r="L930" s="19" t="inlineStr">
+        <is>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+        </is>
+      </c>
       <c r="M930" s="20" t="n"/>
       <c r="N930" s="20" t="n"/>
       <c r="O930" s="20" t="n"/>
@@ -47880,17 +48899,50 @@
       <c r="Q930" s="20" t="n"/>
     </row>
     <row r="931">
-      <c r="A931" s="18" t="n"/>
-      <c r="B931" s="18" t="n"/>
-      <c r="C931" s="18" t="n"/>
-      <c r="D931" s="18" t="n"/>
+      <c r="A931" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B931" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C931" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D931" s="18" t="inlineStr">
+        <is>
+          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
+        </is>
+      </c>
       <c r="E931" s="18" t="n"/>
-      <c r="F931" s="18" t="n"/>
+      <c r="F931" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H931" s="18" t="n"/>
-      <c r="I931" s="13" t="n"/>
+      <c r="I931" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J931" s="13" t="n"/>
       <c r="K931" s="19" t="n"/>
-      <c r="L931" s="19" t="n"/>
+      <c r="L931" s="19" t="inlineStr">
+        <is>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+        </is>
+      </c>
       <c r="M931" s="20" t="n"/>
       <c r="N931" s="20" t="n"/>
       <c r="O931" s="20" t="n"/>
@@ -47898,17 +48950,50 @@
       <c r="Q931" s="20" t="n"/>
     </row>
     <row r="932">
-      <c r="A932" s="18" t="n"/>
-      <c r="B932" s="18" t="n"/>
-      <c r="C932" s="18" t="n"/>
-      <c r="D932" s="18" t="n"/>
+      <c r="A932" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B932" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C932" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D932" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
+        </is>
+      </c>
       <c r="E932" s="18" t="n"/>
-      <c r="F932" s="18" t="n"/>
+      <c r="F932" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H932" s="18" t="n"/>
-      <c r="I932" s="13" t="n"/>
+      <c r="I932" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J932" s="13" t="n"/>
       <c r="K932" s="19" t="n"/>
-      <c r="L932" s="19" t="n"/>
+      <c r="L932" s="19" t="inlineStr">
+        <is>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+        </is>
+      </c>
       <c r="M932" s="20" t="n"/>
       <c r="N932" s="20" t="n"/>
       <c r="O932" s="20" t="n"/>
@@ -47916,17 +49001,50 @@
       <c r="Q932" s="20" t="n"/>
     </row>
     <row r="933">
-      <c r="A933" s="18" t="n"/>
-      <c r="B933" s="18" t="n"/>
-      <c r="C933" s="18" t="n"/>
-      <c r="D933" s="18" t="n"/>
+      <c r="A933" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B933" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C933" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D933" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
+        </is>
+      </c>
       <c r="E933" s="18" t="n"/>
-      <c r="F933" s="18" t="n"/>
+      <c r="F933" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H933" s="18" t="n"/>
-      <c r="I933" s="13" t="n"/>
+      <c r="I933" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J933" s="13" t="n"/>
       <c r="K933" s="19" t="n"/>
-      <c r="L933" s="19" t="n"/>
+      <c r="L933" s="19" t="inlineStr">
+        <is>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+        </is>
+      </c>
       <c r="M933" s="20" t="n"/>
       <c r="N933" s="20" t="n"/>
       <c r="O933" s="20" t="n"/>
@@ -47934,17 +49052,50 @@
       <c r="Q933" s="20" t="n"/>
     </row>
     <row r="934">
-      <c r="A934" s="18" t="n"/>
-      <c r="B934" s="18" t="n"/>
-      <c r="C934" s="18" t="n"/>
-      <c r="D934" s="18" t="n"/>
+      <c r="A934" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B934" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C934" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D934" s="18" t="inlineStr">
+        <is>
+          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
+        </is>
+      </c>
       <c r="E934" s="18" t="n"/>
-      <c r="F934" s="18" t="n"/>
+      <c r="F934" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H934" s="18" t="n"/>
-      <c r="I934" s="13" t="n"/>
+      <c r="I934" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J934" s="13" t="n"/>
       <c r="K934" s="19" t="n"/>
-      <c r="L934" s="19" t="n"/>
+      <c r="L934" s="19" t="inlineStr">
+        <is>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+        </is>
+      </c>
       <c r="M934" s="20" t="n"/>
       <c r="N934" s="20" t="n"/>
       <c r="O934" s="20" t="n"/>
@@ -47952,17 +49103,50 @@
       <c r="Q934" s="20" t="n"/>
     </row>
     <row r="935">
-      <c r="A935" s="18" t="n"/>
-      <c r="B935" s="18" t="n"/>
-      <c r="C935" s="18" t="n"/>
-      <c r="D935" s="18" t="n"/>
+      <c r="A935" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B935" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C935" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D935" s="18" t="inlineStr">
+        <is>
+          <t>アプリに複数のアプリ インスタンスを使用する</t>
+        </is>
+      </c>
       <c r="E935" s="18" t="n"/>
-      <c r="F935" s="18" t="n"/>
+      <c r="F935" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H935" s="18" t="n"/>
-      <c r="I935" s="13" t="n"/>
+      <c r="I935" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J935" s="13" t="n"/>
       <c r="K935" s="19" t="n"/>
-      <c r="L935" s="19" t="n"/>
+      <c r="L935" s="19" t="inlineStr">
+        <is>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+        </is>
+      </c>
       <c r="M935" s="20" t="n"/>
       <c r="N935" s="20" t="n"/>
       <c r="O935" s="20" t="n"/>
@@ -47970,17 +49154,50 @@
       <c r="Q935" s="20" t="n"/>
     </row>
     <row r="936">
-      <c r="A936" s="18" t="n"/>
-      <c r="B936" s="18" t="n"/>
-      <c r="C936" s="18" t="n"/>
-      <c r="D936" s="18" t="n"/>
+      <c r="A936" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B936" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C936" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D936" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
+        </is>
+      </c>
       <c r="E936" s="18" t="n"/>
-      <c r="F936" s="18" t="n"/>
+      <c r="F936" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H936" s="18" t="n"/>
-      <c r="I936" s="13" t="n"/>
+      <c r="I936" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J936" s="13" t="n"/>
       <c r="K936" s="19" t="n"/>
-      <c r="L936" s="19" t="n"/>
+      <c r="L936" s="19" t="inlineStr">
+        <is>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+        </is>
+      </c>
       <c r="M936" s="20" t="n"/>
       <c r="N936" s="20" t="n"/>
       <c r="O936" s="20" t="n"/>
@@ -47988,17 +49205,50 @@
       <c r="Q936" s="20" t="n"/>
     </row>
     <row r="937">
-      <c r="A937" s="18" t="n"/>
-      <c r="B937" s="18" t="n"/>
-      <c r="C937" s="18" t="n"/>
-      <c r="D937" s="18" t="n"/>
+      <c r="A937" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B937" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C937" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D937" s="18" t="inlineStr">
+        <is>
+          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
+        </is>
+      </c>
       <c r="E937" s="18" t="n"/>
-      <c r="F937" s="18" t="n"/>
+      <c r="F937" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H937" s="18" t="n"/>
-      <c r="I937" s="13" t="n"/>
+      <c r="I937" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J937" s="13" t="n"/>
       <c r="K937" s="19" t="n"/>
-      <c r="L937" s="19" t="n"/>
+      <c r="L937" s="19" t="inlineStr">
+        <is>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+        </is>
+      </c>
       <c r="M937" s="20" t="n"/>
       <c r="N937" s="20" t="n"/>
       <c r="O937" s="20" t="n"/>
@@ -48006,17 +49256,50 @@
       <c r="Q937" s="20" t="n"/>
     </row>
     <row r="938">
-      <c r="A938" s="18" t="n"/>
-      <c r="B938" s="18" t="n"/>
-      <c r="C938" s="18" t="n"/>
-      <c r="D938" s="18" t="n"/>
+      <c r="A938" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B938" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C938" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D938" s="18" t="inlineStr">
+        <is>
+          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
+        </is>
+      </c>
       <c r="E938" s="18" t="n"/>
-      <c r="F938" s="18" t="n"/>
+      <c r="F938" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H938" s="18" t="n"/>
-      <c r="I938" s="13" t="n"/>
+      <c r="I938" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J938" s="13" t="n"/>
       <c r="K938" s="19" t="n"/>
-      <c r="L938" s="19" t="n"/>
+      <c r="L938" s="19" t="inlineStr">
+        <is>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+        </is>
+      </c>
       <c r="M938" s="20" t="n"/>
       <c r="N938" s="20" t="n"/>
       <c r="O938" s="20" t="n"/>
@@ -48024,17 +49307,50 @@
       <c r="Q938" s="20" t="n"/>
     </row>
     <row r="939">
-      <c r="A939" s="18" t="n"/>
-      <c r="B939" s="18" t="n"/>
-      <c r="C939" s="18" t="n"/>
-      <c r="D939" s="18" t="n"/>
+      <c r="A939" s="18" t="inlineStr">
+        <is>
+          <t>Azure Spring Apps Review</t>
+        </is>
+      </c>
+      <c r="B939" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C939" s="18" t="inlineStr">
+        <is>
+          <t>Spring Apps</t>
+        </is>
+      </c>
+      <c r="D939" s="18" t="inlineStr">
+        <is>
+          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
+        </is>
+      </c>
       <c r="E939" s="18" t="n"/>
-      <c r="F939" s="18" t="n"/>
+      <c r="F939" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H939" s="18" t="n"/>
-      <c r="I939" s="13" t="n"/>
+      <c r="I939" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J939" s="13" t="n"/>
       <c r="K939" s="19" t="n"/>
-      <c r="L939" s="19" t="n"/>
+      <c r="L939" s="19" t="inlineStr">
+        <is>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+        </is>
+      </c>
       <c r="M939" s="20" t="n"/>
       <c r="N939" s="20" t="n"/>
       <c r="O939" s="20" t="n"/>
@@ -48042,17 +49358,50 @@
       <c r="Q939" s="20" t="n"/>
     </row>
     <row r="940">
-      <c r="A940" s="18" t="n"/>
-      <c r="B940" s="18" t="n"/>
-      <c r="C940" s="18" t="n"/>
-      <c r="D940" s="18" t="n"/>
+      <c r="A940" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B940" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C940" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D940" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+        </is>
+      </c>
       <c r="E940" s="18" t="n"/>
-      <c r="F940" s="18" t="n"/>
+      <c r="F940" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H940" s="18" t="n"/>
-      <c r="I940" s="13" t="n"/>
+      <c r="I940" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J940" s="13" t="n"/>
       <c r="K940" s="19" t="n"/>
-      <c r="L940" s="19" t="n"/>
+      <c r="L940" s="19" t="inlineStr">
+        <is>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+        </is>
+      </c>
       <c r="M940" s="20" t="n"/>
       <c r="N940" s="20" t="n"/>
       <c r="O940" s="20" t="n"/>
@@ -48060,17 +49409,50 @@
       <c r="Q940" s="20" t="n"/>
     </row>
     <row r="941">
-      <c r="A941" s="18" t="n"/>
-      <c r="B941" s="18" t="n"/>
-      <c r="C941" s="18" t="n"/>
-      <c r="D941" s="18" t="n"/>
+      <c r="A941" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B941" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C941" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D941" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+        </is>
+      </c>
       <c r="E941" s="18" t="n"/>
-      <c r="F941" s="18" t="n"/>
+      <c r="F941" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H941" s="18" t="n"/>
-      <c r="I941" s="13" t="n"/>
+      <c r="I941" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J941" s="13" t="n"/>
       <c r="K941" s="19" t="n"/>
-      <c r="L941" s="19" t="n"/>
+      <c r="L941" s="19" t="inlineStr">
+        <is>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+        </is>
+      </c>
       <c r="M941" s="20" t="n"/>
       <c r="N941" s="20" t="n"/>
       <c r="O941" s="20" t="n"/>
@@ -48078,17 +49460,50 @@
       <c r="Q941" s="20" t="n"/>
     </row>
     <row r="942">
-      <c r="A942" s="18" t="n"/>
-      <c r="B942" s="18" t="n"/>
-      <c r="C942" s="18" t="n"/>
-      <c r="D942" s="18" t="n"/>
+      <c r="A942" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B942" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C942" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D942" s="18" t="inlineStr">
+        <is>
+          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+        </is>
+      </c>
       <c r="E942" s="18" t="n"/>
-      <c r="F942" s="18" t="n"/>
+      <c r="F942" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H942" s="18" t="n"/>
-      <c r="I942" s="13" t="n"/>
+      <c r="I942" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J942" s="13" t="n"/>
       <c r="K942" s="19" t="n"/>
-      <c r="L942" s="19" t="n"/>
+      <c r="L942" s="19" t="inlineStr">
+        <is>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+        </is>
+      </c>
       <c r="M942" s="20" t="n"/>
       <c r="N942" s="20" t="n"/>
       <c r="O942" s="20" t="n"/>
@@ -48096,17 +49511,50 @@
       <c r="Q942" s="20" t="n"/>
     </row>
     <row r="943">
-      <c r="A943" s="18" t="n"/>
-      <c r="B943" s="18" t="n"/>
-      <c r="C943" s="18" t="n"/>
-      <c r="D943" s="18" t="n"/>
+      <c r="A943" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B943" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C943" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D943" s="18" t="inlineStr">
+        <is>
+          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+        </is>
+      </c>
       <c r="E943" s="18" t="n"/>
-      <c r="F943" s="18" t="n"/>
+      <c r="F943" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H943" s="18" t="n"/>
-      <c r="I943" s="13" t="n"/>
+      <c r="I943" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J943" s="13" t="n"/>
       <c r="K943" s="19" t="n"/>
-      <c r="L943" s="19" t="n"/>
+      <c r="L943" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M943" s="20" t="n"/>
       <c r="N943" s="20" t="n"/>
       <c r="O943" s="20" t="n"/>
@@ -52974,7 +54422,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G904" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G944" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -53691,78 +55139,116 @@
     <hyperlink ref="I829" r:id="rId710"/>
     <hyperlink ref="I830" r:id="rId711"/>
     <hyperlink ref="I831" r:id="rId712"/>
-    <hyperlink ref="I832" r:id="rId713"/>
-    <hyperlink ref="I833" r:id="rId714"/>
-    <hyperlink ref="I834" r:id="rId715"/>
-    <hyperlink ref="I835" r:id="rId716"/>
-    <hyperlink ref="I836" r:id="rId717"/>
-    <hyperlink ref="I837" r:id="rId718"/>
-    <hyperlink ref="I838" r:id="rId719"/>
-    <hyperlink ref="I839" r:id="rId720"/>
-    <hyperlink ref="I840" r:id="rId721"/>
-    <hyperlink ref="I841" r:id="rId722"/>
-    <hyperlink ref="I842" r:id="rId723"/>
-    <hyperlink ref="I843" r:id="rId724"/>
-    <hyperlink ref="I844" r:id="rId725"/>
-    <hyperlink ref="I845" r:id="rId726"/>
-    <hyperlink ref="I846" r:id="rId727"/>
-    <hyperlink ref="I847" r:id="rId728"/>
-    <hyperlink ref="I848" r:id="rId729"/>
-    <hyperlink ref="I849" r:id="rId730"/>
-    <hyperlink ref="I850" r:id="rId731"/>
-    <hyperlink ref="I851" r:id="rId732"/>
-    <hyperlink ref="I852" r:id="rId733"/>
-    <hyperlink ref="I853" r:id="rId734"/>
-    <hyperlink ref="I854" r:id="rId735"/>
-    <hyperlink ref="I855" r:id="rId736"/>
-    <hyperlink ref="I856" r:id="rId737"/>
-    <hyperlink ref="I857" r:id="rId738"/>
-    <hyperlink ref="I858" r:id="rId739"/>
-    <hyperlink ref="I859" r:id="rId740"/>
-    <hyperlink ref="I860" r:id="rId741"/>
-    <hyperlink ref="I861" r:id="rId742"/>
-    <hyperlink ref="I862" r:id="rId743"/>
-    <hyperlink ref="I863" r:id="rId744"/>
-    <hyperlink ref="I864" r:id="rId745"/>
-    <hyperlink ref="I865" r:id="rId746"/>
-    <hyperlink ref="I866" r:id="rId747"/>
-    <hyperlink ref="I867" r:id="rId748"/>
-    <hyperlink ref="I868" r:id="rId749"/>
-    <hyperlink ref="I869" r:id="rId750"/>
-    <hyperlink ref="I870" r:id="rId751"/>
-    <hyperlink ref="I871" r:id="rId752"/>
-    <hyperlink ref="I872" r:id="rId753"/>
-    <hyperlink ref="I873" r:id="rId754"/>
-    <hyperlink ref="I874" r:id="rId755"/>
-    <hyperlink ref="I875" r:id="rId756"/>
-    <hyperlink ref="I876" r:id="rId757"/>
-    <hyperlink ref="I877" r:id="rId758"/>
-    <hyperlink ref="I878" r:id="rId759"/>
-    <hyperlink ref="I879" r:id="rId760"/>
-    <hyperlink ref="I880" r:id="rId761"/>
-    <hyperlink ref="I881" r:id="rId762"/>
-    <hyperlink ref="I882" r:id="rId763"/>
-    <hyperlink ref="I883" r:id="rId764"/>
-    <hyperlink ref="I884" r:id="rId765"/>
-    <hyperlink ref="I885" r:id="rId766"/>
-    <hyperlink ref="I886" r:id="rId767"/>
-    <hyperlink ref="I887" r:id="rId768"/>
-    <hyperlink ref="I888" r:id="rId769"/>
-    <hyperlink ref="I889" r:id="rId770"/>
-    <hyperlink ref="I890" r:id="rId771"/>
-    <hyperlink ref="I891" r:id="rId772"/>
-    <hyperlink ref="I892" r:id="rId773"/>
-    <hyperlink ref="I893" r:id="rId774"/>
-    <hyperlink ref="I894" r:id="rId775"/>
-    <hyperlink ref="I895" r:id="rId776"/>
-    <hyperlink ref="I896" r:id="rId777"/>
-    <hyperlink ref="I897" r:id="rId778"/>
-    <hyperlink ref="I898" r:id="rId779"/>
-    <hyperlink ref="I899" r:id="rId780"/>
-    <hyperlink ref="I900" r:id="rId781"/>
-    <hyperlink ref="I901" r:id="rId782"/>
-    <hyperlink ref="I902" r:id="rId783"/>
-    <hyperlink ref="I903" r:id="rId784"/>
+    <hyperlink ref="I833" r:id="rId713"/>
+    <hyperlink ref="I834" r:id="rId714"/>
+    <hyperlink ref="I835" r:id="rId715"/>
+    <hyperlink ref="I836" r:id="rId716"/>
+    <hyperlink ref="I837" r:id="rId717"/>
+    <hyperlink ref="I838" r:id="rId718"/>
+    <hyperlink ref="I839" r:id="rId719"/>
+    <hyperlink ref="I840" r:id="rId720"/>
+    <hyperlink ref="I841" r:id="rId721"/>
+    <hyperlink ref="I842" r:id="rId722"/>
+    <hyperlink ref="I843" r:id="rId723"/>
+    <hyperlink ref="I845" r:id="rId724"/>
+    <hyperlink ref="I846" r:id="rId725"/>
+    <hyperlink ref="I847" r:id="rId726"/>
+    <hyperlink ref="I848" r:id="rId727"/>
+    <hyperlink ref="I849" r:id="rId728"/>
+    <hyperlink ref="I850" r:id="rId729"/>
+    <hyperlink ref="I851" r:id="rId730"/>
+    <hyperlink ref="I852" r:id="rId731"/>
+    <hyperlink ref="I853" r:id="rId732"/>
+    <hyperlink ref="I854" r:id="rId733"/>
+    <hyperlink ref="I855" r:id="rId734"/>
+    <hyperlink ref="I856" r:id="rId735"/>
+    <hyperlink ref="I857" r:id="rId736"/>
+    <hyperlink ref="I858" r:id="rId737"/>
+    <hyperlink ref="I859" r:id="rId738"/>
+    <hyperlink ref="I860" r:id="rId739"/>
+    <hyperlink ref="I861" r:id="rId740"/>
+    <hyperlink ref="I862" r:id="rId741"/>
+    <hyperlink ref="I863" r:id="rId742"/>
+    <hyperlink ref="I864" r:id="rId743"/>
+    <hyperlink ref="I865" r:id="rId744"/>
+    <hyperlink ref="I866" r:id="rId745"/>
+    <hyperlink ref="I867" r:id="rId746"/>
+    <hyperlink ref="I868" r:id="rId747"/>
+    <hyperlink ref="I869" r:id="rId748"/>
+    <hyperlink ref="I870" r:id="rId749"/>
+    <hyperlink ref="I871" r:id="rId750"/>
+    <hyperlink ref="I872" r:id="rId751"/>
+    <hyperlink ref="I873" r:id="rId752"/>
+    <hyperlink ref="I874" r:id="rId753"/>
+    <hyperlink ref="I875" r:id="rId754"/>
+    <hyperlink ref="I876" r:id="rId755"/>
+    <hyperlink ref="I877" r:id="rId756"/>
+    <hyperlink ref="I878" r:id="rId757"/>
+    <hyperlink ref="I879" r:id="rId758"/>
+    <hyperlink ref="I880" r:id="rId759"/>
+    <hyperlink ref="I881" r:id="rId760"/>
+    <hyperlink ref="I882" r:id="rId761"/>
+    <hyperlink ref="I883" r:id="rId762"/>
+    <hyperlink ref="I884" r:id="rId763"/>
+    <hyperlink ref="I885" r:id="rId764"/>
+    <hyperlink ref="I886" r:id="rId765"/>
+    <hyperlink ref="I887" r:id="rId766"/>
+    <hyperlink ref="I888" r:id="rId767"/>
+    <hyperlink ref="I889" r:id="rId768"/>
+    <hyperlink ref="I890" r:id="rId769"/>
+    <hyperlink ref="I891" r:id="rId770"/>
+    <hyperlink ref="I892" r:id="rId771"/>
+    <hyperlink ref="I893" r:id="rId772"/>
+    <hyperlink ref="I894" r:id="rId773"/>
+    <hyperlink ref="I895" r:id="rId774"/>
+    <hyperlink ref="I896" r:id="rId775"/>
+    <hyperlink ref="I897" r:id="rId776"/>
+    <hyperlink ref="I898" r:id="rId777"/>
+    <hyperlink ref="I899" r:id="rId778"/>
+    <hyperlink ref="I900" r:id="rId779"/>
+    <hyperlink ref="I901" r:id="rId780"/>
+    <hyperlink ref="I902" r:id="rId781"/>
+    <hyperlink ref="I903" r:id="rId782"/>
+    <hyperlink ref="I904" r:id="rId783"/>
+    <hyperlink ref="I905" r:id="rId784"/>
+    <hyperlink ref="I906" r:id="rId785"/>
+    <hyperlink ref="I907" r:id="rId786"/>
+    <hyperlink ref="I908" r:id="rId787"/>
+    <hyperlink ref="I909" r:id="rId788"/>
+    <hyperlink ref="I910" r:id="rId789"/>
+    <hyperlink ref="I911" r:id="rId790"/>
+    <hyperlink ref="I912" r:id="rId791"/>
+    <hyperlink ref="I913" r:id="rId792"/>
+    <hyperlink ref="I914" r:id="rId793"/>
+    <hyperlink ref="I915" r:id="rId794"/>
+    <hyperlink ref="I916" r:id="rId795"/>
+    <hyperlink ref="I917" r:id="rId796"/>
+    <hyperlink ref="I918" r:id="rId797"/>
+    <hyperlink ref="I919" r:id="rId798"/>
+    <hyperlink ref="I920" r:id="rId799"/>
+    <hyperlink ref="I921" r:id="rId800"/>
+    <hyperlink ref="I922" r:id="rId801"/>
+    <hyperlink ref="I923" r:id="rId802"/>
+    <hyperlink ref="I924" r:id="rId803"/>
+    <hyperlink ref="I925" r:id="rId804"/>
+    <hyperlink ref="I926" r:id="rId805"/>
+    <hyperlink ref="I927" r:id="rId806"/>
+    <hyperlink ref="I928" r:id="rId807"/>
+    <hyperlink ref="I929" r:id="rId808"/>
+    <hyperlink ref="I930" r:id="rId809"/>
+    <hyperlink ref="I931" r:id="rId810"/>
+    <hyperlink ref="I932" r:id="rId811"/>
+    <hyperlink ref="I933" r:id="rId812"/>
+    <hyperlink ref="I934" r:id="rId813"/>
+    <hyperlink ref="I935" r:id="rId814"/>
+    <hyperlink ref="I936" r:id="rId815"/>
+    <hyperlink ref="I937" r:id="rId816"/>
+    <hyperlink ref="I938" r:id="rId817"/>
+    <hyperlink ref="I939" r:id="rId818"/>
+    <hyperlink ref="I940" r:id="rId819"/>
+    <hyperlink ref="I941" r:id="rId820"/>
+    <hyperlink ref="I942" r:id="rId821"/>
+    <hyperlink ref="I943" r:id="rId822"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -34040,7 +34040,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J651" s="13" t="n"/>
+      <c r="J651" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
@@ -34091,7 +34095,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="13" t="n"/>
+      <c r="J652" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
@@ -34197,7 +34205,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J654" s="13" t="n"/>
+      <c r="J654" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
@@ -34633,7 +34645,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="13" t="n"/>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
@@ -34904,7 +34920,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J667" s="13" t="n"/>
+      <c r="J667" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
@@ -35061,7 +35081,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J670" s="13" t="n"/>
+      <c r="J670" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
@@ -35112,7 +35136,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J671" s="13" t="n"/>
+      <c r="J671" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K671" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
@@ -35277,7 +35305,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J674" s="13" t="n"/>
+      <c r="J674" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K674" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
@@ -35332,7 +35364,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J675" s="13" t="n"/>
+      <c r="J675" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K675" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
@@ -35387,7 +35423,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J676" s="13" t="n"/>
+      <c r="J676" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K676" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
@@ -35442,7 +35482,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="13" t="n"/>
+      <c r="J677" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
@@ -35886,7 +35930,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
@@ -35992,7 +36040,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J687" s="13" t="n"/>
+      <c r="J687" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
@@ -36043,7 +36095,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="13" t="n"/>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K688" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
@@ -36318,7 +36374,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J693" s="13" t="n"/>
+      <c r="J693" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
@@ -36424,7 +36484,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J695" s="13" t="n"/>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
@@ -36648,7 +36712,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J699" s="13" t="n"/>
+      <c r="J699" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K699" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
@@ -36703,7 +36771,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J700" s="13" t="n"/>
+      <c r="J700" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K700" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
@@ -37320,7 +37392,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J711" s="13" t="n"/>
+      <c r="J711" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
@@ -37426,7 +37502,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J713" s="13" t="n"/>
+      <c r="J713" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
@@ -37968,7 +38048,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J723" s="13" t="n"/>
+      <c r="J723" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K723" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
@@ -38023,7 +38107,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J724" s="13" t="n"/>
+      <c r="J724" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K724" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
@@ -38133,7 +38221,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J726" s="13" t="n"/>
+      <c r="J726" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K726" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
@@ -38353,7 +38445,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J730" s="13" t="n"/>
+      <c r="J730" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K730" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
@@ -38408,7 +38504,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J731" s="13" t="n"/>
+      <c r="J731" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
@@ -38510,7 +38610,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J733" s="13" t="n"/>
+      <c r="J733" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
@@ -38561,7 +38665,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J734" s="13" t="n"/>
+      <c r="J734" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
@@ -38714,7 +38822,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J737" s="13" t="n"/>
+      <c r="J737" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
@@ -38765,7 +38877,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J738" s="13" t="n"/>
+      <c r="J738" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
@@ -38816,7 +38932,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J739" s="13" t="n"/>
+      <c r="J739" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
@@ -38867,7 +38987,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J740" s="13" t="n"/>
+      <c r="J740" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
@@ -39531,7 +39655,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J752" s="13" t="n"/>
+      <c r="J752" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
@@ -39641,7 +39769,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J754" s="13" t="n"/>
+      <c r="J754" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
@@ -39692,7 +39824,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J755" s="13" t="n"/>
+      <c r="J755" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
@@ -39743,7 +39879,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J756" s="13" t="n"/>
+      <c r="J756" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
@@ -39794,7 +39934,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J757" s="13" t="n"/>
+      <c r="J757" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
@@ -39845,7 +39989,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J758" s="13" t="n"/>
+      <c r="J758" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
@@ -39896,7 +40044,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J759" s="13" t="n"/>
+      <c r="J759" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
@@ -40897,7 +41049,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J778" s="13" t="n"/>
+      <c r="J778" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
@@ -40948,7 +41104,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J779" s="13" t="n"/>
+      <c r="J779" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
@@ -40999,7 +41159,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J780" s="13" t="n"/>
+      <c r="J780" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
@@ -41050,7 +41214,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J781" s="13" t="n"/>
+      <c r="J781" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
@@ -41156,7 +41324,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J783" s="13" t="n"/>
+      <c r="J783" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
@@ -41207,7 +41379,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J784" s="13" t="n"/>
+      <c r="J784" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
@@ -41258,7 +41434,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J785" s="13" t="n"/>
+      <c r="J785" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
@@ -41309,7 +41489,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J786" s="13" t="n"/>
+      <c r="J786" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
@@ -41360,7 +41544,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J787" s="13" t="n"/>
+      <c r="J787" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
@@ -41411,7 +41599,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J788" s="13" t="n"/>
+      <c r="J788" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
@@ -41462,7 +41654,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J789" s="13" t="n"/>
+      <c r="J789" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K789" s="19" t="inlineStr">
         <is>
           <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
@@ -41517,7 +41713,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J790" s="13" t="n"/>
+      <c r="J790" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
@@ -41568,7 +41768,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J791" s="13" t="n"/>
+      <c r="J791" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
@@ -41619,7 +41823,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J792" s="13" t="n"/>
+      <c r="J792" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
@@ -41670,7 +41878,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J793" s="13" t="n"/>
+      <c r="J793" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
@@ -41721,7 +41933,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J794" s="13" t="n"/>
+      <c r="J794" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
+        </is>
+      </c>
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
@@ -41772,7 +41988,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J795" s="13" t="n"/>
+      <c r="J795" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+        </is>
+      </c>
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
@@ -41823,7 +42043,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J796" s="13" t="n"/>
+      <c r="J796" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
+        </is>
+      </c>
       <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
@@ -41874,7 +42098,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J797" s="13" t="n"/>
+      <c r="J797" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
@@ -41925,7 +42153,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J798" s="13" t="n"/>
+      <c r="J798" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
@@ -41976,7 +42208,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J799" s="13" t="n"/>
+      <c r="J799" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
@@ -42027,7 +42263,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J800" s="13" t="n"/>
+      <c r="J800" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
+        </is>
+      </c>
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
@@ -42078,7 +42318,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J801" s="13" t="n"/>
+      <c r="J801" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
+        </is>
+      </c>
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
@@ -42129,7 +42373,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J802" s="13" t="n"/>
+      <c r="J802" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+        </is>
+      </c>
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
@@ -42180,7 +42428,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J803" s="13" t="n"/>
+      <c r="J803" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+        </is>
+      </c>
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
@@ -42231,7 +42483,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J804" s="13" t="n"/>
+      <c r="J804" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
+        </is>
+      </c>
       <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
@@ -42282,7 +42538,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J805" s="13" t="n"/>
+      <c r="J805" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
+        </is>
+      </c>
       <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
@@ -42333,7 +42593,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J806" s="13" t="n"/>
+      <c r="J806" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+        </is>
+      </c>
       <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
@@ -42364,13 +42628,13 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Entra ID テナントで透明度ログを有効にします。</t>
+          <t>相関ログによる一元的な脅威検出 - セキュリティデータを中央の場所に統合して、SIEM(セキュリティ情報およびイベント管理)を介してさまざまなサービス間で関連付けることができます</t>
         </is>
       </c>
       <c r="E807" s="18" t="n"/>
       <c r="F807" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -42385,10 +42649,14 @@
         </is>
       </c>
       <c r="J807" s="13" t="n"/>
-      <c r="K807" s="19" t="n"/>
+      <c r="K807" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.operationalinsights/workspaces'| extend wsid = properties.customerId| project workspaceResourceId = tolower(id), name, wsid| join (resources| where type == 'microsoft.operationsmanagement/solutions'| where name has 'SecurityInsights'| extend workspaceResourceId = tostring(tolower(properties.workspaceResourceId))| project workspaceResourceId | summarize ResourceCount = count() by workspaceResourceId) on workspaceResourceId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 0)</t>
+        </is>
+      </c>
       <c r="L807" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
         </is>
       </c>
       <c r="M807" s="20" t="n"/>
@@ -42415,7 +42683,7 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone の場合は、Entra ID テナントでカスタマー ロックボックスを有効にします。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Entra ID テナントで透明度ログを有効にします。</t>
         </is>
       </c>
       <c r="E808" s="18" t="n"/>
@@ -42439,7 +42707,7 @@
       <c r="K808" s="19" t="n"/>
       <c r="L808" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M808" s="20" t="n"/>
@@ -42461,18 +42729,18 @@
       </c>
       <c r="C809" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D809" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にします。</t>
+          <t>Sovereign Landing Zone の場合は、Entra ID テナントでカスタマー ロックボックスを有効にします。</t>
         </is>
       </c>
       <c r="E809" s="18" t="n"/>
       <c r="F809" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -42490,7 +42758,7 @@
       <c r="K809" s="19" t="n"/>
       <c r="L809" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M809" s="20" t="n"/>
@@ -42517,7 +42785,7 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にします。</t>
         </is>
       </c>
       <c r="E810" s="18" t="n"/>
@@ -42537,11 +42805,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J810" s="13" t="n"/>
+      <c r="J810" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
+        </is>
+      </c>
       <c r="K810" s="19" t="n"/>
       <c r="L810" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M810" s="20" t="n"/>
@@ -42558,17 +42830,17 @@
       </c>
       <c r="B811" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C811" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報のハードコーディングを回避します。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="E811" s="18" t="n"/>
@@ -42592,7 +42864,7 @@
       <c r="K811" s="19" t="n"/>
       <c r="L811" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M811" s="20" t="n"/>
@@ -42604,22 +42876,22 @@
     <row r="812">
       <c r="A812" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B812" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C812" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報のハードコーディングを回避します。</t>
         </is>
       </c>
       <c r="E812" s="18" t="n"/>
@@ -42639,11 +42911,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J812" s="13" t="n"/>
+      <c r="J812" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K812" s="19" t="n"/>
       <c r="L812" s="19" t="inlineStr">
         <is>
-          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M812" s="20" t="n"/>
@@ -42670,7 +42946,7 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
         </is>
       </c>
       <c r="E813" s="18" t="n"/>
@@ -42694,7 +42970,7 @@
       <c r="K813" s="19" t="n"/>
       <c r="L813" s="19" t="inlineStr">
         <is>
-          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M813" s="20" t="n"/>
@@ -42721,7 +42997,7 @@
       </c>
       <c r="D814" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
         </is>
       </c>
       <c r="E814" s="18" t="n"/>
@@ -42745,7 +43021,7 @@
       <c r="K814" s="19" t="n"/>
       <c r="L814" s="19" t="inlineStr">
         <is>
-          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M814" s="20" t="n"/>
@@ -42772,7 +43048,7 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E815" s="18" t="n"/>
@@ -42796,7 +43072,7 @@
       <c r="K815" s="19" t="n"/>
       <c r="L815" s="19" t="inlineStr">
         <is>
-          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M815" s="20" t="n"/>
@@ -42813,7 +43089,7 @@
       </c>
       <c r="B816" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C816" s="18" t="inlineStr">
@@ -42823,13 +43099,13 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
         </is>
       </c>
       <c r="E816" s="18" t="n"/>
       <c r="F816" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -42847,7 +43123,7 @@
       <c r="K816" s="19" t="n"/>
       <c r="L816" s="19" t="inlineStr">
         <is>
-          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M816" s="20" t="n"/>
@@ -42859,29 +43135,25 @@
     <row r="817">
       <c r="A817" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage Review Checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B817" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C817" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D817" s="18" t="inlineStr">
         <is>
-          <t>「ストレージの Azure セキュリティ ベースライン」を検討する</t>
-        </is>
-      </c>
-      <c r="E817" s="18" t="inlineStr">
-        <is>
-          <t>ストレージに関連する Microsoft クラウド セキュリティ ベンチマークのガイダンスを適用する</t>
-        </is>
-      </c>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+        </is>
+      </c>
+      <c r="E817" s="18" t="n"/>
       <c r="F817" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -42902,7 +43174,7 @@
       <c r="K817" s="19" t="n"/>
       <c r="L817" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M817" s="20" t="n"/>
@@ -42929,17 +43201,17 @@
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage のプライベート エンドポイントの使用を検討する</t>
+          <t>「ストレージの Azure セキュリティ ベースライン」を検討する</t>
         </is>
       </c>
       <c r="E818" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage は、既定ではパブリック IP アドレスを持ち、インターネットからアクセスできます。プライベート エンドポイントを使用すると、アクセスが必要な Azure コンピューティング リソースのみに Azure Storage を安全に公開できるため、パブリック インターネットへの露出がなくなります</t>
+          <t>ストレージに関連する Microsoft クラウド セキュリティ ベンチマークのガイダンスを適用する</t>
         </is>
       </c>
       <c r="F818" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -42957,7 +43229,7 @@
       <c r="K818" s="19" t="n"/>
       <c r="L818" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M818" s="20" t="n"/>
@@ -42984,17 +43256,17 @@
       </c>
       <c r="D819" s="18" t="inlineStr">
         <is>
-          <t>古いストレージ アカウントが "クラシック デプロイ モデル" を使用していないことを確認する</t>
+          <t>Azure Storage のプライベート エンドポイントの使用を検討する</t>
         </is>
       </c>
       <c r="E819" s="18" t="inlineStr">
         <is>
-          <t>新しく作成されたストレージ アカウントは ARM デプロイ モデルを使用して作成されるため、RBAC、監査などがすべて有効になります。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認します</t>
+          <t>Azure Storage は、既定ではパブリック IP アドレスを持ち、インターネットからアクセスできます。プライベート エンドポイントを使用すると、アクセスが必要な Azure コンピューティング リソースのみに Azure Storage を安全に公開できるため、パブリック インターネットへの露出がなくなります</t>
         </is>
       </c>
       <c r="F819" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -43012,7 +43284,7 @@
       <c r="K819" s="19" t="n"/>
       <c r="L819" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M819" s="20" t="n"/>
@@ -43039,17 +43311,17 @@
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>すべてのストレージ アカウントで Microsoft Defender を有効にする</t>
+          <t>古いストレージ アカウントが "クラシック デプロイ モデル" を使用していないことを確認する</t>
         </is>
       </c>
       <c r="E820" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender を活用して、不審なアクティビティや構成ミスについて学習します。</t>
+          <t>新しく作成されたストレージ アカウントは ARM デプロイ モデルを使用して作成されるため、RBAC、監査などがすべて有効になります。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認します</t>
         </is>
       </c>
       <c r="F820" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -43067,7 +43339,7 @@
       <c r="K820" s="19" t="n"/>
       <c r="L820" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M820" s="20" t="n"/>
@@ -43094,17 +43366,17 @@
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>BLOB の '論理的な削除' を有効にする</t>
+          <t>すべてのストレージ アカウントで Microsoft Defender を有効にする</t>
         </is>
       </c>
       <c r="E821" s="18" t="inlineStr">
         <is>
-          <t>論理的な削除メカニズムにより、誤って削除されたブロブを回復できます。</t>
+          <t>Microsoft Defender を活用して、不審なアクティビティや構成ミスについて学習します。</t>
         </is>
       </c>
       <c r="F821" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -43122,7 +43394,7 @@
       <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43149,12 +43421,12 @@
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>BLOB の '論理的な削除' を無効にする</t>
+          <t>BLOB の '論理的な削除' を有効にする</t>
         </is>
       </c>
       <c r="E822" s="18" t="inlineStr">
         <is>
-          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
+          <t>論理的な削除メカニズムにより、誤って削除されたブロブを回復できます。</t>
         </is>
       </c>
       <c r="F822" s="18" t="inlineStr">
@@ -43177,7 +43449,7 @@
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43204,17 +43476,17 @@
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t>コンテナの「論理的な削除」を有効にする</t>
+          <t>BLOB の '論理的な削除' を無効にする</t>
         </is>
       </c>
       <c r="E823" s="18" t="inlineStr">
         <is>
-          <t>コンテナの論理的な削除を使用すると、コンテナが削除された後に、たとえば、誤って削除した操作から回復するなどして、コンテナを回復できます。</t>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="F823" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -43232,7 +43504,7 @@
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43259,17 +43531,17 @@
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t>コンテナの「論理的な削除」を無効にする</t>
+          <t>コンテナの「論理的な削除」を有効にする</t>
         </is>
       </c>
       <c r="E824" s="18" t="inlineStr">
         <is>
-          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
+          <t>コンテナの論理的な削除を使用すると、コンテナが削除された後に、たとえば、誤って削除した操作から回復するなどして、コンテナを回復できます。</t>
         </is>
       </c>
       <c r="F824" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -43287,7 +43559,7 @@
       <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43314,17 +43586,17 @@
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントでのリソース ロックの有効化</t>
+          <t>コンテナの「論理的な削除」を無効にする</t>
         </is>
       </c>
       <c r="E825" s="18" t="inlineStr">
         <is>
-          <t>削除する前に、ユーザーに削除ロックを最初に解除するように強制することで、ストレージ アカウントが誤って削除されるのを防ぎます</t>
+          <t>たとえば、機密性、プライバシー、コンプライアンス上の理由など、削除された情報をすぐに削除するようにアプリケーションで確認する必要がある場合など、特定の BLOB コンテナに対して「論理的な削除」を選択的に無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="F825" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -43342,7 +43614,7 @@
       <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43369,12 +43641,12 @@
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>不変ブロブについて考える</t>
+          <t>ストレージ アカウントでのリソース ロックの有効化</t>
         </is>
       </c>
       <c r="E826" s="18" t="inlineStr">
         <is>
-          <t>BLOB の "訴訟ホールド" または "時間ベースの保持" ポリシーを検討して、BLOB、コンテナー、またはストレージ アカウントを削除できないようにします。「不可能」は実際には「不可能」を意味することに注意してください。ストレージ アカウントに不変 BLOB が含まれている場合、そのストレージ アカウントを "削除" する唯一の方法は、Azure サブスクリプションをキャンセルすることです。</t>
+          <t>削除する前に、ユーザーに削除ロックを最初に解除するように強制することで、ストレージ アカウントが誤って削除されるのを防ぎます</t>
         </is>
       </c>
       <c r="F826" s="18" t="inlineStr">
@@ -43397,7 +43669,7 @@
       <c r="K826" s="19" t="n"/>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43424,12 +43696,12 @@
       </c>
       <c r="D827" s="18" t="inlineStr">
         <is>
-          <t>HTTPS を要求する (つまり、ストレージ アカウントのポート 80 を無効にする)</t>
+          <t>不変ブロブについて考える</t>
         </is>
       </c>
       <c r="E827" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの保護されていない HTTP/80 アクセスを無効にして、すべてのデータ転送が暗号化され、整合性が保護され、サーバーが認証されるようにすることを検討してください。</t>
+          <t>BLOB の "訴訟ホールド" または "時間ベースの保持" ポリシーを検討して、BLOB、コンテナー、またはストレージ アカウントを削除できないようにします。「不可能」は実際には「不可能」を意味することに注意してください。ストレージ アカウントに不変 BLOB が含まれている場合、そのストレージ アカウントを "削除" する唯一の方法は、Azure サブスクリプションをキャンセルすることです。</t>
         </is>
       </c>
       <c r="F827" s="18" t="inlineStr">
@@ -43452,7 +43724,7 @@
       <c r="K827" s="19" t="n"/>
       <c r="L827" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M827" s="20" t="n"/>
@@ -43479,12 +43751,12 @@
       </c>
       <c r="D828" s="18" t="inlineStr">
         <is>
-          <t>HTTPS を適用する (HTTP を無効にする) 場合は、ストレージ アカウントにカスタム ドメイン (CNAME) を使用していないことを確認します。</t>
+          <t>HTTPS を要求する (つまり、ストレージ アカウントのポート 80 を無効にする)</t>
         </is>
       </c>
       <c r="E828" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントでカスタム ドメイン (ホスト名) を構成する場合は、TLS/HTTPS が必要かどうかを確認します。その場合は、ストレージ アカウントの前に Azure CDN を配置する必要がある場合があります。</t>
+          <t>ストレージ アカウントへの保護されていない HTTP/80 アクセスを無効にして、すべてのデータ転送が暗号化され、整合性が保護され、サーバーが認証されるようにすることを検討してください。</t>
         </is>
       </c>
       <c r="F828" s="18" t="inlineStr">
@@ -43507,7 +43779,7 @@
       <c r="K828" s="19" t="n"/>
       <c r="L828" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M828" s="20" t="n"/>
@@ -43534,17 +43806,17 @@
       </c>
       <c r="D829" s="18" t="inlineStr">
         <is>
-          <t>Shared Access Signature (SAS) トークンを HTTPS 接続のみに制限する</t>
+          <t>HTTPS を適用する (HTTP を無効にする) 場合は、ストレージ アカウントにカスタム ドメイン (CNAME) を使用していないことを確認します。</t>
         </is>
       </c>
       <c r="E829" s="18" t="inlineStr">
         <is>
-          <t>クライアントが SAS トークンを使用して BLOB データにアクセスするときに HTTPS を要求すると、資格情報の損失リスクを最小限に抑えるのに役立ちます。</t>
+          <t>ストレージ アカウントでカスタム ドメイン (ホスト名) を構成する場合は、TLS/HTTPS が必要かどうかを確認します。その場合は、ストレージ アカウントの前に Azure CDN を配置する必要がある場合があります。</t>
         </is>
       </c>
       <c r="F829" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -43562,7 +43834,7 @@
       <c r="K829" s="19" t="n"/>
       <c r="L829" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M829" s="20" t="n"/>
@@ -43589,17 +43861,17 @@
       </c>
       <c r="D830" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウントに最新の TLS バージョンを適用する</t>
+          <t>Shared Access Signature (SAS) トークンを HTTPS 接続のみに制限する</t>
         </is>
       </c>
       <c r="E830" s="18" t="inlineStr">
         <is>
-          <t>.最新の TLS バージョンを適用すると、古いバージョンを使用しているクライアントからの要求が拒否されます。</t>
+          <t>クライアントが SAS トークンを使用して BLOB データにアクセスするときに HTTPS を要求すると、資格情報の損失リスクを最小限に抑えるのに役立ちます。</t>
         </is>
       </c>
       <c r="F830" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -43614,14 +43886,10 @@
         </is>
       </c>
       <c r="J830" s="13" t="n"/>
-      <c r="K830" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (isnull(properties.minimumTlsVersion) == false and properties.minimumTlsVersion in ('TLS1_2', 'TLS1_3')) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K830" s="19" t="n"/>
       <c r="L830" s="19" t="inlineStr">
         <is>
-          <t>e12be569-a18f-4562-8d5d-ce151b9e7d55</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M830" s="20" t="n"/>
@@ -43648,12 +43916,12 @@
       </c>
       <c r="D831" s="18" t="inlineStr">
         <is>
-          <t>BLOB アクセスに Microsoft Entra ID トークンを使用する</t>
+          <t>ストレージ アカウントに最新の TLS バージョンを適用する</t>
         </is>
       </c>
       <c r="E831" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID トークンは、可能な限り、共有アクセス署名よりも優先する必要があります</t>
+          <t>.最新の TLS バージョンを適用すると、古いバージョンを使用しているクライアントからの要求が拒否されます。</t>
         </is>
       </c>
       <c r="F831" s="18" t="inlineStr">
@@ -43673,10 +43941,14 @@
         </is>
       </c>
       <c r="J831" s="13" t="n"/>
-      <c r="K831" s="19" t="n"/>
+      <c r="K831" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (isnull(properties.minimumTlsVersion) == false and properties.minimumTlsVersion in ('TLS1_2', 'TLS1_3')) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L831" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>e12be569-a18f-4562-8d5d-ce151b9e7d55</t>
         </is>
       </c>
       <c r="M831" s="20" t="n"/>
@@ -43703,17 +43975,17 @@
       </c>
       <c r="D832" s="18" t="inlineStr">
         <is>
-          <t>IaM アクセス許可の最小特権</t>
+          <t>BLOB アクセスに Microsoft Entra ID トークンを使用する</t>
         </is>
       </c>
       <c r="E832" s="18" t="inlineStr">
         <is>
-          <t>ユーザー、グループ、またはアプリケーションにロールを割り当てる場合は、タスクの実行に必要なアクセス許可のみをそのセキュリティ プリンシパルに付与します。リソースへのアクセスを制限することで、意図しないデータの誤用と悪意のある誤用の両方を防ぐことができます。</t>
+          <t>Microsoft Entra ID トークンは、可能な限り、共有アクセス署名よりも優先する必要があります</t>
         </is>
       </c>
       <c r="F832" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -43722,12 +43994,16 @@
         </is>
       </c>
       <c r="H832" s="18" t="n"/>
-      <c r="I832" s="13" t="n"/>
+      <c r="I832" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J832" s="13" t="n"/>
       <c r="K832" s="19" t="n"/>
       <c r="L832" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M832" s="20" t="n"/>
@@ -43754,17 +44030,17 @@
       </c>
       <c r="D833" s="18" t="inlineStr">
         <is>
-          <t>SAS を使用する場合は、ストレージ アカウント キー ベースの SAS よりも "ユーザー委任 SAS" を優先します。</t>
+          <t>IaM アクセス許可の最小特権</t>
         </is>
       </c>
       <c r="E833" s="18" t="inlineStr">
         <is>
-          <t>ユーザー委任 SAS は、Azure Active Directory (Azure AD) 資格情報と、SAS に指定されたアクセス許可によって保護されます。ユーザー委任 SAS は、そのスコープと機能の点でサービス SAS に似ていますが、サービス SAS よりもセキュリティ上の利点があります。</t>
+          <t>ユーザー、グループ、またはアプリケーションにロールを割り当てる場合は、タスクの実行に必要なアクセス許可のみをそのセキュリティ プリンシパルに付与します。リソースへのアクセスを制限することで、意図しないデータの誤用と悪意のある誤用の両方を防ぐことができます。</t>
         </is>
       </c>
       <c r="F833" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -43773,16 +44049,12 @@
         </is>
       </c>
       <c r="H833" s="18" t="n"/>
-      <c r="I833" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I833" s="13" t="n"/>
       <c r="J833" s="13" t="n"/>
       <c r="K833" s="19" t="n"/>
       <c r="L833" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M833" s="20" t="n"/>
@@ -43809,12 +44081,12 @@
       </c>
       <c r="D834" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID アクセス (およびユーザー委任 SAS) のみがサポートされるように、ストレージ アカウント キーを無効にすることを検討してください。</t>
+          <t>SAS を使用する場合は、ストレージ アカウント キー ベースの SAS よりも "ユーザー委任 SAS" を優先します。</t>
         </is>
       </c>
       <c r="E834" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウント キー ("共有キー") には、監査機能がほとんどありません。誰が/いつキーのコピーをフェッチしたかを監視することはできますが、キーが複数の人の手に渡ると、特定のユーザーに使用状況を帰属させることはできなくなります。Entra ID認証のみに依存すると、ストレージアクセスをユーザーに結び付けることが容易になります。</t>
+          <t>ユーザー委任 SAS は、Azure Active Directory (Azure AD) 資格情報と、SAS に指定されたアクセス許可によって保護されます。ユーザー委任 SAS は、そのスコープと機能の点でサービス SAS に似ていますが、サービス SAS よりもセキュリティ上の利点があります。</t>
         </is>
       </c>
       <c r="F834" s="18" t="inlineStr">
@@ -43834,14 +44106,10 @@
         </is>
       </c>
       <c r="J834" s="13" t="n"/>
-      <c r="K834" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend allowSharedKeyAccess = tostring(properties.allowSharedKeyAccess) | extend compliant = (isnotempty(allowSharedKeyAccess) and allowSharedKeyAccess == 'false') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K834" s="19" t="n"/>
       <c r="L834" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M834" s="20" t="n"/>
@@ -43868,12 +44136,12 @@
       </c>
       <c r="D835" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor を使用して、ストレージ アカウントでのコントロール プレーン操作を監査することを検討してください</t>
+          <t>Microsoft Entra ID アクセス (およびユーザー委任 SAS) のみがサポートされるように、ストレージ アカウント キーを無効にすることを検討してください。</t>
         </is>
       </c>
       <c r="E835" s="18" t="inlineStr">
         <is>
-          <t>アクティビティ ログ データを使用して、ストレージ アカウントのセキュリティが (ストレージ アカウント キー、アクセス ポリシーなど) 表示または変更されているのは「いつ」、「誰が」、「何を」、「どのように」特定します。</t>
+          <t>ストレージ アカウント キー ("共有キー") には、監査機能がほとんどありません。誰が/いつキーのコピーをフェッチしたかを監視することはできますが、キーが複数の人の手に渡ると、特定のユーザーに使用状況を帰属させることはできなくなります。Entra ID認証のみに依存すると、ストレージアクセスをユーザーに結び付けることが容易になります。</t>
         </is>
       </c>
       <c r="F835" s="18" t="inlineStr">
@@ -43893,10 +44161,14 @@
         </is>
       </c>
       <c r="J835" s="13" t="n"/>
-      <c r="K835" s="19" t="n"/>
+      <c r="K835" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend allowSharedKeyAccess = tostring(properties.allowSharedKeyAccess) | extend compliant = (isnotempty(allowSharedKeyAccess) and allowSharedKeyAccess == 'false') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L835" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M835" s="20" t="n"/>
@@ -43923,17 +44195,17 @@
       </c>
       <c r="D836" s="18" t="inlineStr">
         <is>
-          <t>ストレージ アカウント キーを使用する場合は、"キーの有効期限ポリシー" を有効にすることを検討してください</t>
+          <t>Azure Monitor を使用して、ストレージ アカウントでのコントロール プレーン操作を監査することを検討してください</t>
         </is>
       </c>
       <c r="E836" s="18" t="inlineStr">
         <is>
-          <t>キーの有効期限ポリシーを使用すると、アカウント アクセス キーのローテーションのリマインダーを設定できます。リマインダーは、指定した間隔が経過し、キーがまだローテーションされていない場合に表示されます。</t>
+          <t>アクティビティ ログ データを使用して、ストレージ アカウントのセキュリティが (ストレージ アカウント キー、アクセス ポリシーなど) 表示または変更されているのは「いつ」、「誰が」、「何を」、「どのように」特定します。</t>
         </is>
       </c>
       <c r="F836" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -43951,7 +44223,7 @@
       <c r="K836" s="19" t="n"/>
       <c r="L836" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M836" s="20" t="n"/>
@@ -43978,12 +44250,12 @@
       </c>
       <c r="D837" s="18" t="inlineStr">
         <is>
-          <t>SAS 有効期限ポリシーの構成を検討する</t>
+          <t>ストレージ アカウント キーを使用する場合は、"キーの有効期限ポリシー" を有効にすることを検討してください</t>
         </is>
       </c>
       <c r="E837" s="18" t="inlineStr">
         <is>
-          <t>SAS 有効期限ポリシーは、SAS が有効である推奨間隔を指定します。SAS 有効期限ポリシーは、サービス SAS またはアカウント SAS に適用されます。ユーザーが、推奨間隔よりも長い有効期間でサービス SAS またはアカウント SAS を生成すると、警告が表示されます。</t>
+          <t>キーの有効期限ポリシーを使用すると、アカウント アクセス キーのローテーションのリマインダーを設定できます。リマインダーは、指定した間隔が経過し、キーがまだローテーションされていない場合に表示されます。</t>
         </is>
       </c>
       <c r="F837" s="18" t="inlineStr">
@@ -44006,7 +44278,7 @@
       <c r="K837" s="19" t="n"/>
       <c r="L837" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M837" s="20" t="n"/>
@@ -44033,12 +44305,12 @@
       </c>
       <c r="D838" s="18" t="inlineStr">
         <is>
-          <t>SASを保存されたアクセスポリシーにリンクすることを検討する</t>
+          <t>SAS 有効期限ポリシーの構成を検討する</t>
         </is>
       </c>
       <c r="E838" s="18" t="inlineStr">
         <is>
-          <t>保存されているアクセス ポリシーでは、ストレージ アカウント キーを再生成しなくても、サービス SAS のアクセス許可を取り消すことができます。</t>
+          <t>SAS 有効期限ポリシーは、SAS が有効である推奨間隔を指定します。SAS 有効期限ポリシーは、サービス SAS またはアカウント SAS に適用されます。ユーザーが、推奨間隔よりも長い有効期間でサービス SAS またはアカウント SAS を生成すると、警告が表示されます。</t>
         </is>
       </c>
       <c r="F838" s="18" t="inlineStr">
@@ -44061,7 +44333,7 @@
       <c r="K838" s="19" t="n"/>
       <c r="L838" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M838" s="20" t="n"/>
@@ -44088,10 +44360,14 @@
       </c>
       <c r="D839" s="18" t="inlineStr">
         <is>
-          <t>チェックインされた接続文字列とストレージ アカウント キーを検出するように、アプリケーションのソース コード リポジトリを構成することを検討してください。</t>
-        </is>
-      </c>
-      <c r="E839" s="18" t="n"/>
+          <t>SASを保存されたアクセスポリシーにリンクすることを検討する</t>
+        </is>
+      </c>
+      <c r="E839" s="18" t="inlineStr">
+        <is>
+          <t>保存されているアクセス ポリシーでは、ストレージ アカウント キーを再生成しなくても、サービス SAS のアクセス許可を取り消すことができます。</t>
+        </is>
+      </c>
       <c r="F839" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -44112,7 +44388,7 @@
       <c r="K839" s="19" t="n"/>
       <c r="L839" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M839" s="20" t="n"/>
@@ -44139,17 +44415,13 @@
       </c>
       <c r="D840" s="18" t="inlineStr">
         <is>
-          <t>Azure KeyVault に接続文字列を格納することを検討してください (マネージド ID が不可能なシナリオの場合)</t>
-        </is>
-      </c>
-      <c r="E840" s="18" t="inlineStr">
-        <is>
-          <t>理想的には、アプリケーションでマネージド ID を使用して Azure Storage に対する認証を行う必要があります。それが不可能な場合は、ストレージ資格情報 (接続文字列、ストレージ アカウント キー、SAS、サービス プリンシパル資格情報) を Azure KeyVault または同等のサービスに持つことを検討してください。</t>
-        </is>
-      </c>
+          <t>チェックインされた接続文字列とストレージ アカウント キーを検出するように、アプリケーションのソース コード リポジトリを構成することを検討してください。</t>
+        </is>
+      </c>
+      <c r="E840" s="18" t="n"/>
       <c r="F840" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -44167,7 +44439,7 @@
       <c r="K840" s="19" t="n"/>
       <c r="L840" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M840" s="20" t="n"/>
@@ -44194,12 +44466,12 @@
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>アドホックSASの有効期間を短くするよう努める</t>
+          <t>Azure KeyVault に接続文字列を格納することを検討してください (マネージド ID が不可能なシナリオの場合)</t>
         </is>
       </c>
       <c r="E841" s="18" t="inlineStr">
         <is>
-          <t>アドホック SAS サービス SAS またはアカウント SAS で短期的な有効期限を使用します。このように、SASが侵害された場合でも、SASは短時間しか有効ではありません。この方法は、保存されたアクセス ポリシーを参照できない場合に特に重要です。有効期限が近いと、BLOB にアップロードできる時間を制限することで、BLOB に書き込むことができるデータの量も制限されます。</t>
+          <t>理想的には、アプリケーションでマネージド ID を使用して Azure Storage に対する認証を行う必要があります。それが不可能な場合は、ストレージ資格情報 (接続文字列、ストレージ アカウント キー、SAS、サービス プリンシパル資格情報) を Azure KeyVault または同等のサービスに持つことを検討してください。</t>
         </is>
       </c>
       <c r="F841" s="18" t="inlineStr">
@@ -44222,7 +44494,7 @@
       <c r="K841" s="19" t="n"/>
       <c r="L841" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M841" s="20" t="n"/>
@@ -44249,17 +44521,17 @@
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>SAS に狭いスコープを適用する</t>
+          <t>アドホックSASの有効期間を短くするよう努める</t>
         </is>
       </c>
       <c r="E842" s="18" t="inlineStr">
         <is>
-          <t>SASを作成するときは、できるだけ具体的で制限的にしてください。1 つのリソースと操作には、より広範なアクセスを提供する SAS よりも SAS を優先します。</t>
+          <t>アドホック SAS サービス SAS またはアカウント SAS で短期的な有効期限を使用します。このように、SASが侵害された場合でも、SASは短時間しか有効ではありません。この方法は、保存されたアクセス ポリシーを参照できない場合に特に重要です。有効期限が近いと、BLOB にアップロードできる時間を制限することで、BLOB に書き込むことができるデータの量も制限されます。</t>
         </is>
       </c>
       <c r="F842" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -44277,7 +44549,7 @@
       <c r="K842" s="19" t="n"/>
       <c r="L842" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M842" s="20" t="n"/>
@@ -44304,12 +44576,12 @@
       </c>
       <c r="D843" s="18" t="inlineStr">
         <is>
-          <t>可能な限り、SAS のスコープを特定のクライアント IP アドレスに設定することを検討してください</t>
+          <t>SAS に狭いスコープを適用する</t>
         </is>
       </c>
       <c r="E843" s="18" t="inlineStr">
         <is>
-          <t>SAS には、SAS を使用してリソースを要求する権限を与えられたクライアントの IP アドレスまたはアドレス範囲のパラメーターを含めることができます。</t>
+          <t>SASを作成するときは、できるだけ具体的で制限的にしてください。1 つのリソースと操作には、より広範なアクセスを提供する SAS よりも SAS を優先します。</t>
         </is>
       </c>
       <c r="F843" s="18" t="inlineStr">
@@ -44332,7 +44604,7 @@
       <c r="K843" s="19" t="n"/>
       <c r="L843" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M843" s="20" t="n"/>
@@ -44359,17 +44631,17 @@
       </c>
       <c r="D844" s="18" t="inlineStr">
         <is>
-          <t>クライアントが SAS を使用してファイルをアップロードした後、アップロードされたデータを確認することを検討してください。</t>
+          <t>可能な限り、SAS のスコープを特定のクライアント IP アドレスに設定することを検討してください</t>
         </is>
       </c>
       <c r="E844" s="18" t="inlineStr">
         <is>
-          <t>SAS は、クライアントがアップロードするデータの量を制限することはできません。時間の経過に伴うストレージ量の価格設定モデルを考えると、クライアントが悪意を持って大きなコンテンツをアップロードしたかどうかを検証することは理にかなっているかもしれません。</t>
+          <t>SAS には、SAS を使用してリソースを要求する権限を与えられたクライアントの IP アドレスまたはアドレス範囲のパラメーターを含めることができます。</t>
         </is>
       </c>
       <c r="F844" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -44378,12 +44650,16 @@
         </is>
       </c>
       <c r="H844" s="18" t="n"/>
-      <c r="I844" s="13" t="n"/>
+      <c r="I844" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J844" s="13" t="n"/>
       <c r="K844" s="19" t="n"/>
       <c r="L844" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M844" s="20" t="n"/>
@@ -44410,17 +44686,17 @@
       </c>
       <c r="D845" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP アクセスの「ローカル ユーザー」の数を制限し、アクセスが必要かどうかを経時的に監査します。</t>
+          <t>クライアントが SAS を使用してファイルをアップロードした後、アップロードされたデータを確認することを検討してください。</t>
         </is>
       </c>
       <c r="E845" s="18" t="inlineStr">
         <is>
-          <t>「ローカル ユーザー アカウント」を使用して SFTP 経由で BLOB ストレージにアクセスする場合、「通常の」RBAC コントロールは適用されません。NFS または REST 経由の BLOB アクセスは、SFTP アクセスよりも制限が厳しい場合があります。残念ながら、2023 年初頭の時点で、SFTP エンドポイントで現在サポートされている ID 管理の形式は、ローカル ユーザーのみです</t>
+          <t>SAS は、クライアントがアップロードするデータの量を制限することはできません。時間の経過に伴うストレージ量の価格設定モデルを考えると、クライアントが悪意を持って大きなコンテンツをアップロードしたかどうかを検証することは理にかなっているかもしれません。</t>
         </is>
       </c>
       <c r="F845" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -44429,16 +44705,12 @@
         </is>
       </c>
       <c r="H845" s="18" t="n"/>
-      <c r="I845" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I845" s="13" t="n"/>
       <c r="J845" s="13" t="n"/>
       <c r="K845" s="19" t="n"/>
       <c r="L845" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M845" s="20" t="n"/>
@@ -44465,13 +44737,17 @@
       </c>
       <c r="D846" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP エンドポイントは POSIX のような ACL をサポートしていません。</t>
-        </is>
-      </c>
-      <c r="E846" s="18" t="n"/>
+          <t>SFTP: SFTP アクセスの「ローカル ユーザー」の数を制限し、アクセスが必要かどうかを経時的に監査します。</t>
+        </is>
+      </c>
+      <c r="E846" s="18" t="inlineStr">
+        <is>
+          <t>「ローカル ユーザー アカウント」を使用して SFTP 経由で BLOB ストレージにアクセスする場合、「通常の」RBAC コントロールは適用されません。NFS または REST 経由の BLOB アクセスは、SFTP アクセスよりも制限が厳しい場合があります。残念ながら、2023 年初頭の時点で、SFTP エンドポイントで現在サポートされている ID 管理の形式は、ローカル ユーザーのみです</t>
+        </is>
+      </c>
       <c r="F846" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -44489,7 +44765,7 @@
       <c r="K846" s="19" t="n"/>
       <c r="L846" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M846" s="20" t="n"/>
@@ -44516,17 +44792,13 @@
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>過度に広範なCORSポリシーを避ける</t>
-        </is>
-      </c>
-      <c r="E847" s="18" t="inlineStr">
-        <is>
-          <t>ストレージは、CORS(Cross-Origin Resource Sharing)、つまり、異なるドメインのWebアプリが同一生成元ポリシーを緩和できるようにするHTTP機能をサポートしています。CORS を有効にするときは、CorsRules を最小限の特権に保ちます。</t>
-        </is>
-      </c>
+          <t>SFTP: SFTP エンドポイントは POSIX のような ACL をサポートしていません。</t>
+        </is>
+      </c>
+      <c r="E847" s="18" t="n"/>
       <c r="F847" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -44544,7 +44816,7 @@
       <c r="K847" s="19" t="n"/>
       <c r="L847" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M847" s="20" t="n"/>
@@ -44571,12 +44843,12 @@
       </c>
       <c r="D848" s="18" t="inlineStr">
         <is>
-          <t>保存データの暗号化方法を決定します。データのスレッドモデルを理解する。</t>
+          <t>過度に広範なCORSポリシーを避ける</t>
         </is>
       </c>
       <c r="E848" s="18" t="inlineStr">
         <is>
-          <t>保存データは常にサーバー側で暗号化され、さらにクライアント側でも暗号化される場合があります。サーバー側の暗号化は、プラットフォーム管理キー (デフォルト) またはカスタマー管理キーを使用して行われる場合があります。クライアント側の暗号化は、クライアントが BLOB ごとに暗号化/暗号化解除キーを Azure ストレージに提供するか、クライアント側で暗号化を完全に処理することによって行われます。したがって、機密性の保証については Azure Storage にまったく依存しません。</t>
+          <t>ストレージは、CORS(Cross-Origin Resource Sharing)、つまり、異なるドメインのWebアプリが同一生成元ポリシーを緩和できるようにするHTTP機能をサポートしています。CORS を有効にするときは、CorsRules を最小限の特権に保ちます。</t>
         </is>
       </c>
       <c r="F848" s="18" t="inlineStr">
@@ -44599,7 +44871,7 @@
       <c r="K848" s="19" t="n"/>
       <c r="L848" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M848" s="20" t="n"/>
@@ -44626,13 +44898,17 @@
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>プラットフォームの暗号化を使用するかどうかを決定します。</t>
-        </is>
-      </c>
-      <c r="E849" s="18" t="n"/>
+          <t>保存データの暗号化方法を決定します。データのスレッドモデルを理解する。</t>
+        </is>
+      </c>
+      <c r="E849" s="18" t="inlineStr">
+        <is>
+          <t>保存データは常にサーバー側で暗号化され、さらにクライアント側でも暗号化される場合があります。サーバー側の暗号化は、プラットフォーム管理キー (デフォルト) またはカスタマー管理キーを使用して行われる場合があります。クライアント側の暗号化は、クライアントが BLOB ごとに暗号化/暗号化解除キーを Azure ストレージに提供するか、クライアント側で暗号化を完全に処理することによって行われます。したがって、機密性の保証については Azure Storage にまったく依存しません。</t>
+        </is>
+      </c>
       <c r="F849" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -44650,7 +44926,7 @@
       <c r="K849" s="19" t="n"/>
       <c r="L849" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M849" s="20" t="n"/>
@@ -44677,7 +44953,7 @@
       </c>
       <c r="D850" s="18" t="inlineStr">
         <is>
-          <t>クライアント側の暗号化を使用するかどうかを決定します。</t>
+          <t>プラットフォームの暗号化を使用するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E850" s="18" t="n"/>
@@ -44701,7 +44977,7 @@
       <c r="K850" s="19" t="n"/>
       <c r="L850" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M850" s="20" t="n"/>
@@ -44728,17 +45004,13 @@
       </c>
       <c r="D851" s="18" t="inlineStr">
         <is>
-          <t>パブリック BLOB の匿名アクセスが必要かどうか、または特定のストレージ アカウントに対して無効にできるかどうかを検討します。</t>
-        </is>
-      </c>
-      <c r="E851" s="18" t="inlineStr">
-        <is>
-          <t>Resource Graph エクスプローラー (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを見つけます。</t>
-        </is>
-      </c>
+          <t>クライアント側の暗号化を使用するかどうかを決定します。</t>
+        </is>
+      </c>
+      <c r="E851" s="18" t="n"/>
       <c r="F851" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -44753,14 +45025,10 @@
         </is>
       </c>
       <c r="J851" s="13" t="n"/>
-      <c r="K851" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (properties.allowBlobPublicAccess == 'false') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K851" s="19" t="n"/>
       <c r="L851" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M851" s="20" t="n"/>
@@ -44777,7 +45045,7 @@
       </c>
       <c r="B852" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C852" s="18" t="inlineStr">
@@ -44787,10 +45055,14 @@
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>storagev2 アカウントタイプを活用して、パフォーマンスと信頼性を向上させます</t>
-        </is>
-      </c>
-      <c r="E852" s="18" t="n"/>
+          <t>パブリック BLOB の匿名アクセスが必要かどうか、または特定のストレージ アカウントに対して無効にできるかどうかを検討します。</t>
+        </is>
+      </c>
+      <c r="E852" s="18" t="inlineStr">
+        <is>
+          <t>Resource Graph エクスプローラー (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを見つけます。</t>
+        </is>
+      </c>
       <c r="F852" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -44808,10 +45080,14 @@
         </is>
       </c>
       <c r="J852" s="13" t="n"/>
-      <c r="K852" s="19" t="n"/>
+      <c r="K852" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.storage/storageaccounts' | extend compliant = (properties.allowBlobPublicAccess == 'false') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L852" s="19" t="inlineStr">
         <is>
-          <t>cb8eb8c0-aa62-4a25-a495-6eaa8dc4a243</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M852" s="20" t="n"/>
@@ -44838,7 +45114,7 @@
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>GRS、ZRS、またはGZRSストレージを活用して、最高の可用性を実現</t>
+          <t>storagev2 アカウントタイプを活用して、パフォーマンスと信頼性を向上させます</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
@@ -44862,7 +45138,7 @@
       <c r="K853" s="19" t="n"/>
       <c r="L853" s="19" t="inlineStr">
         <is>
-          <t>e05bbe20-9d49-4fda-9777-8424d116785c</t>
+          <t>cb8eb8c0-aa62-4a25-a495-6eaa8dc4a243</t>
         </is>
       </c>
       <c r="M853" s="20" t="n"/>
@@ -44889,13 +45165,13 @@
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>フェールオーバー後の書き込み操作には、顧客管理のフェールオーバーを使用します</t>
+          <t>GRS、ZRS、またはGZRSストレージを活用して、最高の可用性を実現</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
       <c r="F854" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -44913,7 +45189,7 @@
       <c r="K854" s="19" t="n"/>
       <c r="L854" s="19" t="inlineStr">
         <is>
-          <t>2fa56c56-ad48-4408-be72-734c486ba280</t>
+          <t>e05bbe20-9d49-4fda-9777-8424d116785c</t>
         </is>
       </c>
       <c r="M854" s="20" t="n"/>
@@ -44940,7 +45216,7 @@
       </c>
       <c r="D855" s="18" t="inlineStr">
         <is>
-          <t>Microsoft マネージド フェールオーバーの詳細を理解する</t>
+          <t>フェールオーバー後の書き込み操作には、顧客管理のフェールオーバーを使用します</t>
         </is>
       </c>
       <c r="E855" s="18" t="n"/>
@@ -44964,7 +45240,7 @@
       <c r="K855" s="19" t="n"/>
       <c r="L855" s="19" t="inlineStr">
         <is>
-          <t>dc0590cf-65de-48e1-909c-cbd579266bcc</t>
+          <t>2fa56c56-ad48-4408-be72-734c486ba280</t>
         </is>
       </c>
       <c r="M855" s="20" t="n"/>
@@ -44991,7 +45267,7 @@
       </c>
       <c r="D856" s="18" t="inlineStr">
         <is>
-          <t>ソフト削除を有効にする</t>
+          <t>Microsoft マネージド フェールオーバーの詳細を理解する</t>
         </is>
       </c>
       <c r="E856" s="18" t="n"/>
@@ -45015,7 +45291,7 @@
       <c r="K856" s="19" t="n"/>
       <c r="L856" s="19" t="inlineStr">
         <is>
-          <t>a274faa1-abfe-49d5-9d04-c3c4919cb1b3</t>
+          <t>dc0590cf-65de-48e1-909c-cbd579266bcc</t>
         </is>
       </c>
       <c r="M856" s="20" t="n"/>
@@ -45027,22 +45303,22 @@
     <row r="857">
       <c r="A857" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Storage Review Checklist</t>
         </is>
       </c>
       <c r="B857" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C857" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
+          <t>ソフト削除を有効にする</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
@@ -45066,7 +45342,7 @@
       <c r="K857" s="19" t="n"/>
       <c r="L857" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>a274faa1-abfe-49d5-9d04-c3c4919cb1b3</t>
         </is>
       </c>
       <c r="M857" s="20" t="n"/>
@@ -45083,17 +45359,17 @@
       </c>
       <c r="B858" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C858" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU を使用していることを確認する</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
@@ -45113,19 +45389,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J858" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K858" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J858" s="13" t="n"/>
+      <c r="K858" s="19" t="n"/>
       <c r="L858" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M858" s="20" t="n"/>
@@ -45147,12 +45415,12 @@
       </c>
       <c r="C859" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
+          <t>Application Gateway v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45172,15 +45440,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J859" s="13" t="n"/>
+      <c r="J859" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K859" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
         </is>
       </c>
       <c r="L859" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M859" s="20" t="n"/>
@@ -45207,7 +45479,7 @@
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
+          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
@@ -45228,10 +45500,14 @@
         </is>
       </c>
       <c r="J860" s="13" t="n"/>
-      <c r="K860" s="19" t="n"/>
+      <c r="K860" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L860" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M860" s="20" t="n"/>
@@ -45253,12 +45529,12 @@
       </c>
       <c r="C861" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
@@ -45278,19 +45554,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J861" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K861" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J861" s="13" t="n"/>
+      <c r="K861" s="19" t="n"/>
       <c r="L861" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M861" s="20" t="n"/>
@@ -45317,14 +45585,10 @@
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
-        </is>
-      </c>
-      <c r="E862" s="18" t="inlineStr">
-        <is>
-          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+        </is>
+      </c>
+      <c r="E862" s="18" t="n"/>
       <c r="F862" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -45346,10 +45610,14 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K862" s="19" t="n"/>
+      <c r="K862" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L862" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M862" s="20" t="n"/>
@@ -45376,10 +45644,14 @@
       </c>
       <c r="D863" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="E863" s="18" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
+        </is>
+      </c>
+      <c r="E863" s="18" t="inlineStr">
+        <is>
+          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="F863" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -45398,13 +45670,13 @@
       </c>
       <c r="J863" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K863" s="19" t="n"/>
       <c r="L863" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M863" s="20" t="n"/>
@@ -45421,7 +45693,7 @@
       </c>
       <c r="B864" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C864" s="18" t="inlineStr">
@@ -45431,7 +45703,7 @@
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
@@ -45453,17 +45725,13 @@
       </c>
       <c r="J864" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K864" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K864" s="19" t="n"/>
       <c r="L864" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M864" s="20" t="n"/>
@@ -45490,7 +45758,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
+          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45517,12 +45785,12 @@
       </c>
       <c r="K865" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L865" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M865" s="20" t="n"/>
@@ -45539,17 +45807,17 @@
       </c>
       <c r="B866" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C866" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D866" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="E866" s="18" t="n"/>
@@ -45571,13 +45839,17 @@
       </c>
       <c r="J866" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K866" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K866" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L866" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M866" s="20" t="n"/>
@@ -45604,7 +45876,7 @@
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45632,7 +45904,7 @@
       <c r="K867" s="19" t="n"/>
       <c r="L867" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M867" s="20" t="n"/>
@@ -45649,23 +45921,23 @@
       </c>
       <c r="B868" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C868" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D868" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="E868" s="18" t="n"/>
       <c r="F868" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -45687,7 +45959,7 @@
       <c r="K868" s="19" t="n"/>
       <c r="L868" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M868" s="20" t="n"/>
@@ -45704,23 +45976,23 @@
       </c>
       <c r="B869" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C869" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
       <c r="F869" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -45736,13 +46008,13 @@
       </c>
       <c r="J869" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K869" s="19" t="n"/>
       <c r="L869" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M869" s="20" t="n"/>
@@ -45769,13 +46041,13 @@
       </c>
       <c r="D870" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
         </is>
       </c>
       <c r="E870" s="18" t="n"/>
       <c r="F870" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -45791,13 +46063,13 @@
       </c>
       <c r="J870" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="K870" s="19" t="n"/>
       <c r="L870" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M870" s="20" t="n"/>
@@ -45819,18 +46091,18 @@
       </c>
       <c r="C871" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
       <c r="F871" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -45844,15 +46116,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J871" s="13" t="n"/>
-      <c r="K871" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J871" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
+      <c r="K871" s="19" t="n"/>
       <c r="L871" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M871" s="20" t="n"/>
@@ -45879,7 +46151,7 @@
       </c>
       <c r="D872" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
         </is>
       </c>
       <c r="E872" s="18" t="n"/>
@@ -45900,10 +46172,14 @@
         </is>
       </c>
       <c r="J872" s="13" t="n"/>
-      <c r="K872" s="19" t="n"/>
+      <c r="K872" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L872" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M872" s="20" t="n"/>
@@ -45930,7 +46206,7 @@
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
         </is>
       </c>
       <c r="E873" s="18" t="n"/>
@@ -45954,7 +46230,7 @@
       <c r="K873" s="19" t="n"/>
       <c r="L873" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M873" s="20" t="n"/>
@@ -45971,7 +46247,7 @@
       </c>
       <c r="B874" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C874" s="18" t="inlineStr">
@@ -45981,13 +46257,13 @@
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="E874" s="18" t="n"/>
       <c r="F874" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -46002,14 +46278,10 @@
         </is>
       </c>
       <c r="J874" s="13" t="n"/>
-      <c r="K874" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K874" s="19" t="n"/>
       <c r="L874" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M874" s="20" t="n"/>
@@ -46026,7 +46298,7 @@
       </c>
       <c r="B875" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C875" s="18" t="inlineStr">
@@ -46036,13 +46308,13 @@
       </c>
       <c r="D875" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
+          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="E875" s="18" t="n"/>
       <c r="F875" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -46057,10 +46329,14 @@
         </is>
       </c>
       <c r="J875" s="13" t="n"/>
-      <c r="K875" s="19" t="n"/>
+      <c r="K875" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L875" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M875" s="20" t="n"/>
@@ -46077,7 +46353,7 @@
       </c>
       <c r="B876" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C876" s="18" t="inlineStr">
@@ -46087,13 +46363,13 @@
       </c>
       <c r="D876" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
         </is>
       </c>
       <c r="E876" s="18" t="n"/>
       <c r="F876" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -46108,14 +46384,10 @@
         </is>
       </c>
       <c r="J876" s="13" t="n"/>
-      <c r="K876" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K876" s="19" t="n"/>
       <c r="L876" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M876" s="20" t="n"/>
@@ -46132,23 +46404,23 @@
       </c>
       <c r="B877" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C877" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D877" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="E877" s="18" t="n"/>
       <c r="F877" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -46165,12 +46437,12 @@
       <c r="J877" s="13" t="n"/>
       <c r="K877" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
         </is>
       </c>
       <c r="L877" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M877" s="20" t="n"/>
@@ -46187,17 +46459,17 @@
       </c>
       <c r="B878" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C878" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>
@@ -46220,12 +46492,12 @@
       <c r="J878" s="13" t="n"/>
       <c r="K878" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L878" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M878" s="20" t="n"/>
@@ -46252,13 +46524,13 @@
       </c>
       <c r="D879" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="E879" s="18" t="n"/>
       <c r="F879" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -46273,10 +46545,14 @@
         </is>
       </c>
       <c r="J879" s="13" t="n"/>
-      <c r="K879" s="19" t="n"/>
+      <c r="K879" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L879" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M879" s="20" t="n"/>
@@ -46293,7 +46569,7 @@
       </c>
       <c r="B880" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C880" s="18" t="inlineStr">
@@ -46303,13 +46579,13 @@
       </c>
       <c r="D880" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E880" s="18" t="n"/>
       <c r="F880" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -46327,7 +46603,7 @@
       <c r="K880" s="19" t="n"/>
       <c r="L880" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M880" s="20" t="n"/>
@@ -46354,13 +46630,13 @@
       </c>
       <c r="D881" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="E881" s="18" t="n"/>
       <c r="F881" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -46378,7 +46654,7 @@
       <c r="K881" s="19" t="n"/>
       <c r="L881" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M881" s="20" t="n"/>
@@ -46405,13 +46681,13 @@
       </c>
       <c r="D882" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="E882" s="18" t="n"/>
       <c r="F882" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -46429,7 +46705,7 @@
       <c r="K882" s="19" t="n"/>
       <c r="L882" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M882" s="20" t="n"/>
@@ -46456,7 +46732,7 @@
       </c>
       <c r="D883" s="18" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="E883" s="18" t="n"/>
@@ -46480,7 +46756,7 @@
       <c r="K883" s="19" t="n"/>
       <c r="L883" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M883" s="20" t="n"/>
@@ -46507,7 +46783,7 @@
       </c>
       <c r="D884" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
         </is>
       </c>
       <c r="E884" s="18" t="n"/>
@@ -46531,7 +46807,7 @@
       <c r="K884" s="19" t="n"/>
       <c r="L884" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M884" s="20" t="n"/>
@@ -46558,7 +46834,7 @@
       </c>
       <c r="D885" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E885" s="18" t="n"/>
@@ -46582,7 +46858,7 @@
       <c r="K885" s="19" t="n"/>
       <c r="L885" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M885" s="20" t="n"/>
@@ -46609,7 +46885,7 @@
       </c>
       <c r="D886" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="E886" s="18" t="n"/>
@@ -46633,7 +46909,7 @@
       <c r="K886" s="19" t="n"/>
       <c r="L886" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M886" s="20" t="n"/>
@@ -46660,13 +46936,13 @@
       </c>
       <c r="D887" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E887" s="18" t="n"/>
       <c r="F887" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -46684,7 +46960,7 @@
       <c r="K887" s="19" t="n"/>
       <c r="L887" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M887" s="20" t="n"/>
@@ -46711,7 +46987,7 @@
       </c>
       <c r="D888" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E888" s="18" t="n"/>
@@ -46735,7 +47011,7 @@
       <c r="K888" s="19" t="n"/>
       <c r="L888" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M888" s="20" t="n"/>
@@ -46762,7 +47038,7 @@
       </c>
       <c r="D889" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="E889" s="18" t="n"/>
@@ -46786,7 +47062,7 @@
       <c r="K889" s="19" t="n"/>
       <c r="L889" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M889" s="20" t="n"/>
@@ -46813,13 +47089,13 @@
       </c>
       <c r="D890" s="18" t="inlineStr">
         <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="E890" s="18" t="n"/>
       <c r="F890" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -46837,7 +47113,7 @@
       <c r="K890" s="19" t="n"/>
       <c r="L890" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M890" s="20" t="n"/>
@@ -46864,13 +47140,13 @@
       </c>
       <c r="D891" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E891" s="18" t="n"/>
       <c r="F891" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -46888,7 +47164,7 @@
       <c r="K891" s="19" t="n"/>
       <c r="L891" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M891" s="20" t="n"/>
@@ -46910,18 +47186,18 @@
       </c>
       <c r="C892" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D892" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E892" s="18" t="n"/>
       <c r="F892" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -46936,14 +47212,10 @@
         </is>
       </c>
       <c r="J892" s="13" t="n"/>
-      <c r="K892" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K892" s="19" t="n"/>
       <c r="L892" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M892" s="20" t="n"/>
@@ -46970,7 +47242,7 @@
       </c>
       <c r="D893" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E893" s="18" t="n"/>
@@ -46991,10 +47263,14 @@
         </is>
       </c>
       <c r="J893" s="13" t="n"/>
-      <c r="K893" s="19" t="n"/>
+      <c r="K893" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L893" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M893" s="20" t="n"/>
@@ -47021,7 +47297,7 @@
       </c>
       <c r="D894" s="18" t="inlineStr">
         <is>
-          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E894" s="18" t="n"/>
@@ -47045,7 +47321,7 @@
       <c r="K894" s="19" t="n"/>
       <c r="L894" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M894" s="20" t="n"/>
@@ -47072,7 +47348,7 @@
       </c>
       <c r="D895" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="E895" s="18" t="n"/>
@@ -47093,14 +47369,10 @@
         </is>
       </c>
       <c r="J895" s="13" t="n"/>
-      <c r="K895" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K895" s="19" t="n"/>
       <c r="L895" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M895" s="20" t="n"/>
@@ -47127,13 +47399,13 @@
       </c>
       <c r="D896" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E896" s="18" t="n"/>
       <c r="F896" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -47148,10 +47420,14 @@
         </is>
       </c>
       <c r="J896" s="13" t="n"/>
-      <c r="K896" s="19" t="n"/>
+      <c r="K896" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L896" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M896" s="20" t="n"/>
@@ -47178,7 +47454,7 @@
       </c>
       <c r="D897" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="E897" s="18" t="n"/>
@@ -47202,7 +47478,7 @@
       <c r="K897" s="19" t="n"/>
       <c r="L897" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M897" s="20" t="n"/>
@@ -47229,13 +47505,13 @@
       </c>
       <c r="D898" s="18" t="inlineStr">
         <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="E898" s="18" t="n"/>
       <c r="F898" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -47253,7 +47529,7 @@
       <c r="K898" s="19" t="n"/>
       <c r="L898" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M898" s="20" t="n"/>
@@ -47280,13 +47556,13 @@
       </c>
       <c r="D899" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E899" s="18" t="n"/>
       <c r="F899" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -47304,7 +47580,7 @@
       <c r="K899" s="19" t="n"/>
       <c r="L899" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M899" s="20" t="n"/>
@@ -47331,7 +47607,7 @@
       </c>
       <c r="D900" s="18" t="inlineStr">
         <is>
-          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E900" s="18" t="n"/>
@@ -47355,7 +47631,7 @@
       <c r="K900" s="19" t="n"/>
       <c r="L900" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M900" s="20" t="n"/>
@@ -47372,7 +47648,7 @@
       </c>
       <c r="B901" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C901" s="18" t="inlineStr">
@@ -47382,7 +47658,7 @@
       </c>
       <c r="D901" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
+          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E901" s="18" t="n"/>
@@ -47406,7 +47682,7 @@
       <c r="K901" s="19" t="n"/>
       <c r="L901" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M901" s="20" t="n"/>
@@ -47428,12 +47704,12 @@
       </c>
       <c r="C902" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D902" s="18" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
+          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E902" s="18" t="n"/>
@@ -47457,7 +47733,7 @@
       <c r="K902" s="19" t="n"/>
       <c r="L902" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M902" s="20" t="n"/>
@@ -47479,12 +47755,12 @@
       </c>
       <c r="C903" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D903" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
         </is>
       </c>
       <c r="E903" s="18" t="n"/>
@@ -47508,7 +47784,7 @@
       <c r="K903" s="19" t="n"/>
       <c r="L903" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M903" s="20" t="n"/>
@@ -47530,12 +47806,12 @@
       </c>
       <c r="C904" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D904" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E904" s="18" t="n"/>
@@ -47559,7 +47835,7 @@
       <c r="K904" s="19" t="n"/>
       <c r="L904" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M904" s="20" t="n"/>
@@ -47581,12 +47857,12 @@
       </c>
       <c r="C905" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D905" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E905" s="18" t="n"/>
@@ -47610,7 +47886,7 @@
       <c r="K905" s="19" t="n"/>
       <c r="L905" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M905" s="20" t="n"/>
@@ -47637,7 +47913,7 @@
       </c>
       <c r="D906" s="18" t="inlineStr">
         <is>
-          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E906" s="18" t="n"/>
@@ -47661,7 +47937,7 @@
       <c r="K906" s="19" t="n"/>
       <c r="L906" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M906" s="20" t="n"/>
@@ -47678,7 +47954,7 @@
       </c>
       <c r="B907" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C907" s="18" t="inlineStr">
@@ -47688,7 +47964,7 @@
       </c>
       <c r="D907" s="18" t="inlineStr">
         <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
         </is>
       </c>
       <c r="E907" s="18" t="n"/>
@@ -47712,7 +47988,7 @@
       <c r="K907" s="19" t="n"/>
       <c r="L907" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M907" s="20" t="n"/>
@@ -47734,12 +48010,12 @@
       </c>
       <c r="C908" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D908" s="18" t="inlineStr">
         <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
         </is>
       </c>
       <c r="E908" s="18" t="n"/>
@@ -47763,7 +48039,7 @@
       <c r="K908" s="19" t="n"/>
       <c r="L908" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M908" s="20" t="n"/>
@@ -47785,18 +48061,18 @@
       </c>
       <c r="C909" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D909" s="18" t="inlineStr">
         <is>
-          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
         </is>
       </c>
       <c r="E909" s="18" t="n"/>
       <c r="F909" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -47814,7 +48090,7 @@
       <c r="K909" s="19" t="n"/>
       <c r="L909" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M909" s="20" t="n"/>
@@ -47841,7 +48117,7 @@
       </c>
       <c r="D910" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
         </is>
       </c>
       <c r="E910" s="18" t="n"/>
@@ -47865,7 +48141,7 @@
       <c r="K910" s="19" t="n"/>
       <c r="L910" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M910" s="20" t="n"/>
@@ -47892,13 +48168,13 @@
       </c>
       <c r="D911" s="18" t="inlineStr">
         <is>
-          <t>HTTP を HTTPS にリダイレクトする</t>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
         </is>
       </c>
       <c r="E911" s="18" t="n"/>
       <c r="F911" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -47916,7 +48192,7 @@
       <c r="K911" s="19" t="n"/>
       <c r="L911" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M911" s="20" t="n"/>
@@ -47933,7 +48209,7 @@
       </c>
       <c r="B912" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C912" s="18" t="inlineStr">
@@ -47943,7 +48219,7 @@
       </c>
       <c r="D912" s="18" t="inlineStr">
         <is>
-          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
+          <t>HTTP を HTTPS にリダイレクトする</t>
         </is>
       </c>
       <c r="E912" s="18" t="n"/>
@@ -47967,7 +48243,7 @@
       <c r="K912" s="19" t="n"/>
       <c r="L912" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M912" s="20" t="n"/>
@@ -47984,7 +48260,7 @@
       </c>
       <c r="B913" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C913" s="18" t="inlineStr">
@@ -47994,13 +48270,13 @@
       </c>
       <c r="D913" s="18" t="inlineStr">
         <is>
-          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
         </is>
       </c>
       <c r="E913" s="18" t="n"/>
       <c r="F913" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -48018,7 +48294,7 @@
       <c r="K913" s="19" t="n"/>
       <c r="L913" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M913" s="20" t="n"/>
@@ -48035,7 +48311,7 @@
       </c>
       <c r="B914" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C914" s="18" t="inlineStr">
@@ -48045,13 +48321,13 @@
       </c>
       <c r="D914" s="18" t="inlineStr">
         <is>
-          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
         </is>
       </c>
       <c r="E914" s="18" t="n"/>
       <c r="F914" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
@@ -48069,7 +48345,7 @@
       <c r="K914" s="19" t="n"/>
       <c r="L914" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M914" s="20" t="n"/>
@@ -48086,7 +48362,7 @@
       </c>
       <c r="B915" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C915" s="18" t="inlineStr">
@@ -48096,13 +48372,13 @@
       </c>
       <c r="D915" s="18" t="inlineStr">
         <is>
-          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
         </is>
       </c>
       <c r="E915" s="18" t="n"/>
       <c r="F915" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -48120,7 +48396,7 @@
       <c r="K915" s="19" t="n"/>
       <c r="L915" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M915" s="20" t="n"/>
@@ -48137,7 +48413,7 @@
       </c>
       <c r="B916" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C916" s="18" t="inlineStr">
@@ -48147,7 +48423,7 @@
       </c>
       <c r="D916" s="18" t="inlineStr">
         <is>
-          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
+          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
         </is>
       </c>
       <c r="E916" s="18" t="n"/>
@@ -48171,7 +48447,7 @@
       <c r="K916" s="19" t="n"/>
       <c r="L916" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M916" s="20" t="n"/>
@@ -48198,7 +48474,7 @@
       </c>
       <c r="D917" s="18" t="inlineStr">
         <is>
-          <t>トランスポート層の負荷分散を使用する</t>
+          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
         </is>
       </c>
       <c r="E917" s="18" t="n"/>
@@ -48222,7 +48498,7 @@
       <c r="K917" s="19" t="n"/>
       <c r="L917" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M917" s="20" t="n"/>
@@ -48239,7 +48515,7 @@
       </c>
       <c r="B918" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C918" s="18" t="inlineStr">
@@ -48249,7 +48525,7 @@
       </c>
       <c r="D918" s="18" t="inlineStr">
         <is>
-          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+          <t>トランスポート層の負荷分散を使用する</t>
         </is>
       </c>
       <c r="E918" s="18" t="n"/>
@@ -48273,7 +48549,7 @@
       <c r="K918" s="19" t="n"/>
       <c r="L918" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M918" s="20" t="n"/>
@@ -48300,7 +48576,7 @@
       </c>
       <c r="D919" s="18" t="inlineStr">
         <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
         </is>
       </c>
       <c r="E919" s="18" t="n"/>
@@ -48324,7 +48600,7 @@
       <c r="K919" s="19" t="n"/>
       <c r="L919" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M919" s="20" t="n"/>
@@ -48351,13 +48627,13 @@
       </c>
       <c r="D920" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
         </is>
       </c>
       <c r="E920" s="18" t="n"/>
       <c r="F920" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -48375,7 +48651,7 @@
       <c r="K920" s="19" t="n"/>
       <c r="L920" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M920" s="20" t="n"/>
@@ -48387,28 +48663,28 @@
     <row r="921">
       <c r="A921" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B921" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C921" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D921" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory の FTA 回復性プレイブックの活用</t>
+          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
         </is>
       </c>
       <c r="E921" s="18" t="n"/>
       <c r="F921" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -48426,7 +48702,7 @@
       <c r="K921" s="19" t="n"/>
       <c r="L921" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M921" s="20" t="n"/>
@@ -48453,13 +48729,13 @@
       </c>
       <c r="D922" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones をサポートするリージョンでゾーン冗長パイプラインを使用するUse zone redundant pipelines in regions that support Availability Zones</t>
+          <t>Azure Data Factory の FTA 回復性プレイブックの活用</t>
         </is>
       </c>
       <c r="E922" s="18" t="n"/>
       <c r="F922" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -48477,7 +48753,7 @@
       <c r="K922" s="19" t="n"/>
       <c r="L922" s="19" t="inlineStr">
         <is>
-          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
+          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
         </is>
       </c>
       <c r="M922" s="20" t="n"/>
@@ -48504,13 +48780,13 @@
       </c>
       <c r="D923" s="18" t="inlineStr">
         <is>
-          <t>DevOps を使用して Github と Azure DevOps の統合で ARM テンプレートをバックアップする</t>
+          <t>Availability Zones をサポートするリージョンでゾーン冗長パイプラインを使用するUse zone redundant pipelines in regions that support Availability Zones</t>
         </is>
       </c>
       <c r="E923" s="18" t="n"/>
       <c r="F923" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -48528,7 +48804,7 @@
       <c r="K923" s="19" t="n"/>
       <c r="L923" s="19" t="inlineStr">
         <is>
-          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
+          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
         </is>
       </c>
       <c r="M923" s="20" t="n"/>
@@ -48555,7 +48831,7 @@
       </c>
       <c r="D924" s="18" t="inlineStr">
         <is>
-          <t>セルフホステッド統合ランタイム VM を別のリージョンにレプリケートしてください</t>
+          <t>DevOps を使用して Github と Azure DevOps の統合で ARM テンプレートをバックアップする</t>
         </is>
       </c>
       <c r="E924" s="18" t="n"/>
@@ -48579,7 +48855,7 @@
       <c r="K924" s="19" t="n"/>
       <c r="L924" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
+          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
         </is>
       </c>
       <c r="M924" s="20" t="n"/>
@@ -48606,7 +48882,7 @@
       </c>
       <c r="D925" s="18" t="inlineStr">
         <is>
-          <t>必ず、姉妹リージョンでネットワークをレプリケートまたは複製してください。別のリージョンに VNet のコピーを作成する必要があります</t>
+          <t>セルフホステッド統合ランタイム VM を別のリージョンにレプリケートしてください</t>
         </is>
       </c>
       <c r="E925" s="18" t="n"/>
@@ -48630,7 +48906,7 @@
       <c r="K925" s="19" t="n"/>
       <c r="L925" s="19" t="inlineStr">
         <is>
-          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
+          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
         </is>
       </c>
       <c r="M925" s="20" t="n"/>
@@ -48657,17 +48933,13 @@
       </c>
       <c r="D926" s="18" t="inlineStr">
         <is>
-          <t>Keyvault 統合を使用している場合は、Keyvault の SLA を使用して可用性を把握します</t>
-        </is>
-      </c>
-      <c r="E926" s="18" t="inlineStr">
-        <is>
-          <t>ADF パイプラインで Key Vault が使用されている場合は、Key Vault をレプリケートするために何もする必要はありません。Key Vault はマネージド サービスであり、Microsoft が処理します</t>
-        </is>
-      </c>
+          <t>必ず、姉妹リージョンでネットワークをレプリケートまたは複製してください。別のリージョンに VNet のコピーを作成する必要があります</t>
+        </is>
+      </c>
+      <c r="E926" s="18" t="n"/>
       <c r="F926" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -48685,7 +48957,7 @@
       <c r="K926" s="19" t="n"/>
       <c r="L926" s="19" t="inlineStr">
         <is>
-          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
+          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
         </is>
       </c>
       <c r="M926" s="20" t="n"/>
@@ -48697,7 +48969,7 @@
     <row r="927">
       <c r="A927" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B927" s="18" t="inlineStr">
@@ -48707,18 +48979,22 @@
       </c>
       <c r="C927" s="18" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D927" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
-        </is>
-      </c>
-      <c r="E927" s="18" t="n"/>
+          <t>Keyvault 統合を使用している場合は、Keyvault の SLA を使用して可用性を把握します</t>
+        </is>
+      </c>
+      <c r="E927" s="18" t="inlineStr">
+        <is>
+          <t>ADF パイプラインで Key Vault が使用されている場合は、Key Vault をレプリケートするために何もする必要はありません。Key Vault はマネージド サービスであり、Microsoft が処理します</t>
+        </is>
+      </c>
       <c r="F927" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -48736,7 +49012,7 @@
       <c r="K927" s="19" t="n"/>
       <c r="L927" s="19" t="inlineStr">
         <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
+          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
         </is>
       </c>
       <c r="M927" s="20" t="n"/>
@@ -48763,13 +49039,13 @@
       </c>
       <c r="D928" s="18" t="inlineStr">
         <is>
-          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
+          <t>Availability Zones (リージョンで適用可能な場合) を活用する (これは自動的に有効になります)</t>
         </is>
       </c>
       <c r="E928" s="18" t="n"/>
       <c r="F928" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -48787,7 +49063,7 @@
       <c r="K928" s="19" t="n"/>
       <c r="L928" s="19" t="inlineStr">
         <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M928" s="20" t="n"/>
@@ -48814,13 +49090,13 @@
       </c>
       <c r="D929" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Microsoft が開始するフェールオーバーに注意してください。これらは、まれに、影響を受けるリージョンから対応する geo ペア リージョンにすべての IoT ハブをフェールオーバーするために Microsoft によって実行されます。</t>
         </is>
       </c>
       <c r="E929" s="18" t="n"/>
       <c r="F929" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -48838,7 +49114,7 @@
       <c r="K929" s="19" t="n"/>
       <c r="L929" s="19" t="inlineStr">
         <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M929" s="20" t="n"/>
@@ -48865,7 +49141,7 @@
       </c>
       <c r="D930" s="18" t="inlineStr">
         <is>
-          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
         </is>
       </c>
       <c r="E930" s="18" t="n"/>
@@ -48889,7 +49165,7 @@
       <c r="K930" s="19" t="n"/>
       <c r="L930" s="19" t="inlineStr">
         <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M930" s="20" t="n"/>
@@ -48916,7 +49192,7 @@
       </c>
       <c r="D931" s="18" t="inlineStr">
         <is>
-          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
+          <t>手動フェールオーバーをトリガーする方法を学習します。</t>
         </is>
       </c>
       <c r="E931" s="18" t="n"/>
@@ -48940,7 +49216,7 @@
       <c r="K931" s="19" t="n"/>
       <c r="L931" s="19" t="inlineStr">
         <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M931" s="20" t="n"/>
@@ -48952,7 +49228,7 @@
     <row r="932">
       <c r="A932" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B932" s="18" t="inlineStr">
@@ -48962,18 +49238,18 @@
       </c>
       <c r="C932" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D932" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
+          <t>フェールオーバー後にフェールバックする方法を学習します。</t>
         </is>
       </c>
       <c r="E932" s="18" t="n"/>
       <c r="F932" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -48991,7 +49267,7 @@
       <c r="K932" s="19" t="n"/>
       <c r="L932" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M932" s="20" t="n"/>
@@ -49018,7 +49294,7 @@
       </c>
       <c r="D933" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
+          <t>Azure Spring Apps では、アプリごとに 2 つのデプロイが許可され、そのうちの 1 つだけが運用トラフィックを受信します。ブルーグリーンデプロイ戦略により、ダウンタイムをゼロにすることができます。ブルー グリーン デプロイは、Standard レベルと Enterprise レベルでのみ使用できます。CI/CD と ADO/GitHub Actions を使用してデプロイを自動化できます</t>
         </is>
       </c>
       <c r="E933" s="18" t="n"/>
@@ -49042,7 +49318,7 @@
       <c r="K933" s="19" t="n"/>
       <c r="L933" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M933" s="20" t="n"/>
@@ -49069,7 +49345,7 @@
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
+          <t>Azure Spring Apps インスタンスは、アプリケーション用に複数のリージョンに作成でき、トラフィックは Traffic Manager/Front Door によってルーティングできます。</t>
         </is>
       </c>
       <c r="E934" s="18" t="n"/>
@@ -49093,7 +49369,7 @@
       <c r="K934" s="19" t="n"/>
       <c r="L934" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M934" s="20" t="n"/>
@@ -49120,7 +49396,7 @@
       </c>
       <c r="D935" s="18" t="inlineStr">
         <is>
-          <t>アプリに複数のアプリ インスタンスを使用する</t>
+          <t>サポートされているリージョンでは、Azure Spring Apps をゾーン冗長としてデプロイできるため、インスタンスは可用性ゾーン間で自動的に分散されます。この機能は、Standard レベルと Enterprise レベルでのみ使用できます。</t>
         </is>
       </c>
       <c r="E935" s="18" t="n"/>
@@ -49144,7 +49420,7 @@
       <c r="K935" s="19" t="n"/>
       <c r="L935" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M935" s="20" t="n"/>
@@ -49171,7 +49447,7 @@
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
+          <t>アプリに複数のアプリ インスタンスを使用する</t>
         </is>
       </c>
       <c r="E936" s="18" t="n"/>
@@ -49195,7 +49471,7 @@
       <c r="K936" s="19" t="n"/>
       <c r="L936" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M936" s="20" t="n"/>
@@ -49222,7 +49498,7 @@
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
+          <t>Azure Spring Apps をログ、メトリック、トレースで監視します。ASA を Application Insights と統合し、障害を追跡し、ブックを作成します。</t>
         </is>
       </c>
       <c r="E937" s="18" t="n"/>
@@ -49246,7 +49522,7 @@
       <c r="K937" s="19" t="n"/>
       <c r="L937" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M937" s="20" t="n"/>
@@ -49273,13 +49549,13 @@
       </c>
       <c r="D938" s="18" t="inlineStr">
         <is>
-          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
+          <t>Spring Cloud Gateway で自動スケーリングを設定する</t>
         </is>
       </c>
       <c r="E938" s="18" t="n"/>
       <c r="F938" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -49297,7 +49573,7 @@
       <c r="K938" s="19" t="n"/>
       <c r="L938" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M938" s="20" t="n"/>
@@ -49324,13 +49600,13 @@
       </c>
       <c r="D939" s="18" t="inlineStr">
         <is>
-          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
+          <t>Standard 従量課金プランと専用プランのアプリの自動スケーリングを有効にします。</t>
         </is>
       </c>
       <c r="E939" s="18" t="n"/>
       <c r="F939" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -49348,7 +49624,7 @@
       <c r="K939" s="19" t="n"/>
       <c r="L939" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M939" s="20" t="n"/>
@@ -49360,7 +49636,7 @@
     <row r="940">
       <c r="A940" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B940" s="18" t="inlineStr">
@@ -49370,18 +49646,18 @@
       </c>
       <c r="C940" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>ミッション クリティカルなアプリの Spring Boot の商用サポートには、Enterprise プランを使用します。他のレベルでは、OSS のサポートを受けることができます。</t>
         </is>
       </c>
       <c r="E940" s="18" t="n"/>
       <c r="F940" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -49399,7 +49675,7 @@
       <c r="K940" s="19" t="n"/>
       <c r="L940" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M940" s="20" t="n"/>
@@ -49426,13 +49702,13 @@
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
         </is>
       </c>
       <c r="E941" s="18" t="n"/>
       <c r="F941" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -49450,7 +49726,7 @@
       <c r="K941" s="19" t="n"/>
       <c r="L941" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M941" s="20" t="n"/>
@@ -49477,7 +49753,7 @@
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
@@ -49501,7 +49777,7 @@
       <c r="K942" s="19" t="n"/>
       <c r="L942" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M942" s="20" t="n"/>
@@ -49528,7 +49804,7 @@
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
@@ -49552,7 +49828,7 @@
       <c r="K943" s="19" t="n"/>
       <c r="L943" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M943" s="20" t="n"/>
@@ -49562,17 +49838,50 @@
       <c r="Q943" s="20" t="n"/>
     </row>
     <row r="944">
-      <c r="A944" s="18" t="n"/>
-      <c r="B944" s="18" t="n"/>
-      <c r="C944" s="18" t="n"/>
-      <c r="D944" s="18" t="n"/>
+      <c r="A944" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B944" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C944" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D944" s="18" t="inlineStr">
+        <is>
+          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+        </is>
+      </c>
       <c r="E944" s="18" t="n"/>
-      <c r="F944" s="18" t="n"/>
+      <c r="F944" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H944" s="18" t="n"/>
-      <c r="I944" s="13" t="n"/>
+      <c r="I944" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J944" s="13" t="n"/>
       <c r="K944" s="19" t="n"/>
-      <c r="L944" s="19" t="n"/>
+      <c r="L944" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M944" s="20" t="n"/>
       <c r="N944" s="20" t="n"/>
       <c r="O944" s="20" t="n"/>
@@ -54422,7 +54731,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G944" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G945" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -55139,7 +55448,7 @@
     <hyperlink ref="I829" r:id="rId710"/>
     <hyperlink ref="I830" r:id="rId711"/>
     <hyperlink ref="I831" r:id="rId712"/>
-    <hyperlink ref="I833" r:id="rId713"/>
+    <hyperlink ref="I832" r:id="rId713"/>
     <hyperlink ref="I834" r:id="rId714"/>
     <hyperlink ref="I835" r:id="rId715"/>
     <hyperlink ref="I836" r:id="rId716"/>
@@ -55150,7 +55459,7 @@
     <hyperlink ref="I841" r:id="rId721"/>
     <hyperlink ref="I842" r:id="rId722"/>
     <hyperlink ref="I843" r:id="rId723"/>
-    <hyperlink ref="I845" r:id="rId724"/>
+    <hyperlink ref="I844" r:id="rId724"/>
     <hyperlink ref="I846" r:id="rId725"/>
     <hyperlink ref="I847" r:id="rId726"/>
     <hyperlink ref="I848" r:id="rId727"/>
@@ -55249,6 +55558,7 @@
     <hyperlink ref="I941" r:id="rId820"/>
     <hyperlink ref="I942" r:id="rId821"/>
     <hyperlink ref="I943" r:id="rId822"/>
+    <hyperlink ref="I944" r:id="rId823"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -48030,32 +48030,28 @@
     <row r="910">
       <c r="A910" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B910" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C910" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D910" s="18" t="inlineStr">
         <is>
-          <t>必要に応じて、保存データの暗号化でカスタマー マネージド キー オプションを使用する</t>
-        </is>
-      </c>
-      <c r="E910" s="18" t="inlineStr">
-        <is>
-          <t>Azure Event Hub は、保存データの暗号化を提供します。独自のキーを使用する場合、データは引き続き Microsoft マネージド キーを使用して暗号化されますが、さらに Microsoft マネージド キーはカスタマー マネージド キーを使用して暗号化されます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+        </is>
+      </c>
+      <c r="E910" s="18" t="n"/>
       <c r="F910" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -48069,15 +48065,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J910" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J910" s="13" t="n"/>
       <c r="K910" s="19" t="n"/>
       <c r="L910" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M910" s="20" t="n"/>
@@ -48089,7 +48081,7 @@
     <row r="911">
       <c r="A911" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B911" s="18" t="inlineStr">
@@ -48099,19 +48091,15 @@
       </c>
       <c r="C911" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D911" s="18" t="inlineStr">
         <is>
-          <t>要求に最低限必要なバージョンのトランスポート層セキュリティ (TLS) を適用する</t>
-        </is>
-      </c>
-      <c r="E911" s="18" t="inlineStr">
-        <is>
-          <t>Azure Event Hubs 名前空間を使用すると、クライアントは TLS 1.0 以降でデータを送受信できます。より厳格なセキュリティ対策を適用するには、クライアントが新しいバージョンの TLS を使用してデータを送受信するように Event Hubs 名前空間を構成できます。Event Hubs 名前空間で TLS の最小バージョンが必要な場合、古いバージョンで行われた要求はすべて失敗します。</t>
-        </is>
-      </c>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
+        </is>
+      </c>
+      <c r="E911" s="18" t="n"/>
       <c r="F911" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -48130,13 +48118,13 @@
       </c>
       <c r="J911" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K911" s="19" t="n"/>
       <c r="L911" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M911" s="20" t="n"/>
@@ -48148,7 +48136,7 @@
     <row r="912">
       <c r="A912" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B912" s="18" t="inlineStr">
@@ -48158,19 +48146,15 @@
       </c>
       <c r="C912" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D912" s="18" t="inlineStr">
         <is>
-          <t>必要のない場合はrootアカウントの使用を避けてください</t>
-        </is>
-      </c>
-      <c r="E912" s="18" t="inlineStr">
-        <is>
-          <t>Event Hubs 名前空間を作成すると、名前空間に対して RootManageSharedAccessKey という名前のポリシー規則が自動的に作成されます。このポリシーには、名前空間全体に対する管理アクセス許可があります。このルールは、管理ルートアカウントのように扱い、アプリケーションでは使用しないことをお勧めします。RBAC で認証プロバイダーとして AAD を使用することをお勧めします。</t>
-        </is>
-      </c>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+        </is>
+      </c>
+      <c r="E912" s="18" t="n"/>
       <c r="F912" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -48189,13 +48173,13 @@
       </c>
       <c r="J912" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K912" s="19" t="n"/>
       <c r="L912" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M912" s="20" t="n"/>
@@ -48207,7 +48191,7 @@
     <row r="913">
       <c r="A913" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B913" s="18" t="inlineStr">
@@ -48217,22 +48201,18 @@
       </c>
       <c r="C913" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D913" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は、アプリケーションでマネージド ID を使用して Azure Event Hub に対する認証を行う必要があります。そうでない場合は、ストレージ資格情報 (SAS、サービス プリンシパル資格情報) を Azure Key Vault または同等のサービスに用意することを検討してください</t>
-        </is>
-      </c>
-      <c r="E913" s="18" t="inlineStr">
-        <is>
-          <t>Azure リソースのマネージド ID は、Azure Virtual Machines (VM)、関数アプリ、Virtual Machine Scale Sets、その他のサービスで実行されているアプリケーションから Azure AD 資格情報を使用して、Event Hubs リソースへのアクセスを承認できます。Azure リソースのマネージド ID を Azure AD 認証と共に使用することで、クラウドで実行されるアプリケーションに資格情報を格納することを回避できます。</t>
-        </is>
-      </c>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
+        </is>
+      </c>
+      <c r="E913" s="18" t="n"/>
       <c r="F913" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -48246,15 +48226,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J913" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
-      <c r="K913" s="19" t="n"/>
+      <c r="J913" s="13" t="n"/>
+      <c r="K913" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L913" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M913" s="20" t="n"/>
@@ -48266,7 +48246,7 @@
     <row r="914">
       <c r="A914" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B914" s="18" t="inlineStr">
@@ -48276,19 +48256,15 @@
       </c>
       <c r="C914" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D914" s="18" t="inlineStr">
         <is>
-          <t>最小特権データ プレーン RBAC を使用する</t>
-        </is>
-      </c>
-      <c r="E914" s="18" t="inlineStr">
-        <is>
-          <t>アクセス許可を作成するときは、Azure Event Hub へのクライアントのアクセスをきめ細かく制御します。Azure Event Hub のアクセス許可は、個々のリソース レベル (コンシューマー グループ、イベント ハブ エンティティ、イベント ハブ名前空間など) にスコープを設定する必要があり、またそうする必要があります。</t>
-        </is>
-      </c>
+          <t>Traffic Manager を Front Door の後ろに配置しないでください。</t>
+        </is>
+      </c>
+      <c r="E914" s="18" t="n"/>
       <c r="F914" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -48305,15 +48281,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J914" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
-      <c r="K914" s="19" t="n"/>
+      <c r="J914" s="13" t="n"/>
+      <c r="K914" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend compliant = properties['hostName'] !endswith '.trafficmanager.net' | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L914" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M914" s="20" t="n"/>
@@ -48325,7 +48301,7 @@
     <row r="915">
       <c r="A915" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B915" s="18" t="inlineStr">
@@ -48335,22 +48311,18 @@
       </c>
       <c r="C915" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D915" s="18" t="inlineStr">
         <is>
-          <t>セキュリティ調査のログ記録を有効にします。Azure Monitor を使用して、リソース ログ、ランタイム監査ログ、Kafka ログなどのメトリックとログをキャプチャします</t>
-        </is>
-      </c>
-      <c r="E915" s="18" t="inlineStr">
-        <is>
-          <t>Azure Event Hub リソース ログには、操作ログ、仮想ネットワーク、Kafka ログが含まれます。ランタイム監査ログは、Event Hubs のすべてのデータ プレーン アクセス操作 (イベントの送受信など) に関する集計された診断情報をキャプチャします。</t>
-        </is>
-      </c>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+        </is>
+      </c>
+      <c r="E915" s="18" t="n"/>
       <c r="F915" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -48364,15 +48336,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J915" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J915" s="13" t="n"/>
       <c r="K915" s="19" t="n"/>
       <c r="L915" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M915" s="20" t="n"/>
@@ -48384,32 +48352,28 @@
     <row r="916">
       <c r="A916" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B916" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C916" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D916" s="18" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントを使用して Azure Event Hub にアクセスし、該当する場合はパブリック ネットワーク アクセスを無効にすることを検討してください。</t>
-        </is>
-      </c>
-      <c r="E916" s="18" t="inlineStr">
-        <is>
-          <t>既定では、Azure Event Hub にはパブリック IP アドレスがあり、インターネットに到達できます。プライベート エンドポイントを使用すると、仮想ネットワークと Azure Event Hub の間のトラフィックが Microsoft のバックボーン ネットワークを経由するようになります。それに加えて、パブリックエンドポイントを使用しない場合は無効にする必要があります。</t>
-        </is>
-      </c>
+          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+        </is>
+      </c>
+      <c r="E916" s="18" t="n"/>
       <c r="F916" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -48423,15 +48387,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J916" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
-      <c r="K916" s="19" t="n"/>
+      <c r="J916" s="13" t="n"/>
+      <c r="K916" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L916" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M916" s="20" t="n"/>
@@ -48443,29 +48407,25 @@
     <row r="917">
       <c r="A917" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B917" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C917" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D917" s="18" t="inlineStr">
         <is>
-          <t>特定の IP アドレスまたは範囲からの Azure Event Hub 名前空間へのアクセスのみを許可することを検討してください</t>
-        </is>
-      </c>
-      <c r="E917" s="18" t="inlineStr">
-        <is>
-          <t>IP ファイアウォールを使用すると、パブリック エンドポイントを、CIDR (Classless Inter-Domain Routing) 表記の一連の IPv4 アドレスまたは IPv4 アドレス範囲のみに制限できます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
+        </is>
+      </c>
+      <c r="E917" s="18" t="n"/>
       <c r="F917" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -48482,15 +48442,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J917" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J917" s="13" t="n"/>
       <c r="K917" s="19" t="n"/>
       <c r="L917" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M917" s="20" t="n"/>
@@ -48502,28 +48458,28 @@
     <row r="918">
       <c r="A918" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B918" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C918" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D918" s="18" t="inlineStr">
         <is>
-          <t>FTAレジリエンシーハンドブックの活用</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="E918" s="18" t="n"/>
       <c r="F918" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -48538,10 +48494,14 @@
         </is>
       </c>
       <c r="J918" s="13" t="n"/>
-      <c r="K918" s="19" t="n"/>
+      <c r="K918" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L918" s="19" t="inlineStr">
         <is>
-          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M918" s="20" t="n"/>
@@ -48553,29 +48513,25 @@
     <row r="919">
       <c r="A919" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B919" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C919" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D919" s="18" t="inlineStr">
         <is>
-          <t>Availability Zones の活用 (地域的に適用可能な場合)</t>
-        </is>
-      </c>
-      <c r="E919" s="18" t="inlineStr">
-        <is>
-          <t>これは、ゾーン対応リージョンの Premium、Dedicated、または Standard SKU を使用してポータルから作成された新しい EH 名前空間に対して自動的にオンになります。EH メタデータとイベント データ自体の両方がゾーン間でレプリケートされます</t>
-        </is>
-      </c>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+        </is>
+      </c>
+      <c r="E919" s="18" t="n"/>
       <c r="F919" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -48593,10 +48549,14 @@
         </is>
       </c>
       <c r="J919" s="13" t="n"/>
-      <c r="K919" s="19" t="n"/>
+      <c r="K919" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L919" s="19" t="inlineStr">
         <is>
-          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M919" s="20" t="n"/>
@@ -48608,22 +48568,22 @@
     <row r="920">
       <c r="A920" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B920" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C920" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D920" s="18" t="inlineStr">
         <is>
-          <t>予測可能なパフォーマンスのために Premium または Dedicated SKU を使用する</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E920" s="18" t="n"/>
@@ -48647,7 +48607,7 @@
       <c r="K920" s="19" t="n"/>
       <c r="L920" s="19" t="inlineStr">
         <is>
-          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M920" s="20" t="n"/>
@@ -48659,29 +48619,25 @@
     <row r="921">
       <c r="A921" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B921" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C921" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D921" s="18" t="inlineStr">
         <is>
-          <t>アクティブ パッシブ構成を使用した Geo ディザスター リカバリーの計画</t>
-        </is>
-      </c>
-      <c r="E921" s="18" t="inlineStr">
-        <is>
-          <t>組み込みの geo ディザスター リカバリー機能を有効にすると、名前空間の構成全体 (Event Hubs、コンシューマー グループ、設定) がプライマリ名前空間からセカンダリ名前空間に継続的にレプリケートされ、プライマリからセカンダリへのフェールオーバーをいつでも 1 回だけ行うことができます。アクティブ/パッシブ機能は、アプリケーション構成を変更することなく、障害が発生した Azure リージョンからの復旧と破棄を容易にするように設計されています</t>
-        </is>
-      </c>
+          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+        </is>
+      </c>
+      <c r="E921" s="18" t="n"/>
       <c r="F921" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -48699,10 +48655,14 @@
         </is>
       </c>
       <c r="J921" s="13" t="n"/>
-      <c r="K921" s="19" t="n"/>
+      <c r="K921" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = forwardingProtocol =~ 'httpsonly' and (supportedProtocols has 'https' or httpsRedirect =~ 'enabled') | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L921" s="19" t="inlineStr">
         <is>
-          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M921" s="20" t="n"/>
@@ -48714,29 +48674,25 @@
     <row r="922">
       <c r="A922" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B922" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C922" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D922" s="18" t="inlineStr">
         <is>
-          <t>ビジネス クリティカルなアプリケーションの場合は、アクティブ アクティブ構成を使用します</t>
-        </is>
-      </c>
-      <c r="E922" s="18" t="inlineStr">
-        <is>
-          <t>ダウンしたリージョンでのイベントデータの停止または損失を許容できない DR 構成に使用する必要があります。このような場合は、レプリケーションのガイダンスに従い、組み込みの geo ディザスター リカバリー機能 (アクティブ/パッシブ) を使用しないでください。アクティブ/アクティブでは、異なるリージョンと名前空間で複数の Event Hubs を保持し、イベントはハブ間でレプリケートされます</t>
-        </is>
-      </c>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
+        </is>
+      </c>
+      <c r="E922" s="18" t="n"/>
       <c r="F922" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -48754,10 +48710,14 @@
         </is>
       </c>
       <c r="J922" s="13" t="n"/>
-      <c r="K922" s="19" t="n"/>
+      <c r="K922" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = httpsRedirect =~ 'enabled' | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L922" s="19" t="inlineStr">
         <is>
-          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M922" s="20" t="n"/>
@@ -48769,28 +48729,28 @@
     <row r="923">
       <c r="A923" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B923" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C923" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D923" s="18" t="inlineStr">
         <is>
-          <t>回復力のある Event Hubs の設計</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="E923" s="18" t="n"/>
       <c r="F923" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -48808,7 +48768,7 @@
       <c r="K923" s="19" t="n"/>
       <c r="L923" s="19" t="inlineStr">
         <is>
-          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M923" s="20" t="n"/>
@@ -48820,22 +48780,22 @@
     <row r="924">
       <c r="A924" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B924" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C924" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D924" s="18" t="inlineStr">
         <is>
-          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
         </is>
       </c>
       <c r="E924" s="18" t="n"/>
@@ -48859,7 +48819,7 @@
       <c r="K924" s="19" t="n"/>
       <c r="L924" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M924" s="20" t="n"/>
@@ -48871,22 +48831,22 @@
     <row r="925">
       <c r="A925" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B925" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C925" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D925" s="18" t="inlineStr">
         <is>
-          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E925" s="18" t="n"/>
@@ -48910,7 +48870,7 @@
       <c r="K925" s="19" t="n"/>
       <c r="L925" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M925" s="20" t="n"/>
@@ -48922,22 +48882,22 @@
     <row r="926">
       <c r="A926" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B926" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C926" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D926" s="18" t="inlineStr">
         <is>
-          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="E926" s="18" t="n"/>
@@ -48961,7 +48921,7 @@
       <c r="K926" s="19" t="n"/>
       <c r="L926" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M926" s="20" t="n"/>
@@ -48973,22 +48933,22 @@
     <row r="927">
       <c r="A927" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B927" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C927" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D927" s="18" t="inlineStr">
         <is>
-          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E927" s="18" t="n"/>
@@ -49012,7 +48972,7 @@
       <c r="K927" s="19" t="n"/>
       <c r="L927" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M927" s="20" t="n"/>
@@ -49024,22 +48984,22 @@
     <row r="928">
       <c r="A928" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B928" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C928" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D928" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E928" s="18" t="n"/>
@@ -49063,7 +49023,7 @@
       <c r="K928" s="19" t="n"/>
       <c r="L928" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M928" s="20" t="n"/>
@@ -49075,22 +49035,22 @@
     <row r="929">
       <c r="A929" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B929" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C929" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D929" s="18" t="inlineStr">
         <is>
-          <t>有効期間の長い取り消し可能なトークンを使用し、トークンをキャッシュし、Microsoft ID ライブラリを使用してサイレントに取得します</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="E929" s="18" t="n"/>
@@ -49114,7 +49074,7 @@
       <c r="K929" s="19" t="n"/>
       <c r="L929" s="19" t="inlineStr">
         <is>
-          <t>bb235c70-5e17-496f-bedf-a8a4c8cdec4c</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M929" s="20" t="n"/>
@@ -49126,22 +49086,22 @@
     <row r="930">
       <c r="A930" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B930" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C930" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D930" s="18" t="inlineStr">
         <is>
-          <t>サインイン ユーザー フローがバックアップされ、回復性があることを確認します。ユーザーのサインインに使用するコードがバックアップされ、回復可能であることを確認します。外部プロセスとの回復力のあるインターフェース</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="E930" s="18" t="n"/>
@@ -49165,7 +49125,7 @@
       <c r="K930" s="19" t="n"/>
       <c r="L930" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-71f0f1ce16dd</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M930" s="20" t="n"/>
@@ -49177,28 +49137,28 @@
     <row r="931">
       <c r="A931" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B931" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C931" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D931" s="18" t="inlineStr">
         <is>
-          <t>カスタムブランドアセットはCDNでホストする必要がある</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E931" s="18" t="n"/>
       <c r="F931" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -49216,7 +49176,7 @@
       <c r="K931" s="19" t="n"/>
       <c r="L931" s="19" t="inlineStr">
         <is>
-          <t>3e3553a4-c873-4964-ab66-2d6c15f51296</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M931" s="20" t="n"/>
@@ -49228,28 +49188,28 @@
     <row r="932">
       <c r="A932" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B932" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C932" s="18" t="inlineStr">
         <is>
-          <t>AAD B2C</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D932" s="18" t="inlineStr">
         <is>
-          <t>複数のIDプロバイダーを持っている(つまり、Microsoft、Google、Facebookアカウントでログインする)</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="E932" s="18" t="n"/>
       <c r="F932" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -49267,7 +49227,7 @@
       <c r="K932" s="19" t="n"/>
       <c r="L932" s="19" t="inlineStr">
         <is>
-          <t>5398e6df-d237-4de1-93b1-6c21d79a9b64</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M932" s="20" t="n"/>
@@ -49279,22 +49239,22 @@
     <row r="933">
       <c r="A933" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B933" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C933" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D933" s="18" t="inlineStr">
         <is>
-          <t>VM レベルでの高可用性に関する VM ルールに従う (Premium ディスク、リージョン内の 2 つ以上、異なる可用性ゾーン内)</t>
+          <t>ログとメトリックをキャプチャするには、診断設定をオンにします。リソース アクティビティ ログ、アクセス ログ、正常性プローブ ログ、WAF ログを含めます。アラートを設定します。</t>
         </is>
       </c>
       <c r="E933" s="18" t="n"/>
@@ -49318,7 +49278,7 @@
       <c r="K933" s="19" t="n"/>
       <c r="L933" s="19" t="inlineStr">
         <is>
-          <t>604489a8-f42d-478e-98c0-7a73b22a4a57</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M933" s="20" t="n"/>
@@ -49330,22 +49290,22 @@
     <row r="934">
       <c r="A934" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B934" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C934" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>複製しないでください!レプリケーションにより、ディレクトリ同期に関する問題が発生する可能性があります</t>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="E934" s="18" t="n"/>
@@ -49369,7 +49329,7 @@
       <c r="K934" s="19" t="n"/>
       <c r="L934" s="19" t="inlineStr">
         <is>
-          <t>e7a8dd4a-30e3-47c3-b297-11b2362ceee0</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M934" s="20" t="n"/>
@@ -49381,7 +49341,7 @@
     <row r="935">
       <c r="A935" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B935" s="18" t="inlineStr">
@@ -49391,12 +49351,12 @@
       </c>
       <c r="C935" s="18" t="inlineStr">
         <is>
-          <t>Windows AD</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D935" s="18" t="inlineStr">
         <is>
-          <t>マルチリージョンのアクティブ/アクティブを持つ</t>
+          <t>デプロイ戦略をサポートするルーティング方法を選択します。設定された重み係数に基づいてトラフィックを分散する加重方式は、アクティブ/アクティブモデルをサポートします。プライマリ リージョンがすべてのトラフィックを受信し、バックアップとしてセカンダリ リージョンにトラフィックを送信するように設定する優先度ベースの値は、アクティブ/パッシブ モデルをサポートします。上記の方法とレイテンシを組み合わせて、レイテンシが最も低いオリジンがトラフィックを受信するようにします。</t>
         </is>
       </c>
       <c r="E935" s="18" t="n"/>
@@ -49420,7 +49380,7 @@
       <c r="K935" s="19" t="n"/>
       <c r="L935" s="19" t="inlineStr">
         <is>
-          <t>79b598de-fc59-472c-b4cd-21b078036f5e</t>
+          <t>3bb0a854-ea3d-4212-bd8e-3f0cb7792b02</t>
         </is>
       </c>
       <c r="M935" s="20" t="n"/>
@@ -49432,7 +49392,7 @@
     <row r="936">
       <c r="A936" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B936" s="18" t="inlineStr">
@@ -49442,18 +49402,18 @@
       </c>
       <c r="C936" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Azure AD Domain Service スタンプを追加のリージョンと場所に追加する</t>
+          <t>1 つ以上のバックエンド プールに複数の配信元を持つことで冗長性をサポートします。アプリケーションの冗長インスタンスを常に用意し、各インスタンスがエンドポイントまたはオリジンを公開していることを確認します。これらの配信元は、1 つ以上のバックエンド プールに配置できます。</t>
         </is>
       </c>
       <c r="E936" s="18" t="n"/>
       <c r="F936" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -49468,10 +49428,14 @@
         </is>
       </c>
       <c r="J936" s="13" t="n"/>
-      <c r="K936" s="19" t="n"/>
+      <c r="K936" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L936" s="19" t="inlineStr">
         <is>
-          <t>6b4bfd3d-5035-447c-8447-ec66128a71f0</t>
+          <t>c3a769e4-cc78-40a9-b36a-f9bcab19ec2d</t>
         </is>
       </c>
       <c r="M936" s="20" t="n"/>
@@ -49483,7 +49447,7 @@
     <row r="937">
       <c r="A937" s="18" t="inlineStr">
         <is>
-          <t>Identity Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B937" s="18" t="inlineStr">
@@ -49493,12 +49457,12 @@
       </c>
       <c r="C937" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t>DR にレプリカ セットを使用する</t>
+          <t>バックエンドへの要求の転送にタイムアウトを設定します。エンドポイントのニーズに応じてタイムアウト設定を調整します。そうしないと、配信元が応答を送信する前に Azure Front Door が接続を閉じる可能性があります。また、すべての配信元のタイムアウトが短い場合は、Azure Front Door の既定のタイムアウトを下げることもできます。</t>
         </is>
       </c>
       <c r="E937" s="18" t="n"/>
@@ -49522,7 +49486,7 @@
       <c r="K937" s="19" t="n"/>
       <c r="L937" s="19" t="inlineStr">
         <is>
-          <t>f1ce16dd-3f1d-45e8-92e4-2e3611cc58b4</t>
+          <t>999852be-2137-4179-8fc3-30d1df6fed1d</t>
         </is>
       </c>
       <c r="M937" s="20" t="n"/>
@@ -49534,7 +49498,7 @@
     <row r="938">
       <c r="A938" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B938" s="18" t="inlineStr">
@@ -49544,18 +49508,18 @@
       </c>
       <c r="C938" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D938" s="18" t="inlineStr">
         <is>
-          <t>2 つのレプリカで読み取り操作の可用性を 99.9% にする</t>
+          <t>アプリケーションにセッション アフィニティが必要かどうかを判断します。高い信頼性要件がある場合は、セッション アフィニティを無効にすることをお勧めします。</t>
         </is>
       </c>
       <c r="E938" s="18" t="n"/>
       <c r="F938" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -49573,7 +49537,7 @@
       <c r="K938" s="19" t="n"/>
       <c r="L938" s="19" t="inlineStr">
         <is>
-          <t>41faa1ed-b7f0-447d-8cba-4a4905e5bb83</t>
+          <t>17bf6351-3e5e-41f1-87bb-d5ad0b4e3de6</t>
         </is>
       </c>
       <c r="M938" s="20" t="n"/>
@@ -49585,22 +49549,22 @@
     <row r="939">
       <c r="A939" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B939" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C939" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D939" s="18" t="inlineStr">
         <is>
-          <t>3 つのレプリカで読み取り/書き込み操作の可用性を 99.9% に向上させる</t>
+          <t>ホストヘッダーをバックエンドに送信します。バックエンド サービスは、そのホストからのトラフィックのみを受け入れるルールを作成できるように、ホスト名を認識する必要があります。</t>
         </is>
       </c>
       <c r="E939" s="18" t="n"/>
@@ -49624,7 +49588,7 @@
       <c r="K939" s="19" t="n"/>
       <c r="L939" s="19" t="inlineStr">
         <is>
-          <t>7d956fd9-788a-4845-9b9f-c0340972d810</t>
+          <t>425bfb31-94c4-4007-b9ae-46da9fe57cc7</t>
         </is>
       </c>
       <c r="M939" s="20" t="n"/>
@@ -49636,28 +49600,28 @@
     <row r="940">
       <c r="A940" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B940" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C940" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>読み取りレプリカや書き込みレプリカを有効にすることでアベイラビリティーゾーンを活用する</t>
+          <t>キャッシュをサポートするエンドポイントにはキャッシュを使用します。</t>
         </is>
       </c>
       <c r="E940" s="18" t="n"/>
       <c r="F940" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -49675,7 +49639,7 @@
       <c r="K940" s="19" t="n"/>
       <c r="L940" s="19" t="inlineStr">
         <is>
-          <t>44dc5f2b-a032-4d03-aae8-90c3f2c0a4c3</t>
+          <t>81a5398a-2414-450f-9fc3-e048bc65784c</t>
         </is>
       </c>
       <c r="M940" s="20" t="n"/>
@@ -49687,28 +49651,28 @@
     <row r="941">
       <c r="A941" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B941" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C941" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>リージョンの冗長性については、地理的リージョン間で検索インデックスをレプリケートする自動化された方法が提供されないため、検索用に 2 つ以上のリージョンにサービスを手動で作成します</t>
+          <t>単一のバックエンド・プールのヘルス・チェックを無効にします。Azure Front Door の配信元グループに配信元が 1 つしか構成されていない場合、これらの呼び出しは不要です。これは、エンドポイントに複数のオリジンを持てない場合にのみ推奨されます。</t>
         </is>
       </c>
       <c r="E941" s="18" t="n"/>
       <c r="F941" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -49723,10 +49687,14 @@
         </is>
       </c>
       <c r="J941" s="13" t="n"/>
-      <c r="K941" s="19" t="n"/>
+      <c r="K941" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 or (origincount == 1 and enabledhealthprobecount == 0) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L941" s="19" t="inlineStr">
         <is>
-          <t>cd0730f0-0ff1-4b77-9a2b-2a1f7dd5e291</t>
+          <t>34069d73-e4de-46c5-a36f-625f87575a56</t>
         </is>
       </c>
       <c r="M941" s="20" t="n"/>
@@ -49738,22 +49706,22 @@
     <row r="942">
       <c r="A942" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B942" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C942" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>複数のサービス間でデータを同期するには、複数のサービスでコンテンツを更新するためにインデクサーを使用するか、複数のサービスでコンテンツの更新をプッシュするために REST API を使用する</t>
+          <t>セキュリティ レポートを活用するには Premium レベルを使用することをお勧めしますが、Standard Azure Front Door プロファイルでは、組み込みの分析/レポートでトラフィック レポートのみが提供されます。</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
@@ -49777,7 +49745,7 @@
       <c r="K942" s="19" t="n"/>
       <c r="L942" s="19" t="inlineStr">
         <is>
-          <t>3c964882-aec9-4d44-9f68-4b5f2efbbdb6</t>
+          <t>c92d6786-cdd1-444d-9cad-934a192a276a</t>
         </is>
       </c>
       <c r="M942" s="20" t="n"/>
@@ -49789,22 +49757,22 @@
     <row r="943">
       <c r="A943" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B943" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C943" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager を使用して要求を調整する</t>
+          <t>可能な場合は、ワイルドカード TLS 証明書を使用します。</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
@@ -49828,7 +49796,7 @@
       <c r="K943" s="19" t="n"/>
       <c r="L943" s="19" t="inlineStr">
         <is>
-          <t>85ee93c9-f53c-4803-be51-e6e4aa37ff4e</t>
+          <t>440cf7de-30a1-4550-ab50-c9f6eac140cd</t>
         </is>
       </c>
       <c r="M943" s="20" t="n"/>
@@ -49840,28 +49808,28 @@
     <row r="944">
       <c r="A944" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B944" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C944" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D944" s="18" t="inlineStr">
         <is>
-          <t>Azure Cognitive Search インデックスをバックアップおよび復元します。このサンプル コードを使用して、インデックス定義とスナップショットを一連の Json ファイルにバックアップします</t>
+          <t>キャッシュ用にアプリケーションのクエリ文字列を最適化します。純粋に静的なコンテンツの場合は、クエリ文字列を無視して、キャッシュを最大限に活用します。アプリケーションでクエリ文字列を使用する場合は、それらをキャッシュキーに含めることを検討してください。キャッシュ キーにクエリ文字列を含めると、Azure Front Door は、構成に基づいてキャッシュされた応答またはその他の応答を提供できます。</t>
         </is>
       </c>
       <c r="E944" s="18" t="n"/>
       <c r="F944" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -49879,7 +49847,7 @@
       <c r="K944" s="19" t="n"/>
       <c r="L944" s="19" t="inlineStr">
         <is>
-          <t>7be10278-57c1-4a61-8ee3-895aebfec5aa</t>
+          <t>556e2733-6ca9-4edd-9cc7-26de66d46c2e</t>
         </is>
       </c>
       <c r="M944" s="20" t="n"/>
@@ -49889,17 +49857,50 @@
       <c r="Q944" s="20" t="n"/>
     </row>
     <row r="945">
-      <c r="A945" s="18" t="n"/>
-      <c r="B945" s="18" t="n"/>
-      <c r="C945" s="18" t="n"/>
-      <c r="D945" s="18" t="n"/>
+      <c r="A945" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B945" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C945" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D945" s="18" t="inlineStr">
+        <is>
+          <t>ダウンロード可能なコンテンツにアクセスするときは、ファイル圧縮を使用します。</t>
+        </is>
+      </c>
       <c r="E945" s="18" t="n"/>
-      <c r="F945" s="18" t="n"/>
+      <c r="F945" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H945" s="18" t="n"/>
-      <c r="I945" s="13" t="n"/>
+      <c r="I945" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J945" s="13" t="n"/>
       <c r="K945" s="19" t="n"/>
-      <c r="L945" s="19" t="n"/>
+      <c r="L945" s="19" t="inlineStr">
+        <is>
+          <t>c0b7e55e-fcab-4e66-bdae-bd0290f6aece</t>
+        </is>
+      </c>
       <c r="M945" s="20" t="n"/>
       <c r="N945" s="20" t="n"/>
       <c r="O945" s="20" t="n"/>
@@ -49907,17 +49908,54 @@
       <c r="Q945" s="20" t="n"/>
     </row>
     <row r="946">
-      <c r="A946" s="18" t="n"/>
-      <c r="B946" s="18" t="n"/>
-      <c r="C946" s="18" t="n"/>
-      <c r="D946" s="18" t="n"/>
+      <c r="A946" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B946" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C946" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D946" s="18" t="inlineStr">
+        <is>
+          <t>現在クラシック Azure Front Door を使用している場合は、クラシック Azure Front Door は 2027 年 3 月までに非推奨になるため、Standard SKU または Premium SKU への移行を検討してください。</t>
+        </is>
+      </c>
       <c r="E946" s="18" t="n"/>
-      <c r="F946" s="18" t="n"/>
+      <c r="F946" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H946" s="18" t="n"/>
-      <c r="I946" s="13" t="n"/>
+      <c r="I946" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J946" s="13" t="n"/>
-      <c r="K946" s="19" t="n"/>
-      <c r="L946" s="19" t="n"/>
+      <c r="K946" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/frontdoors' and properties['resourceState'] !~ 'migrated' | extend compliant = false | project id, compliant</t>
+        </is>
+      </c>
+      <c r="L946" s="19" t="inlineStr">
+        <is>
+          <t>cb8eb8c0-aa73-4a26-a495-6eba8dc4a243</t>
+        </is>
+      </c>
       <c r="M946" s="20" t="n"/>
       <c r="N946" s="20" t="n"/>
       <c r="O946" s="20" t="n"/>
@@ -49925,17 +49963,50 @@
       <c r="Q946" s="20" t="n"/>
     </row>
     <row r="947">
-      <c r="A947" s="18" t="n"/>
-      <c r="B947" s="18" t="n"/>
-      <c r="C947" s="18" t="n"/>
-      <c r="D947" s="18" t="n"/>
+      <c r="A947" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B947" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C947" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D947" s="18" t="inlineStr">
+        <is>
+          <t>ミッション クリティカルな高可用性シナリオには、Traffic Manager の負荷分散 Azure Front Door とサード パーティの CDN プロバイダー CDN プロファイルの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="E947" s="18" t="n"/>
-      <c r="F947" s="18" t="n"/>
+      <c r="F947" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H947" s="18" t="n"/>
-      <c r="I947" s="13" t="n"/>
+      <c r="I947" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J947" s="13" t="n"/>
       <c r="K947" s="19" t="n"/>
-      <c r="L947" s="19" t="n"/>
+      <c r="L947" s="19" t="inlineStr">
+        <is>
+          <t>67c33697-15b1-4752-aeee-0b9b588defc4</t>
+        </is>
+      </c>
       <c r="M947" s="20" t="n"/>
       <c r="N947" s="20" t="n"/>
       <c r="O947" s="20" t="n"/>
@@ -49943,17 +50014,50 @@
       <c r="Q947" s="20" t="n"/>
     </row>
     <row r="948">
-      <c r="A948" s="18" t="n"/>
-      <c r="B948" s="18" t="n"/>
-      <c r="C948" s="18" t="n"/>
-      <c r="D948" s="18" t="n"/>
+      <c r="A948" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B948" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C948" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D948" s="18" t="inlineStr">
+        <is>
+          <t>配信元を App Services として Front Door を使用する場合は、アクセス制限を使用して Azure Front Door 経由でのみアプリ サービスへのトラフィックをロックダウンすることを検討してください。</t>
+        </is>
+      </c>
       <c r="E948" s="18" t="n"/>
-      <c r="F948" s="18" t="n"/>
+      <c r="F948" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H948" s="18" t="n"/>
-      <c r="I948" s="13" t="n"/>
+      <c r="I948" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J948" s="13" t="n"/>
       <c r="K948" s="19" t="n"/>
-      <c r="L948" s="19" t="n"/>
+      <c r="L948" s="19" t="inlineStr">
+        <is>
+          <t>972cd4cd-25b0-4b70-96e9-eab4bfd32907</t>
+        </is>
+      </c>
       <c r="M948" s="20" t="n"/>
       <c r="N948" s="20" t="n"/>
       <c r="O948" s="20" t="n"/>
@@ -49961,17 +50065,58 @@
       <c r="Q948" s="20" t="n"/>
     </row>
     <row r="949">
-      <c r="A949" s="18" t="n"/>
-      <c r="B949" s="18" t="n"/>
-      <c r="C949" s="18" t="n"/>
-      <c r="D949" s="18" t="n"/>
-      <c r="E949" s="18" t="n"/>
-      <c r="F949" s="18" t="n"/>
+      <c r="A949" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B949" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C949" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D949" s="18" t="inlineStr">
+        <is>
+          <t>必要に応じて、保存データの暗号化でカスタマー マネージド キー オプションを使用する</t>
+        </is>
+      </c>
+      <c r="E949" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub は、保存データの暗号化を提供します。独自のキーを使用する場合、データは引き続き Microsoft マネージド キーを使用して暗号化されますが、さらに Microsoft マネージド キーはカスタマー マネージド キーを使用して暗号化されます。</t>
+        </is>
+      </c>
+      <c r="F949" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H949" s="18" t="n"/>
-      <c r="I949" s="13" t="n"/>
-      <c r="J949" s="13" t="n"/>
+      <c r="I949" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J949" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K949" s="19" t="n"/>
-      <c r="L949" s="19" t="n"/>
+      <c r="L949" s="19" t="inlineStr">
+        <is>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+        </is>
+      </c>
       <c r="M949" s="20" t="n"/>
       <c r="N949" s="20" t="n"/>
       <c r="O949" s="20" t="n"/>
@@ -49979,17 +50124,58 @@
       <c r="Q949" s="20" t="n"/>
     </row>
     <row r="950">
-      <c r="A950" s="18" t="n"/>
-      <c r="B950" s="18" t="n"/>
-      <c r="C950" s="18" t="n"/>
-      <c r="D950" s="18" t="n"/>
-      <c r="E950" s="18" t="n"/>
-      <c r="F950" s="18" t="n"/>
+      <c r="A950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B950" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C950" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D950" s="18" t="inlineStr">
+        <is>
+          <t>要求に最低限必要なバージョンのトランスポート層セキュリティ (TLS) を適用する</t>
+        </is>
+      </c>
+      <c r="E950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hubs 名前空間を使用すると、クライアントは TLS 1.0 以降でデータを送受信できます。より厳格なセキュリティ対策を適用するには、クライアントが新しいバージョンの TLS を使用してデータを送受信するように Event Hubs 名前空間を構成できます。Event Hubs 名前空間で TLS の最小バージョンが必要な場合、古いバージョンで行われた要求はすべて失敗します。</t>
+        </is>
+      </c>
+      <c r="F950" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H950" s="18" t="n"/>
-      <c r="I950" s="13" t="n"/>
-      <c r="J950" s="13" t="n"/>
+      <c r="I950" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J950" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="K950" s="19" t="n"/>
-      <c r="L950" s="19" t="n"/>
+      <c r="L950" s="19" t="inlineStr">
+        <is>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+        </is>
+      </c>
       <c r="M950" s="20" t="n"/>
       <c r="N950" s="20" t="n"/>
       <c r="O950" s="20" t="n"/>
@@ -49997,17 +50183,58 @@
       <c r="Q950" s="20" t="n"/>
     </row>
     <row r="951">
-      <c r="A951" s="18" t="n"/>
-      <c r="B951" s="18" t="n"/>
-      <c r="C951" s="18" t="n"/>
-      <c r="D951" s="18" t="n"/>
-      <c r="E951" s="18" t="n"/>
-      <c r="F951" s="18" t="n"/>
+      <c r="A951" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B951" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C951" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D951" s="18" t="inlineStr">
+        <is>
+          <t>必要のない場合はrootアカウントの使用を避けてください</t>
+        </is>
+      </c>
+      <c r="E951" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs 名前空間を作成すると、名前空間に対して RootManageSharedAccessKey という名前のポリシー規則が自動的に作成されます。このポリシーには、名前空間全体に対する管理アクセス許可があります。このルールは、管理ルートアカウントのように扱い、アプリケーションでは使用しないことをお勧めします。RBAC で認証プロバイダーとして AAD を使用することをお勧めします。</t>
+        </is>
+      </c>
+      <c r="F951" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H951" s="18" t="n"/>
-      <c r="I951" s="13" t="n"/>
-      <c r="J951" s="13" t="n"/>
+      <c r="I951" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J951" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="K951" s="19" t="n"/>
-      <c r="L951" s="19" t="n"/>
+      <c r="L951" s="19" t="inlineStr">
+        <is>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+        </is>
+      </c>
       <c r="M951" s="20" t="n"/>
       <c r="N951" s="20" t="n"/>
       <c r="O951" s="20" t="n"/>
@@ -50015,17 +50242,58 @@
       <c r="Q951" s="20" t="n"/>
     </row>
     <row r="952">
-      <c r="A952" s="18" t="n"/>
-      <c r="B952" s="18" t="n"/>
-      <c r="C952" s="18" t="n"/>
-      <c r="D952" s="18" t="n"/>
-      <c r="E952" s="18" t="n"/>
-      <c r="F952" s="18" t="n"/>
+      <c r="A952" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B952" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C952" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D952" s="18" t="inlineStr">
+        <is>
+          <t>可能な場合は、アプリケーションでマネージド ID を使用して Azure Event Hub に対する認証を行う必要があります。そうでない場合は、ストレージ資格情報 (SAS、サービス プリンシパル資格情報) を Azure Key Vault または同等のサービスに用意することを検討してください</t>
+        </is>
+      </c>
+      <c r="E952" s="18" t="inlineStr">
+        <is>
+          <t>Azure リソースのマネージド ID は、Azure Virtual Machines (VM)、関数アプリ、Virtual Machine Scale Sets、その他のサービスで実行されているアプリケーションから Azure AD 資格情報を使用して、Event Hubs リソースへのアクセスを承認できます。Azure リソースのマネージド ID を Azure AD 認証と共に使用することで、クラウドで実行されるアプリケーションに資格情報を格納することを回避できます。</t>
+        </is>
+      </c>
+      <c r="F952" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H952" s="18" t="n"/>
-      <c r="I952" s="13" t="n"/>
-      <c r="J952" s="13" t="n"/>
+      <c r="I952" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J952" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K952" s="19" t="n"/>
-      <c r="L952" s="19" t="n"/>
+      <c r="L952" s="19" t="inlineStr">
+        <is>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+        </is>
+      </c>
       <c r="M952" s="20" t="n"/>
       <c r="N952" s="20" t="n"/>
       <c r="O952" s="20" t="n"/>
@@ -50033,17 +50301,58 @@
       <c r="Q952" s="20" t="n"/>
     </row>
     <row r="953">
-      <c r="A953" s="18" t="n"/>
-      <c r="B953" s="18" t="n"/>
-      <c r="C953" s="18" t="n"/>
-      <c r="D953" s="18" t="n"/>
-      <c r="E953" s="18" t="n"/>
-      <c r="F953" s="18" t="n"/>
+      <c r="A953" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B953" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C953" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D953" s="18" t="inlineStr">
+        <is>
+          <t>最小特権データ プレーン RBAC を使用する</t>
+        </is>
+      </c>
+      <c r="E953" s="18" t="inlineStr">
+        <is>
+          <t>アクセス許可を作成するときは、Azure Event Hub へのクライアントのアクセスをきめ細かく制御します。Azure Event Hub のアクセス許可は、個々のリソース レベル (コンシューマー グループ、イベント ハブ エンティティ、イベント ハブ名前空間など) にスコープを設定する必要があり、またそうする必要があります。</t>
+        </is>
+      </c>
+      <c r="F953" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H953" s="18" t="n"/>
-      <c r="I953" s="13" t="n"/>
-      <c r="J953" s="13" t="n"/>
+      <c r="I953" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J953" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K953" s="19" t="n"/>
-      <c r="L953" s="19" t="n"/>
+      <c r="L953" s="19" t="inlineStr">
+        <is>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+        </is>
+      </c>
       <c r="M953" s="20" t="n"/>
       <c r="N953" s="20" t="n"/>
       <c r="O953" s="20" t="n"/>
@@ -50051,17 +50360,58 @@
       <c r="Q953" s="20" t="n"/>
     </row>
     <row r="954">
-      <c r="A954" s="18" t="n"/>
-      <c r="B954" s="18" t="n"/>
-      <c r="C954" s="18" t="n"/>
-      <c r="D954" s="18" t="n"/>
-      <c r="E954" s="18" t="n"/>
-      <c r="F954" s="18" t="n"/>
+      <c r="A954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B954" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C954" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D954" s="18" t="inlineStr">
+        <is>
+          <t>セキュリティ調査のログ記録を有効にします。Azure Monitor を使用して、リソース ログ、ランタイム監査ログ、Kafka ログなどのメトリックとログをキャプチャします</t>
+        </is>
+      </c>
+      <c r="E954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub リソース ログには、操作ログ、仮想ネットワーク、Kafka ログが含まれます。ランタイム監査ログは、Event Hubs のすべてのデータ プレーン アクセス操作 (イベントの送受信など) に関する集計された診断情報をキャプチャします。</t>
+        </is>
+      </c>
+      <c r="F954" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H954" s="18" t="n"/>
-      <c r="I954" s="13" t="n"/>
-      <c r="J954" s="13" t="n"/>
+      <c r="I954" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J954" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K954" s="19" t="n"/>
-      <c r="L954" s="19" t="n"/>
+      <c r="L954" s="19" t="inlineStr">
+        <is>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+        </is>
+      </c>
       <c r="M954" s="20" t="n"/>
       <c r="N954" s="20" t="n"/>
       <c r="O954" s="20" t="n"/>
@@ -50069,17 +50419,58 @@
       <c r="Q954" s="20" t="n"/>
     </row>
     <row r="955">
-      <c r="A955" s="18" t="n"/>
-      <c r="B955" s="18" t="n"/>
-      <c r="C955" s="18" t="n"/>
-      <c r="D955" s="18" t="n"/>
-      <c r="E955" s="18" t="n"/>
-      <c r="F955" s="18" t="n"/>
+      <c r="A955" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B955" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C955" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D955" s="18" t="inlineStr">
+        <is>
+          <t>プライベート エンドポイントを使用して Azure Event Hub にアクセスし、該当する場合はパブリック ネットワーク アクセスを無効にすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="E955" s="18" t="inlineStr">
+        <is>
+          <t>既定では、Azure Event Hub にはパブリック IP アドレスがあり、インターネットに到達できます。プライベート エンドポイントを使用すると、仮想ネットワークと Azure Event Hub の間のトラフィックが Microsoft のバックボーン ネットワークを経由するようになります。それに加えて、パブリックエンドポイントを使用しない場合は無効にする必要があります。</t>
+        </is>
+      </c>
+      <c r="F955" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H955" s="18" t="n"/>
-      <c r="I955" s="13" t="n"/>
-      <c r="J955" s="13" t="n"/>
+      <c r="I955" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J955" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K955" s="19" t="n"/>
-      <c r="L955" s="19" t="n"/>
+      <c r="L955" s="19" t="inlineStr">
+        <is>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+        </is>
+      </c>
       <c r="M955" s="20" t="n"/>
       <c r="N955" s="20" t="n"/>
       <c r="O955" s="20" t="n"/>
@@ -50087,17 +50478,58 @@
       <c r="Q955" s="20" t="n"/>
     </row>
     <row r="956">
-      <c r="A956" s="18" t="n"/>
-      <c r="B956" s="18" t="n"/>
-      <c r="C956" s="18" t="n"/>
-      <c r="D956" s="18" t="n"/>
-      <c r="E956" s="18" t="n"/>
-      <c r="F956" s="18" t="n"/>
+      <c r="A956" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B956" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C956" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D956" s="18" t="inlineStr">
+        <is>
+          <t>特定の IP アドレスまたは範囲からの Azure Event Hub 名前空間へのアクセスのみを許可することを検討してください</t>
+        </is>
+      </c>
+      <c r="E956" s="18" t="inlineStr">
+        <is>
+          <t>IP ファイアウォールを使用すると、パブリック エンドポイントを、CIDR (Classless Inter-Domain Routing) 表記の一連の IPv4 アドレスまたは IPv4 アドレス範囲のみに制限できます。</t>
+        </is>
+      </c>
+      <c r="F956" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H956" s="18" t="n"/>
-      <c r="I956" s="13" t="n"/>
-      <c r="J956" s="13" t="n"/>
+      <c r="I956" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J956" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K956" s="19" t="n"/>
-      <c r="L956" s="19" t="n"/>
+      <c r="L956" s="19" t="inlineStr">
+        <is>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+        </is>
+      </c>
       <c r="M956" s="20" t="n"/>
       <c r="N956" s="20" t="n"/>
       <c r="O956" s="20" t="n"/>
@@ -50105,17 +50537,50 @@
       <c r="Q956" s="20" t="n"/>
     </row>
     <row r="957">
-      <c r="A957" s="18" t="n"/>
-      <c r="B957" s="18" t="n"/>
-      <c r="C957" s="18" t="n"/>
-      <c r="D957" s="18" t="n"/>
+      <c r="A957" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B957" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C957" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D957" s="18" t="inlineStr">
+        <is>
+          <t>FTAレジリエンシーハンドブックの活用</t>
+        </is>
+      </c>
       <c r="E957" s="18" t="n"/>
-      <c r="F957" s="18" t="n"/>
+      <c r="F957" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H957" s="18" t="n"/>
-      <c r="I957" s="13" t="n"/>
+      <c r="I957" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J957" s="13" t="n"/>
       <c r="K957" s="19" t="n"/>
-      <c r="L957" s="19" t="n"/>
+      <c r="L957" s="19" t="inlineStr">
+        <is>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+        </is>
+      </c>
       <c r="M957" s="20" t="n"/>
       <c r="N957" s="20" t="n"/>
       <c r="O957" s="20" t="n"/>
@@ -50123,17 +50588,54 @@
       <c r="Q957" s="20" t="n"/>
     </row>
     <row r="958">
-      <c r="A958" s="18" t="n"/>
-      <c r="B958" s="18" t="n"/>
-      <c r="C958" s="18" t="n"/>
-      <c r="D958" s="18" t="n"/>
-      <c r="E958" s="18" t="n"/>
-      <c r="F958" s="18" t="n"/>
+      <c r="A958" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B958" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C958" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D958" s="18" t="inlineStr">
+        <is>
+          <t>Availability Zones の活用 (地域的に適用可能な場合)</t>
+        </is>
+      </c>
+      <c r="E958" s="18" t="inlineStr">
+        <is>
+          <t>これは、ゾーン対応リージョンの Premium、Dedicated、または Standard SKU を使用してポータルから作成された新しい EH 名前空間に対して自動的にオンになります。EH メタデータとイベント データ自体の両方がゾーン間でレプリケートされます</t>
+        </is>
+      </c>
+      <c r="F958" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H958" s="18" t="n"/>
-      <c r="I958" s="13" t="n"/>
+      <c r="I958" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J958" s="13" t="n"/>
       <c r="K958" s="19" t="n"/>
-      <c r="L958" s="19" t="n"/>
+      <c r="L958" s="19" t="inlineStr">
+        <is>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+        </is>
+      </c>
       <c r="M958" s="20" t="n"/>
       <c r="N958" s="20" t="n"/>
       <c r="O958" s="20" t="n"/>
@@ -50141,17 +50643,50 @@
       <c r="Q958" s="20" t="n"/>
     </row>
     <row r="959">
-      <c r="A959" s="18" t="n"/>
-      <c r="B959" s="18" t="n"/>
-      <c r="C959" s="18" t="n"/>
-      <c r="D959" s="18" t="n"/>
+      <c r="A959" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B959" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C959" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D959" s="18" t="inlineStr">
+        <is>
+          <t>予測可能なパフォーマンスのために Premium または Dedicated SKU を使用する</t>
+        </is>
+      </c>
       <c r="E959" s="18" t="n"/>
-      <c r="F959" s="18" t="n"/>
+      <c r="F959" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H959" s="18" t="n"/>
-      <c r="I959" s="13" t="n"/>
+      <c r="I959" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J959" s="13" t="n"/>
       <c r="K959" s="19" t="n"/>
-      <c r="L959" s="19" t="n"/>
+      <c r="L959" s="19" t="inlineStr">
+        <is>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+        </is>
+      </c>
       <c r="M959" s="20" t="n"/>
       <c r="N959" s="20" t="n"/>
       <c r="O959" s="20" t="n"/>
@@ -50159,17 +50694,54 @@
       <c r="Q959" s="20" t="n"/>
     </row>
     <row r="960">
-      <c r="A960" s="18" t="n"/>
-      <c r="B960" s="18" t="n"/>
-      <c r="C960" s="18" t="n"/>
-      <c r="D960" s="18" t="n"/>
-      <c r="E960" s="18" t="n"/>
-      <c r="F960" s="18" t="n"/>
+      <c r="A960" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B960" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C960" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D960" s="18" t="inlineStr">
+        <is>
+          <t>アクティブ パッシブ構成を使用した Geo ディザスター リカバリーの計画</t>
+        </is>
+      </c>
+      <c r="E960" s="18" t="inlineStr">
+        <is>
+          <t>組み込みの geo ディザスター リカバリー機能を有効にすると、名前空間の構成全体 (Event Hubs、コンシューマー グループ、設定) がプライマリ名前空間からセカンダリ名前空間に継続的にレプリケートされ、プライマリからセカンダリへのフェールオーバーをいつでも 1 回だけ行うことができます。アクティブ/パッシブ機能は、アプリケーション構成を変更することなく、障害が発生した Azure リージョンからの復旧と破棄を容易にするように設計されています</t>
+        </is>
+      </c>
+      <c r="F960" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H960" s="18" t="n"/>
-      <c r="I960" s="13" t="n"/>
+      <c r="I960" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J960" s="13" t="n"/>
       <c r="K960" s="19" t="n"/>
-      <c r="L960" s="19" t="n"/>
+      <c r="L960" s="19" t="inlineStr">
+        <is>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+        </is>
+      </c>
       <c r="M960" s="20" t="n"/>
       <c r="N960" s="20" t="n"/>
       <c r="O960" s="20" t="n"/>
@@ -50177,17 +50749,54 @@
       <c r="Q960" s="20" t="n"/>
     </row>
     <row r="961">
-      <c r="A961" s="18" t="n"/>
-      <c r="B961" s="18" t="n"/>
-      <c r="C961" s="18" t="n"/>
-      <c r="D961" s="18" t="n"/>
-      <c r="E961" s="18" t="n"/>
-      <c r="F961" s="18" t="n"/>
+      <c r="A961" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B961" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C961" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D961" s="18" t="inlineStr">
+        <is>
+          <t>ビジネス クリティカルなアプリケーションの場合は、アクティブ アクティブ構成を使用します</t>
+        </is>
+      </c>
+      <c r="E961" s="18" t="inlineStr">
+        <is>
+          <t>ダウンしたリージョンでのイベントデータの停止または損失を許容できない DR 構成に使用する必要があります。このような場合は、レプリケーションのガイダンスに従い、組み込みの geo ディザスター リカバリー機能 (アクティブ/パッシブ) を使用しないでください。アクティブ/アクティブでは、異なるリージョンと名前空間で複数の Event Hubs を保持し、イベントはハブ間でレプリケートされます</t>
+        </is>
+      </c>
+      <c r="F961" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H961" s="18" t="n"/>
-      <c r="I961" s="13" t="n"/>
+      <c r="I961" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J961" s="13" t="n"/>
       <c r="K961" s="19" t="n"/>
-      <c r="L961" s="19" t="n"/>
+      <c r="L961" s="19" t="inlineStr">
+        <is>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+        </is>
+      </c>
       <c r="M961" s="20" t="n"/>
       <c r="N961" s="20" t="n"/>
       <c r="O961" s="20" t="n"/>
@@ -50195,17 +50804,50 @@
       <c r="Q961" s="20" t="n"/>
     </row>
     <row r="962">
-      <c r="A962" s="18" t="n"/>
-      <c r="B962" s="18" t="n"/>
-      <c r="C962" s="18" t="n"/>
-      <c r="D962" s="18" t="n"/>
+      <c r="A962" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B962" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C962" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D962" s="18" t="inlineStr">
+        <is>
+          <t>回復力のある Event Hubs の設計</t>
+        </is>
+      </c>
       <c r="E962" s="18" t="n"/>
-      <c r="F962" s="18" t="n"/>
+      <c r="F962" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H962" s="18" t="n"/>
-      <c r="I962" s="13" t="n"/>
+      <c r="I962" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J962" s="13" t="n"/>
       <c r="K962" s="19" t="n"/>
-      <c r="L962" s="19" t="n"/>
+      <c r="L962" s="19" t="inlineStr">
+        <is>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+        </is>
+      </c>
       <c r="M962" s="20" t="n"/>
       <c r="N962" s="20" t="n"/>
       <c r="O962" s="20" t="n"/>
@@ -50213,17 +50855,50 @@
       <c r="Q962" s="20" t="n"/>
     </row>
     <row r="963">
-      <c r="A963" s="18" t="n"/>
-      <c r="B963" s="18" t="n"/>
-      <c r="C963" s="18" t="n"/>
-      <c r="D963" s="18" t="n"/>
+      <c r="A963" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B963" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C963" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D963" s="18" t="inlineStr">
+        <is>
+          <t>ビジネスと SLO の要件に基づいて適切なロジック アプリのホスティング プランを選択する</t>
+        </is>
+      </c>
       <c r="E963" s="18" t="n"/>
-      <c r="F963" s="18" t="n"/>
+      <c r="F963" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H963" s="18" t="n"/>
-      <c r="I963" s="13" t="n"/>
+      <c r="I963" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J963" s="13" t="n"/>
       <c r="K963" s="19" t="n"/>
-      <c r="L963" s="19" t="n"/>
+      <c r="L963" s="19" t="inlineStr">
+        <is>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+        </is>
+      </c>
       <c r="M963" s="20" t="n"/>
       <c r="N963" s="20" t="n"/>
       <c r="O963" s="20" t="n"/>
@@ -50231,17 +50906,50 @@
       <c r="Q963" s="20" t="n"/>
     </row>
     <row r="964">
-      <c r="A964" s="18" t="n"/>
-      <c r="B964" s="18" t="n"/>
-      <c r="C964" s="18" t="n"/>
-      <c r="D964" s="18" t="n"/>
+      <c r="A964" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B964" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C964" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D964" s="18" t="inlineStr">
+        <is>
+          <t>ゾーンの冗長性と可用性ゾーンを使用してリージョンの障害からロジック アプリを保護する</t>
+        </is>
+      </c>
       <c r="E964" s="18" t="n"/>
-      <c r="F964" s="18" t="n"/>
+      <c r="F964" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H964" s="18" t="n"/>
-      <c r="I964" s="13" t="n"/>
+      <c r="I964" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J964" s="13" t="n"/>
       <c r="K964" s="19" t="n"/>
-      <c r="L964" s="19" t="n"/>
+      <c r="L964" s="19" t="inlineStr">
+        <is>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+        </is>
+      </c>
       <c r="M964" s="20" t="n"/>
       <c r="N964" s="20" t="n"/>
       <c r="O964" s="20" t="n"/>
@@ -50249,17 +50957,50 @@
       <c r="Q964" s="20" t="n"/>
     </row>
     <row r="965">
-      <c r="A965" s="18" t="n"/>
-      <c r="B965" s="18" t="n"/>
-      <c r="C965" s="18" t="n"/>
-      <c r="D965" s="18" t="n"/>
+      <c r="A965" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B965" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C965" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D965" s="18" t="inlineStr">
+        <is>
+          <t>重要なワークロードに対するリージョン間 DR 戦略を検討する</t>
+        </is>
+      </c>
       <c r="E965" s="18" t="n"/>
-      <c r="F965" s="18" t="n"/>
+      <c r="F965" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H965" s="18" t="n"/>
-      <c r="I965" s="13" t="n"/>
+      <c r="I965" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J965" s="13" t="n"/>
       <c r="K965" s="19" t="n"/>
-      <c r="L965" s="19" t="n"/>
+      <c r="L965" s="19" t="inlineStr">
+        <is>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+        </is>
+      </c>
       <c r="M965" s="20" t="n"/>
       <c r="N965" s="20" t="n"/>
       <c r="O965" s="20" t="n"/>
@@ -50267,17 +51008,50 @@
       <c r="Q965" s="20" t="n"/>
     </row>
     <row r="966">
-      <c r="A966" s="18" t="n"/>
-      <c r="B966" s="18" t="n"/>
-      <c r="C966" s="18" t="n"/>
-      <c r="D966" s="18" t="n"/>
+      <c r="A966" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B966" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C966" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D966" s="18" t="inlineStr">
+        <is>
+          <t>分離環境にデプロイする場合は、App Service Environment (ASE) v3 を使用するか、それらに移行します</t>
+        </is>
+      </c>
       <c r="E966" s="18" t="n"/>
-      <c r="F966" s="18" t="n"/>
+      <c r="F966" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H966" s="18" t="n"/>
-      <c r="I966" s="13" t="n"/>
+      <c r="I966" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J966" s="13" t="n"/>
       <c r="K966" s="19" t="n"/>
-      <c r="L966" s="19" t="n"/>
+      <c r="L966" s="19" t="inlineStr">
+        <is>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+        </is>
+      </c>
       <c r="M966" s="20" t="n"/>
       <c r="N966" s="20" t="n"/>
       <c r="O966" s="20" t="n"/>
@@ -50285,17 +51059,50 @@
       <c r="Q966" s="20" t="n"/>
     </row>
     <row r="967">
-      <c r="A967" s="18" t="n"/>
-      <c r="B967" s="18" t="n"/>
-      <c r="C967" s="18" t="n"/>
-      <c r="D967" s="18" t="n"/>
+      <c r="A967" s="18" t="inlineStr">
+        <is>
+          <t>Device Provisioning Service Review</t>
+        </is>
+      </c>
+      <c r="B967" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C967" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub DPS</t>
+        </is>
+      </c>
+      <c r="D967" s="18" t="inlineStr">
+        <is>
+          <t>Azure DevOps または GitHub を活用して CI/CD を合理化し、ロジック アプリ コードを保護</t>
+        </is>
+      </c>
       <c r="E967" s="18" t="n"/>
-      <c r="F967" s="18" t="n"/>
+      <c r="F967" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H967" s="18" t="n"/>
-      <c r="I967" s="13" t="n"/>
+      <c r="I967" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J967" s="13" t="n"/>
       <c r="K967" s="19" t="n"/>
-      <c r="L967" s="19" t="n"/>
+      <c r="L967" s="19" t="inlineStr">
+        <is>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+        </is>
+      </c>
       <c r="M967" s="20" t="n"/>
       <c r="N967" s="20" t="n"/>
       <c r="O967" s="20" t="n"/>
@@ -50303,17 +51110,50 @@
       <c r="Q967" s="20" t="n"/>
     </row>
     <row r="968">
-      <c r="A968" s="18" t="n"/>
-      <c r="B968" s="18" t="n"/>
-      <c r="C968" s="18" t="n"/>
-      <c r="D968" s="18" t="n"/>
+      <c r="A968" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B968" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C968" s="18" t="inlineStr">
+        <is>
+          <t>Entra</t>
+        </is>
+      </c>
+      <c r="D968" s="18" t="inlineStr">
+        <is>
+          <t>有効期間の長い取り消し可能なトークンを使用し、トークンをキャッシュし、Microsoft ID ライブラリを使用してサイレントに取得します</t>
+        </is>
+      </c>
       <c r="E968" s="18" t="n"/>
-      <c r="F968" s="18" t="n"/>
+      <c r="F968" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H968" s="18" t="n"/>
-      <c r="I968" s="13" t="n"/>
+      <c r="I968" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J968" s="13" t="n"/>
       <c r="K968" s="19" t="n"/>
-      <c r="L968" s="19" t="n"/>
+      <c r="L968" s="19" t="inlineStr">
+        <is>
+          <t>bb235c70-5e17-496f-bedf-a8a4c8cdec4c</t>
+        </is>
+      </c>
       <c r="M968" s="20" t="n"/>
       <c r="N968" s="20" t="n"/>
       <c r="O968" s="20" t="n"/>
@@ -50321,17 +51161,50 @@
       <c r="Q968" s="20" t="n"/>
     </row>
     <row r="969">
-      <c r="A969" s="18" t="n"/>
-      <c r="B969" s="18" t="n"/>
-      <c r="C969" s="18" t="n"/>
-      <c r="D969" s="18" t="n"/>
+      <c r="A969" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B969" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C969" s="18" t="inlineStr">
+        <is>
+          <t>AAD B2C</t>
+        </is>
+      </c>
+      <c r="D969" s="18" t="inlineStr">
+        <is>
+          <t>サインイン ユーザー フローがバックアップされ、回復性があることを確認します。ユーザーのサインインに使用するコードがバックアップされ、回復可能であることを確認します。外部プロセスとの回復力のあるインターフェース</t>
+        </is>
+      </c>
       <c r="E969" s="18" t="n"/>
-      <c r="F969" s="18" t="n"/>
+      <c r="F969" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H969" s="18" t="n"/>
-      <c r="I969" s="13" t="n"/>
+      <c r="I969" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J969" s="13" t="n"/>
       <c r="K969" s="19" t="n"/>
-      <c r="L969" s="19" t="n"/>
+      <c r="L969" s="19" t="inlineStr">
+        <is>
+          <t>503547c1-447e-4c66-828a-71f0f1ce16dd</t>
+        </is>
+      </c>
       <c r="M969" s="20" t="n"/>
       <c r="N969" s="20" t="n"/>
       <c r="O969" s="20" t="n"/>
@@ -50339,17 +51212,50 @@
       <c r="Q969" s="20" t="n"/>
     </row>
     <row r="970">
-      <c r="A970" s="18" t="n"/>
-      <c r="B970" s="18" t="n"/>
-      <c r="C970" s="18" t="n"/>
-      <c r="D970" s="18" t="n"/>
+      <c r="A970" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B970" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C970" s="18" t="inlineStr">
+        <is>
+          <t>AAD B2C</t>
+        </is>
+      </c>
+      <c r="D970" s="18" t="inlineStr">
+        <is>
+          <t>カスタムブランドアセットはCDNでホストする必要がある</t>
+        </is>
+      </c>
       <c r="E970" s="18" t="n"/>
-      <c r="F970" s="18" t="n"/>
+      <c r="F970" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H970" s="18" t="n"/>
-      <c r="I970" s="13" t="n"/>
+      <c r="I970" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J970" s="13" t="n"/>
       <c r="K970" s="19" t="n"/>
-      <c r="L970" s="19" t="n"/>
+      <c r="L970" s="19" t="inlineStr">
+        <is>
+          <t>3e3553a4-c873-4964-ab66-2d6c15f51296</t>
+        </is>
+      </c>
       <c r="M970" s="20" t="n"/>
       <c r="N970" s="20" t="n"/>
       <c r="O970" s="20" t="n"/>
@@ -50357,17 +51263,50 @@
       <c r="Q970" s="20" t="n"/>
     </row>
     <row r="971">
-      <c r="A971" s="18" t="n"/>
-      <c r="B971" s="18" t="n"/>
-      <c r="C971" s="18" t="n"/>
-      <c r="D971" s="18" t="n"/>
+      <c r="A971" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B971" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C971" s="18" t="inlineStr">
+        <is>
+          <t>AAD B2C</t>
+        </is>
+      </c>
+      <c r="D971" s="18" t="inlineStr">
+        <is>
+          <t>複数のIDプロバイダーを持っている(つまり、Microsoft、Google、Facebookアカウントでログインする)</t>
+        </is>
+      </c>
       <c r="E971" s="18" t="n"/>
-      <c r="F971" s="18" t="n"/>
+      <c r="F971" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H971" s="18" t="n"/>
-      <c r="I971" s="13" t="n"/>
+      <c r="I971" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J971" s="13" t="n"/>
       <c r="K971" s="19" t="n"/>
-      <c r="L971" s="19" t="n"/>
+      <c r="L971" s="19" t="inlineStr">
+        <is>
+          <t>5398e6df-d237-4de1-93b1-6c21d79a9b64</t>
+        </is>
+      </c>
       <c r="M971" s="20" t="n"/>
       <c r="N971" s="20" t="n"/>
       <c r="O971" s="20" t="n"/>
@@ -50375,17 +51314,50 @@
       <c r="Q971" s="20" t="n"/>
     </row>
     <row r="972">
-      <c r="A972" s="18" t="n"/>
-      <c r="B972" s="18" t="n"/>
-      <c r="C972" s="18" t="n"/>
-      <c r="D972" s="18" t="n"/>
+      <c r="A972" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B972" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C972" s="18" t="inlineStr">
+        <is>
+          <t>Windows AD</t>
+        </is>
+      </c>
+      <c r="D972" s="18" t="inlineStr">
+        <is>
+          <t>VM レベルでの高可用性に関する VM ルールに従う (Premium ディスク、リージョン内の 2 つ以上、異なる可用性ゾーン内)</t>
+        </is>
+      </c>
       <c r="E972" s="18" t="n"/>
-      <c r="F972" s="18" t="n"/>
+      <c r="F972" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H972" s="18" t="n"/>
-      <c r="I972" s="13" t="n"/>
+      <c r="I972" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J972" s="13" t="n"/>
       <c r="K972" s="19" t="n"/>
-      <c r="L972" s="19" t="n"/>
+      <c r="L972" s="19" t="inlineStr">
+        <is>
+          <t>604489a8-f42d-478e-98c0-7a73b22a4a57</t>
+        </is>
+      </c>
       <c r="M972" s="20" t="n"/>
       <c r="N972" s="20" t="n"/>
       <c r="O972" s="20" t="n"/>
@@ -50393,17 +51365,50 @@
       <c r="Q972" s="20" t="n"/>
     </row>
     <row r="973">
-      <c r="A973" s="18" t="n"/>
-      <c r="B973" s="18" t="n"/>
-      <c r="C973" s="18" t="n"/>
-      <c r="D973" s="18" t="n"/>
+      <c r="A973" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B973" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C973" s="18" t="inlineStr">
+        <is>
+          <t>Windows AD</t>
+        </is>
+      </c>
+      <c r="D973" s="18" t="inlineStr">
+        <is>
+          <t>複製しないでください!レプリケーションにより、ディレクトリ同期に関する問題が発生する可能性があります</t>
+        </is>
+      </c>
       <c r="E973" s="18" t="n"/>
-      <c r="F973" s="18" t="n"/>
+      <c r="F973" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H973" s="18" t="n"/>
-      <c r="I973" s="13" t="n"/>
+      <c r="I973" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J973" s="13" t="n"/>
       <c r="K973" s="19" t="n"/>
-      <c r="L973" s="19" t="n"/>
+      <c r="L973" s="19" t="inlineStr">
+        <is>
+          <t>e7a8dd4a-30e3-47c3-b297-11b2362ceee0</t>
+        </is>
+      </c>
       <c r="M973" s="20" t="n"/>
       <c r="N973" s="20" t="n"/>
       <c r="O973" s="20" t="n"/>
@@ -50411,17 +51416,50 @@
       <c r="Q973" s="20" t="n"/>
     </row>
     <row r="974">
-      <c r="A974" s="18" t="n"/>
-      <c r="B974" s="18" t="n"/>
-      <c r="C974" s="18" t="n"/>
-      <c r="D974" s="18" t="n"/>
+      <c r="A974" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B974" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C974" s="18" t="inlineStr">
+        <is>
+          <t>Windows AD</t>
+        </is>
+      </c>
+      <c r="D974" s="18" t="inlineStr">
+        <is>
+          <t>マルチリージョンのアクティブ/アクティブを持つ</t>
+        </is>
+      </c>
       <c r="E974" s="18" t="n"/>
-      <c r="F974" s="18" t="n"/>
+      <c r="F974" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H974" s="18" t="n"/>
-      <c r="I974" s="13" t="n"/>
+      <c r="I974" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J974" s="13" t="n"/>
       <c r="K974" s="19" t="n"/>
-      <c r="L974" s="19" t="n"/>
+      <c r="L974" s="19" t="inlineStr">
+        <is>
+          <t>79b598de-fc59-472c-b4cd-21b078036f5e</t>
+        </is>
+      </c>
       <c r="M974" s="20" t="n"/>
       <c r="N974" s="20" t="n"/>
       <c r="O974" s="20" t="n"/>
@@ -50429,17 +51467,50 @@
       <c r="Q974" s="20" t="n"/>
     </row>
     <row r="975">
-      <c r="A975" s="18" t="n"/>
-      <c r="B975" s="18" t="n"/>
-      <c r="C975" s="18" t="n"/>
-      <c r="D975" s="18" t="n"/>
+      <c r="A975" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B975" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C975" s="18" t="inlineStr">
+        <is>
+          <t>Entra</t>
+        </is>
+      </c>
+      <c r="D975" s="18" t="inlineStr">
+        <is>
+          <t>Azure AD Domain Service スタンプを追加のリージョンと場所に追加する</t>
+        </is>
+      </c>
       <c r="E975" s="18" t="n"/>
-      <c r="F975" s="18" t="n"/>
+      <c r="F975" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H975" s="18" t="n"/>
-      <c r="I975" s="13" t="n"/>
+      <c r="I975" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J975" s="13" t="n"/>
       <c r="K975" s="19" t="n"/>
-      <c r="L975" s="19" t="n"/>
+      <c r="L975" s="19" t="inlineStr">
+        <is>
+          <t>6b4bfd3d-5035-447c-8447-ec66128a71f0</t>
+        </is>
+      </c>
       <c r="M975" s="20" t="n"/>
       <c r="N975" s="20" t="n"/>
       <c r="O975" s="20" t="n"/>
@@ -50447,17 +51518,50 @@
       <c r="Q975" s="20" t="n"/>
     </row>
     <row r="976">
-      <c r="A976" s="18" t="n"/>
-      <c r="B976" s="18" t="n"/>
-      <c r="C976" s="18" t="n"/>
-      <c r="D976" s="18" t="n"/>
+      <c r="A976" s="18" t="inlineStr">
+        <is>
+          <t>Identity Review Checklist</t>
+        </is>
+      </c>
+      <c r="B976" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C976" s="18" t="inlineStr">
+        <is>
+          <t>Entra</t>
+        </is>
+      </c>
+      <c r="D976" s="18" t="inlineStr">
+        <is>
+          <t>DR にレプリカ セットを使用する</t>
+        </is>
+      </c>
       <c r="E976" s="18" t="n"/>
-      <c r="F976" s="18" t="n"/>
+      <c r="F976" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H976" s="18" t="n"/>
-      <c r="I976" s="13" t="n"/>
+      <c r="I976" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J976" s="13" t="n"/>
       <c r="K976" s="19" t="n"/>
-      <c r="L976" s="19" t="n"/>
+      <c r="L976" s="19" t="inlineStr">
+        <is>
+          <t>f1ce16dd-3f1d-45e8-92e4-2e3611cc58b4</t>
+        </is>
+      </c>
       <c r="M976" s="20" t="n"/>
       <c r="N976" s="20" t="n"/>
       <c r="O976" s="20" t="n"/>
@@ -50465,17 +51569,50 @@
       <c r="Q976" s="20" t="n"/>
     </row>
     <row r="977">
-      <c r="A977" s="18" t="n"/>
-      <c r="B977" s="18" t="n"/>
-      <c r="C977" s="18" t="n"/>
-      <c r="D977" s="18" t="n"/>
+      <c r="A977" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B977" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C977" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D977" s="18" t="inlineStr">
+        <is>
+          <t>2 つのレプリカで読み取り操作の可用性を 99.9% にする</t>
+        </is>
+      </c>
       <c r="E977" s="18" t="n"/>
-      <c r="F977" s="18" t="n"/>
+      <c r="F977" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H977" s="18" t="n"/>
-      <c r="I977" s="13" t="n"/>
+      <c r="I977" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J977" s="13" t="n"/>
       <c r="K977" s="19" t="n"/>
-      <c r="L977" s="19" t="n"/>
+      <c r="L977" s="19" t="inlineStr">
+        <is>
+          <t>41faa1ed-b7f0-447d-8cba-4a4905e5bb83</t>
+        </is>
+      </c>
       <c r="M977" s="20" t="n"/>
       <c r="N977" s="20" t="n"/>
       <c r="O977" s="20" t="n"/>
@@ -50483,17 +51620,50 @@
       <c r="Q977" s="20" t="n"/>
     </row>
     <row r="978">
-      <c r="A978" s="18" t="n"/>
-      <c r="B978" s="18" t="n"/>
-      <c r="C978" s="18" t="n"/>
-      <c r="D978" s="18" t="n"/>
+      <c r="A978" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B978" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C978" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D978" s="18" t="inlineStr">
+        <is>
+          <t>3 つのレプリカで読み取り/書き込み操作の可用性を 99.9% に向上させる</t>
+        </is>
+      </c>
       <c r="E978" s="18" t="n"/>
-      <c r="F978" s="18" t="n"/>
+      <c r="F978" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H978" s="18" t="n"/>
-      <c r="I978" s="13" t="n"/>
+      <c r="I978" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J978" s="13" t="n"/>
       <c r="K978" s="19" t="n"/>
-      <c r="L978" s="19" t="n"/>
+      <c r="L978" s="19" t="inlineStr">
+        <is>
+          <t>7d956fd9-788a-4845-9b9f-c0340972d810</t>
+        </is>
+      </c>
       <c r="M978" s="20" t="n"/>
       <c r="N978" s="20" t="n"/>
       <c r="O978" s="20" t="n"/>
@@ -50501,17 +51671,50 @@
       <c r="Q978" s="20" t="n"/>
     </row>
     <row r="979">
-      <c r="A979" s="18" t="n"/>
-      <c r="B979" s="18" t="n"/>
-      <c r="C979" s="18" t="n"/>
-      <c r="D979" s="18" t="n"/>
+      <c r="A979" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B979" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C979" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D979" s="18" t="inlineStr">
+        <is>
+          <t>読み取りレプリカや書き込みレプリカを有効にすることでアベイラビリティーゾーンを活用する</t>
+        </is>
+      </c>
       <c r="E979" s="18" t="n"/>
-      <c r="F979" s="18" t="n"/>
+      <c r="F979" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H979" s="18" t="n"/>
-      <c r="I979" s="13" t="n"/>
+      <c r="I979" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J979" s="13" t="n"/>
       <c r="K979" s="19" t="n"/>
-      <c r="L979" s="19" t="n"/>
+      <c r="L979" s="19" t="inlineStr">
+        <is>
+          <t>44dc5f2b-a032-4d03-aae8-90c3f2c0a4c3</t>
+        </is>
+      </c>
       <c r="M979" s="20" t="n"/>
       <c r="N979" s="20" t="n"/>
       <c r="O979" s="20" t="n"/>
@@ -50519,17 +51722,50 @@
       <c r="Q979" s="20" t="n"/>
     </row>
     <row r="980">
-      <c r="A980" s="18" t="n"/>
-      <c r="B980" s="18" t="n"/>
-      <c r="C980" s="18" t="n"/>
-      <c r="D980" s="18" t="n"/>
+      <c r="A980" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B980" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C980" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D980" s="18" t="inlineStr">
+        <is>
+          <t>リージョンの冗長性については、地理的リージョン間で検索インデックスをレプリケートする自動化された方法が提供されないため、検索用に 2 つ以上のリージョンにサービスを手動で作成します</t>
+        </is>
+      </c>
       <c r="E980" s="18" t="n"/>
-      <c r="F980" s="18" t="n"/>
+      <c r="F980" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H980" s="18" t="n"/>
-      <c r="I980" s="13" t="n"/>
+      <c r="I980" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J980" s="13" t="n"/>
       <c r="K980" s="19" t="n"/>
-      <c r="L980" s="19" t="n"/>
+      <c r="L980" s="19" t="inlineStr">
+        <is>
+          <t>cd0730f0-0ff1-4b77-9a2b-2a1f7dd5e291</t>
+        </is>
+      </c>
       <c r="M980" s="20" t="n"/>
       <c r="N980" s="20" t="n"/>
       <c r="O980" s="20" t="n"/>
@@ -50537,17 +51773,50 @@
       <c r="Q980" s="20" t="n"/>
     </row>
     <row r="981">
-      <c r="A981" s="18" t="n"/>
-      <c r="B981" s="18" t="n"/>
-      <c r="C981" s="18" t="n"/>
-      <c r="D981" s="18" t="n"/>
+      <c r="A981" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B981" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C981" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D981" s="18" t="inlineStr">
+        <is>
+          <t>複数のサービス間でデータを同期するには、複数のサービスでコンテンツを更新するためにインデクサーを使用するか、複数のサービスでコンテンツの更新をプッシュするために REST API を使用する</t>
+        </is>
+      </c>
       <c r="E981" s="18" t="n"/>
-      <c r="F981" s="18" t="n"/>
+      <c r="F981" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H981" s="18" t="n"/>
-      <c r="I981" s="13" t="n"/>
+      <c r="I981" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J981" s="13" t="n"/>
       <c r="K981" s="19" t="n"/>
-      <c r="L981" s="19" t="n"/>
+      <c r="L981" s="19" t="inlineStr">
+        <is>
+          <t>3c964882-aec9-4d44-9f68-4b5f2efbbdb6</t>
+        </is>
+      </c>
       <c r="M981" s="20" t="n"/>
       <c r="N981" s="20" t="n"/>
       <c r="O981" s="20" t="n"/>
@@ -50555,17 +51824,50 @@
       <c r="Q981" s="20" t="n"/>
     </row>
     <row r="982">
-      <c r="A982" s="18" t="n"/>
-      <c r="B982" s="18" t="n"/>
-      <c r="C982" s="18" t="n"/>
-      <c r="D982" s="18" t="n"/>
+      <c r="A982" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B982" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C982" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D982" s="18" t="inlineStr">
+        <is>
+          <t>Azure Traffic Manager を使用して要求を調整する</t>
+        </is>
+      </c>
       <c r="E982" s="18" t="n"/>
-      <c r="F982" s="18" t="n"/>
+      <c r="F982" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H982" s="18" t="n"/>
-      <c r="I982" s="13" t="n"/>
+      <c r="I982" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J982" s="13" t="n"/>
       <c r="K982" s="19" t="n"/>
-      <c r="L982" s="19" t="n"/>
+      <c r="L982" s="19" t="inlineStr">
+        <is>
+          <t>85ee93c9-f53c-4803-be51-e6e4aa37ff4e</t>
+        </is>
+      </c>
       <c r="M982" s="20" t="n"/>
       <c r="N982" s="20" t="n"/>
       <c r="O982" s="20" t="n"/>
@@ -50573,17 +51875,50 @@
       <c r="Q982" s="20" t="n"/>
     </row>
     <row r="983">
-      <c r="A983" s="18" t="n"/>
-      <c r="B983" s="18" t="n"/>
-      <c r="C983" s="18" t="n"/>
-      <c r="D983" s="18" t="n"/>
+      <c r="A983" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search Review Checklist</t>
+        </is>
+      </c>
+      <c r="B983" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C983" s="18" t="inlineStr">
+        <is>
+          <t>Cognitive Search</t>
+        </is>
+      </c>
+      <c r="D983" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cognitive Search インデックスをバックアップおよび復元します。このサンプル コードを使用して、インデックス定義とスナップショットを一連の Json ファイルにバックアップします</t>
+        </is>
+      </c>
       <c r="E983" s="18" t="n"/>
-      <c r="F983" s="18" t="n"/>
+      <c r="F983" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H983" s="18" t="n"/>
-      <c r="I983" s="13" t="n"/>
+      <c r="I983" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J983" s="13" t="n"/>
       <c r="K983" s="19" t="n"/>
-      <c r="L983" s="19" t="n"/>
+      <c r="L983" s="19" t="inlineStr">
+        <is>
+          <t>7be10278-57c1-4a61-8ee3-895aebfec5aa</t>
+        </is>
+      </c>
       <c r="M983" s="20" t="n"/>
       <c r="N983" s="20" t="n"/>
       <c r="O983" s="20" t="n"/>
@@ -54731,7 +56066,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G945" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G984" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -55559,6 +56894,45 @@
     <hyperlink ref="I942" r:id="rId821"/>
     <hyperlink ref="I943" r:id="rId822"/>
     <hyperlink ref="I944" r:id="rId823"/>
+    <hyperlink ref="I945" r:id="rId824"/>
+    <hyperlink ref="I946" r:id="rId825"/>
+    <hyperlink ref="I947" r:id="rId826"/>
+    <hyperlink ref="I948" r:id="rId827"/>
+    <hyperlink ref="I949" r:id="rId828"/>
+    <hyperlink ref="I950" r:id="rId829"/>
+    <hyperlink ref="I951" r:id="rId830"/>
+    <hyperlink ref="I952" r:id="rId831"/>
+    <hyperlink ref="I953" r:id="rId832"/>
+    <hyperlink ref="I954" r:id="rId833"/>
+    <hyperlink ref="I955" r:id="rId834"/>
+    <hyperlink ref="I956" r:id="rId835"/>
+    <hyperlink ref="I957" r:id="rId836"/>
+    <hyperlink ref="I958" r:id="rId837"/>
+    <hyperlink ref="I959" r:id="rId838"/>
+    <hyperlink ref="I960" r:id="rId839"/>
+    <hyperlink ref="I961" r:id="rId840"/>
+    <hyperlink ref="I962" r:id="rId841"/>
+    <hyperlink ref="I963" r:id="rId842"/>
+    <hyperlink ref="I964" r:id="rId843"/>
+    <hyperlink ref="I965" r:id="rId844"/>
+    <hyperlink ref="I966" r:id="rId845"/>
+    <hyperlink ref="I967" r:id="rId846"/>
+    <hyperlink ref="I968" r:id="rId847"/>
+    <hyperlink ref="I969" r:id="rId848"/>
+    <hyperlink ref="I970" r:id="rId849"/>
+    <hyperlink ref="I971" r:id="rId850"/>
+    <hyperlink ref="I972" r:id="rId851"/>
+    <hyperlink ref="I973" r:id="rId852"/>
+    <hyperlink ref="I974" r:id="rId853"/>
+    <hyperlink ref="I975" r:id="rId854"/>
+    <hyperlink ref="I976" r:id="rId855"/>
+    <hyperlink ref="I977" r:id="rId856"/>
+    <hyperlink ref="I978" r:id="rId857"/>
+    <hyperlink ref="I979" r:id="rId858"/>
+    <hyperlink ref="I980" r:id="rId859"/>
+    <hyperlink ref="I981" r:id="rId860"/>
+    <hyperlink ref="I982" r:id="rId861"/>
+    <hyperlink ref="I983" r:id="rId862"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -27643,12 +27643,12 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>可能な場合は、アプリケーションでマネージド ID を使用して Azure Service Bus に対する認証を行う必要があります。そうでない場合は、ストレージ資格情報 (SAS、サービス プリンシパル資格情報) を Azure Key Vault または同等のサービスに持つことを検討してください</t>
+          <t>可能な場合は、SAS キー認証 (またはローカル認証) を無効にし、認証には Microsoft Entra ID のみを使用します</t>
         </is>
       </c>
       <c r="E500" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service アプリケーション内、または Azure リソースのサポートに対して有効なマネージド エンティティを持つ仮想マシンで実行されている Service Bus クライアント アプリは、SAS のルールとキー、またはその他のアクセス トークンを処理する必要はありません。クライアント アプリに必要なのは、Service Bus メッセージング名前空間のエンドポイント アドレスのみです。</t>
+          <t>Microsoft Entra ID は、Shared Access Signature (SAS) よりも優れたセキュリティと使いやすさを提供します。Microsoft Entra ID を使用すると、トークンをコードに格納する必要がなく、潜在的なセキュリティの脆弱性のリスクを冒す必要はありません。可能な場合は、Azure Service Bus アプリケーションで Microsoft Entra ID を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="F500" s="18" t="inlineStr">
@@ -27672,7 +27672,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K500" s="19" t="n"/>
+      <c r="K500" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L500" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -28214,7 +28214,11 @@
         </is>
       </c>
       <c r="J510" s="13" t="n"/>
-      <c r="K510" s="19" t="n"/>
+      <c r="K510" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L510" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -28269,7 +28273,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K511" s="19" t="n"/>
+      <c r="K511" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L511" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -28485,7 +28493,11 @@
         </is>
       </c>
       <c r="J515" s="13" t="n"/>
-      <c r="K515" s="19" t="n"/>
+      <c r="K515" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L515" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -33948,7 +33948,11 @@
         </is>
       </c>
       <c r="J620" s="13" t="n"/>
-      <c r="K620" s="19" t="n"/>
+      <c r="K620" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L620" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -13747,7 +13747,7 @@
       </c>
       <c r="J246" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/entra/identity/authentication/concept-mandatory-multifactor-authentication</t>
         </is>
       </c>
       <c r="K246" s="19" t="n"/>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="D251" s="18" t="inlineStr">
         <is>
-          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装します。</t>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装します。MFA は、2024 年 10 月にすべてのユーザーに対してデフォルトで有効になります。これらのアカウントを更新して、パスキー (FIDO2) を使用するか、MFA の証明書ベースの認証を構成することをお勧めします。</t>
         </is>
       </c>
       <c r="E251" s="18" t="n"/>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="J251" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access#exclude-at-least-one-account-from-conditional-access-policies</t>
         </is>
       </c>
       <c r="K251" s="19" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D22" s="18" t="inlineStr">
         <is>
-          <t>Azure Center for SAP solutions (ACSS) は、SAP を Azure 上のトップレベルのワークロードにする Azure オファリングです。ACSS は、SAP システムを Azure 上の統合ワークロードとして作成および実行し、イノベーションのためのよりシームレスな基盤を提供するエンドツーエンドのソリューションです。新規と既存の Azure ベースの SAP システムの両方の管理機能を利用できます。</t>
+          <t>Azure Center for SAP solutions (ACSS) は、SAP を Azure 上の最上位のワークロードにする Azure オファリングです。ACSS は、Azure 上の統合ワークロードとして SAP システムを作成および実行し、イノベーションのためのよりシームレスな基盤を提供するエンドツーエンドのソリューションです。新しい Azure ベースの SAP システムと既存の SAP システムの両方の管理機能を利用できます。</t>
         </is>
       </c>
       <c r="E22" s="18" t="n"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>Azure では、Linux と Windows での SAP デプロイの自動化がサポートされています。SAP Deployment Automation Framework は、SAP 環境をデプロイ、インストール、および保守できるオープンソースのオーケストレーション ツールです。</t>
+          <t>Azure では、Linux と Windows での SAP デプロイの自動化がサポートされています。SAP Deployment Automation Framework は、SAP 環境をデプロイ、インストール、保守できるオープンソースのオーケストレーションツールです。</t>
         </is>
       </c>
       <c r="E23" s="18" t="n"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D24" s="18" t="inlineStr">
         <is>
-          <t>運用データベースのポイントインタイム リカバリを、RTOを満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAPを介してデータを削除するオペレーター・エラーが含まれます</t>
+          <t>運用データベースのポイントインタイムリカバリを、RTOを満たす任意の時点と時間枠で実行します。ポイントインタイムリカバリには、通常、DBMSレイヤーまたはSAPを介してデータを削除するオペレーターのエラーが含まれます</t>
         </is>
       </c>
       <c r="E24" s="18" t="n"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>バックアップと復旧の時間をテストして、災害発生後にすべてのシステムを同時に復元するための RTO 要件を満たしていることを確認します。</t>
+          <t>バックアップ時間とリカバリ時間をテストして、災害後にすべてのシステムを同時にリストアするための RTO 要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="E25" s="18" t="n"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D26" s="18" t="inlineStr">
         <is>
-          <t>ペアのリージョン間で Standard Storage をレプリケートすることはできますが、Standard Storage を使用してデータベースや仮想ハード ディスクを格納することはできません。バックアップは、使用するペアのリージョン間でのみレプリケートできます。その他のすべてのデータについては、SQL Server Always On や SAP HANA システム レプリケーションなどのネイティブ DBMS 機能を使用してレプリケーションを実行します。SAP アプリケーション層には、Site Recovery、rsync または robocopy、およびその他のサードパーティ ソフトウェアを組み合わせて使用します。</t>
+          <t>ペアになっているリージョン間で標準ストレージをレプリケートすることはできますが、データベースや仮想ハード ディスクの保存に標準ストレージを使用することはできません。バックアップをレプリケートできるのは、使用するペアのリージョン間でのみです。他のすべてのデータについては、SQL Server Always On や SAP HANA システム レプリケーションなどのネイティブ DBMS 機能を使用してレプリケーションを実行します。SAP アプリケーション層には、Site Recovery、rsync または robocopy、およびその他のサードパーティ ソフトウェアを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="E26" s="18" t="n"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D27" s="18" t="inlineStr">
         <is>
-          <t>Azure Availability Zones を使用して高可用性を実現する場合は、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を考慮する必要があります。待機時間が長いゾーンでは、SAP アプリケーション サーバーとデータベース サーバーが常に同じゾーンで実行されていることを確認するための運用手順を実施する必要があります。</t>
+          <t>Azure Availability Zones を使用して高可用性を実現する場合は、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を考慮する必要があります。レイテンシーの高いゾーンでは、SAP アプリケーション・サーバーとデータベース・サーバーが常に同じゾーンで実行されていることを確認するための運用手順を整備する必要があります。</t>
         </is>
       </c>
       <c r="E27" s="18" t="n"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D28" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの ExpressRoute 接続を設定します。また、ExpressRoute を使用する代わりに、オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの VPN 接続を設定することも検討してください。</t>
+          <t>オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの ExpressRoute 接続を設定します。また、ExpressRoute を使用する代わりに、オンプレミスからプライマリおよびセカンダリの Azure ディザスター リカバリー リージョンへの VPN 接続を設定することを検討してください。</t>
         </is>
       </c>
       <c r="E28" s="18" t="n"/>
@@ -2076,7 +2076,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
         </is>
       </c>
-      <c r="K28" s="19" t="n"/>
+      <c r="K28" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType =~ 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L28" s="19" t="inlineStr">
         <is>
           <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
@@ -2106,7 +2110,7 @@
       </c>
       <c r="D29" s="18" t="inlineStr">
         <is>
-          <t>証明書、シークレット、キーなどのキー コンテナーの内容をリージョン間でレプリケートして、DR リージョン内のデータの暗号化を解除できるようにします。</t>
+          <t>証明書、シークレット、キーなどのキー コンテナーの内容をリージョン間でレプリケートして、DR リージョンのデータを復号化できるようにします。</t>
         </is>
       </c>
       <c r="E29" s="18" t="n"/>
@@ -2157,7 +2161,7 @@
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワークとディザスター リカバリー仮想ネットワークをピアリングします。たとえば、HANA システム レプリケーションの場合、SAP HANA DB 仮想ネットワークは、ディザスター リカバリー サイトの SAP HANA DB 仮想ネットワークにピアリングする必要があります。</t>
+          <t>プライマリ仮想ネットワークとディザスター リカバリー仮想ネットワークをピアリングします。たとえば、HANA システム レプリケーションの場合、SAP HANA DB 仮想ネットワークをディザスター リカバリー サイトの SAP HANA DB 仮想ネットワークにピアリングする必要があります。</t>
         </is>
       </c>
       <c r="E30" s="18" t="n"/>
@@ -2208,7 +2212,7 @@
       </c>
       <c r="D31" s="18" t="inlineStr">
         <is>
-          <t>SAP デプロイに Azure NetApp Files ストレージを使用する場合は、少なくとも、Premium レベルの 2 つのリージョンに 2 つの Azure NetApp Files アカウントを作成します。</t>
+          <t>SAP デプロイに Azure NetApp Files ストレージを使用する場合は、少なくとも Premium レベルの 2 つのリージョンに 2 つの Azure NetApp Files アカウントを作成します。</t>
         </is>
       </c>
       <c r="E31" s="18" t="n"/>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="D32" s="18" t="inlineStr">
         <is>
-          <t>ネイティブのデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
+          <t>ネイティブ・データベース・レプリケーション・テクノロジーを使用して、HAペアのデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="E32" s="18" t="n"/>
@@ -2318,7 +2322,7 @@
       </c>
       <c r="D33" s="18" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり重複したりしないようにする必要があります</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの VNet の CIDR と競合したり、重複したりしないようにする必要があります</t>
         </is>
       </c>
       <c r="E33" s="18" t="n"/>
@@ -2343,7 +2347,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K33" s="19" t="n"/>
+      <c r="K33" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\.|172\.(1[6-9]|2[0-9]|3[01])\.|192\.168\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L33" s="19" t="inlineStr">
         <is>
           <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
@@ -2373,7 +2381,7 @@
       </c>
       <c r="D34" s="18" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートする場合にも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、セントラル サービス クラスター VM を DR サイトにレプリケートするのにも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="E34" s="18" t="n"/>
@@ -2424,7 +2432,7 @@
       </c>
       <c r="D35" s="18" t="inlineStr">
         <is>
-          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP、ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web ディスパッチャなどの他のツールも必要です。</t>
+          <t>単一障害点に対する SAP ソフトウェアの可用性を検討します。これには、SAP NetWeaver や SAP S/4HANA アーキテクチャ、SAP ABAP や ASCS + SCS で使用される DBMS などのアプリケーション内の単一障害点が含まれます。また、SAP Web Dispatcher などの他のツールも含みます。</t>
         </is>
       </c>
       <c r="E35" s="18" t="n"/>
@@ -2479,7 +2487,7 @@
       </c>
       <c r="D36" s="18" t="inlineStr">
         <is>
-          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングがフェールオーバーをサポートします。Linux では、Linux Pacemaker や、SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
+          <t>SAP および SAP データベースの場合は、自動フェールオーバー クラスターの実装を検討してください。Windows では、Windows Server フェールオーバー クラスタリングはフェールオーバーをサポートします。Linux では、Linux Pacemaker や SIOS Protection Suite や Veritas InfoScale などのサードパーティツールがフェイルオーバーをサポートしています。</t>
         </is>
       </c>
       <c r="E36" s="18" t="n"/>
@@ -2534,7 +2542,7 @@
       </c>
       <c r="D37" s="18" t="inlineStr">
         <is>
-          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMSレイヤーの場合、一般的なアーキテクチャパターンは、プライマリおよびセカンダリVMが使用するストレージスタックとは異なるストレージスタックを使用して、データベースを同時にレプリケートすることです。</t>
+          <t>Azure では、プライマリ VM とセカンダリ VM が DBMS データのストレージを共有するアーキテクチャはサポートされていません。DBMS レイヤーの一般的なアーキテクチャ パターンは、プライマリ VM とセカンダリ VM が使用するものとは異なるストレージ スタックを使用して、データベースを同時にレプリケートすることです。</t>
         </is>
       </c>
       <c r="E37" s="18" t="n"/>
@@ -2589,7 +2597,7 @@
       </c>
       <c r="D38" s="18" t="inlineStr">
         <is>
-          <t>DBMS データとトランザクション/REDO ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてはサポートされていません。</t>
+          <t>DBMS データとトランザクション/再実行ログ ファイルは、Azure でサポートされているブロック ストレージまたは Azure NetApp Files に格納されます。Azure Files または Azure Premium Files は、SAP ワークロードでの DBMS データや再実行ログ ファイルのストレージとしてサポートされていません。</t>
         </is>
       </c>
       <c r="E38" s="18" t="n"/>
@@ -2644,7 +2652,7 @@
       </c>
       <c r="D39" s="18" t="inlineStr">
         <is>
-          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション層コンポーネントと DBMS 層に対して個別に設定します。現在、Azure では、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
+          <t>Windows の Azure 共有ディスクは、ASCS + SCS コンポーネントと特定の高可用性シナリオに使用できます。フェールオーバー クラスターは、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤー用に別々に設定します。Azure では現在、SAP アプリケーション レイヤー コンポーネントと DBMS レイヤーを 1 つのフェールオーバー クラスターに結合する高可用性アーキテクチャはサポートされていません。</t>
         </is>
       </c>
       <c r="E39" s="18" t="n"/>
@@ -2699,7 +2707,7 @@
       </c>
       <c r="D40" s="18" t="inlineStr">
         <is>
-          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターでは、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
+          <t>SAP アプリケーション レイヤー コンポーネント (ASCS) と DBMS レイヤーのほとんどのフェールオーバー クラスターには、フェールオーバー クラスターの仮想 IP アドレスが必要です。 Azure Load Balancer は、他のすべてのケースで仮想 IP アドレスを処理する必要があります。設計原則の 1 つは、クラスター構成ごとに 1 つのロード バランサーを使用することです。ロード バランサーの Standard バージョン (Standard Load Balancer SKU) を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E40" s="18" t="n"/>
@@ -2724,7 +2732,11 @@
           <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K40" s="19" t="n"/>
+      <c r="K40" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'Microsoft.Network/loadBalancers' | extend bep = properties.backendAddressPools | extend BackEndPools = array_length(bep) | where BackEndPools =~ 0 | project name, id, Param1='backendPools', Param2=toint(0), tags | union (resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Standard' | extend bep = properties.backendAddressPools | extend BackEndPools = toint(array_length(bep)) | mv-expand bip = properties.backendAddressPools | extend BackendAddresses = array_length(bip.properties.loadBalancerBackendAddresses) | where toint(BackendAddresses) &lt;= 1 | project name, id, tags, Param1='backendAddresses', Param2=toint(BackendAddresses)) | union ( resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Basic' | mv-expand properties.backendAddressPools | extend backendPoolId = properties_backendAddressPools.id | project id, name, tags, tostring(backendPoolId), Param1='BackEndPools' | join kind = leftouter ( resources | where type =~ 'Microsoft.Network/networkInterfaces' | mv-expand properties.ipConfigurations | mv-expand properties_ipConfigurations.properties.loadBalancerBackendAddressPools | extend backendPoolId = tostring(properties_ipConfigurations_properties_loadBalancerBackendAddressPools.id) | summarize poolMembers = count() by backendPoolId | project tostring(backendPoolId), poolMembers ) on backendPoolId | where toint(poolMembers) &lt;= 1 | extend BackendAddresses = poolMembers | project id, name, tags, Param1='backendAddresses', Param2=toint(BackendAddresses))</t>
+        </is>
+      </c>
       <c r="L40" s="19" t="inlineStr">
         <is>
           <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
@@ -2754,7 +2766,7 @@
       </c>
       <c r="D41" s="18" t="inlineStr">
         <is>
-          <t>ロードバランサーでフローティング IP が有効になっていることを確認します</t>
+          <t>フローティング IP がロードバランサーで有効になっていることを確認します</t>
         </is>
       </c>
       <c r="E41" s="18" t="n"/>
@@ -2915,7 +2927,7 @@
       </c>
       <c r="D44" s="18" t="inlineStr">
         <is>
-          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。セントラル サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>同じ可用性セットに異なる役割のサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持します</t>
         </is>
       </c>
       <c r="E44" s="18" t="n"/>
@@ -2970,7 +2982,7 @@
       </c>
       <c r="D45" s="18" t="inlineStr">
         <is>
-          <t>近接通信配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
+          <t>近接配置グループを使用しない限り、Azure 可用性ゾーン内に Azure 可用性セットをデプロイすることはできません。</t>
         </is>
       </c>
       <c r="E45" s="18" t="n"/>
@@ -3025,7 +3037,7 @@
       </c>
       <c r="D46" s="18" t="inlineStr">
         <is>
-          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワークの停止、または停電の影響を制限するために、最大数の障害ドメイン (3 つ) と十分な更新ドメインを使用します。障害ドメインの既定の数は 2 であり、後でオンラインで変更することはできません。</t>
+          <t>可用性セットを作成するときは、使用可能な障害ドメインと更新ドメインの最大数を使用します。たとえば、1 つの可用性セットに 2 つ以上の VM をデプロイする場合は、Azure の計画メンテナンスに加えて、潜在的な物理ハードウェア障害、ネットワーク停止、または電源中断の影響を制限するために、最大数の障害ドメイン (3) と十分な更新ドメインを使用します。障害ドメインのデフォルトの数は 2 で、後でオンラインで変更することはできません。</t>
         </is>
       </c>
       <c r="E46" s="18" t="n"/>
@@ -3080,7 +3092,7 @@
       </c>
       <c r="D47" s="18" t="inlineStr">
         <is>
-          <t>可用性セットのデプロイで Azure 近接通信配置グループを使用する場合は、3 つの SAP コンポーネント (セントラル サービス、アプリケーション サーバー、データベース) をすべて同じ近接通信配置グループに含める必要があります。</t>
+          <t>可用性セットのデプロイで Azure 近接配置グループを使用する場合、3 つの SAP コンポーネント (中央サービス、アプリケーション サーバー、データベース) すべてが同じ近接配置グループに存在する必要があります。</t>
         </is>
       </c>
       <c r="E47" s="18" t="n"/>
@@ -3131,7 +3143,7 @@
       </c>
       <c r="D48" s="18" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは、Availability Zones や Azure リージョンにまたがっていません</t>
+          <t>SAP SID ごとに 1 つの近接配置グループを使用します。グループは Availability Zones または Azure リージョンにまたがっていません</t>
         </is>
       </c>
       <c r="E48" s="18" t="n"/>
@@ -3182,7 +3194,7 @@
       </c>
       <c r="D49" s="18" t="inlineStr">
         <is>
-          <t>オペレーティング システムに応じて、次のいずれかのサービスを使用して SAP セントラル サービス クラスターを実行します。</t>
+          <t>次のいずれかのサービスを使用して、オペレーティング システムに応じて SAP セントラル サービス クラスターを実行します。</t>
         </is>
       </c>
       <c r="E49" s="18" t="n"/>
@@ -3237,7 +3249,7 @@
       </c>
       <c r="D50" s="18" t="inlineStr">
         <is>
-          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と DB HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数のセントラル サービス クラスターを 1 つの VM のペアに結合できます。</t>
+          <t>現在、Azure では、同じ Linux Pacemaker クラスターでの ASCS と DB HA の組み合わせはサポートされていません。それらを個々のクラスターに分割します。ただし、最大 5 つの複数の中央サービス クラスターを 1 つの VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="E50" s="18" t="n"/>
@@ -3292,7 +3304,7 @@
       </c>
       <c r="D51" s="18" t="inlineStr">
         <is>
-          <t>両方の VM を高可用性ペアの可用性セットまたは可用性ゾーンにデプロイします。これらの VM は、同じサイズで、同じストレージ構成を持つ必要があります。</t>
+          <t>両方の VM を高可用性ペア、可用性セット、または可用性ゾーンにデプロイします。これらの VM は、同じサイズで、同じストレージ構成である必要があります。</t>
         </is>
       </c>
       <c r="E51" s="18" t="n"/>
@@ -3313,7 +3325,11 @@
         </is>
       </c>
       <c r="J51" s="13" t="n"/>
-      <c r="K51" s="19" t="n"/>
+      <c r="K51" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Storage/storageAccounts' | where sku.name in~ ('Standard_LRS', 'Premium_LRS') | project name, id, tags, param1 = strcat('sku: ', sku.name)</t>
+        </is>
+      </c>
       <c r="L51" s="19" t="inlineStr">
         <is>
           <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
@@ -3343,7 +3359,7 @@
       </c>
       <c r="D52" s="18" t="inlineStr">
         <is>
-          <t>Azure では、Red Hat Enterprise Linux (RHEL) で実行されている同じ高可用性クラスターへの SAP HANA インスタンスと ASCS/SCS インスタンスと ERS インスタンスのインストールと構成がサポートされています。</t>
+          <t>Azure では、Red Hat Enterprise Linux (RHEL) で実行されている同じ高可用性クラスター上での SAP HANA インスタンスと ASCS/SCS インスタンスと ERS インスタンスのインストールと構成がサポートされています。</t>
         </is>
       </c>
       <c r="E52" s="18" t="n"/>
@@ -3398,7 +3414,7 @@
       </c>
       <c r="D53" s="18" t="inlineStr">
         <is>
-          <t>Premium マネージド SSD ですべての運用システムを実行し、Azure NetApp Files または Ultra Disk Storage を使用します。少なくとも、OS ディスクは Premium レベルにすることで、パフォーマンスの向上と最高の SLA を実現できます。</t>
+          <t>すべての運用システムを Premium マネージド SSD で実行し、Azure NetApp Files または Ultra Disk Storage を使用します。少なくとも、OS ディスクは Premium レベルにある必要があるため、パフォーマンスの向上と最高の SLA を実現できます。</t>
         </is>
       </c>
       <c r="E53" s="18" t="n"/>
@@ -3453,7 +3469,7 @@
       </c>
       <c r="D54" s="18" t="inlineStr">
         <is>
-          <t>SAP HANA on Azure は、SAP によって認定された種類のストレージでのみ実行する必要があります。該当する場合は、特定のボリュームを特定のディスク構成で実行する必要があることに注意してください。これらの構成には、書き込みアクセラレータの有効化と Premium Storage の使用が含まれます。また、ストレージ上で稼働するファイル システムが、マシン上で稼働する DBMS と互換性があることを確認する必要もあります。</t>
+          <t>Azure で SAP HANA を実行するのは、SAP によって認定されたストレージの種類のみにしてください。特定のボリュームは、該当する場合、特定のディスク構成で実行する必要があることに注意してください。これらの構成には、書き込みアクセラレータの有効化と Premium ストレージの使用が含まれます。また、ストレージ上で実行されるファイルシステムが、マシン上で実行される DBMS と互換性があることを確認する必要があります。</t>
         </is>
       </c>
       <c r="E54" s="18" t="n"/>
@@ -3508,7 +3524,7 @@
       </c>
       <c r="D55" s="18" t="inlineStr">
         <is>
-          <t>SAP ワークロードに使用するストレージの種類に応じて、高可用性を構成することを検討してください。Azure で使用できる一部のストレージ サービスは Azure Site Recovery でサポートされていないため、高可用性の構成が異なる場合があります。</t>
+          <t>SAP ワークロードに使用するストレージのタイプに応じて、高可用性を構成することを検討してください。Azure で使用できる一部のストレージ サービスは Azure Site Recovery でサポートされていないため、高可用性の構成が異なる場合があります。</t>
         </is>
       </c>
       <c r="E55" s="18" t="n"/>
@@ -3563,7 +3579,7 @@
       </c>
       <c r="D56" s="18" t="inlineStr">
         <is>
-          <t>さまざまなネイティブ Azure ストレージ サービス (Azure Files、Azure NetApp Files、Azure Shared Disk など) は、リージョンによっては利用できない場合があります。そのため、フェールオーバー後に DR リージョンで同様の SAP 設定を行うには、それぞれのストレージ サービスが DR サイトで提供されていることを確認します。</t>
+          <t>さまざまなネイティブ Azure ストレージ サービス (Azure Files、Azure NetApp Files、Azure Shared Disk など) は、すべてのリージョンで使用できるとは限りません。そのため、フェールオーバー後に DR リージョンで同様の SAP を設定するには、それぞれのストレージ サービスが DR サイトで提供されていることを確認します。</t>
         </is>
       </c>
       <c r="E56" s="18" t="n"/>
@@ -3614,7 +3630,7 @@
       </c>
       <c r="D57" s="18" t="inlineStr">
         <is>
-          <t>SAP システムのスタート/ストップを自動化してコストを管理します。</t>
+          <t>SAPシステムのStart-Stopを自動化してコストを管理します。</t>
         </is>
       </c>
       <c r="E57" s="18" t="n"/>
@@ -3665,7 +3681,7 @@
       </c>
       <c r="D58" s="18" t="inlineStr">
         <is>
-          <t>SAP HANA で Azure Premium Storage を使用する場合は、Azure Standard SSD ストレージを使用して、コスト意識の高いストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure Storage を選択すると、個々の VM の SLA に影響することに注意してください。また、非運用環境など、I/O スループットが低く待機時間が短いシステムでは、下位のシリーズ VM を使用できます。</t>
+          <t>Azure Premium Storage を SAP HANA と共に使用する場合、Azure Standard SSD ストレージを使用して、コストを意識したストレージ ソリューションを選択できます。ただし、Standard SSD または Standard HDD Azure ストレージを選択すると、個々の VM の SLA に影響することに注意してください。また、非本番環境など、I/O スループットが低く、レイテンシが低いシステムでは、下位シリーズの VM を使用できます。</t>
         </is>
       </c>
       <c r="E58" s="18" t="n"/>
@@ -3716,7 +3732,7 @@
       </c>
       <c r="D59" s="18" t="inlineStr">
         <is>
-          <t>低コストの代替構成 (多目的) として、非運用環境の HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM の種類は、HANA 認定 (SAP HANA Hardware Directory) されていないか、ストレージ待機時間を 1 ミリ秒未満にできないことに注意することが重要です。</t>
+          <t>低コストの代替構成 (多目的) として、非運用 HANA データベース サーバー VM に低パフォーマンスの SKU を選択できます。ただし、E シリーズなどの一部の VM タイプは、HANA 認定 (SAP HANA ハードウェア ディレクトリ) されていないか、1 ミリ秒未満のストレージ待機時間を実現できないことに注意してください。</t>
         </is>
       </c>
       <c r="E59" s="18" t="n"/>
@@ -3767,7 +3783,7 @@
       </c>
       <c r="D60" s="18" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、リソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="E60" s="18" t="n"/>
@@ -3792,7 +3808,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K60" s="19" t="n"/>
+      <c r="K60" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L60" s="19" t="inlineStr">
         <is>
           <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
@@ -3822,7 +3842,7 @@
       </c>
       <c r="D61" s="18" t="inlineStr">
         <is>
-          <t>Cloud Connector を介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達を適用する</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションから SAP オンプレミス (IaaS を含む) に ID を転送するためのプリンシパル伝達の強制</t>
         </is>
       </c>
       <c r="E61" s="18" t="n"/>
@@ -3877,7 +3897,7 @@
       </c>
       <c r="D62" s="18" t="inlineStr">
         <is>
-          <t>SAML を使用して Azure AD で SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C などの SAP SaaS アプリケーションに SSO を実装します。</t>
+          <t>SAML を使用して、SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics、SAP C4C with Azure AD などの SAP SaaS アプリケーションに SSO を実装します。</t>
         </is>
       </c>
       <c r="E62" s="18" t="n"/>
@@ -4034,7 +4054,7 @@
       </c>
       <c r="D65" s="18" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO またはパートナーソリューションを使用して、SAP GUI への SSO を実装できます。</t>
+          <t>SAP NetWeaver SSO またはパートナソリューションを使用して、SAP GUI への SSO を実装することができます。</t>
         </is>
       </c>
       <c r="E65" s="18" t="n"/>
@@ -4089,7 +4109,7 @@
       </c>
       <c r="D66" s="18" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP GUIおよびWebブラウザアクセスのSSOには、構成と保守が容易なSNC / Kerberos / SPNEGO(シンプルで保護されたGSSAPIネゴシエーションメカニズム)を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP Secure Login Server を検討してください。</t>
         </is>
       </c>
       <c r="E66" s="18" t="n"/>
@@ -4140,7 +4160,7 @@
       </c>
       <c r="D67" s="18" t="inlineStr">
         <is>
-          <t>SAP GUI および Web ブラウザアクセスの SSO には、設定とメンテナンスが容易なため、SNC/Kerberos/SPNEGO (シンプルで保護された GSSAPI ネゴシエーションメカニズム) を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP セキュアログインサーバーを検討してください。</t>
+          <t>SAP GUIおよびWebブラウザアクセスのSSOには、構成と保守が容易なSNC / Kerberos / SPNEGO(シンプルで保護されたGSSAPIネゴシエーションメカニズム)を実装します。X.509 クライアント証明書を使用した SSO の場合は、SAP SSO ソリューションのコンポーネントである SAP Secure Login Server を検討してください。</t>
         </is>
       </c>
       <c r="E67" s="18" t="n"/>
@@ -4191,7 +4211,7 @@
       </c>
       <c r="D68" s="18" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
+          <t>SAP NetWeaver の OAuth を使用して SSO を実装し、サードパーティまたはカスタムアプリケーションが SAP NetWeaver OData サービスにアクセスできるようにします。</t>
         </is>
       </c>
       <c r="E68" s="18" t="n"/>
@@ -4242,7 +4262,7 @@
       </c>
       <c r="D69" s="18" t="inlineStr">
         <is>
-          <t>SAP HANAへのSSOの実装</t>
+          <t>SAP HANA への SSO の実装</t>
         </is>
       </c>
       <c r="E69" s="18" t="n"/>
@@ -4293,7 +4313,7 @@
       </c>
       <c r="D70" s="18" t="inlineStr">
         <is>
-          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーであると考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
+          <t>Azure AD は、RISE でホストされている SAP システムの ID プロバイダーと考えてください。詳細については、「サービスと Azure AD の統合」を参照してください。</t>
         </is>
       </c>
       <c r="E70" s="18" t="n"/>
@@ -4344,7 +4364,7 @@
       </c>
       <c r="D71" s="18" t="inlineStr">
         <is>
-          <t>SAP にアクセスするアプリケーションでは、プリンシパル伝搬を使用して SSO を確立することができます。</t>
+          <t>SAP にアクセスするアプリケーションの場合は、プリンシパル伝搬を使用して SSO を確立することができます。</t>
         </is>
       </c>
       <c r="E71" s="18" t="n"/>
@@ -4395,7 +4415,7 @@
       </c>
       <c r="D72" s="18" t="inlineStr">
         <is>
-          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication Services と Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
+          <t>SAP Identity Authentication Service (IAS) を必要とする SAP BTP サービスまたは SaaS ソリューションを使用している場合は、SAP Cloud Identity Authentication サービスと Azure AD の間に SSO を実装して、それらの SAP サービスにアクセスすることを検討してください。この統合により、SAP IAS はプロキシ ID プロバイダーとして機能し、認証要求を中央ユーザー ストアおよび ID プロバイダーとして Azure AD に転送できます。</t>
         </is>
       </c>
       <c r="E72" s="18" t="n"/>
@@ -4497,7 +4517,7 @@
       </c>
       <c r="D74" s="18" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors を使用している場合は、Azure AD の自動ユーザー プロビジョニングの使用を検討してください。この統合により、SAP SuccessFactors に新しい従業員を追加するときに、Azure AD でユーザー アカウントを自動的に作成できます。 必要に応じて、Microsoft 365 または Azure AD でサポートされているその他の SaaS アプリケーションでユーザー アカウントを作成できます。 SAP SuccessFactors へのメール アドレスの書き戻しを使用します。</t>
+          <t>SAP SuccessFactors を使用している場合は、Azure AD 自動ユーザー プロビジョニングの使用を検討してください。この統合により、新しい従業員を SAP SuccessFactors に追加すると、Azure AD でそのユーザー アカウントを自動的に作成できます。必要に応じて、Microsoft 365 または Azure AD でサポートされている他の SaaS アプリケーションでユーザー アカウントを作成できます。メール アドレスを SAP SuccessFactors に書き戻します。</t>
         </is>
       </c>
       <c r="E74" s="18" t="n"/>
@@ -4548,10 +4568,14 @@
       </c>
       <c r="D75" s="18" t="inlineStr">
         <is>
-          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
-        </is>
-      </c>
-      <c r="E75" s="18" t="n"/>
+          <t>既存の管理グループポリシーをSAPサブスクリプションに適用</t>
+        </is>
+      </c>
+      <c r="E75" s="18" t="inlineStr">
+        <is>
+          <t>管理グループの階層を適度にフラットに保ちます (4 つ以下)。</t>
+        </is>
+      </c>
       <c r="F75" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4573,7 +4597,11 @@
           <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
-      <c r="K75" s="19" t="n"/>
+      <c r="K75" s="19" t="inlineStr">
+        <is>
+          <t>resourcecontainers| where type =~ 'microsoft.resources/subscriptions'| extend ManagementGroup = tostring(tags),mgmtChain = properties.managementGroupAncestorsChain| extend compliant =( array_length(mgmtChain) &lt;= 4 and array_length(mgmtChain) &gt; 1)</t>
+        </is>
+      </c>
       <c r="L75" s="19" t="inlineStr">
         <is>
           <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
@@ -4603,7 +4631,7 @@
       </c>
       <c r="D76" s="18" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合し、ルーティングと管理の複雑さを回避</t>
+          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに統合して、ルーティングと管理の複雑さを回避</t>
         </is>
       </c>
       <c r="E76" s="18" t="n"/>
@@ -4628,7 +4656,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
-      <c r="K76" s="19" t="n"/>
+      <c r="K76" s="19" t="inlineStr">
+        <is>
+          <t>Resources | summarize count()</t>
+        </is>
+      </c>
       <c r="L76" s="19" t="inlineStr">
         <is>
           <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
@@ -4658,7 +4690,7 @@
       </c>
       <c r="D77" s="18" t="inlineStr">
         <is>
-          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
+          <t>サブスクリプションをスケールユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非製品、製品</t>
         </is>
       </c>
       <c r="E77" s="18" t="n"/>
@@ -4683,7 +4715,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
-      <c r="K77" s="19" t="n"/>
+      <c r="K77" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L77" s="19" t="inlineStr">
         <is>
           <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
@@ -4713,7 +4749,7 @@
       </c>
       <c r="D78" s="18" t="inlineStr">
         <is>
-          <t>サブスクリプションのプロビジョニングの一環としてクォータを確実に増やす (例: サブスクリプション内で使用可能な VM コアの合計数)</t>
+          <t>サブスクリプションのプロビジョニングの一部としてクォータの増加を確認する (例: サブスクリプション内の使用可能な VM コアの合計)</t>
         </is>
       </c>
       <c r="E78" s="18" t="n"/>
@@ -4738,7 +4774,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
-      <c r="K78" s="19" t="n"/>
+      <c r="K78" s="19" t="inlineStr">
+        <is>
+          <t>QuotaResources | where type =~ 'microsoft.compute/locations/usages' | where subscriptionId in~ ('&lt;Subscription1&gt;','&lt;Subscription2&gt;') | mv-expand json = properties.value limit 400 | extend usagevCPUs = json.currentValue, QuotaLimit = json['limit'], quotaName = tostring(json['name'].localizedValue) | extend usagePercent = toint(usagevCPUs)*100 / toint(QuotaLimit) |where quotaName =~ 'Total Regional vCPUs' or quotaName =~ 'Total Regional Low-priority vCPUs' |project subscriptionId,quotaName,usagevCPUs,QuotaLimit,usagePercent,location,['json'] | order by ['usagePercent'] desc</t>
+        </is>
+      </c>
       <c r="L78" s="19" t="inlineStr">
         <is>
           <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
@@ -4768,7 +4808,7 @@
       </c>
       <c r="D79" s="18" t="inlineStr">
         <is>
-          <t>クォータ API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
+          <t>Quota API は、Azure サービスのクォータを表示および管理するために使用できる REST API です。必要に応じて使用を検討してください。</t>
         </is>
       </c>
       <c r="E79" s="18" t="n"/>
@@ -4819,7 +4859,7 @@
       </c>
       <c r="D80" s="18" t="inlineStr">
         <is>
-          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認します。必要なサブスクリプション、VM シリーズ、CPU の数、可用性ゾーンを含むサポート リクエストを送信します。</t>
+          <t>可用性ゾーンにデプロイする場合は、クォータが承認されたら、VM のゾーン デプロイが使用可能であることを確認してください。サブスクリプション、VM シリーズ、CPU の数、必要な可用性ゾーンを含むサポート リクエストを送信します。</t>
         </is>
       </c>
       <c r="E80" s="18" t="n"/>
@@ -4870,7 +4910,7 @@
       </c>
       <c r="D81" s="18" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用できることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="E81" s="18" t="n"/>
@@ -4925,7 +4965,7 @@
       </c>
       <c r="D82" s="18" t="inlineStr">
         <is>
-          <t>コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名) に Azure リソース タグを活用します</t>
+          <t>コストの分類とリソースのグループ化に Azure リソース タグを活用します (: BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、階層 (Web 層、アプリケーション層)、アプリケーション所有者、ProjectName)</t>
         </is>
       </c>
       <c r="E82" s="18" t="n"/>
@@ -4950,7 +4990,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K82" s="19" t="n"/>
+      <c r="K82" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L82" s="19" t="inlineStr">
         <is>
           <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
@@ -4980,7 +5024,7 @@
       </c>
       <c r="D83" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup サービスを使用して HANA データベースを保護するのに役立ちます。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護します。</t>
         </is>
       </c>
       <c r="E83" s="18" t="n"/>
@@ -5035,7 +5079,7 @@
       </c>
       <c r="D84" s="18" t="inlineStr">
         <is>
-          <t>HANA、Oracle、または DB2 データベースに Azure NetApp Files をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。個々の VM ではなく、中央の VM で AzAcSnap を使用することを検討してください。</t>
+          <t>HANA 、 Oracle 、または DB2 データベースに Azure NetApp Files をデプロイする場合は、 Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。AzAcSnap は Oracle データベースもサポートしています。AzAcSnap は、個々の VM ではなく、中央の VM で使用することを検討してください。</t>
         </is>
       </c>
       <c r="E84" s="18" t="n"/>
@@ -5137,7 +5181,7 @@
       </c>
       <c r="D86" s="18" t="inlineStr">
         <is>
-          <t>異なるアプリケーション サービスを同じクラスターにグループ化しないでください。たとえば、DRBDとセントラルサービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なるセントラル サービス (マルチ SID クラスター) を管理できます。</t>
+          <t>同じクラスター内で異なるアプリケーション サービスをグループ化しないでください。たとえば、DRBDと中央サービスクラスタを同じクラスタに組み合わせないでください。ただし、同じ Pacemaker クラスターを使用して、約 5 つの異なる中央サービス (マルチ SID クラスター) を管理できます。</t>
         </is>
       </c>
       <c r="E86" s="18" t="n"/>
@@ -5192,7 +5236,7 @@
       </c>
       <c r="D87" s="18" t="inlineStr">
         <is>
-          <t>スヌーズ モデルで開発/テスト システムを実行して、Azure の実行コストを節約および最適化することを検討してください。</t>
+          <t>Azure の実行コストを節約して最適化するために、スヌーズ モデルで開発/テスト システムを実行することを検討してください。</t>
         </is>
       </c>
       <c r="E87" s="18" t="n"/>
@@ -5243,7 +5287,7 @@
       </c>
       <c r="D88" s="18" t="inlineStr">
         <is>
-          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対する認証を行うことができます。顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御を顧客の手に委ねることができます。</t>
+          <t>お客様の SAP 資産を管理することでお客様と提携する場合は、Azure Lighthouse をご検討ください。Azure Lighthouse を使用すると、マネージド サービス プロバイダーは Azure ネイティブ ID サービスを使用して、顧客の環境に対して認証を行うことができます。これにより、顧客はいつでもアクセスを取り消し、サービスプロバイダーの行動を監査できるため、制御が顧客の手に委ねられます。</t>
         </is>
       </c>
       <c r="E88" s="18" t="n"/>
@@ -5294,7 +5338,7 @@
       </c>
       <c r="D89" s="18" t="inlineStr">
         <is>
-          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討します。</t>
+          <t>Azure Update Manager を使用して、1 つまたは複数の VM で利用可能な更新プログラムの状態を確認し、定期的な修正プログラムの適用をスケジュールすることを検討してください。</t>
         </is>
       </c>
       <c r="E89" s="18" t="n"/>
@@ -5349,7 +5393,7 @@
       </c>
       <c r="D90" s="18" t="inlineStr">
         <is>
-          <t>SAP Landscape Management (LaMa) を使用して SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
+          <t>SAP Landscape Management (LaMa) を使用して、SAP Basis の運用を最適化および管理します。Azure 用の SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、更新を行います。</t>
         </is>
       </c>
       <c r="E90" s="18" t="n"/>
@@ -5404,7 +5448,7 @@
       </c>
       <c r="D91" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。Azure Monitor for SAP solutions を SAP Solution Manager で補完することを検討してください。</t>
+          <t>Azure Monitor for SAP solutions を使用して、Azure 上の SAP ワークロード (SAP HANA、高可用性 SUSE クラスター、SQL システム) を監視します。SAP Solution Manager を使用して Azure Monitor for SAP solutions を補完することを検討してください。</t>
         </is>
       </c>
       <c r="E91" s="18" t="n"/>
@@ -5459,7 +5503,7 @@
       </c>
       <c r="D92" s="18" t="inlineStr">
         <is>
-          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP では、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視および構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが確認されます。</t>
+          <t>SAP の VM 拡張機能チェックを実行します。VM Extension for SAP は、仮想マシン (VM) の割り当てられたマネージド ID を使用して、VM の監視データと構成データにアクセスします。このチェックにより、SAP アプリケーションのすべてのパフォーマンス メトリックが、基になる Azure Extension for SAP からのものであることが保証されます。</t>
         </is>
       </c>
       <c r="E92" s="18" t="n"/>
@@ -5514,7 +5558,7 @@
       </c>
       <c r="D93" s="18" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Policy を使用して、アクセス制御とコンプライアンス レポートを作成します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保する機能があります。</t>
         </is>
       </c>
       <c r="E93" s="18" t="n"/>
@@ -5624,7 +5668,7 @@
       </c>
       <c r="D95" s="18" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行し、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="E95" s="18" t="n"/>
@@ -5675,7 +5719,7 @@
       </c>
       <c r="D96" s="18" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、SAP on Azure のデプロイ用に待機時間の短いゾーンを選択します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンで待機時間テストを実行して、Azure 上の SAP のデプロイに待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="E96" s="18" t="n"/>
@@ -5730,7 +5774,7 @@
       </c>
       <c r="D97" s="18" t="inlineStr">
         <is>
-          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) 全体の構成が、Cloud Adaption Framework for Azure によって定義された構成に準拠していることを確認します。</t>
+          <t>回復性レポートを実行して、プロビジョニングされた Azure インフラストラクチャ全体 (コンピューティング、データベース、ネットワーク、ストレージ、Site Recovery) の構成が、Cloud Adaption Framework for Azure で定義された構成に準拠していることを確認します。</t>
         </is>
       </c>
       <c r="E97" s="18" t="n"/>
@@ -5785,7 +5829,7 @@
       </c>
       <c r="D98" s="18" t="inlineStr">
         <is>
-          <t>SAP 用 Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジック層とアプリケーション層全体で高度な脅威を検出します。</t>
+          <t>SAP 用の Microsoft Sentinel ソリューションを使用して脅威保護を実装します。このソリューションを使用して、SAPシステムを監視し、ビジネスロジックとアプリケーションレイヤー全体で高度な脅威を検出します。</t>
         </is>
       </c>
       <c r="E98" s="18" t="n"/>
@@ -5840,7 +5884,7 @@
       </c>
       <c r="D99" s="18" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
+          <t>Azure のタグ付けを活用すると、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="E99" s="18" t="n"/>
@@ -5865,7 +5909,11 @@
           <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
-      <c r="K99" s="19" t="n"/>
+      <c r="K99" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L99" s="19" t="inlineStr">
         <is>
           <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
@@ -5895,7 +5943,7 @@
       </c>
       <c r="D100" s="18" t="inlineStr">
         <is>
-          <t>待機時間の影響を受けやすいアプリケーションには、VM 間の待機時間の監視を使用します。</t>
+          <t>レイテンシの影響を受けやすいアプリケーションには、VM 間のレイテンシ監視を使用します。</t>
         </is>
       </c>
       <c r="E100" s="18" t="n"/>
@@ -6001,7 +6049,7 @@
       </c>
       <c r="D102" s="18" t="inlineStr">
         <is>
-          <t>すべてのデータベース・ファイル・システムおよび実行可能プログラムをウイルス対策スキャンから除外します。これらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストの規範的な詳細については、データベースベンダーに確認してください。たとえば、&lt;sid&gt;ウイルス対策スキャンから/oracle//sapdataを除外することをお薦めします。</t>
+          <t>すべてのデータベース・ファイル・システムと実行可能プログラムをアンチウィルス・スキャンから除外します。それらを含めると、パフォーマンスの問題が発生する可能性があります。除外リストに関する規定の詳細については、データベースベンダーに確認してください。たとえば、Oracle では、&lt;sid&gt;ウイルス対策スキャンから /oracle//sapdata を除外することをお薦めします。</t>
         </is>
       </c>
       <c r="E102" s="18" t="n"/>
@@ -6052,7 +6100,7 @@
       </c>
       <c r="D103" s="18" t="inlineStr">
         <is>
-          <t>移行後に、HANA以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
+          <t>移行後に、HANA 以外のデータベースの完全なデータベース統計を収集することを検討してください。たとえば、SAP ノート 1020260 - Oracle 統計の配信を実装します。</t>
         </is>
       </c>
       <c r="E103" s="18" t="n"/>
@@ -6103,7 +6151,7 @@
       </c>
       <c r="D104" s="18" t="inlineStr">
         <is>
-          <t>SAP on Azure を使用するすべての Oracle デプロイには、Oracle Automatic Storage Management (ASM) の使用を検討してください。</t>
+          <t>SAP on Azure を使用するすべての Oracle デプロイに Oracle Automatic Storage Management (ASM) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="E104" s="18" t="n"/>
@@ -6158,7 +6206,7 @@
       </c>
       <c r="D105" s="18" t="inlineStr">
         <is>
-          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションは、パフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWRレポートは、複数のセッションで実行し、ピーク時間を選択して、分析を広範囲にカバーすることをお薦めします。</t>
+          <t>Oracle を実行している SAP on Azure の場合、SQL スクリプトのコレクションはパフォーマンスの問題の診断に役立ちます。 自動ワークロード・リポジトリ(AWR)レポートには、Oracleシステムの問題を診断するための貴重な情報が含まれています。AWR レポートは、複数のセッションで実行し、ピーク時間を選択して、分析の範囲を広く設定することをお勧めします。</t>
         </is>
       </c>
       <c r="E105" s="18" t="n"/>
@@ -6323,7 +6371,7 @@
       </c>
       <c r="D108" s="18" t="inlineStr">
         <is>
-          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名によって SAP ランドスケープ内の多くのシステム インターフェイスが接続され、お客様は、開発者が時間の経過と共に定義するインターフェイスに気付くことがあります。移行後に仮想名または DNS 名が変更されると、さまざまなシステム間で接続の問題が発生するため、このような問題を防ぐために DNS エイリアスを保持することをお勧めします。</t>
+          <t>Azure への移行中に仮想マシンの DNS または仮想名が変更されない場合、バックグラウンド DNS と仮想名は SAP ランドスケープ内の多くのシステム インターフェイスに接続され、開発者は時間の経過と共に定義するインターフェイスをお客様が認識することがよくあります。移行後に仮想名やDNS名が変更されると、さまざまなシステム間で接続の問題が発生するため、この種の問題を防ぐためにDNSエイリアスを保持することをお勧めします。</t>
         </is>
       </c>
       <c r="E108" s="18" t="n"/>
@@ -6378,7 +6426,7 @@
       </c>
       <c r="D109" s="18" t="inlineStr">
         <is>
-          <t>異なる DNS ゾーンを使用して、各環境 (サンドボックス、開発、運用前、運用) を互いに区別します。例外は、独自の VNet を使用する SAP デプロイの場合です。ここでは、プライベート DNS ゾーンは必要ない場合があります。</t>
+          <t>異なるDNSゾーンを使用して、各環境(サンドボックス、開発、プリプロダクション、およびプロダクション)を相互に区別します。例外は、独自の VNet を持つ SAP デプロイです。ここでは、プライベート DNS ゾーンは必要ないかもしれません。</t>
         </is>
       </c>
       <c r="E109" s="18" t="n"/>
@@ -6433,10 +6481,14 @@
       </c>
       <c r="D110" s="18" t="inlineStr">
         <is>
-          <t>ローカルとグローバルの VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
-        </is>
-      </c>
-      <c r="E110" s="18" t="n"/>
+          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです</t>
+        </is>
+      </c>
+      <c r="E110" s="18" t="inlineStr">
+        <is>
+          <t>VNet ピアリングを構成する場合は、 [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します。</t>
+        </is>
+      </c>
       <c r="F110" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -6458,7 +6510,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
-      <c r="K110" s="19" t="n"/>
+      <c r="K110" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess =~ True)</t>
+        </is>
+      </c>
       <c r="L110" s="19" t="inlineStr">
         <is>
           <t>a3592829-e6e2-4061-9368-6af46791f893</t>
@@ -6543,7 +6599,7 @@
       </c>
       <c r="D112" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Virtual WAN は、Azure リージョンとオンプレミスの場所間でグローバルなトランジット接続が必要な新しいネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要がなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="E112" s="18" t="n"/>
@@ -6568,7 +6624,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="K112" s="19" t="n"/>
+      <c r="K112" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualwans' | extend compliant= (properties.allowBranchToBranchTraffic =~ 'true') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L112" s="19" t="inlineStr">
         <is>
           <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
@@ -6598,7 +6658,7 @@
       </c>
       <c r="D113" s="18" t="inlineStr">
         <is>
-          <t>パートナーの NVA が使用されている場合にのみ、リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイすることを検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナーのネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
+          <t>リージョン間でネットワーク仮想アプライアンス (NVA) をデプロイするのは、パートナーの NVA が使用されている場合にのみ検討してください。ネイティブ NVA が存在する場合、リージョン間または VNet 間の NVA は必要ありません。パートナー ネットワーク テクノロジと NVA をデプロイする場合は、ベンダーのガイダンスに従って、Azure ネットワークと競合する構成を確認します。</t>
         </is>
       </c>
       <c r="E113" s="18" t="n"/>
@@ -6653,7 +6713,7 @@
       </c>
       <c r="D114" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN は、仮想 WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) または NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
+          <t>Virtual WAN は、Virtual WAN ベースのトポロジのスポーク VNet 間の接続を管理し (ユーザー定義ルーティング (UDR) や NVA を設定する必要はありません)、同じ仮想ハブ内の VNet 間トラフィックの最大ネットワーク スループットは 50 ギガビット/秒です。必要に応じて、SAP ランディング ゾーンでは VNet ピアリングを使用して他のランディング ゾーンに接続し、この帯域幅の制限を克服できます。</t>
         </is>
       </c>
       <c r="E114" s="18" t="n"/>
@@ -6733,7 +6793,11 @@
           <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K115" s="19" t="n"/>
+      <c r="K115" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/publicIPAddresses' and sku.tier =~ 'Regional' | where isempty(zones) or array_length(zones) &lt;= 1 | extend az = case(isempty(zones), 'Non-zonal', array_length(zones) &lt;= 1, strcat('Zonal (', strcat_array(zones, ','), ')'), zones) | project name, id, tags, param1 = strcat('sku: ', sku.name), param2 = strcat('availabilityZone: ', az)</t>
+        </is>
+      </c>
       <c r="L115" s="19" t="inlineStr">
         <is>
           <t>82734c88-6ba2-4802-8459-11475e39e530</t>
@@ -6763,7 +6827,7 @@
       </c>
       <c r="D116" s="18" t="inlineStr">
         <is>
-          <t>ASRの設定時にDR側でIPアドレスを予約することを検討してください</t>
+          <t>ASR を設定するときは、DR 側で IP アドレスを予約することを検討してください</t>
         </is>
       </c>
       <c r="E116" s="18" t="n"/>
@@ -6788,7 +6852,11 @@
           <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
-      <c r="K116" s="19" t="n"/>
+      <c r="K116" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L116" s="19" t="inlineStr">
         <is>
           <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
@@ -6873,7 +6941,7 @@
       </c>
       <c r="D118" s="18" t="inlineStr">
         <is>
-          <t>Azure では 1 つの VNet に複数の委任されたサブネットを作成できますが、Azure NetApp Files の VNet に存在できる委任されたサブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとしても失敗します。</t>
+          <t>Azure では VNet に複数の委任サブネットを作成するのに役立ちますが、Azure NetApp Files の VNet に存在できる委任サブネットは 1 つだけです。Azure NetApp Files に複数の委任されたサブネットを使用すると、新しいボリュームを作成しようとすると失敗します。</t>
         </is>
       </c>
       <c r="E118" s="18" t="n"/>
@@ -6928,7 +6996,7 @@
       </c>
       <c r="D119" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルタリング (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="E119" s="18" t="n"/>
@@ -6953,7 +7021,11 @@
           <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K119" s="19" t="n"/>
+      <c r="K119" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=~'microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L119" s="19" t="inlineStr">
         <is>
           <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
@@ -6983,7 +7055,7 @@
       </c>
       <c r="D120" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティ サービスの比較に示すように、Application Gateway が SAP Web アプリのリバース プロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
+          <t>Application Gateway、SAP Web Dispatcher、およびその他のサードパーティサービスの比較に示すように、Application Gateway が SAP Web アプリのリバースプロキシとして機能する場合、Application Gateway と Web Application Firewall には制限があります。</t>
         </is>
       </c>
       <c r="E120" s="18" t="n"/>
@@ -7038,7 +7110,7 @@
       </c>
       <c r="D121" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバルな保護を提供します。</t>
         </is>
       </c>
       <c r="E121" s="18" t="n"/>
@@ -7093,7 +7165,7 @@
       </c>
       <c r="D122" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護する場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door と Application Gateway を使用して HTTP/S アプリケーションを保護している場合は、Azure Front Door の Web アプリケーション ファイアウォール ポリシーを利用します。Azure Front Door からのトラフィックのみを受信するように Application Gateway をロックダウンします。</t>
         </is>
       </c>
       <c r="E122" s="18" t="n"/>
@@ -7148,7 +7220,7 @@
       </c>
       <c r="D123" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションとして、ロード バランサーや、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースと共に使用することもできます。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。別のオプションは、ロード バランサーで使用するか、Application Gateway やサードパーティ ソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
         </is>
       </c>
       <c r="E123" s="18" t="n"/>
@@ -7203,7 +7275,7 @@
       </c>
       <c r="D124" s="18" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所をまたいだグローバルなトランジット接続が必要な新規ネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに Virtual WAN を使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要はなく、SAP on Azure デプロイの標準に従うことができます。</t>
+          <t>Virtual WAN は、Azure リージョンとオンプレミスの場所間でグローバルなトランジット接続が必要な新しいネットワーク、大規模ネットワーク、またはグローバル ネットワークでの Azure デプロイに使用します。このアプローチでは、Azure ネットワークの推移的なルーティングを手動で設定する必要がなく、SAP on Azure デプロイの標準に従うことができます。</t>
         </is>
       </c>
       <c r="E124" s="18" t="n"/>
@@ -7258,7 +7330,7 @@
       </c>
       <c r="D125" s="18" t="inlineStr">
         <is>
-          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットへの公開は防止されます。</t>
+          <t>データ漏えいを防ぐには、Azure Private Link を使用して、Azure Blob Storage、Azure Files、Azure Data Lake Storage Gen2、Azure Data Factory などのサービスとしてのプラットフォーム リソースに安全にアクセスします。Azure プライベート エンドポイントは、VNet と Azure Storage、Azure Backup などのサービス間のトラフィックをセキュリティで保護するのにも役立ちます。VNet とプライベート エンドポイント対応サービス間のトラフィックは、Microsoft グローバル ネットワークを経由するため、パブリック インターネットに公開されるのを防ぎます。</t>
         </is>
       </c>
       <c r="E125" s="18" t="n"/>
@@ -7338,7 +7410,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K126" s="19" t="n"/>
+      <c r="K126" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/NetworkInterfaces' | where properties.enableAcceleratedNetworking =~ 'false' | project name, subscriptionId, properties.enableAcceleratedNetworking</t>
+        </is>
+      </c>
       <c r="L126" s="19" t="inlineStr">
         <is>
           <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
@@ -7368,7 +7444,7 @@
       </c>
       <c r="D127" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) により、DBMS レイヤーの高可用性構成に内部ロード バランサー構成が使用されている場合の待機時間が短縮されます。</t>
+          <t>Azure Load Balancer の内部デプロイが Direct Server Return (DSR) を使用するように設定されていることを確認します。この設定 (フローティング IP の有効化) は、DBMS レイヤーの高可用性構成に内部ロード バランサー構成を使用する場合のレイテンシを短縮します。</t>
         </is>
       </c>
       <c r="E127" s="18" t="n"/>
@@ -7423,7 +7499,7 @@
       </c>
       <c r="D128" s="18" t="inlineStr">
         <is>
-          <t>アプリケーション セキュリティ グループ (ASG) と NSG 規則を使用して、SAP アプリケーション層と DBMS 層の間にネットワーク セキュリティのアクセス制御リストを定義できます。ASG は、仮想マシンをグループ化してセキュリティの管理に役立てます。</t>
+          <t>アプリケーション セキュリティ グループ (ASG) ルールと NSG ルールを使用して、SAP アプリケーションと DBMS レイヤー間のネットワーク セキュリティ アクセス制御リストを定義できます。ASG は、セキュリティの管理に役立つ仮想マシンをグループ化します。</t>
         </is>
       </c>
       <c r="E128" s="18" t="n"/>
@@ -7448,7 +7524,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
-      <c r="K128" s="19" t="n"/>
+      <c r="K128" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.network/networksecuritygroups' and isnull(properties.networkInterfaces) and isnull(properties.subnets) | project name, resourceGroup | sort by name asc</t>
+        </is>
+      </c>
       <c r="L128" s="19" t="inlineStr">
         <is>
           <t>6791f893-5ada-4433-84e1-3811523181aa</t>
@@ -7478,7 +7558,7 @@
       </c>
       <c r="D129" s="18" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません。</t>
+          <t>ピアリングされていない異なる Azure VNet に SAP アプリケーション レイヤーと SAP DBMS を配置することはサポートされていません。</t>
         </is>
       </c>
       <c r="E129" s="18" t="n"/>
@@ -7533,7 +7613,7 @@
       </c>
       <c r="D130" s="18" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>SAP アプリケーションでのネットワーク待機時間を最適化するには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="E130" s="18" t="n"/>
@@ -7588,7 +7668,7 @@
       </c>
       <c r="D131" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーを実行することは、まったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
+          <t>オンプレミスと Azure の間で分割された SAP アプリケーション サーバー レイヤーと DBMS レイヤーの実行はまったくサポートされていません。どちらのレイヤーも、オンプレミスまたは Azure に完全に存在する必要があります。</t>
         </is>
       </c>
       <c r="E131" s="18" t="n"/>
@@ -7643,7 +7723,7 @@
       </c>
       <c r="D132" s="18" t="inlineStr">
         <is>
-          <t>SAP システムのデータベース管理システム (DBMS) レイヤーとアプリケーション レイヤーを異なる VNet でホストし、それらを VNet ピアリングに接続することは、レイヤー間の過剰なネットワーク トラフィックによって生成される可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
+          <t>データベース管理システム (DBMS) と SAP システムのアプリケーション層を異なる VNet でホストし、それらを VNet ピアリングで接続することは、層間の過剰なネットワーク トラフィックによって大きなコストが発生する可能性があるため、お勧めしません。Azure 仮想ネットワーク内のサブネットを使用して、SAP アプリケーション レイヤーと DBMS レイヤーを分離することをお勧めします。</t>
         </is>
       </c>
       <c r="E132" s="18" t="n"/>
@@ -7753,7 +7833,7 @@
       </c>
       <c r="D134" s="18" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 VNet の両方がネットワーク セキュリティ グループ (NSG) で保護され、vnet ピアリングを介した SAP ポートとデータベース ポートでの通信が可能になります</t>
+          <t>SAP RISE/ECS デプロイの場合、仮想ピアリングは、お客様の既存の Azure 環境との接続を確立するための推奨される方法です。SAP vnet と顧客 vnet はどちらもネットワーク セキュリティ グループ (NSG) で保護されているため、vnet ピアリングを介して SAP ポートとデータベース ポートで通信できます</t>
         </is>
       </c>
       <c r="E134" s="18" t="n"/>
@@ -7855,7 +7935,7 @@
       </c>
       <c r="D136" s="18" t="inlineStr">
         <is>
-          <t>Site Recovery の組み込み監視 (SAP で使用されている場合) を確認します。</t>
+          <t>Site Recovery の組み込み監視 (SAP に使用されている場所) を確認します。</t>
         </is>
       </c>
       <c r="E136" s="18" t="n"/>
@@ -7906,7 +7986,7 @@
       </c>
       <c r="D137" s="18" t="inlineStr">
         <is>
-          <t>SAP HANA システム ランドスケープの監視に関するガイダンスを確認します。</t>
+          <t>SAP HANA システムランドスケープの監視のガイダンスを確認します。</t>
         </is>
       </c>
       <c r="E137" s="18" t="n"/>
@@ -8263,7 +8343,7 @@
       </c>
       <c r="D144" s="18" t="inlineStr">
         <is>
-          <t>SAP ABAPMeter report /SSA/CAT を使用して、SAP アプリケーション サーバーからデータベース サーバー間の待機時間を確認します。</t>
+          <t>SAP ABAPMeter レポート /SSA/CAT を使用して、SAP アプリケーション サーバーとデータベース サーバー間の待機時間を確認します。</t>
         </is>
       </c>
       <c r="E144" s="18" t="n"/>
@@ -8318,7 +8398,7 @@
       </c>
       <c r="D145" s="18" t="inlineStr">
         <is>
-          <t>CCMS を使用した SQL Server のパフォーマンス監視を確認します。</t>
+          <t>CCMS を使用した SQL Server パフォーマンス監視を確認します。</t>
         </is>
       </c>
       <c r="E145" s="18" t="n"/>
@@ -8365,7 +8445,7 @@
       </c>
       <c r="D146" s="18" t="inlineStr">
         <is>
-          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク待機時間をテストします (NIPING)。</t>
+          <t>SAP アプリケーション レイヤー VM と DBMS VM 間のネットワーク遅延をテストします (NIPING)。</t>
         </is>
       </c>
       <c r="E146" s="18" t="n"/>
@@ -8420,7 +8500,7 @@
       </c>
       <c r="D147" s="18" t="inlineStr">
         <is>
-          <t>SAP HANA Studio アラートを確認します。</t>
+          <t>SAP HANA Studio のアラートを確認します。</t>
         </is>
       </c>
       <c r="E147" s="18" t="n"/>
@@ -8471,7 +8551,7 @@
       </c>
       <c r="D148" s="18" t="inlineStr">
         <is>
-          <t>HANA_Configuration_Minichecks を使用して SAP HANA ヘルスチェックを実行します。</t>
+          <t>HANA_Configuration_Minichecksを使用して SAP HANA ヘルスチェックを実行します。</t>
         </is>
       </c>
       <c r="E148" s="18" t="n"/>
@@ -8577,7 +8657,7 @@
       </c>
       <c r="D150" s="18" t="inlineStr">
         <is>
-          <t>SAP は、SAP システムを保護するために即時のアクションを必要とする非常に重要なセキュリティ パッチまたはホット フィックスをリリースしているため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
+          <t>SAP は、SAP システムを保護するために即時のアクションが必要な非常に重要なセキュリティパッチ (ホットフィックス) をリリースするため、SAP セキュリティ OSS ノートを定期的に確認してください。</t>
         </is>
       </c>
       <c r="E150" s="18" t="n"/>
@@ -8632,7 +8712,7 @@
       </c>
       <c r="D151" s="18" t="inlineStr">
         <is>
-          <t>SQL Server 上の SAP システムではアカウントを使用しないため、SQL Server 上の SAP システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
+          <t>SQL Server 上の SAP システムではアカウントが使用されないため、SQL Server on SQL Server システム管理者アカウントを無効にすることができます。元のシステム管理者アカウントを無効にする前に、システム管理者権限を持つ別のユーザーがサーバーにアクセスできることを確認してください。</t>
         </is>
       </c>
       <c r="E151" s="18" t="n"/>
@@ -8683,7 +8763,7 @@
       </c>
       <c r="D152" s="18" t="inlineStr">
         <is>
-          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshell、SQL Server 内部オペレーティング システムのコマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
+          <t>xp_cmdshellを無効にします。SQL Server 機能xp_cmdshellは、SQL Server 内部オペレーティング システム コマンド シェルを有効にします。これは、セキュリティ監査における潜在的なリスクです。</t>
         </is>
       </c>
       <c r="E152" s="18" t="n"/>
@@ -8738,7 +8818,7 @@
       </c>
       <c r="D153" s="18" t="inlineStr">
         <is>
-          <t>Azure 上の SAP HANA データベース サーバーの暗号化では、SAP HANA ネイティブ暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
+          <t>Azure 上の SAP HANA データベース サーバーの暗号化には、SAP HANA ネイティブの暗号化テクノロジが使用されます。さらに、Azure で SQL Server を使用している場合は、Transparent Data Encryption (TDE) を使用してデータとログ ファイルを保護し、バックアップも暗号化されるようにします。</t>
         </is>
       </c>
       <c r="E153" s="18" t="n"/>
@@ -8793,7 +8873,7 @@
       </c>
       <c r="D154" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は、すべての Azure Resource Manager とクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage 暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
+          <t>Azure Storage の暗号化は、すべての Azure Resource Manager アカウントとクラシック ストレージ アカウントに対して有効になっており、無効にすることはできません。データは既定で暗号化されるため、Azure Storage の暗号化を使用するためにコードやアプリケーションを変更する必要はありません。</t>
         </is>
       </c>
       <c r="E154" s="18" t="n"/>
@@ -8873,7 +8953,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K155" s="19" t="n"/>
+      <c r="K155" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L155" s="19" t="inlineStr">
         <is>
           <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
@@ -8903,7 +8987,7 @@
       </c>
       <c r="D156" s="18" t="inlineStr">
         <is>
-          <t>デプロイが成功したら、Azure リソースを LOCK して、承認されていない変更から保護することをお勧めします。また、カスタマイズされた Azure ポリシー (Custome ロール) を使用して、サブスクリプションごとに LOCK の制約とルールを適用することもできます。</t>
+          <t>デプロイが成功したら、承認されていない変更から保護するために、Azure リソースをロックすることをお勧めします。また、カスタマイズされた Azure ポリシー (カスタム ロール) を使用して、サブスクリプションごとに LOCK 制約とルールを適用することもできます。</t>
         </is>
       </c>
       <c r="E156" s="18" t="n"/>
@@ -9013,7 +9097,7 @@
       </c>
       <c r="D158" s="18" t="inlineStr">
         <is>
-          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
+          <t>既存の要件、規制、コンプライアンス制御 (内部/外部) に基づいて - 必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="E158" s="18" t="n"/>
@@ -9068,7 +9152,7 @@
       </c>
       <c r="D159" s="18" t="inlineStr">
         <is>
-          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーを対象とするのではなく、DBMS サーバー上のデータとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
+          <t>SAP 環境でMicrosoft Defender for Endpointを有効にする場合は、すべてのサーバーをターゲットにするのではなく、DBMS サーバー上のデータ ファイルとログ ファイルを除外することをお勧めします。ターゲット ファイルを除外する場合は、DBMS ベンダーの推奨事項に従ってください。</t>
         </is>
       </c>
       <c r="E159" s="18" t="n"/>
@@ -9178,7 +9262,7 @@
       </c>
       <c r="D161" s="18" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、HTTPS の SPNEGO の Secure Network Communications (SNC) と統合することで、転送中のデータを暗号化します。</t>
         </is>
       </c>
       <c r="E161" s="18" t="n"/>
@@ -9233,7 +9317,7 @@
       </c>
       <c r="D162" s="18" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プリンシパル暗号化機能には Microsoft マネージド キーが既定で設定され、必要に応じてカスタマー マネージド キーが使用されます。</t>
         </is>
       </c>
       <c r="E162" s="18" t="n"/>
@@ -9313,7 +9397,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K163" s="19" t="n"/>
+      <c r="K163" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L163" s="19" t="inlineStr">
         <is>
           <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
@@ -9343,7 +9431,7 @@
       </c>
       <c r="D164" s="18" t="inlineStr">
         <is>
-          <t>HANA 以外の Windows オペレーティング システムと Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの代替方法を使用する必要があります。</t>
+          <t>HANA 以外の Windows および Windows 以外のオペレーティング システムのディスク暗号化キーとシークレットを制御および管理するには、Azure Key Vault を使用します。SAP HANA は Azure Key Vault ではサポートされていないため、SAP ABAP キーや SSH キーなどの別の方法を使用する必要があります。</t>
         </is>
       </c>
       <c r="E164" s="18" t="n"/>
@@ -9398,7 +9486,7 @@
       </c>
       <c r="D165" s="18" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、ネットワーク関連の偶発的な変更を回避する</t>
         </is>
       </c>
       <c r="E165" s="18" t="n"/>
@@ -9453,7 +9541,7 @@
       </c>
       <c r="D166" s="18" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
+          <t>DMZ と NVA を他の SAP 資産から分離し、Azure Private Link を構成し、SAP on Azure リソースを安全に管理および制御します</t>
         </is>
       </c>
       <c r="E166" s="18" t="n"/>
@@ -9563,7 +9651,7 @@
       </c>
       <c r="D168" s="18" t="inlineStr">
         <is>
-          <t>さらに強力な保護を行うには、Microsoft Defender for Endpointの使用を検討してください。</t>
+          <t>さらに強力な保護を行うには、Microsoft Defender for Endpoint の使用を検討してください。</t>
         </is>
       </c>
       <c r="E168" s="18" t="n"/>
@@ -9618,7 +9706,7 @@
       </c>
       <c r="D169" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを渡すことで、SAP アプリケーションとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
+          <t>仮想ネットワーク ピアリングによってスポーク ネットワークに接続されているハブ仮想ネットワークを介してすべてのトラフィックを通過させることにより、SAP アプリケーション サーバーとデータベース サーバーをインターネットまたはオンプレミス ネットワークから分離します。ピアリングされた仮想ネットワークにより、SAP on Azure ソリューションがパブリック インターネットから分離されることが保証されます。</t>
         </is>
       </c>
       <c r="E169" s="18" t="n"/>
@@ -9673,7 +9761,7 @@
       </c>
       <c r="D170" s="18" t="inlineStr">
         <is>
-          <t>SAP Fiori などのインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティについては、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
+          <t>SAP Fiori のようなインターネットに接続するアプリケーションの場合は、セキュリティレベルを維持しながら、アプリケーション要件ごとに負荷を分散してください。レイヤー 7 セキュリティのために、Azure Marketplace で入手できるサードパーティの Web アプリケーション ファイアウォール (WAF) を使用できます。</t>
         </is>
       </c>
       <c r="E170" s="18" t="n"/>
@@ -9728,7 +9816,7 @@
       </c>
       <c r="D171" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のいずれかを使用することを選択できます。ルート証明書を使用することを強くお勧めします。</t>
+          <t>Azure Monitor for SAP solutions でセキュリティで保護された通信を有効にするには、ルート証明書またはサーバー証明書のどちらを使用するかを選択できます。ルート証明書を使用することを強くお勧めします。</t>
         </is>
       </c>
       <c r="E171" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -17922,7 +17922,11 @@
         </is>
       </c>
       <c r="J322" s="13" t="n"/>
-      <c r="K322" s="19" t="n"/>
+      <c r="K322" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L322" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -18024,7 +18028,11 @@
         </is>
       </c>
       <c r="J324" s="13" t="n"/>
-      <c r="K324" s="19" t="n"/>
+      <c r="K324" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L324" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -18585,7 +18593,11 @@
         </is>
       </c>
       <c r="J335" s="13" t="n"/>
-      <c r="K335" s="19" t="n"/>
+      <c r="K335" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways'| extend compliant = (properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443') |where properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443'|distinct id,name,compliant</t>
+        </is>
+      </c>
       <c r="L335" s="19" t="inlineStr">
         <is>
           <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>

--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -8565,7 +8565,7 @@
       </c>
       <c r="C153" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D153" s="18" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="C154" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D154" s="18" t="inlineStr">
